--- a/Operaciones_pasajeros_A.xlsx
+++ b/Operaciones_pasajeros_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23985DB0-DE48-4A39-92B4-4AB2667DC8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAA4E53-1AE4-43FE-9251-3F6B0D8B4096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="33">
   <si>
     <t>Internacional</t>
   </si>
@@ -53,13 +53,7 @@
     <t>Operaciones AIFA</t>
   </si>
   <si>
-    <t>Operaciones resgistradas y pasajeros atendidos</t>
-  </si>
-  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Nota: A partir de enero de 2024 la informacion se obtiene de la AFAC.</t>
   </si>
   <si>
     <t xml:space="preserve">            El concepto de Operaciones del AIFA, Inició operaciones el 21 de marzo de 2022.</t>
@@ -99,6 +93,48 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Nota: A partir de enero de 2024 la información se obtiene de la AFAC.</t>
+  </si>
+  <si>
+    <t>Operaciones registradas y pasajeros atendidos</t>
   </si>
 </sst>
 </file>
@@ -381,15 +417,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,6 +440,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -503,6 +539,12 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -510,12 +552,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -571,7 +607,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:L85" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:L85" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="B5:L85" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
@@ -850,7 +886,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2"/>
       <c r="J2" s="2"/>
@@ -863,31 +899,31 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="26" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="26" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="36"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>1</v>
@@ -896,30 +932,30 @@
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="L5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>2024</v>
       </c>
-      <c r="C6" s="30">
-        <v>8</v>
+      <c r="C6" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="17">
         <f>SUM(E6:F6)</f>
@@ -953,11 +989,11 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="31">
+      <c r="B7" s="28">
         <v>2024</v>
       </c>
-      <c r="C7" s="32">
-        <v>7</v>
+      <c r="C7" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" ref="D7:D8" si="2">SUM(E7:F7)</f>
@@ -991,11 +1027,11 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>2024</v>
       </c>
-      <c r="C8" s="30">
-        <v>6</v>
+      <c r="C8" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="2"/>
@@ -1029,11 +1065,11 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="31">
+      <c r="B9" s="28">
         <v>2024</v>
       </c>
-      <c r="C9" s="32">
-        <v>5</v>
+      <c r="C9" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="16">
         <f>SUM(E9:F9)</f>
@@ -1067,11 +1103,11 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="29">
+      <c r="B10" s="26">
         <v>2024</v>
       </c>
-      <c r="C10" s="30">
-        <v>4</v>
+      <c r="C10" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" ref="D10:D40" si="5">SUM(E10:F10)</f>
@@ -1105,11 +1141,11 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="31">
+      <c r="B11" s="28">
         <v>2024</v>
       </c>
-      <c r="C11" s="32">
-        <v>3</v>
+      <c r="C11" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" si="5"/>
@@ -1143,11 +1179,11 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>2024</v>
       </c>
-      <c r="C12" s="30">
-        <v>2</v>
+      <c r="C12" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="5"/>
@@ -1181,11 +1217,11 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="33">
+      <c r="B13" s="30">
         <v>2024</v>
       </c>
-      <c r="C13" s="34">
-        <v>1</v>
+      <c r="C13" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="5"/>
@@ -1219,11 +1255,11 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="35">
+      <c r="B14" s="32">
         <v>2023</v>
       </c>
-      <c r="C14" s="36">
-        <v>12</v>
+      <c r="C14" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D14" s="21">
         <f t="shared" si="5"/>
@@ -1257,11 +1293,11 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>2023</v>
       </c>
-      <c r="C15" s="32">
-        <v>11</v>
+      <c r="C15" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" si="5"/>
@@ -1295,11 +1331,11 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>2023</v>
       </c>
-      <c r="C16" s="30">
-        <v>10</v>
+      <c r="C16" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="5"/>
@@ -1333,11 +1369,11 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="31">
+      <c r="B17" s="28">
         <v>2023</v>
       </c>
-      <c r="C17" s="32">
-        <v>9</v>
+      <c r="C17" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="16">
         <f t="shared" si="5"/>
@@ -1371,11 +1407,11 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="29">
+      <c r="B18" s="26">
         <v>2023</v>
       </c>
-      <c r="C18" s="30">
-        <v>8</v>
+      <c r="C18" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="17">
         <f t="shared" si="5"/>
@@ -1409,11 +1445,11 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="31">
+      <c r="B19" s="28">
         <v>2023</v>
       </c>
-      <c r="C19" s="32">
-        <v>7</v>
+      <c r="C19" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="16">
         <f t="shared" si="5"/>
@@ -1447,11 +1483,11 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="29">
+      <c r="B20" s="26">
         <v>2023</v>
       </c>
-      <c r="C20" s="30">
-        <v>6</v>
+      <c r="C20" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="17">
         <f t="shared" si="5"/>
@@ -1485,11 +1521,11 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="31">
+      <c r="B21" s="28">
         <v>2023</v>
       </c>
-      <c r="C21" s="32">
-        <v>5</v>
+      <c r="C21" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" si="5"/>
@@ -1523,11 +1559,11 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="29">
+      <c r="B22" s="26">
         <v>2023</v>
       </c>
-      <c r="C22" s="30">
-        <v>4</v>
+      <c r="C22" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D22" s="17">
         <f t="shared" si="5"/>
@@ -1561,11 +1597,11 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="31">
+      <c r="B23" s="28">
         <v>2023</v>
       </c>
-      <c r="C23" s="32">
-        <v>3</v>
+      <c r="C23" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" si="5"/>
@@ -1599,11 +1635,11 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="29">
+      <c r="B24" s="26">
         <v>2023</v>
       </c>
-      <c r="C24" s="30">
-        <v>2</v>
+      <c r="C24" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="D24" s="17">
         <f t="shared" si="5"/>
@@ -1637,11 +1673,11 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="33">
+      <c r="B25" s="30">
         <v>2023</v>
       </c>
-      <c r="C25" s="34">
-        <v>1</v>
+      <c r="C25" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="D25" s="18">
         <f t="shared" si="5"/>
@@ -1675,11 +1711,11 @@
       </c>
     </row>
     <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="35">
+      <c r="B26" s="32">
         <v>2022</v>
       </c>
-      <c r="C26" s="36">
-        <v>12</v>
+      <c r="C26" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D26" s="21">
         <f t="shared" si="5"/>
@@ -1713,11 +1749,11 @@
       </c>
     </row>
     <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="31">
+      <c r="B27" s="28">
         <v>2022</v>
       </c>
-      <c r="C27" s="32">
-        <v>11</v>
+      <c r="C27" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" si="5"/>
@@ -1751,11 +1787,11 @@
       </c>
     </row>
     <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="29">
+      <c r="B28" s="26">
         <v>2022</v>
       </c>
-      <c r="C28" s="30">
-        <v>10</v>
+      <c r="C28" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="D28" s="17">
         <f t="shared" si="5"/>
@@ -1789,11 +1825,11 @@
       </c>
     </row>
     <row r="29" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="31">
+      <c r="B29" s="28">
         <v>2022</v>
       </c>
-      <c r="C29" s="32">
-        <v>9</v>
+      <c r="C29" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="D29" s="16">
         <f t="shared" si="5"/>
@@ -1827,11 +1863,11 @@
       </c>
     </row>
     <row r="30" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="29">
+      <c r="B30" s="26">
         <v>2022</v>
       </c>
-      <c r="C30" s="30">
-        <v>8</v>
+      <c r="C30" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D30" s="17">
         <f t="shared" si="5"/>
@@ -1865,11 +1901,11 @@
       </c>
     </row>
     <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="31">
+      <c r="B31" s="28">
         <v>2022</v>
       </c>
-      <c r="C31" s="32">
-        <v>7</v>
+      <c r="C31" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D31" s="16">
         <f t="shared" si="5"/>
@@ -1903,11 +1939,11 @@
       </c>
     </row>
     <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="29">
+      <c r="B32" s="26">
         <v>2022</v>
       </c>
-      <c r="C32" s="30">
-        <v>6</v>
+      <c r="C32" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="D32" s="17">
         <f t="shared" si="5"/>
@@ -1941,11 +1977,11 @@
       </c>
     </row>
     <row r="33" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="31">
+      <c r="B33" s="28">
         <v>2022</v>
       </c>
-      <c r="C33" s="32">
-        <v>5</v>
+      <c r="C33" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="D33" s="16">
         <f t="shared" si="5"/>
@@ -1979,11 +2015,11 @@
       </c>
     </row>
     <row r="34" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="29">
+      <c r="B34" s="26">
         <v>2022</v>
       </c>
-      <c r="C34" s="30">
-        <v>4</v>
+      <c r="C34" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D34" s="17">
         <f t="shared" si="5"/>
@@ -2017,11 +2053,11 @@
       </c>
     </row>
     <row r="35" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="31">
+      <c r="B35" s="28">
         <v>2022</v>
       </c>
-      <c r="C35" s="32">
-        <v>3</v>
+      <c r="C35" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D35" s="16">
         <f t="shared" si="5"/>
@@ -2055,11 +2091,11 @@
       </c>
     </row>
     <row r="36" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="29">
+      <c r="B36" s="26">
         <v>2022</v>
       </c>
-      <c r="C36" s="30">
-        <v>2</v>
+      <c r="C36" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="5"/>
@@ -2093,11 +2129,11 @@
       </c>
     </row>
     <row r="37" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="33">
+      <c r="B37" s="30">
         <v>2022</v>
       </c>
-      <c r="C37" s="34">
-        <v>1</v>
+      <c r="C37" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="5"/>
@@ -2131,11 +2167,11 @@
       </c>
     </row>
     <row r="38" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="35">
+      <c r="B38" s="32">
         <v>2021</v>
       </c>
-      <c r="C38" s="36">
-        <v>12</v>
+      <c r="C38" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D38" s="21">
         <f t="shared" si="5"/>
@@ -2169,11 +2205,11 @@
       </c>
     </row>
     <row r="39" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="31">
+      <c r="B39" s="28">
         <v>2021</v>
       </c>
-      <c r="C39" s="32">
-        <v>11</v>
+      <c r="C39" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" si="5"/>
@@ -2207,11 +2243,11 @@
       </c>
     </row>
     <row r="40" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="29">
+      <c r="B40" s="26">
         <v>2021</v>
       </c>
-      <c r="C40" s="30">
-        <v>10</v>
+      <c r="C40" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="D40" s="17">
         <f t="shared" si="5"/>
@@ -2245,11 +2281,11 @@
       </c>
     </row>
     <row r="41" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="31">
+      <c r="B41" s="28">
         <v>2021</v>
       </c>
-      <c r="C41" s="32">
-        <v>9</v>
+      <c r="C41" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="D41" s="16">
         <f t="shared" ref="D41:D72" si="6">SUM(E41:F41)</f>
@@ -2283,11 +2319,11 @@
       </c>
     </row>
     <row r="42" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="29">
+      <c r="B42" s="26">
         <v>2021</v>
       </c>
-      <c r="C42" s="30">
-        <v>8</v>
+      <c r="C42" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D42" s="17">
         <f t="shared" si="6"/>
@@ -2321,11 +2357,11 @@
       </c>
     </row>
     <row r="43" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="31">
+      <c r="B43" s="28">
         <v>2021</v>
       </c>
-      <c r="C43" s="32">
-        <v>7</v>
+      <c r="C43" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D43" s="16">
         <f t="shared" si="6"/>
@@ -2359,11 +2395,11 @@
       </c>
     </row>
     <row r="44" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="29">
+      <c r="B44" s="26">
         <v>2021</v>
       </c>
-      <c r="C44" s="30">
-        <v>6</v>
+      <c r="C44" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="D44" s="17">
         <f t="shared" si="6"/>
@@ -2397,11 +2433,11 @@
       </c>
     </row>
     <row r="45" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="31">
+      <c r="B45" s="28">
         <v>2021</v>
       </c>
-      <c r="C45" s="32">
-        <v>5</v>
+      <c r="C45" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="D45" s="16">
         <f t="shared" si="6"/>
@@ -2435,11 +2471,11 @@
       </c>
     </row>
     <row r="46" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="29">
+      <c r="B46" s="26">
         <v>2021</v>
       </c>
-      <c r="C46" s="30">
-        <v>4</v>
+      <c r="C46" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D46" s="17">
         <f t="shared" si="6"/>
@@ -2473,11 +2509,11 @@
       </c>
     </row>
     <row r="47" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="31">
+      <c r="B47" s="28">
         <v>2021</v>
       </c>
-      <c r="C47" s="32">
-        <v>3</v>
+      <c r="C47" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D47" s="16">
         <f t="shared" si="6"/>
@@ -2511,11 +2547,11 @@
       </c>
     </row>
     <row r="48" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="29">
+      <c r="B48" s="26">
         <v>2021</v>
       </c>
-      <c r="C48" s="30">
-        <v>2</v>
+      <c r="C48" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="D48" s="17">
         <f t="shared" si="6"/>
@@ -2549,11 +2585,11 @@
       </c>
     </row>
     <row r="49" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="33">
+      <c r="B49" s="30">
         <v>2021</v>
       </c>
-      <c r="C49" s="34">
-        <v>1</v>
+      <c r="C49" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="D49" s="18">
         <f t="shared" si="6"/>
@@ -2587,11 +2623,11 @@
       </c>
     </row>
     <row r="50" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="35">
+      <c r="B50" s="32">
         <v>2020</v>
       </c>
-      <c r="C50" s="36">
-        <v>12</v>
+      <c r="C50" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D50" s="21">
         <f t="shared" si="6"/>
@@ -2625,11 +2661,11 @@
       </c>
     </row>
     <row r="51" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="31">
+      <c r="B51" s="28">
         <v>2020</v>
       </c>
-      <c r="C51" s="32">
-        <v>11</v>
+      <c r="C51" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D51" s="16">
         <f t="shared" si="6"/>
@@ -2663,11 +2699,11 @@
       </c>
     </row>
     <row r="52" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="29">
+      <c r="B52" s="26">
         <v>2020</v>
       </c>
-      <c r="C52" s="30">
-        <v>10</v>
+      <c r="C52" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="D52" s="17">
         <f t="shared" si="6"/>
@@ -2701,11 +2737,11 @@
       </c>
     </row>
     <row r="53" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="31">
+      <c r="B53" s="28">
         <v>2020</v>
       </c>
-      <c r="C53" s="32">
-        <v>9</v>
+      <c r="C53" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="D53" s="16">
         <f t="shared" si="6"/>
@@ -2739,11 +2775,11 @@
       </c>
     </row>
     <row r="54" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="29">
+      <c r="B54" s="26">
         <v>2020</v>
       </c>
-      <c r="C54" s="30">
-        <v>8</v>
+      <c r="C54" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D54" s="17">
         <f t="shared" si="6"/>
@@ -2777,11 +2813,11 @@
       </c>
     </row>
     <row r="55" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="31">
+      <c r="B55" s="28">
         <v>2020</v>
       </c>
-      <c r="C55" s="32">
-        <v>7</v>
+      <c r="C55" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D55" s="16">
         <f t="shared" si="6"/>
@@ -2815,11 +2851,11 @@
       </c>
     </row>
     <row r="56" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="29">
+      <c r="B56" s="26">
         <v>2020</v>
       </c>
-      <c r="C56" s="30">
-        <v>6</v>
+      <c r="C56" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="D56" s="17">
         <f t="shared" si="6"/>
@@ -2853,11 +2889,11 @@
       </c>
     </row>
     <row r="57" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="31">
+      <c r="B57" s="28">
         <v>2020</v>
       </c>
-      <c r="C57" s="32">
-        <v>5</v>
+      <c r="C57" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="D57" s="16">
         <f t="shared" si="6"/>
@@ -2891,11 +2927,11 @@
       </c>
     </row>
     <row r="58" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="29">
+      <c r="B58" s="26">
         <v>2020</v>
       </c>
-      <c r="C58" s="30">
-        <v>4</v>
+      <c r="C58" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D58" s="17">
         <f t="shared" si="6"/>
@@ -2929,11 +2965,11 @@
       </c>
     </row>
     <row r="59" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="31">
+      <c r="B59" s="28">
         <v>2020</v>
       </c>
-      <c r="C59" s="32">
-        <v>3</v>
+      <c r="C59" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D59" s="16">
         <f t="shared" si="6"/>
@@ -2967,11 +3003,11 @@
       </c>
     </row>
     <row r="60" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="29">
+      <c r="B60" s="26">
         <v>2020</v>
       </c>
-      <c r="C60" s="30">
-        <v>2</v>
+      <c r="C60" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="D60" s="17">
         <f t="shared" si="6"/>
@@ -3005,11 +3041,11 @@
       </c>
     </row>
     <row r="61" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="33">
+      <c r="B61" s="30">
         <v>2020</v>
       </c>
-      <c r="C61" s="34">
-        <v>1</v>
+      <c r="C61" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="D61" s="18">
         <f t="shared" si="6"/>
@@ -3043,11 +3079,11 @@
       </c>
     </row>
     <row r="62" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="35">
+      <c r="B62" s="32">
         <v>2019</v>
       </c>
-      <c r="C62" s="36">
-        <v>12</v>
+      <c r="C62" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="D62" s="21">
         <f t="shared" si="6"/>
@@ -3081,11 +3117,11 @@
       </c>
     </row>
     <row r="63" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="31">
+      <c r="B63" s="28">
         <v>2019</v>
       </c>
-      <c r="C63" s="32">
-        <v>11</v>
+      <c r="C63" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D63" s="16">
         <f t="shared" si="6"/>
@@ -3119,11 +3155,11 @@
       </c>
     </row>
     <row r="64" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="29">
+      <c r="B64" s="26">
         <v>2019</v>
       </c>
-      <c r="C64" s="30">
-        <v>10</v>
+      <c r="C64" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="D64" s="17">
         <f t="shared" si="6"/>
@@ -3157,11 +3193,11 @@
       </c>
     </row>
     <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="31">
+      <c r="B65" s="28">
         <v>2019</v>
       </c>
-      <c r="C65" s="32">
-        <v>9</v>
+      <c r="C65" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="D65" s="16">
         <f t="shared" si="6"/>
@@ -3195,11 +3231,11 @@
       </c>
     </row>
     <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="29">
+      <c r="B66" s="26">
         <v>2019</v>
       </c>
-      <c r="C66" s="30">
-        <v>8</v>
+      <c r="C66" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D66" s="17">
         <f t="shared" si="6"/>
@@ -3233,11 +3269,11 @@
       </c>
     </row>
     <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="31">
+      <c r="B67" s="28">
         <v>2019</v>
       </c>
-      <c r="C67" s="32">
-        <v>7</v>
+      <c r="C67" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D67" s="16">
         <f t="shared" si="6"/>
@@ -3271,11 +3307,11 @@
       </c>
     </row>
     <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="29">
+      <c r="B68" s="26">
         <v>2019</v>
       </c>
-      <c r="C68" s="30">
-        <v>6</v>
+      <c r="C68" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="D68" s="17">
         <f t="shared" si="6"/>
@@ -3309,11 +3345,11 @@
       </c>
     </row>
     <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="31">
+      <c r="B69" s="28">
         <v>2019</v>
       </c>
-      <c r="C69" s="32">
-        <v>5</v>
+      <c r="C69" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="D69" s="16">
         <f t="shared" si="6"/>
@@ -3347,11 +3383,11 @@
       </c>
     </row>
     <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="29">
+      <c r="B70" s="26">
         <v>2019</v>
       </c>
-      <c r="C70" s="30">
-        <v>4</v>
+      <c r="C70" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D70" s="17">
         <f t="shared" si="6"/>
@@ -3385,11 +3421,11 @@
       </c>
     </row>
     <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="31">
+      <c r="B71" s="28">
         <v>2019</v>
       </c>
-      <c r="C71" s="32">
-        <v>3</v>
+      <c r="C71" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D71" s="16">
         <f t="shared" si="6"/>
@@ -3423,11 +3459,11 @@
       </c>
     </row>
     <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="29">
+      <c r="B72" s="26">
         <v>2019</v>
       </c>
-      <c r="C72" s="30">
-        <v>2</v>
+      <c r="C72" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="D72" s="17">
         <f t="shared" si="6"/>
@@ -3461,11 +3497,11 @@
       </c>
     </row>
     <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="33">
+      <c r="B73" s="30">
         <v>2019</v>
       </c>
-      <c r="C73" s="34">
-        <v>1</v>
+      <c r="C73" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="D73" s="18">
         <f t="shared" ref="D73:D85" si="9">SUM(E73:F73)</f>
@@ -3499,11 +3535,11 @@
       </c>
     </row>
     <row r="74" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="30">
+      <c r="B74" s="27">
         <v>2018</v>
       </c>
-      <c r="C74" s="30">
-        <v>12</v>
+      <c r="C74" s="27" t="s">
+        <v>27</v>
       </c>
       <c r="D74" s="17">
         <f t="shared" si="9"/>
@@ -3537,11 +3573,11 @@
       </c>
     </row>
     <row r="75" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="32">
+      <c r="B75" s="29">
         <v>2018</v>
       </c>
-      <c r="C75" s="32">
-        <v>11</v>
+      <c r="C75" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D75" s="16">
         <f t="shared" si="9"/>
@@ -3575,11 +3611,11 @@
       </c>
     </row>
     <row r="76" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="30">
+      <c r="B76" s="27">
         <v>2018</v>
       </c>
-      <c r="C76" s="30">
-        <v>10</v>
+      <c r="C76" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="D76" s="17">
         <f t="shared" si="9"/>
@@ -3613,11 +3649,11 @@
       </c>
     </row>
     <row r="77" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="32">
+      <c r="B77" s="29">
         <v>2018</v>
       </c>
-      <c r="C77" s="32">
-        <v>9</v>
+      <c r="C77" s="29" t="s">
+        <v>30</v>
       </c>
       <c r="D77" s="16">
         <f t="shared" si="9"/>
@@ -3651,11 +3687,11 @@
       </c>
     </row>
     <row r="78" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="30">
+      <c r="B78" s="27">
         <v>2018</v>
       </c>
-      <c r="C78" s="30">
-        <v>8</v>
+      <c r="C78" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D78" s="17">
         <f t="shared" si="9"/>
@@ -3689,11 +3725,11 @@
       </c>
     </row>
     <row r="79" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="32">
+      <c r="B79" s="29">
         <v>2018</v>
       </c>
-      <c r="C79" s="32">
-        <v>7</v>
+      <c r="C79" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D79" s="16">
         <f t="shared" si="9"/>
@@ -3727,11 +3763,11 @@
       </c>
     </row>
     <row r="80" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="30">
+      <c r="B80" s="27">
         <v>2018</v>
       </c>
-      <c r="C80" s="30">
-        <v>6</v>
+      <c r="C80" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="D80" s="17">
         <f t="shared" si="9"/>
@@ -3765,11 +3801,11 @@
       </c>
     </row>
     <row r="81" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="32">
+      <c r="B81" s="29">
         <v>2018</v>
       </c>
-      <c r="C81" s="32">
-        <v>5</v>
+      <c r="C81" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="D81" s="16">
         <f t="shared" si="9"/>
@@ -3803,11 +3839,11 @@
       </c>
     </row>
     <row r="82" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="30">
+      <c r="B82" s="27">
         <v>2018</v>
       </c>
-      <c r="C82" s="30">
-        <v>4</v>
+      <c r="C82" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="D82" s="17">
         <f t="shared" si="9"/>
@@ -3841,11 +3877,11 @@
       </c>
     </row>
     <row r="83" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="32">
+      <c r="B83" s="29">
         <v>2018</v>
       </c>
-      <c r="C83" s="32">
-        <v>3</v>
+      <c r="C83" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="D83" s="16">
         <f t="shared" si="9"/>
@@ -3879,11 +3915,11 @@
       </c>
     </row>
     <row r="84" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="30">
+      <c r="B84" s="27">
         <v>2018</v>
       </c>
-      <c r="C84" s="30">
-        <v>2</v>
+      <c r="C84" s="27" t="s">
+        <v>25</v>
       </c>
       <c r="D84" s="17">
         <f t="shared" si="9"/>
@@ -3917,11 +3953,11 @@
       </c>
     </row>
     <row r="85" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="32">
+      <c r="B85" s="29">
         <v>2018</v>
       </c>
-      <c r="C85" s="32">
-        <v>1</v>
+      <c r="C85" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="D85" s="16">
         <f t="shared" si="9"/>
@@ -3956,37 +3992,37 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K86" s="7"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="3"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K88" s="7"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K89" s="7"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Operaciones_pasajeros_A.xlsx
+++ b/Operaciones_pasajeros_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE450472-AABE-40DF-8AB0-C4AC72F93FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039DAC48-D232-409D-9E3E-46ECE5DE38C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
   <si>
     <t>Internacional</t>
   </si>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">Operaciones </t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -394,15 +394,6 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -466,62 +457,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -760,6 +710,56 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -774,8 +774,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O88" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="16" tableBorderDxfId="17">
-  <autoFilter ref="B5:O88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O89" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -783,28 +783,28 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{1E74EEF2-6454-4BE6-8A44-E61C21280CA8}" name="Mes" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{78463EA3-0D71-4ABE-89EE-16AF321CC862}" name="Año" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{1E74EEF2-6454-4BE6-8A44-E61C21280CA8}" name="Mes" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{75133F10-065C-4353-8B55-C31D1D0103B6}" name="Total" dataDxfId="11">
       <calculatedColumnFormula>SUM(E6:F6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{210FFFB0-23EB-49A9-BA1C-DA847C656BEC}" name="Total " dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{FE755FF0-A480-4121-B668-2A3DBFF73A92}" name="Nacional" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{B830A0F3-28BB-4045-9263-29D56DB3A4CE}" name="Internacional" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{210FFFB0-23EB-49A9-BA1C-DA847C656BEC}" name="Total " dataDxfId="8">
       <calculatedColumnFormula>SUM(H6:I6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Nacional " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{85523939-5683-4EFD-AA92-A5678D807045}" name="Internacional " dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{F189F378-F46C-4D38-AF1A-84CA893EA7A7}" name="Total  " dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{921AEF46-65F7-4B2E-9910-D1C0A146F016}" name="Nacional " dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{85523939-5683-4EFD-AA92-A5678D807045}" name="Internacional " dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{F189F378-F46C-4D38-AF1A-84CA893EA7A7}" name="Total  " dataDxfId="5">
       <calculatedColumnFormula>SUM(K6:L6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{01BDC588-D3F9-4CA3-B38D-CC494238FFE8}" name="Nacional   " dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{1926C1E2-989A-4F48-94A9-6C79667821AE}" name="Internacional   " dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{BCE42E24-8530-4284-B20B-DB42A103D48E}" name=" Total" dataDxfId="4">
+    <tableColumn id="13" xr3:uid="{01BDC588-D3F9-4CA3-B38D-CC494238FFE8}" name="Nacional   " dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{1926C1E2-989A-4F48-94A9-6C79667821AE}" name="Internacional   " dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BCE42E24-8530-4284-B20B-DB42A103D48E}" name=" Total" dataDxfId="2">
       <calculatedColumnFormula>SUM(N6:O6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0680BCA2-BF30-4617-80D8-74DE92A39A09}" name=" Nacional" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{9C43A8F5-43CF-49A2-8E0D-9D3C85A814E1}" name=" Internacional" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{0680BCA2-BF30-4617-80D8-74DE92A39A09}" name=" Nacional" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{9C43A8F5-43CF-49A2-8E0D-9D3C85A814E1}" name=" Internacional" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,7 +1033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O94"/>
+  <dimension ref="B2:O95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1074,4087 +1074,4135 @@
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="6" t="s">
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="O5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="13">
+      <c r="B6" s="16">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="18">
+        <f>SUM(E6:F6)</f>
+        <v>167527</v>
+      </c>
+      <c r="E6" s="19">
+        <v>117298</v>
+      </c>
+      <c r="F6" s="19">
+        <v>50229</v>
+      </c>
+      <c r="G6" s="18">
+        <f>SUM(H6:I6)</f>
+        <v>5918</v>
+      </c>
+      <c r="H6" s="19">
+        <v>5595</v>
+      </c>
+      <c r="I6" s="19">
+        <v>323</v>
+      </c>
+      <c r="J6" s="18">
+        <f>SUM(K6:L6)</f>
+        <v>25085</v>
+      </c>
+      <c r="K6" s="19">
+        <v>15393</v>
+      </c>
+      <c r="L6" s="19">
+        <v>9692</v>
+      </c>
+      <c r="M6" s="20">
+        <f>SUM(N6:O6)</f>
+        <v>17224.042999999998</v>
+      </c>
+      <c r="N6" s="19">
+        <v>11183.159</v>
+      </c>
+      <c r="O6" s="21">
+        <v>6040.884</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15">
-        <f>SUM(E6:F6)</f>
-        <v>164301</v>
-      </c>
-      <c r="E6" s="16">
-        <v>119957</v>
-      </c>
-      <c r="F6" s="16">
-        <v>44344</v>
-      </c>
-      <c r="G6" s="15">
-        <f>SUM(H6:I6)</f>
-        <v>6220</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="D7" s="12">
+        <f>SUM(E7:F7)</f>
+        <v>164065</v>
+      </c>
+      <c r="E7" s="13">
+        <v>119436</v>
+      </c>
+      <c r="F7" s="13">
+        <v>44629</v>
+      </c>
+      <c r="G7" s="12">
+        <f>SUM(H7:I7)</f>
         <v>5900</v>
       </c>
-      <c r="I6" s="16">
+      <c r="H7" s="13">
+        <v>5580</v>
+      </c>
+      <c r="I7" s="13">
         <v>320</v>
       </c>
-      <c r="J6" s="15">
-        <f>SUM(K6:L6)</f>
-        <v>24088</v>
-      </c>
-      <c r="K6" s="16">
-        <v>15124</v>
-      </c>
-      <c r="L6" s="16">
-        <v>8964</v>
-      </c>
-      <c r="M6" s="17">
-        <f>SUM(N6:O6)</f>
-        <v>15817.34</v>
-      </c>
-      <c r="N6" s="16">
-        <v>10695.861999999999</v>
-      </c>
-      <c r="O6" s="18">
-        <v>5121.4780000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="19">
+      <c r="J7" s="12">
+        <f>SUM(K7:L7)</f>
+        <v>24195</v>
+      </c>
+      <c r="K7" s="13">
+        <v>15199</v>
+      </c>
+      <c r="L7" s="13">
+        <v>8996</v>
+      </c>
+      <c r="M7" s="14">
+        <f>SUM(N7:O7)</f>
+        <v>15816.669000000002</v>
+      </c>
+      <c r="N7" s="13">
+        <v>10696.485000000001</v>
+      </c>
+      <c r="O7" s="15">
+        <v>5120.1840000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="16">
         <v>2024</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="21">
-        <f t="shared" ref="D7" si="0">SUM(E7:F7)</f>
-        <v>154732</v>
-      </c>
-      <c r="E7" s="22">
-        <v>117018</v>
-      </c>
-      <c r="F7" s="22">
-        <v>37714</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" ref="G7" si="1">SUM(H7:I7)</f>
+      <c r="D8" s="18">
+        <f t="shared" ref="D8" si="0">SUM(E8:F8)</f>
+        <v>154230</v>
+      </c>
+      <c r="E8" s="19">
+        <v>116413</v>
+      </c>
+      <c r="F8" s="19">
+        <v>37817</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" ref="G8" si="1">SUM(H8:I8)</f>
         <v>5902</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H8" s="19">
         <v>5574</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I8" s="19">
         <v>328</v>
       </c>
-      <c r="J7" s="21">
-        <f t="shared" ref="J7" si="2">SUM(K7:L7)</f>
+      <c r="J8" s="18">
+        <f t="shared" ref="J8" si="2">SUM(K8:L8)</f>
         <v>24943</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K8" s="19">
         <v>16106</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L8" s="19">
         <v>8837</v>
       </c>
-      <c r="M7" s="23">
-        <f t="shared" ref="M7" si="3">SUM(N7:O7)</f>
-        <v>14932.938</v>
-      </c>
-      <c r="N7" s="22">
-        <v>10563.456</v>
-      </c>
-      <c r="O7" s="24">
-        <v>4369.482</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
+      <c r="M8" s="20">
+        <f t="shared" ref="M8" si="3">SUM(N8:O8)</f>
+        <v>14932.208999999999</v>
+      </c>
+      <c r="N8" s="19">
+        <v>10562.91</v>
+      </c>
+      <c r="O8" s="21">
+        <v>4369.299</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="12">
+        <f>SUM(E9:F9)</f>
         <v>141210</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E9" s="13">
         <v>108351</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F9" s="13">
         <v>32859</v>
       </c>
-      <c r="G8" s="15">
-        <f>SUM(H8:I8)</f>
+      <c r="G9" s="12">
+        <f>SUM(H9:I9)</f>
         <v>5605</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H9" s="13">
         <v>5292</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="13">
         <v>313</v>
       </c>
-      <c r="J8" s="15">
-        <f>SUM(K8:L8)</f>
+      <c r="J9" s="12">
+        <f>SUM(K9:L9)</f>
         <v>24172</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K9" s="13">
         <v>12094</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L9" s="13">
         <v>12078</v>
       </c>
-      <c r="M8" s="17">
-        <f>SUM(N8:O8)</f>
+      <c r="M9" s="14">
+        <f>SUM(N9:O9)</f>
         <v>13837.021999999999</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N9" s="13">
         <v>10036.638999999999</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O9" s="15">
         <v>3800.3829999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="19">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="16">
         <v>2024</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="21">
-        <f>SUM(E9:F9)</f>
+      <c r="D10" s="18">
+        <f>SUM(E10:F10)</f>
         <v>157044</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E10" s="19">
         <v>118761</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F10" s="19">
         <v>38283</v>
       </c>
-      <c r="G9" s="21">
-        <f t="shared" ref="G9:G43" si="4">SUM(H9:I9)</f>
+      <c r="G10" s="18">
+        <f t="shared" ref="G10:G44" si="4">SUM(H10:I10)</f>
         <v>5894</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H10" s="19">
         <v>5553</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I10" s="19">
         <v>341</v>
       </c>
-      <c r="J9" s="21">
-        <f t="shared" ref="J9:J39" si="5">SUM(K9:L9)</f>
+      <c r="J10" s="18">
+        <f t="shared" ref="J10:J40" si="5">SUM(K10:L10)</f>
         <v>26410</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K10" s="19">
         <v>17075</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L10" s="19">
         <v>9335</v>
       </c>
-      <c r="M9" s="23">
-        <f t="shared" ref="M9:M43" si="6">SUM(N9:O9)</f>
+      <c r="M10" s="20">
+        <f t="shared" ref="M10:M44" si="6">SUM(N10:O10)</f>
         <v>16048.866999999998</v>
       </c>
-      <c r="N9" s="22">
+      <c r="N10" s="19">
         <v>11325.605</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O10" s="21">
         <v>4723.2619999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="13">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15">
-        <f t="shared" ref="D10:D11" si="7">SUM(E10:F10)</f>
+      <c r="D11" s="12">
+        <f t="shared" ref="D11:D12" si="7">SUM(E11:F11)</f>
         <v>157419</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E11" s="13">
         <v>117177</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F11" s="13">
         <v>40242</v>
       </c>
-      <c r="G10" s="15">
-        <f t="shared" ref="G10:G12" si="8">SUM(H10:I10)</f>
+      <c r="G11" s="12">
+        <f t="shared" ref="G11:G13" si="8">SUM(H11:I11)</f>
         <v>5817</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H11" s="13">
         <v>5496</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I11" s="13">
         <v>321</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J11" s="12">
         <f t="shared" si="5"/>
         <v>26445</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K11" s="13">
         <v>16888</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L11" s="13">
         <v>9557</v>
       </c>
-      <c r="M10" s="17">
-        <f t="shared" ref="M10:M12" si="9">SUM(N10:O10)</f>
+      <c r="M11" s="14">
+        <f t="shared" ref="M11:M13" si="9">SUM(N11:O11)</f>
         <v>16878.663</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N11" s="13">
         <v>11522.672</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O11" s="15">
         <v>5355.991</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="19">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="16">
         <v>2024</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D12" s="18">
         <f t="shared" si="7"/>
         <v>148346</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E12" s="19">
         <v>109282</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F12" s="19">
         <v>39064</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G12" s="18">
         <f t="shared" si="8"/>
         <v>5644</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H12" s="19">
         <v>5335</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I12" s="19">
         <v>309</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J12" s="18">
         <f t="shared" si="5"/>
         <v>25325</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K12" s="19">
         <v>16635</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L12" s="19">
         <v>8690</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M12" s="20">
         <f t="shared" si="9"/>
         <v>15314.61</v>
       </c>
-      <c r="N11" s="22">
+      <c r="N12" s="19">
         <v>10370.779</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O12" s="21">
         <v>4943.8310000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="13">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="15">
-        <f>SUM(E12:F12)</f>
+      <c r="D13" s="12">
+        <f>SUM(E13:F13)</f>
         <v>159550</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E13" s="13">
         <v>119704</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F13" s="13">
         <v>39846</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G13" s="12">
         <f t="shared" si="8"/>
         <v>5571</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H13" s="13">
         <v>5254</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I13" s="13">
         <v>317</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J13" s="12">
         <f t="shared" si="5"/>
         <v>26164</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K13" s="13">
         <v>17387</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L13" s="13">
         <v>8777</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M13" s="14">
         <f t="shared" si="9"/>
-        <v>15374.677</v>
-      </c>
-      <c r="N12" s="16">
-        <v>10621.744000000001</v>
-      </c>
-      <c r="O12" s="18">
-        <v>4752.933</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="19">
+        <v>15380.428</v>
+      </c>
+      <c r="N13" s="13">
+        <v>10623.656000000001</v>
+      </c>
+      <c r="O13" s="15">
+        <v>4756.7719999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="16">
         <v>2024</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="21">
-        <f t="shared" ref="D13:D43" si="10">SUM(E13:F13)</f>
+      <c r="D14" s="18">
+        <f t="shared" ref="D14:D44" si="10">SUM(E14:F14)</f>
         <v>158975</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E14" s="19">
         <v>115595</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F14" s="19">
         <v>43380</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G14" s="18">
         <f t="shared" si="4"/>
         <v>5473</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H14" s="19">
         <v>5166</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I14" s="19">
         <v>307</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J14" s="18">
         <f t="shared" si="5"/>
         <v>25292</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K14" s="19">
         <v>16701</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L14" s="19">
         <v>8591</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M14" s="20">
         <f t="shared" si="6"/>
-        <v>15229.277000000002</v>
-      </c>
-      <c r="N13" s="22">
-        <v>10111.147000000001</v>
-      </c>
-      <c r="O13" s="24">
-        <v>5118.13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="13">
+        <v>15232.386999999999</v>
+      </c>
+      <c r="N14" s="19">
+        <v>10112.061</v>
+      </c>
+      <c r="O14" s="21">
+        <v>5120.326</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="12">
         <f t="shared" si="10"/>
-        <v>160766</v>
-      </c>
-      <c r="E14" s="16">
-        <v>111544</v>
-      </c>
-      <c r="F14" s="16">
-        <v>49222</v>
-      </c>
-      <c r="G14" s="15">
+        <v>160745</v>
+      </c>
+      <c r="E15" s="13">
+        <v>111522</v>
+      </c>
+      <c r="F15" s="13">
+        <v>49223</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="4"/>
         <v>4759</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H15" s="13">
         <v>4508</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I15" s="13">
         <v>251</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J15" s="12">
         <f t="shared" si="5"/>
         <v>25196</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K15" s="13">
         <v>15924</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L15" s="13">
         <v>9272</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M15" s="14">
         <f t="shared" si="6"/>
-        <v>15959.064000000002</v>
-      </c>
-      <c r="N14" s="16">
-        <v>9839.7810000000009</v>
-      </c>
-      <c r="O14" s="18">
-        <v>6119.2830000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="19">
+        <v>15971.481</v>
+      </c>
+      <c r="N15" s="13">
+        <v>9845.5509999999995</v>
+      </c>
+      <c r="O15" s="15">
+        <v>6125.93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="16">
         <v>2024</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D16" s="18">
         <f t="shared" si="10"/>
-        <v>148867</v>
-      </c>
-      <c r="E15" s="22">
-        <v>104464</v>
-      </c>
-      <c r="F15" s="22">
-        <v>44403</v>
-      </c>
-      <c r="G15" s="21">
+        <v>148853</v>
+      </c>
+      <c r="E16" s="19">
+        <v>104440</v>
+      </c>
+      <c r="F16" s="19">
+        <v>44413</v>
+      </c>
+      <c r="G16" s="18">
         <f t="shared" si="4"/>
         <v>4246</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H16" s="19">
         <v>4009.0000000000005</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I16" s="19">
         <v>237</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J16" s="18">
         <f t="shared" si="5"/>
         <v>23784</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K16" s="19">
         <v>15355</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L16" s="19">
         <v>8429</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M16" s="20">
         <f t="shared" si="6"/>
-        <v>14264.626</v>
-      </c>
-      <c r="N15" s="22">
-        <v>8888.8960000000006</v>
-      </c>
-      <c r="O15" s="24">
-        <v>5375.73</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="25">
+        <v>14272.33</v>
+      </c>
+      <c r="N16" s="19">
+        <v>8893.5959999999995</v>
+      </c>
+      <c r="O16" s="21">
+        <v>5378.7340000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="22">
         <v>2024</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D17" s="24">
         <f t="shared" si="10"/>
-        <v>156475</v>
-      </c>
-      <c r="E16" s="28">
-        <v>108772</v>
-      </c>
-      <c r="F16" s="28">
-        <v>47703</v>
-      </c>
-      <c r="G16" s="27">
+        <v>156666</v>
+      </c>
+      <c r="E17" s="25">
+        <v>108922</v>
+      </c>
+      <c r="F17" s="25">
+        <v>47744</v>
+      </c>
+      <c r="G17" s="24">
         <f t="shared" si="4"/>
         <v>4224</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H17" s="25">
         <v>4019</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I17" s="25">
         <v>205</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J17" s="24">
         <f t="shared" si="5"/>
         <v>25531</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K17" s="25">
         <v>16217</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L17" s="25">
         <v>9314</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M17" s="26">
         <f t="shared" si="6"/>
-        <v>15540.981</v>
-      </c>
-      <c r="N16" s="28">
-        <v>9748.0049999999992</v>
-      </c>
-      <c r="O16" s="30">
-        <v>5792.9759999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="31">
+        <v>15551.477000000001</v>
+      </c>
+      <c r="N17" s="25">
+        <v>9753.6540000000005</v>
+      </c>
+      <c r="O17" s="27">
+        <v>5797.8230000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="28">
         <v>2023</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D18" s="30">
         <f t="shared" si="10"/>
-        <v>163030</v>
-      </c>
-      <c r="E17" s="34">
-        <v>115954</v>
-      </c>
-      <c r="F17" s="34">
-        <v>47076</v>
-      </c>
-      <c r="G17" s="33">
+        <v>163911</v>
+      </c>
+      <c r="E18" s="31">
+        <v>118221</v>
+      </c>
+      <c r="F18" s="31">
+        <v>45690</v>
+      </c>
+      <c r="G18" s="30">
         <f t="shared" si="4"/>
         <v>3526</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H18" s="31">
         <v>3337</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I18" s="31">
         <v>189</v>
       </c>
-      <c r="J17" s="33">
+      <c r="J18" s="30">
         <f t="shared" si="5"/>
         <v>28577</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K18" s="31">
         <v>18492</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L18" s="31">
         <v>10085</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M18" s="32">
         <f t="shared" si="6"/>
         <v>16459.677</v>
       </c>
-      <c r="N17" s="34">
+      <c r="N18" s="31">
         <v>10678.755999999999</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O18" s="33">
         <v>5780.9210000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="13">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="12">
         <f t="shared" si="10"/>
-        <v>158807</v>
-      </c>
-      <c r="E18" s="16">
-        <v>118386</v>
-      </c>
-      <c r="F18" s="16">
-        <v>40421</v>
-      </c>
-      <c r="G18" s="15">
+        <v>158913</v>
+      </c>
+      <c r="E19" s="13">
+        <v>119949</v>
+      </c>
+      <c r="F19" s="13">
+        <v>38964</v>
+      </c>
+      <c r="G19" s="12">
         <f t="shared" si="4"/>
         <v>3081</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H19" s="13">
         <v>2892</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I19" s="13">
         <v>189</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J19" s="12">
         <f t="shared" si="5"/>
         <v>27656</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K19" s="13">
         <v>18844</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L19" s="13">
         <v>8812</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M19" s="14">
         <f t="shared" si="6"/>
         <v>15317.485000000001</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N19" s="13">
         <v>10453.232</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O19" s="15">
         <v>4864.2529999999997</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="19">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="16">
         <v>2023</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D20" s="18">
         <f t="shared" si="10"/>
         <v>155697</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E20" s="19">
         <v>120652</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F20" s="19">
         <v>35045</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G20" s="18">
         <f t="shared" si="4"/>
         <v>3222</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H20" s="19">
         <v>3013</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I20" s="19">
         <v>209</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J20" s="18">
         <f t="shared" si="5"/>
         <v>27597</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K20" s="19">
         <v>18942</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L20" s="19">
         <v>8655</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M20" s="20">
         <f t="shared" si="6"/>
         <v>15213.704999999998</v>
       </c>
-      <c r="N19" s="22">
+      <c r="N20" s="19">
         <v>10935.924999999999</v>
       </c>
-      <c r="O19" s="24">
+      <c r="O20" s="21">
         <v>4277.78</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="12">
         <f t="shared" si="10"/>
         <v>146668</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E21" s="13">
         <v>114905</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F21" s="13">
         <v>31763</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G21" s="12">
         <f t="shared" si="4"/>
         <v>2726</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H21" s="13">
         <v>2544</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I21" s="13">
         <v>182</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J21" s="12">
         <f t="shared" si="5"/>
         <v>26793</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K21" s="13">
         <v>18467</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L21" s="13">
         <v>8326</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M21" s="14">
         <f t="shared" si="6"/>
         <v>13986.931</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N21" s="13">
         <v>10236.332</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O21" s="15">
         <v>3750.5990000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="19">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="16">
         <v>2023</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D22" s="18">
         <f t="shared" si="10"/>
         <v>162973</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E22" s="19">
         <v>125545</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F22" s="19">
         <v>37428</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G22" s="18">
         <f t="shared" si="4"/>
         <v>2769</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H22" s="19">
         <v>2584</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I22" s="19">
         <v>185</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J22" s="18">
         <f t="shared" si="5"/>
         <v>29095</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K22" s="19">
         <v>19522</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L22" s="19">
         <v>9573</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M22" s="20">
         <f t="shared" si="6"/>
         <v>16766.697</v>
       </c>
-      <c r="N21" s="22">
+      <c r="N22" s="19">
         <v>12077.877</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O22" s="21">
         <v>4688.82</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="12">
         <f t="shared" si="10"/>
         <v>164170</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E23" s="13">
         <v>124900</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F23" s="13">
         <v>39270</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G23" s="12">
         <f t="shared" si="4"/>
         <v>2336</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H23" s="13">
         <v>2164</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I23" s="13">
         <v>172</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J23" s="12">
         <f t="shared" si="5"/>
         <v>29231</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K23" s="13">
         <v>19311</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L23" s="13">
         <v>9920</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M23" s="14">
         <f t="shared" si="6"/>
         <v>17331.974000000002</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N23" s="13">
         <v>12036.081</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O23" s="15">
         <v>5295.893</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="19">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="16">
         <v>2023</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D24" s="18">
         <f t="shared" si="10"/>
         <v>158074</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E24" s="19">
         <v>120413</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F24" s="19">
         <v>37661</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G24" s="18">
         <f t="shared" si="4"/>
         <v>1942</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H24" s="19">
         <v>1784</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I24" s="19">
         <v>158</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J24" s="18">
         <f t="shared" si="5"/>
         <v>28215</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K24" s="19">
         <v>18972</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L24" s="19">
         <v>9243</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M24" s="20">
         <f t="shared" si="6"/>
         <v>15257.142</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N24" s="19">
         <v>10569.871999999999</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O24" s="21">
         <v>4687.2700000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="12">
         <f t="shared" si="10"/>
         <v>162182</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E25" s="13">
         <v>124206</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F25" s="13">
         <v>37976</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G25" s="12">
         <f t="shared" si="4"/>
         <v>1937</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H25" s="13">
         <v>1767</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I25" s="13">
         <v>170</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J25" s="12">
         <f t="shared" si="5"/>
         <v>28633</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K25" s="13">
         <v>19183</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L25" s="13">
         <v>9450</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M25" s="14">
         <f t="shared" si="6"/>
         <v>15115.095000000001</v>
       </c>
-      <c r="N24" s="16">
+      <c r="N25" s="13">
         <v>10649.591</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O25" s="15">
         <v>4465.5039999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="19">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="16">
         <v>2023</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D26" s="18">
         <f t="shared" si="10"/>
         <v>159882</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E26" s="19">
         <v>120199</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F26" s="19">
         <v>39683</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G26" s="18">
         <f t="shared" si="4"/>
         <v>1796</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H26" s="19">
         <v>1691</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I26" s="19">
         <v>105</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J26" s="18">
         <f t="shared" si="5"/>
         <v>28347</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K26" s="19">
         <v>19276</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L26" s="19">
         <v>9071</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M26" s="20">
         <f t="shared" si="6"/>
         <v>15697.496999999999</v>
       </c>
-      <c r="N25" s="22">
+      <c r="N26" s="19">
         <v>10803.382</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O26" s="21">
         <v>4894.1149999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="12">
         <f t="shared" si="10"/>
         <v>170638</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="13">
         <v>126849</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="13">
         <v>43789</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G27" s="12">
         <f t="shared" si="4"/>
         <v>1923</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H27" s="13">
         <v>1812</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I27" s="13">
         <v>111</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J27" s="12">
         <f t="shared" si="5"/>
         <v>29361</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K27" s="13">
         <v>19711</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L27" s="13">
         <v>9650</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M27" s="14">
         <f t="shared" si="6"/>
         <v>15935.796</v>
       </c>
-      <c r="N26" s="16">
+      <c r="N27" s="13">
         <v>10528.172</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O27" s="15">
         <v>5407.6239999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="19">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="16">
         <v>2023</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D28" s="18">
         <f t="shared" si="10"/>
         <v>151336</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E28" s="19">
         <v>112299</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F28" s="19">
         <v>39037</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G28" s="18">
         <f t="shared" si="4"/>
         <v>1655</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H28" s="19">
         <v>1542</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I28" s="19">
         <v>113</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J28" s="18">
         <f t="shared" si="5"/>
         <v>26435</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K28" s="19">
         <v>17619</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L28" s="19">
         <v>8816</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M28" s="20">
         <f t="shared" si="6"/>
         <v>13705.822</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N28" s="19">
         <v>8982.0499999999993</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O28" s="21">
         <v>4723.7719999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="25">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="22">
         <v>2023</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D29" s="24">
         <f t="shared" si="10"/>
         <v>165200</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E29" s="25">
         <v>121747</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F29" s="25">
         <v>43453</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G29" s="24">
         <f t="shared" si="4"/>
         <v>1856</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H29" s="25">
         <v>1722</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I29" s="25">
         <v>134</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J29" s="24">
         <f t="shared" si="5"/>
         <v>30227</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K29" s="25">
         <v>20162</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L29" s="25">
         <v>10065</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M29" s="26">
         <f t="shared" si="6"/>
         <v>15379.226000000001</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N29" s="25">
         <v>10060.075000000001</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O29" s="27">
         <v>5319.1509999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="31">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="28">
         <v>2022</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C30" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D30" s="30">
         <f t="shared" si="10"/>
         <v>167972</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E30" s="31">
         <v>123936</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F30" s="31">
         <v>44036</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G30" s="30">
         <f t="shared" si="4"/>
         <v>1840</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H30" s="31">
         <v>1713</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I30" s="31">
         <v>127</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J30" s="30">
         <f t="shared" si="5"/>
         <v>31046</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K30" s="31">
         <v>20696</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L30" s="31">
         <v>10350</v>
       </c>
-      <c r="M29" s="35">
+      <c r="M30" s="32">
         <f t="shared" si="6"/>
         <v>16259.23</v>
       </c>
-      <c r="N29" s="34">
+      <c r="N30" s="31">
         <v>11068.346</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O30" s="33">
         <v>5190.884</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="12">
         <f t="shared" si="10"/>
         <v>162759</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E31" s="13">
         <v>123505</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F31" s="13">
         <v>39254</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G31" s="12">
         <f t="shared" si="4"/>
         <v>1784</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H31" s="13">
         <v>1698</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I31" s="13">
         <v>86</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J31" s="12">
         <f t="shared" si="5"/>
         <v>30430</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K31" s="13">
         <v>20625</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L31" s="13">
         <v>9805</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M31" s="14">
         <f t="shared" si="6"/>
         <v>15141.996999999999</v>
       </c>
-      <c r="N30" s="16">
+      <c r="N31" s="13">
         <v>10513.98</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O31" s="15">
         <v>4628.0169999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="19">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="16">
         <v>2022</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D32" s="18">
         <f t="shared" si="10"/>
         <v>159864</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E32" s="19">
         <v>124747</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F32" s="19">
         <v>35117</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G32" s="18">
         <f t="shared" si="4"/>
         <v>1870</v>
       </c>
-      <c r="H31" s="22">
+      <c r="H32" s="19">
         <v>1784</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I32" s="19">
         <v>86</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J32" s="18">
         <f t="shared" si="5"/>
         <v>31242</v>
       </c>
-      <c r="K31" s="22">
+      <c r="K32" s="19">
         <v>21556</v>
       </c>
-      <c r="L31" s="22">
+      <c r="L32" s="19">
         <v>9686</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M32" s="20">
         <f t="shared" si="6"/>
         <v>14556.514999999999</v>
       </c>
-      <c r="N31" s="22">
+      <c r="N32" s="19">
         <v>10450.403</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O32" s="21">
         <v>4106.1120000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="12">
         <f t="shared" si="10"/>
         <v>147719</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E33" s="13">
         <v>115614</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F33" s="13">
         <v>32104.999999999996</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G33" s="12">
         <f t="shared" si="4"/>
         <v>1319</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H33" s="13">
         <v>1288</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I33" s="13">
         <v>31</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J33" s="12">
         <f t="shared" si="5"/>
         <v>29935</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K33" s="13">
         <v>20715</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L33" s="13">
         <v>9220</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M33" s="14">
         <f t="shared" si="6"/>
         <v>13130.359999999999</v>
       </c>
-      <c r="N32" s="16">
+      <c r="N33" s="13">
         <v>9467.3269999999993</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O33" s="15">
         <v>3663.0329999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="19">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="16">
         <v>2022</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D34" s="18">
         <f t="shared" si="10"/>
         <v>160707</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E34" s="19">
         <v>123479</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F34" s="19">
         <v>37228</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G34" s="18">
         <f t="shared" si="4"/>
         <v>620</v>
       </c>
-      <c r="H33" s="22">
+      <c r="H34" s="19">
         <v>597</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I34" s="19">
         <v>23</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J34" s="18">
         <f t="shared" si="5"/>
         <v>32809</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K34" s="19">
         <v>22639</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L34" s="19">
         <v>10170</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M34" s="20">
         <f t="shared" si="6"/>
         <v>15003.125</v>
       </c>
-      <c r="N33" s="22">
+      <c r="N34" s="19">
         <v>10508.375</v>
       </c>
-      <c r="O33" s="24">
+      <c r="O34" s="21">
         <v>4494.75</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="13">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D35" s="12">
         <f t="shared" si="10"/>
         <v>161313</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E35" s="13">
         <v>122637</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F35" s="13">
         <v>38676</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G35" s="12">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H35" s="13">
         <v>336</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I35" s="13">
         <v>4</v>
       </c>
-      <c r="J34" s="15">
+      <c r="J35" s="12">
         <f t="shared" si="5"/>
         <v>32288</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K35" s="13">
         <v>22146</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L35" s="13">
         <v>10142</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M35" s="14">
         <f t="shared" si="6"/>
         <v>15713.334999999999</v>
       </c>
-      <c r="N34" s="16">
+      <c r="N35" s="13">
         <v>10715.734</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O35" s="15">
         <v>4997.6009999999997</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="19">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="16">
         <v>2022</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D36" s="18">
         <f t="shared" si="10"/>
         <v>153335</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E36" s="19">
         <v>116098</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F36" s="19">
         <v>37237</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G36" s="18">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H36" s="19">
         <v>351</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I36" s="19">
         <v>5</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J36" s="18">
         <f t="shared" si="5"/>
         <v>30905</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K36" s="19">
         <v>21014</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L36" s="19">
         <v>9891</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M36" s="20">
         <f t="shared" si="6"/>
         <v>13344.656999999999</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N36" s="19">
         <v>9004.4539999999997</v>
       </c>
-      <c r="O35" s="24">
+      <c r="O36" s="21">
         <v>4340.2030000000004</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="13">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="12">
         <f t="shared" si="10"/>
         <v>158252</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E37" s="13">
         <v>120591</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F37" s="13">
         <v>37661</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G37" s="12">
         <f t="shared" si="4"/>
         <v>371</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H37" s="13">
         <v>365</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I37" s="13">
         <v>6</v>
       </c>
-      <c r="J36" s="15">
+      <c r="J37" s="12">
         <f t="shared" si="5"/>
         <v>31398</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K37" s="13">
         <v>21509</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L37" s="13">
         <v>9889</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M37" s="14">
         <f t="shared" si="6"/>
         <v>13548.44</v>
       </c>
-      <c r="N36" s="16">
+      <c r="N37" s="13">
         <v>9417.0650000000005</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O37" s="15">
         <v>4131.375</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="19">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="16">
         <v>2022</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D38" s="18">
         <f t="shared" si="10"/>
         <v>157784</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E38" s="19">
         <v>117815</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F38" s="19">
         <v>39969</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G38" s="18">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H38" s="19">
         <v>352</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I38" s="19">
         <v>4</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J38" s="18">
         <f t="shared" si="5"/>
         <v>30844</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K38" s="19">
         <v>21295</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L38" s="19">
         <v>9549</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M38" s="20">
         <f t="shared" si="6"/>
         <v>14079.685000000001</v>
       </c>
-      <c r="N37" s="22">
+      <c r="N38" s="19">
         <v>9562.2420000000002</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O38" s="21">
         <v>4517.4430000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="13">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="12">
         <f t="shared" si="10"/>
         <v>161848</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="13">
         <v>119127</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="13">
         <v>42721</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G39" s="12">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H39" s="13">
         <v>134</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I39" s="13">
         <v>2</v>
       </c>
-      <c r="J38" s="15">
+      <c r="J39" s="12">
         <f t="shared" si="5"/>
         <v>29318</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K39" s="13">
         <v>20239</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L39" s="13">
         <v>9079</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M39" s="14">
         <f t="shared" si="6"/>
         <v>13866.879000000001</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N39" s="13">
         <v>9057.7270000000008</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O39" s="15">
         <v>4809.152</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="19">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="16">
         <v>2022</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="21">
+      <c r="D40" s="18">
         <f t="shared" si="10"/>
         <v>138416</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E40" s="19">
         <v>101843</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F40" s="19">
         <v>36573</v>
       </c>
-      <c r="G39" s="21">
+      <c r="G40" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H39" s="22">
-        <v>0</v>
-      </c>
-      <c r="I39" s="22">
-        <v>0</v>
-      </c>
-      <c r="J39" s="21">
+      <c r="H40" s="19">
+        <v>0</v>
+      </c>
+      <c r="I40" s="19">
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
         <f t="shared" si="5"/>
         <v>24917</v>
       </c>
-      <c r="K39" s="22">
+      <c r="K40" s="19">
         <v>17054</v>
       </c>
-      <c r="L39" s="22">
+      <c r="L40" s="19">
         <v>7863</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M40" s="20">
         <f t="shared" si="6"/>
         <v>10915.597</v>
       </c>
-      <c r="N39" s="22">
+      <c r="N40" s="19">
         <v>7204.1139999999996</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O40" s="21">
         <v>3711.4830000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="25">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="22">
         <v>2022</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C41" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D41" s="24">
         <f t="shared" si="10"/>
         <v>147774</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E41" s="25">
         <v>106370</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F41" s="25">
         <v>41404</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G41" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H40" s="28">
-        <v>0</v>
-      </c>
-      <c r="I40" s="28">
-        <v>0</v>
-      </c>
-      <c r="J40" s="27">
-        <f t="shared" ref="J40:J71" si="11">SUM(K40:L40)</f>
+      <c r="H41" s="25">
+        <v>0</v>
+      </c>
+      <c r="I41" s="25">
+        <v>0</v>
+      </c>
+      <c r="J41" s="24">
+        <f t="shared" ref="J41:J72" si="11">SUM(K41:L41)</f>
         <v>28778</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K41" s="25">
         <v>19706</v>
       </c>
-      <c r="L40" s="28">
+      <c r="L41" s="25">
         <v>9072</v>
       </c>
-      <c r="M40" s="29">
+      <c r="M41" s="26">
         <f t="shared" si="6"/>
         <v>11653.262000000001</v>
       </c>
-      <c r="N40" s="28">
+      <c r="N41" s="25">
         <v>7668.268</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O41" s="27">
         <v>3984.9940000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="31">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="28">
         <v>2021</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C42" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D42" s="30">
         <f t="shared" si="10"/>
         <v>161476</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E42" s="31">
         <v>118642</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F42" s="31">
         <v>42834</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G42" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H41" s="34">
-        <v>0</v>
-      </c>
-      <c r="I41" s="34">
-        <v>0</v>
-      </c>
-      <c r="J41" s="33">
+      <c r="H42" s="31">
+        <v>0</v>
+      </c>
+      <c r="I42" s="31">
+        <v>0</v>
+      </c>
+      <c r="J42" s="30">
         <f t="shared" si="11"/>
         <v>31395</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K42" s="31">
         <v>21885</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L42" s="31">
         <v>9510</v>
       </c>
-      <c r="M41" s="35">
+      <c r="M42" s="32">
         <f t="shared" si="6"/>
         <v>13971.465</v>
       </c>
-      <c r="N41" s="34">
+      <c r="N42" s="31">
         <v>9508.3459999999995</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O42" s="33">
         <v>4463.1189999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="13">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="10">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="12">
         <f t="shared" si="10"/>
         <v>153263</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E43" s="13">
         <v>115481</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F43" s="13">
         <v>37782</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G43" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H42" s="16">
-        <v>0</v>
-      </c>
-      <c r="I42" s="16">
-        <v>0</v>
-      </c>
-      <c r="J42" s="15">
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
         <f t="shared" si="11"/>
         <v>28646</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K43" s="13">
         <v>20157</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L43" s="13">
         <v>8489</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M43" s="14">
         <f t="shared" si="6"/>
         <v>12687.374</v>
       </c>
-      <c r="N42" s="16">
+      <c r="N43" s="13">
         <v>8761.0709999999999</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O43" s="15">
         <v>3926.3029999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="19">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="16">
         <v>2021</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D44" s="18">
         <f t="shared" si="10"/>
         <v>147053</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E44" s="19">
         <v>112669</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F44" s="19">
         <v>34384</v>
       </c>
-      <c r="G43" s="21">
+      <c r="G44" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H43" s="22">
-        <v>0</v>
-      </c>
-      <c r="I43" s="22">
-        <v>0</v>
-      </c>
-      <c r="J43" s="21">
+      <c r="H44" s="19">
+        <v>0</v>
+      </c>
+      <c r="I44" s="19">
+        <v>0</v>
+      </c>
+      <c r="J44" s="18">
         <f t="shared" si="11"/>
         <v>28151</v>
       </c>
-      <c r="K43" s="22">
+      <c r="K44" s="19">
         <v>19712</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L44" s="19">
         <v>8439</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M44" s="20">
         <f t="shared" si="6"/>
         <v>11848.638999999999</v>
       </c>
-      <c r="N43" s="22">
+      <c r="N44" s="19">
         <v>8373.0280000000002</v>
       </c>
-      <c r="O43" s="24">
+      <c r="O44" s="21">
         <v>3475.6109999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="13">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="15">
-        <f t="shared" ref="D44:D75" si="12">SUM(E44:F44)</f>
+      <c r="D45" s="12">
+        <f t="shared" ref="D45:D76" si="12">SUM(E45:F45)</f>
         <v>132825</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E45" s="13">
         <v>101771</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F45" s="13">
         <v>31054</v>
       </c>
-      <c r="G44" s="15">
-        <f t="shared" ref="G44:G75" si="13">SUM(H44:I44)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="16">
-        <v>0</v>
-      </c>
-      <c r="I44" s="16">
-        <v>0</v>
-      </c>
-      <c r="J44" s="15">
+      <c r="G45" s="12">
+        <f t="shared" ref="G45:G76" si="13">SUM(H45:I45)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
         <f t="shared" si="11"/>
         <v>25472</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K45" s="13">
         <v>17521</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L45" s="13">
         <v>7951</v>
       </c>
-      <c r="M44" s="17">
-        <f t="shared" ref="M44:M75" si="14">SUM(N44:O44)</f>
+      <c r="M45" s="14">
+        <f t="shared" ref="M45:M76" si="14">SUM(N45:O45)</f>
         <v>10185.656000000001</v>
       </c>
-      <c r="N44" s="16">
+      <c r="N45" s="13">
         <v>7282.1530000000002</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O45" s="15">
         <v>2903.5030000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="19">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="16">
         <v>2021</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D46" s="18">
         <f t="shared" si="12"/>
         <v>144695</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E46" s="19">
         <v>110044</v>
       </c>
-      <c r="F45" s="22">
+      <c r="F46" s="19">
         <v>34651</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G46" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H45" s="22">
-        <v>0</v>
-      </c>
-      <c r="I45" s="22">
-        <v>0</v>
-      </c>
-      <c r="J45" s="21">
+      <c r="H46" s="19">
+        <v>0</v>
+      </c>
+      <c r="I46" s="19">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
         <f t="shared" si="11"/>
         <v>28906</v>
       </c>
-      <c r="K45" s="22">
+      <c r="K46" s="19">
         <v>20368</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L46" s="19">
         <v>8538</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M46" s="20">
         <f t="shared" si="14"/>
         <v>11683.937</v>
       </c>
-      <c r="N45" s="22">
+      <c r="N46" s="19">
         <v>8069.2780000000002</v>
       </c>
-      <c r="O45" s="24">
+      <c r="O46" s="21">
         <v>3614.6590000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D47" s="12">
         <f t="shared" si="12"/>
         <v>146353</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E47" s="13">
         <v>110707</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F47" s="13">
         <v>35646</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G47" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H46" s="16">
-        <v>0</v>
-      </c>
-      <c r="I46" s="16">
-        <v>0</v>
-      </c>
-      <c r="J46" s="15">
+      <c r="H47" s="13">
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
         <f t="shared" si="11"/>
         <v>28727</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K47" s="13">
         <v>20266</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L47" s="13">
         <v>8461</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M47" s="14">
         <f t="shared" si="14"/>
         <v>12973.878000000001</v>
       </c>
-      <c r="N46" s="16">
+      <c r="N47" s="13">
         <v>8846.4060000000009</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O47" s="15">
         <v>4127.4719999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="19">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="16">
         <v>2021</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D48" s="18">
         <f t="shared" si="12"/>
         <v>134517</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E48" s="19">
         <v>101368</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F48" s="19">
         <v>33149</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G48" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H47" s="22">
-        <v>0</v>
-      </c>
-      <c r="I47" s="22">
-        <v>0</v>
-      </c>
-      <c r="J47" s="21">
+      <c r="H48" s="19">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0</v>
+      </c>
+      <c r="J48" s="18">
         <f t="shared" si="11"/>
         <v>25545</v>
       </c>
-      <c r="K47" s="22">
+      <c r="K48" s="19">
         <v>17937</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L48" s="19">
         <v>7608</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M48" s="20">
         <f t="shared" si="14"/>
         <v>11386.256000000001</v>
       </c>
-      <c r="N47" s="22">
+      <c r="N48" s="19">
         <v>7719.55</v>
       </c>
-      <c r="O47" s="24">
+      <c r="O48" s="21">
         <v>3666.7060000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="13">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="12">
         <f t="shared" si="12"/>
         <v>138743</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E49" s="13">
         <v>106623</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F49" s="13">
         <v>32119.999999999996</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G49" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H48" s="16">
-        <v>0</v>
-      </c>
-      <c r="I48" s="16">
-        <v>0</v>
-      </c>
-      <c r="J48" s="15">
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
         <f t="shared" si="11"/>
         <v>25018</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K49" s="13">
         <v>17597</v>
       </c>
-      <c r="L48" s="16">
+      <c r="L49" s="13">
         <v>7421</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M49" s="14">
         <f t="shared" si="14"/>
         <v>10974.823</v>
       </c>
-      <c r="N48" s="16">
+      <c r="N49" s="13">
         <v>7697.7309999999998</v>
       </c>
-      <c r="O48" s="18">
+      <c r="O49" s="15">
         <v>3277.0920000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="19">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="16">
         <v>2021</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D50" s="18">
         <f t="shared" si="12"/>
         <v>133584</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E50" s="19">
         <v>103668</v>
       </c>
-      <c r="F49" s="22">
+      <c r="F50" s="19">
         <v>29916</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G50" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H49" s="22">
-        <v>0</v>
-      </c>
-      <c r="I49" s="22">
-        <v>0</v>
-      </c>
-      <c r="J49" s="21">
+      <c r="H50" s="19">
+        <v>0</v>
+      </c>
+      <c r="I50" s="19">
+        <v>0</v>
+      </c>
+      <c r="J50" s="18">
         <f t="shared" si="11"/>
         <v>23420</v>
       </c>
-      <c r="K49" s="22">
+      <c r="K50" s="19">
         <v>17095</v>
       </c>
-      <c r="L49" s="22">
+      <c r="L50" s="19">
         <v>6325</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M50" s="20">
         <f t="shared" si="14"/>
         <v>9657.1949999999997</v>
       </c>
-      <c r="N49" s="22">
+      <c r="N50" s="19">
         <v>7019.1059999999998</v>
       </c>
-      <c r="O49" s="24">
+      <c r="O50" s="21">
         <v>2638.0889999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="13">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="12">
         <f t="shared" si="12"/>
         <v>130340</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="13">
         <v>99689</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="13">
         <v>30651</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G51" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H50" s="16">
-        <v>0</v>
-      </c>
-      <c r="I50" s="16">
-        <v>0</v>
-      </c>
-      <c r="J50" s="15">
+      <c r="H51" s="13">
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
         <f t="shared" si="11"/>
         <v>20932</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K51" s="13">
         <v>15296</v>
       </c>
-      <c r="L50" s="16">
+      <c r="L51" s="13">
         <v>5636</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M51" s="14">
         <f t="shared" si="14"/>
         <v>8677.3739999999998</v>
       </c>
-      <c r="N50" s="16">
+      <c r="N51" s="13">
         <v>6424.5829999999996</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O51" s="15">
         <v>2252.7910000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="19">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="16">
         <v>2021</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C52" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D52" s="18">
         <f t="shared" si="12"/>
         <v>105818</v>
       </c>
-      <c r="E51" s="22">
+      <c r="E52" s="19">
         <v>80508</v>
       </c>
-      <c r="F51" s="22">
+      <c r="F52" s="19">
         <v>25310</v>
       </c>
-      <c r="G51" s="21">
+      <c r="G52" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H51" s="22">
-        <v>0</v>
-      </c>
-      <c r="I51" s="22">
-        <v>0</v>
-      </c>
-      <c r="J51" s="21">
+      <c r="H52" s="19">
+        <v>0</v>
+      </c>
+      <c r="I52" s="19">
+        <v>0</v>
+      </c>
+      <c r="J52" s="18">
         <f t="shared" si="11"/>
         <v>17155</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K52" s="19">
         <v>12105</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L52" s="19">
         <v>5050</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M52" s="20">
         <f t="shared" si="14"/>
         <v>5881.9269999999997</v>
       </c>
-      <c r="N51" s="22">
+      <c r="N52" s="19">
         <v>4501.4070000000002</v>
       </c>
-      <c r="O51" s="24">
+      <c r="O52" s="21">
         <v>1380.52</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="25">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="22">
         <v>2021</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C53" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D53" s="24">
         <f t="shared" si="12"/>
         <v>124147</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E53" s="25">
         <v>93381</v>
       </c>
-      <c r="F52" s="28">
+      <c r="F53" s="25">
         <v>30766</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G53" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H52" s="28">
-        <v>0</v>
-      </c>
-      <c r="I52" s="28">
-        <v>0</v>
-      </c>
-      <c r="J52" s="27">
+      <c r="H53" s="25">
+        <v>0</v>
+      </c>
+      <c r="I53" s="25">
+        <v>0</v>
+      </c>
+      <c r="J53" s="24">
         <f t="shared" si="11"/>
         <v>22442</v>
       </c>
-      <c r="K52" s="28">
+      <c r="K53" s="25">
         <v>15855</v>
       </c>
-      <c r="L52" s="28">
+      <c r="L53" s="25">
         <v>6587</v>
       </c>
-      <c r="M52" s="29">
+      <c r="M53" s="26">
         <f t="shared" si="14"/>
         <v>7530.1779999999999</v>
       </c>
-      <c r="N52" s="28">
+      <c r="N53" s="25">
         <v>5474.7460000000001</v>
       </c>
-      <c r="O52" s="30">
+      <c r="O53" s="27">
         <v>2055.4319999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="31">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="28">
         <v>2020</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C54" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="33">
+      <c r="D54" s="30">
         <f t="shared" si="12"/>
         <v>129572</v>
       </c>
-      <c r="E53" s="34">
+      <c r="E54" s="31">
         <v>99674</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F54" s="31">
         <v>29898</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G54" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H53" s="34">
-        <v>0</v>
-      </c>
-      <c r="I53" s="34">
-        <v>0</v>
-      </c>
-      <c r="J53" s="33">
+      <c r="H54" s="31">
+        <v>0</v>
+      </c>
+      <c r="I54" s="31">
+        <v>0</v>
+      </c>
+      <c r="J54" s="30">
         <f t="shared" si="11"/>
         <v>22377</v>
       </c>
-      <c r="K53" s="34">
+      <c r="K54" s="31">
         <v>15901</v>
       </c>
-      <c r="L53" s="34">
+      <c r="L54" s="31">
         <v>6476</v>
       </c>
-      <c r="M53" s="35">
+      <c r="M54" s="32">
         <f t="shared" si="14"/>
         <v>8643.1899999999987</v>
       </c>
-      <c r="N53" s="34">
+      <c r="N54" s="31">
         <v>6389.2129999999997</v>
       </c>
-      <c r="O53" s="36">
+      <c r="O54" s="33">
         <v>2253.9769999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="13">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="10">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="12">
         <f t="shared" si="12"/>
         <v>120789</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E55" s="13">
         <v>97016</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F55" s="13">
         <v>23773</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G55" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H54" s="16">
-        <v>0</v>
-      </c>
-      <c r="I54" s="16">
-        <v>0</v>
-      </c>
-      <c r="J54" s="15">
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="13">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
         <f t="shared" si="11"/>
         <v>20029</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K55" s="13">
         <v>15112</v>
       </c>
-      <c r="L54" s="16">
+      <c r="L55" s="13">
         <v>4917</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M55" s="14">
         <f t="shared" si="14"/>
         <v>7700.1950000000006</v>
       </c>
-      <c r="N54" s="16">
+      <c r="N55" s="13">
         <v>5937.9480000000003</v>
       </c>
-      <c r="O54" s="18">
+      <c r="O55" s="15">
         <v>1762.2470000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="19">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="16">
         <v>2020</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D56" s="18">
         <f t="shared" si="12"/>
         <v>111965</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E56" s="19">
         <v>92159</v>
       </c>
-      <c r="F55" s="22">
+      <c r="F56" s="19">
         <v>19806</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G56" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="22">
-        <v>0</v>
-      </c>
-      <c r="I55" s="22">
-        <v>0</v>
-      </c>
-      <c r="J55" s="21">
+      <c r="H56" s="19">
+        <v>0</v>
+      </c>
+      <c r="I56" s="19">
+        <v>0</v>
+      </c>
+      <c r="J56" s="18">
         <f t="shared" si="11"/>
         <v>18783</v>
       </c>
-      <c r="K55" s="22">
+      <c r="K56" s="19">
         <v>14512</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L56" s="19">
         <v>4271</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M56" s="20">
         <f t="shared" si="14"/>
         <v>6958.1730000000007</v>
       </c>
-      <c r="N55" s="22">
+      <c r="N56" s="19">
         <v>5522.3990000000003</v>
       </c>
-      <c r="O55" s="24">
+      <c r="O56" s="21">
         <v>1435.7739999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="13">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="12">
         <f t="shared" si="12"/>
         <v>98248</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E57" s="13">
         <v>82749</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F57" s="13">
         <v>15499</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G57" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H56" s="16">
-        <v>0</v>
-      </c>
-      <c r="I56" s="16">
-        <v>0</v>
-      </c>
-      <c r="J56" s="15">
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="13">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
         <f t="shared" si="11"/>
         <v>15967</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K57" s="13">
         <v>12434</v>
       </c>
-      <c r="L56" s="16">
+      <c r="L57" s="13">
         <v>3533</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M57" s="14">
         <f t="shared" si="14"/>
         <v>5747.9449999999997</v>
       </c>
-      <c r="N56" s="16">
+      <c r="N57" s="13">
         <v>4716.3429999999998</v>
       </c>
-      <c r="O56" s="18">
+      <c r="O57" s="15">
         <v>1031.6020000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="19">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="16">
         <v>2020</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="21">
+      <c r="D58" s="18">
         <f t="shared" si="12"/>
         <v>94778</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E58" s="19">
         <v>79993</v>
       </c>
-      <c r="F57" s="22">
+      <c r="F58" s="19">
         <v>14785</v>
       </c>
-      <c r="G57" s="21">
+      <c r="G58" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H57" s="22">
-        <v>0</v>
-      </c>
-      <c r="I57" s="22">
-        <v>0</v>
-      </c>
-      <c r="J57" s="21">
+      <c r="H58" s="19">
+        <v>0</v>
+      </c>
+      <c r="I58" s="19">
+        <v>0</v>
+      </c>
+      <c r="J58" s="18">
         <f t="shared" si="11"/>
         <v>15399</v>
       </c>
-      <c r="K57" s="22">
+      <c r="K58" s="19">
         <v>11911</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L58" s="19">
         <v>3488</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M58" s="20">
         <f t="shared" si="14"/>
         <v>5296.7969999999996</v>
       </c>
-      <c r="N57" s="22">
+      <c r="N58" s="19">
         <v>4313.7479999999996</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O58" s="21">
         <v>983.04899999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="13">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D59" s="12">
         <f t="shared" si="12"/>
         <v>85508</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E59" s="13">
         <v>72657</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F59" s="13">
         <v>12851</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G59" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H58" s="16">
-        <v>0</v>
-      </c>
-      <c r="I58" s="16">
-        <v>0</v>
-      </c>
-      <c r="J58" s="15">
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="13">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
         <f t="shared" si="11"/>
         <v>12165</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K59" s="13">
         <v>9419</v>
       </c>
-      <c r="L58" s="16">
+      <c r="L59" s="13">
         <v>2746</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M59" s="14">
         <f t="shared" si="14"/>
         <v>4185.5320000000002</v>
       </c>
-      <c r="N58" s="16">
+      <c r="N59" s="13">
         <v>3405.0259999999998</v>
       </c>
-      <c r="O58" s="18">
+      <c r="O59" s="15">
         <v>780.50599999999997</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="19">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="16">
         <v>2020</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D60" s="18">
         <f t="shared" si="12"/>
         <v>58869</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E60" s="19">
         <v>50107</v>
       </c>
-      <c r="F59" s="22">
+      <c r="F60" s="19">
         <v>8762</v>
       </c>
-      <c r="G59" s="21">
+      <c r="G60" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H59" s="22">
-        <v>0</v>
-      </c>
-      <c r="I59" s="22">
-        <v>0</v>
-      </c>
-      <c r="J59" s="21">
+      <c r="H60" s="19">
+        <v>0</v>
+      </c>
+      <c r="I60" s="19">
+        <v>0</v>
+      </c>
+      <c r="J60" s="18">
         <f t="shared" si="11"/>
         <v>7578</v>
       </c>
-      <c r="K59" s="22">
+      <c r="K60" s="19">
         <v>5489</v>
       </c>
-      <c r="L59" s="22">
+      <c r="L60" s="19">
         <v>2089</v>
       </c>
-      <c r="M59" s="23">
+      <c r="M60" s="20">
         <f t="shared" si="14"/>
         <v>2139.893</v>
       </c>
-      <c r="N59" s="22">
+      <c r="N60" s="19">
         <v>1815.4059999999999</v>
       </c>
-      <c r="O59" s="24">
+      <c r="O60" s="21">
         <v>324.48700000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="13">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="12">
         <f t="shared" si="12"/>
         <v>40887</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E61" s="13">
         <v>35082</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F61" s="13">
         <v>5805</v>
       </c>
-      <c r="G60" s="15">
+      <c r="G61" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H60" s="16">
-        <v>0</v>
-      </c>
-      <c r="I60" s="16">
-        <v>0</v>
-      </c>
-      <c r="J60" s="15">
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" s="13">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
         <f t="shared" si="11"/>
         <v>4836</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K61" s="13">
         <v>3187</v>
       </c>
-      <c r="L60" s="16">
+      <c r="L61" s="13">
         <v>1649</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M61" s="14">
         <f t="shared" si="14"/>
         <v>912.27</v>
       </c>
-      <c r="N60" s="16">
+      <c r="N61" s="13">
         <v>794.02</v>
       </c>
-      <c r="O60" s="18">
+      <c r="O61" s="15">
         <v>118.25</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="19">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="16">
         <v>2020</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="21">
+      <c r="D62" s="18">
         <f t="shared" si="12"/>
         <v>39436</v>
       </c>
-      <c r="E61" s="22">
+      <c r="E62" s="19">
         <v>33432</v>
       </c>
-      <c r="F61" s="22">
+      <c r="F62" s="19">
         <v>6004</v>
       </c>
-      <c r="G61" s="21">
+      <c r="G62" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H61" s="22">
-        <v>0</v>
-      </c>
-      <c r="I61" s="22">
-        <v>0</v>
-      </c>
-      <c r="J61" s="21">
+      <c r="H62" s="19">
+        <v>0</v>
+      </c>
+      <c r="I62" s="19">
+        <v>0</v>
+      </c>
+      <c r="J62" s="18">
         <f t="shared" si="11"/>
         <v>5483</v>
       </c>
-      <c r="K61" s="22">
+      <c r="K62" s="19">
         <v>3788</v>
       </c>
-      <c r="L61" s="22">
+      <c r="L62" s="19">
         <v>1695</v>
       </c>
-      <c r="M61" s="23">
+      <c r="M62" s="20">
         <f t="shared" si="14"/>
         <v>958.75099999999998</v>
       </c>
-      <c r="N61" s="22">
+      <c r="N62" s="19">
         <v>841.01400000000001</v>
       </c>
-      <c r="O61" s="24">
+      <c r="O62" s="21">
         <v>117.73699999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="13">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="12">
         <f t="shared" si="12"/>
         <v>138604</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="13">
         <v>105733</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="13">
         <v>32871</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G63" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H62" s="16">
-        <v>0</v>
-      </c>
-      <c r="I62" s="16">
-        <v>0</v>
-      </c>
-      <c r="J62" s="15">
+      <c r="H63" s="13">
+        <v>0</v>
+      </c>
+      <c r="I63" s="13">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12">
         <f t="shared" si="11"/>
         <v>27685</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K63" s="13">
         <v>19400</v>
       </c>
-      <c r="L62" s="16">
+      <c r="L63" s="13">
         <v>8285</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M63" s="14">
         <f t="shared" si="14"/>
         <v>9011.8619999999992</v>
       </c>
-      <c r="N62" s="16">
+      <c r="N63" s="13">
         <v>6133.3159999999998</v>
       </c>
-      <c r="O62" s="18">
+      <c r="O63" s="15">
         <v>2878.5459999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="19">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="16">
         <v>2020</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D64" s="18">
         <f t="shared" si="12"/>
         <v>154600</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E64" s="19">
         <v>116643</v>
       </c>
-      <c r="F63" s="22">
+      <c r="F64" s="19">
         <v>37957</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G64" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H63" s="22">
-        <v>0</v>
-      </c>
-      <c r="I63" s="22">
-        <v>0</v>
-      </c>
-      <c r="J63" s="21">
+      <c r="H64" s="19">
+        <v>0</v>
+      </c>
+      <c r="I64" s="19">
+        <v>0</v>
+      </c>
+      <c r="J64" s="18">
         <f t="shared" si="11"/>
         <v>33096</v>
       </c>
-      <c r="K63" s="22">
+      <c r="K64" s="19">
         <v>22924</v>
       </c>
-      <c r="L63" s="22">
+      <c r="L64" s="19">
         <v>10172</v>
       </c>
-      <c r="M63" s="23">
+      <c r="M64" s="20">
         <f t="shared" si="14"/>
         <v>12555.147000000001</v>
       </c>
-      <c r="N63" s="22">
+      <c r="N64" s="19">
         <v>8141.3959999999997</v>
       </c>
-      <c r="O63" s="24">
+      <c r="O64" s="21">
         <v>4413.7510000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="25">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="22">
         <v>2020</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C65" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="27">
+      <c r="D65" s="24">
         <f t="shared" si="12"/>
         <v>167619</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E65" s="25">
         <v>126846</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F65" s="25">
         <v>40773</v>
       </c>
-      <c r="G64" s="27">
+      <c r="G65" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H64" s="28">
-        <v>0</v>
-      </c>
-      <c r="I64" s="28">
-        <v>0</v>
-      </c>
-      <c r="J64" s="27">
+      <c r="H65" s="25">
+        <v>0</v>
+      </c>
+      <c r="I65" s="25">
+        <v>0</v>
+      </c>
+      <c r="J65" s="24">
         <f t="shared" si="11"/>
         <v>37171</v>
       </c>
-      <c r="K64" s="28">
+      <c r="K65" s="25">
         <v>25779</v>
       </c>
-      <c r="L64" s="28">
+      <c r="L65" s="25">
         <v>11392</v>
       </c>
-      <c r="M64" s="29">
+      <c r="M65" s="26">
         <f t="shared" si="14"/>
         <v>13625.84</v>
       </c>
-      <c r="N64" s="28">
+      <c r="N65" s="25">
         <v>8800.0789999999997</v>
       </c>
-      <c r="O64" s="30">
+      <c r="O65" s="27">
         <v>4825.7610000000004</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="31">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="28">
         <v>2019</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C66" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="33">
+      <c r="D66" s="30">
         <f t="shared" si="12"/>
         <v>167593</v>
       </c>
-      <c r="E65" s="34">
+      <c r="E66" s="31">
         <v>126051</v>
       </c>
-      <c r="F65" s="34">
+      <c r="F66" s="31">
         <v>41542</v>
       </c>
-      <c r="G65" s="33">
+      <c r="G66" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H65" s="34">
-        <v>0</v>
-      </c>
-      <c r="I65" s="34">
-        <v>0</v>
-      </c>
-      <c r="J65" s="33">
+      <c r="H66" s="31">
+        <v>0</v>
+      </c>
+      <c r="I66" s="31">
+        <v>0</v>
+      </c>
+      <c r="J66" s="30">
         <f t="shared" si="11"/>
         <v>37969</v>
       </c>
-      <c r="K65" s="34">
+      <c r="K66" s="31">
         <v>25919</v>
       </c>
-      <c r="L65" s="34">
+      <c r="L66" s="31">
         <v>12050</v>
       </c>
-      <c r="M65" s="35">
+      <c r="M66" s="32">
         <f t="shared" si="14"/>
         <v>14311.285</v>
       </c>
-      <c r="N65" s="34">
+      <c r="N66" s="31">
         <v>9491.1820000000007</v>
       </c>
-      <c r="O65" s="36">
+      <c r="O66" s="33">
         <v>4820.1030000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="13">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="12">
         <f t="shared" si="12"/>
         <v>161899</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E67" s="13">
         <v>125646</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F67" s="13">
         <v>36253</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G67" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H66" s="16">
-        <v>0</v>
-      </c>
-      <c r="I66" s="16">
-        <v>0</v>
-      </c>
-      <c r="J66" s="15">
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
+      <c r="I67" s="13">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
         <f t="shared" si="11"/>
         <v>36078</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K67" s="13">
         <v>25201</v>
       </c>
-      <c r="L66" s="16">
+      <c r="L67" s="13">
         <v>10877</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M67" s="14">
         <f t="shared" si="14"/>
         <v>13215.171</v>
       </c>
-      <c r="N66" s="16">
+      <c r="N67" s="13">
         <v>9104.4480000000003</v>
       </c>
-      <c r="O66" s="18">
+      <c r="O67" s="15">
         <v>4110.723</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="19">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="16">
         <v>2019</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D68" s="18">
         <f t="shared" si="12"/>
         <v>159019</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E68" s="19">
         <v>126531</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F68" s="19">
         <v>32488</v>
       </c>
-      <c r="G67" s="21">
+      <c r="G68" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H67" s="22">
-        <v>0</v>
-      </c>
-      <c r="I67" s="22">
-        <v>0</v>
-      </c>
-      <c r="J67" s="21">
+      <c r="H68" s="19">
+        <v>0</v>
+      </c>
+      <c r="I68" s="19">
+        <v>0</v>
+      </c>
+      <c r="J68" s="18">
         <f t="shared" si="11"/>
         <v>36741</v>
       </c>
-      <c r="K67" s="22">
+      <c r="K68" s="19">
         <v>25823</v>
       </c>
-      <c r="L67" s="22">
+      <c r="L68" s="19">
         <v>10918</v>
       </c>
-      <c r="M67" s="23">
+      <c r="M68" s="20">
         <f t="shared" si="14"/>
         <v>12724.360999999999</v>
       </c>
-      <c r="N67" s="22">
+      <c r="N68" s="19">
         <v>9175.6839999999993</v>
       </c>
-      <c r="O67" s="24">
+      <c r="O68" s="21">
         <v>3548.6770000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="13">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="12">
         <f t="shared" si="12"/>
         <v>148583</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E69" s="13">
         <v>118880</v>
       </c>
-      <c r="F68" s="16">
+      <c r="F69" s="13">
         <v>29703</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G69" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H68" s="16">
-        <v>0</v>
-      </c>
-      <c r="I68" s="16">
-        <v>0</v>
-      </c>
-      <c r="J68" s="15">
+      <c r="H69" s="13">
+        <v>0</v>
+      </c>
+      <c r="I69" s="13">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
         <f t="shared" si="11"/>
         <v>34491</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K69" s="13">
         <v>23749</v>
       </c>
-      <c r="L68" s="16">
+      <c r="L69" s="13">
         <v>10742</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M69" s="14">
         <f t="shared" si="14"/>
         <v>11512.314</v>
       </c>
-      <c r="N68" s="16">
+      <c r="N69" s="13">
         <v>8319.4240000000009</v>
       </c>
-      <c r="O68" s="18">
+      <c r="O69" s="15">
         <v>3192.89</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="19">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="16">
         <v>2019</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C70" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D70" s="18">
         <f t="shared" si="12"/>
         <v>165304</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E70" s="19">
         <v>129776.00000000001</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F70" s="19">
         <v>35528</v>
       </c>
-      <c r="G69" s="21">
+      <c r="G70" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H69" s="22">
-        <v>0</v>
-      </c>
-      <c r="I69" s="22">
-        <v>0</v>
-      </c>
-      <c r="J69" s="21">
+      <c r="H70" s="19">
+        <v>0</v>
+      </c>
+      <c r="I70" s="19">
+        <v>0</v>
+      </c>
+      <c r="J70" s="18">
         <f t="shared" si="11"/>
         <v>37882</v>
       </c>
-      <c r="K69" s="22">
+      <c r="K70" s="19">
         <v>25900</v>
       </c>
-      <c r="L69" s="22">
+      <c r="L70" s="19">
         <v>11982</v>
       </c>
-      <c r="M69" s="23">
+      <c r="M70" s="20">
         <f t="shared" si="14"/>
         <v>13678.462</v>
       </c>
-      <c r="N69" s="22">
+      <c r="N70" s="19">
         <v>9506.8289999999997</v>
       </c>
-      <c r="O69" s="24">
+      <c r="O70" s="21">
         <v>4171.6329999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D71" s="12">
         <f t="shared" si="12"/>
         <v>168640</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E71" s="13">
         <v>131068.99999999999</v>
       </c>
-      <c r="F70" s="16">
+      <c r="F71" s="13">
         <v>37571</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G71" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H70" s="16">
-        <v>0</v>
-      </c>
-      <c r="I70" s="16">
-        <v>0</v>
-      </c>
-      <c r="J70" s="15">
+      <c r="H71" s="13">
+        <v>0</v>
+      </c>
+      <c r="I71" s="13">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
         <f t="shared" si="11"/>
         <v>38116</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K71" s="13">
         <v>25943</v>
       </c>
-      <c r="L70" s="16">
+      <c r="L71" s="13">
         <v>12173</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M71" s="14">
         <f t="shared" si="14"/>
         <v>14682.169</v>
       </c>
-      <c r="N70" s="16">
+      <c r="N71" s="13">
         <v>9992.81</v>
       </c>
-      <c r="O70" s="18">
+      <c r="O71" s="15">
         <v>4689.3590000000004</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="19">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="16">
         <v>2019</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="21">
+      <c r="D72" s="18">
         <f t="shared" si="12"/>
         <v>159253</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E72" s="19">
         <v>123607</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F72" s="19">
         <v>35646</v>
       </c>
-      <c r="G71" s="21">
+      <c r="G72" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H71" s="22">
-        <v>0</v>
-      </c>
-      <c r="I71" s="22">
-        <v>0</v>
-      </c>
-      <c r="J71" s="21">
+      <c r="H72" s="19">
+        <v>0</v>
+      </c>
+      <c r="I72" s="19">
+        <v>0</v>
+      </c>
+      <c r="J72" s="18">
         <f t="shared" si="11"/>
         <v>35734</v>
       </c>
-      <c r="K71" s="22">
+      <c r="K72" s="19">
         <v>24362</v>
       </c>
-      <c r="L71" s="22">
+      <c r="L72" s="19">
         <v>11372</v>
       </c>
-      <c r="M71" s="23">
+      <c r="M72" s="20">
         <f t="shared" si="14"/>
         <v>13352.69</v>
       </c>
-      <c r="N71" s="22">
+      <c r="N72" s="19">
         <v>9079.7170000000006</v>
       </c>
-      <c r="O71" s="24">
+      <c r="O72" s="21">
         <v>4272.973</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="13">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="12">
         <f t="shared" si="12"/>
         <v>166260</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E73" s="13">
         <v>130592.99999999999</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F73" s="13">
         <v>35667</v>
       </c>
-      <c r="G72" s="15">
+      <c r="G73" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H72" s="16">
-        <v>0</v>
-      </c>
-      <c r="I72" s="16">
-        <v>0</v>
-      </c>
-      <c r="J72" s="15">
-        <f t="shared" ref="J72:J88" si="15">SUM(K72:L72)</f>
+      <c r="H73" s="13">
+        <v>0</v>
+      </c>
+      <c r="I73" s="13">
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <f t="shared" ref="J73:J89" si="15">SUM(K73:L73)</f>
         <v>36624</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K73" s="13">
         <v>25219</v>
       </c>
-      <c r="L72" s="16">
+      <c r="L73" s="13">
         <v>11405</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M73" s="14">
         <f t="shared" si="14"/>
         <v>13434.785</v>
       </c>
-      <c r="N72" s="16">
+      <c r="N73" s="13">
         <v>9373.2109999999993</v>
       </c>
-      <c r="O72" s="18">
+      <c r="O73" s="15">
         <v>4061.5740000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="19">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="16">
         <v>2019</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="21">
+      <c r="D74" s="18">
         <f t="shared" si="12"/>
         <v>168338</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E74" s="19">
         <v>129008.99999999999</v>
       </c>
-      <c r="F73" s="22">
+      <c r="F74" s="19">
         <v>39329</v>
       </c>
-      <c r="G73" s="21">
+      <c r="G74" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H73" s="22">
-        <v>0</v>
-      </c>
-      <c r="I73" s="22">
-        <v>0</v>
-      </c>
-      <c r="J73" s="21">
+      <c r="H74" s="19">
+        <v>0</v>
+      </c>
+      <c r="I74" s="19">
+        <v>0</v>
+      </c>
+      <c r="J74" s="18">
         <f t="shared" si="15"/>
         <v>35519</v>
       </c>
-      <c r="K73" s="22">
+      <c r="K74" s="19">
         <v>24350</v>
       </c>
-      <c r="L73" s="22">
+      <c r="L74" s="19">
         <v>11169</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M74" s="20">
         <f t="shared" si="14"/>
         <v>13245.237000000001</v>
       </c>
-      <c r="N73" s="22">
+      <c r="N74" s="19">
         <v>8877.2070000000003</v>
       </c>
-      <c r="O73" s="24">
+      <c r="O74" s="21">
         <v>4368.03</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="13">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D75" s="12">
         <f t="shared" si="12"/>
         <v>171618</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="13">
         <v>128662</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="13">
         <v>42956</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G75" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H74" s="16">
-        <v>0</v>
-      </c>
-      <c r="I74" s="16">
-        <v>0</v>
-      </c>
-      <c r="J74" s="15">
+      <c r="H75" s="13">
+        <v>0</v>
+      </c>
+      <c r="I75" s="13">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
         <f t="shared" si="15"/>
         <v>35392</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K75" s="13">
         <v>24040</v>
       </c>
-      <c r="L74" s="16">
+      <c r="L75" s="13">
         <v>11352</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M75" s="14">
         <f t="shared" si="14"/>
         <v>13468.561000000002</v>
       </c>
-      <c r="N74" s="16">
+      <c r="N75" s="13">
         <v>8550.9040000000005</v>
       </c>
-      <c r="O74" s="18">
+      <c r="O75" s="15">
         <v>4917.6570000000002</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="19">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="16">
         <v>2019</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C76" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D76" s="18">
         <f t="shared" si="12"/>
         <v>151989</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E76" s="19">
         <v>114632</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F76" s="19">
         <v>37357</v>
       </c>
-      <c r="G75" s="21">
+      <c r="G76" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H75" s="22">
-        <v>0</v>
-      </c>
-      <c r="I75" s="22">
-        <v>0</v>
-      </c>
-      <c r="J75" s="21">
+      <c r="H76" s="19">
+        <v>0</v>
+      </c>
+      <c r="I76" s="19">
+        <v>0</v>
+      </c>
+      <c r="J76" s="18">
         <f t="shared" si="15"/>
         <v>31890</v>
       </c>
-      <c r="K75" s="22">
+      <c r="K76" s="19">
         <v>21784</v>
       </c>
-      <c r="L75" s="22">
+      <c r="L76" s="19">
         <v>10106</v>
       </c>
-      <c r="M75" s="23">
+      <c r="M76" s="20">
         <f t="shared" si="14"/>
         <v>11254.142</v>
       </c>
-      <c r="N75" s="22">
+      <c r="N76" s="19">
         <v>7147.8</v>
       </c>
-      <c r="O75" s="24">
+      <c r="O76" s="21">
         <v>4106.3419999999996</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="25">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="22">
         <v>2019</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C77" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="27">
-        <f t="shared" ref="D76:D88" si="16">SUM(E76:F76)</f>
+      <c r="D77" s="24">
+        <f t="shared" ref="D77:D89" si="16">SUM(E77:F77)</f>
         <v>165954</v>
       </c>
-      <c r="E76" s="28">
+      <c r="E77" s="25">
         <v>124266</v>
       </c>
-      <c r="F76" s="28">
+      <c r="F77" s="25">
         <v>41688</v>
       </c>
-      <c r="G76" s="27">
-        <f t="shared" ref="G76:G88" si="17">SUM(H76:I76)</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="28">
-        <v>0</v>
-      </c>
-      <c r="I76" s="28">
-        <v>0</v>
-      </c>
-      <c r="J76" s="27">
+      <c r="G77" s="24">
+        <f t="shared" ref="G77:G89" si="17">SUM(H77:I77)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="25">
+        <v>0</v>
+      </c>
+      <c r="I77" s="25">
+        <v>0</v>
+      </c>
+      <c r="J77" s="24">
         <f t="shared" si="15"/>
         <v>35932</v>
       </c>
-      <c r="K76" s="28">
+      <c r="K77" s="25">
         <v>24195</v>
       </c>
-      <c r="L76" s="28">
+      <c r="L77" s="25">
         <v>11737</v>
       </c>
-      <c r="M76" s="29">
-        <f t="shared" ref="M76:M88" si="18">SUM(N76:O76)</f>
+      <c r="M77" s="26">
+        <f t="shared" ref="M77:M89" si="18">SUM(N77:O77)</f>
         <v>12584.922</v>
       </c>
-      <c r="N76" s="28">
+      <c r="N77" s="25">
         <v>7965.4170000000004</v>
       </c>
-      <c r="O76" s="30">
+      <c r="O77" s="27">
         <v>4619.5050000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="20">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="17">
         <v>2018</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D78" s="18">
         <f t="shared" si="16"/>
         <v>167896</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E78" s="19">
         <v>126468</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F78" s="19">
         <v>41428</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G78" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H77" s="22">
-        <v>0</v>
-      </c>
-      <c r="I77" s="22">
-        <v>0</v>
-      </c>
-      <c r="J77" s="21">
+      <c r="H78" s="19">
+        <v>0</v>
+      </c>
+      <c r="I78" s="19">
+        <v>0</v>
+      </c>
+      <c r="J78" s="18">
         <f t="shared" si="15"/>
         <v>36796</v>
       </c>
-      <c r="K77" s="22">
+      <c r="K78" s="19">
         <v>24610</v>
       </c>
-      <c r="L77" s="22">
+      <c r="L78" s="19">
         <v>12186</v>
       </c>
-      <c r="M77" s="23">
+      <c r="M78" s="20">
         <f t="shared" si="18"/>
         <v>13446.27</v>
       </c>
-      <c r="N77" s="22">
+      <c r="N78" s="19">
         <v>8820.4920000000002</v>
       </c>
-      <c r="O77" s="22">
+      <c r="O78" s="19">
         <v>4625.7780000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="14">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="11">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="12">
         <f t="shared" si="16"/>
         <v>165335</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E79" s="13">
         <v>128314</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F79" s="13">
         <v>37021</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G79" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H78" s="16">
-        <v>0</v>
-      </c>
-      <c r="I78" s="16">
-        <v>0</v>
-      </c>
-      <c r="J78" s="15">
+      <c r="H79" s="13">
+        <v>0</v>
+      </c>
+      <c r="I79" s="13">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
         <f t="shared" si="15"/>
         <v>35251</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K79" s="13">
         <v>23927</v>
       </c>
-      <c r="L78" s="16">
+      <c r="L79" s="13">
         <v>11324</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M79" s="14">
         <f t="shared" si="18"/>
         <v>12543.215</v>
       </c>
-      <c r="N78" s="16">
+      <c r="N79" s="13">
         <v>8542.7430000000004</v>
       </c>
-      <c r="O78" s="16">
+      <c r="O79" s="13">
         <v>4000.4720000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="20">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="17">
         <v>2018</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C80" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D80" s="18">
         <f t="shared" si="16"/>
         <v>162784</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E80" s="19">
         <v>129050.00000000001</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F80" s="19">
         <v>33734</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G80" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H79" s="22">
-        <v>0</v>
-      </c>
-      <c r="I79" s="22">
-        <v>0</v>
-      </c>
-      <c r="J79" s="21">
+      <c r="H80" s="19">
+        <v>0</v>
+      </c>
+      <c r="I80" s="19">
+        <v>0</v>
+      </c>
+      <c r="J80" s="18">
         <f t="shared" si="15"/>
         <v>35903</v>
       </c>
-      <c r="K79" s="22">
+      <c r="K80" s="19">
         <v>24186</v>
       </c>
-      <c r="L79" s="22">
+      <c r="L80" s="19">
         <v>11717</v>
       </c>
-      <c r="M79" s="23">
+      <c r="M80" s="20">
         <f t="shared" si="18"/>
         <v>11940.449000000001</v>
       </c>
-      <c r="N79" s="22">
+      <c r="N80" s="19">
         <v>8460.0640000000003</v>
       </c>
-      <c r="O79" s="22">
+      <c r="O80" s="19">
         <v>3480.3850000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="14">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="12">
         <f t="shared" si="16"/>
         <v>151218</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E81" s="13">
         <v>120455</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F81" s="13">
         <v>30763</v>
       </c>
-      <c r="G80" s="15">
+      <c r="G81" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H80" s="16">
-        <v>0</v>
-      </c>
-      <c r="I80" s="16">
-        <v>0</v>
-      </c>
-      <c r="J80" s="15">
+      <c r="H81" s="13">
+        <v>0</v>
+      </c>
+      <c r="I81" s="13">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
         <f t="shared" si="15"/>
         <v>34246</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K81" s="13">
         <v>23006</v>
       </c>
-      <c r="L80" s="16">
+      <c r="L81" s="13">
         <v>11240</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M81" s="14">
         <f t="shared" si="18"/>
         <v>10888.41</v>
       </c>
-      <c r="N80" s="16">
+      <c r="N81" s="13">
         <v>7775.683</v>
       </c>
-      <c r="O80" s="16">
+      <c r="O81" s="13">
         <v>3112.7269999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="20">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="17">
         <v>2018</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D82" s="18">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E82" s="19">
         <v>131130</v>
       </c>
-      <c r="F81" s="22">
+      <c r="F82" s="19">
         <v>36187</v>
       </c>
-      <c r="G81" s="21">
+      <c r="G82" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H81" s="22">
-        <v>0</v>
-      </c>
-      <c r="I81" s="22">
-        <v>0</v>
-      </c>
-      <c r="J81" s="21">
+      <c r="H82" s="19">
+        <v>0</v>
+      </c>
+      <c r="I82" s="19">
+        <v>0</v>
+      </c>
+      <c r="J82" s="18">
         <f t="shared" si="15"/>
         <v>37070</v>
       </c>
-      <c r="K81" s="22">
+      <c r="K82" s="19">
         <v>24746</v>
       </c>
-      <c r="L81" s="22">
+      <c r="L82" s="19">
         <v>12324</v>
       </c>
-      <c r="M81" s="23">
+      <c r="M82" s="20">
         <f t="shared" si="18"/>
         <v>12946.407999999999</v>
       </c>
-      <c r="N81" s="22">
+      <c r="N82" s="19">
         <v>8844.4689999999991</v>
       </c>
-      <c r="O81" s="22">
+      <c r="O82" s="19">
         <v>4101.9390000000003</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="14">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D83" s="12">
         <f t="shared" si="16"/>
         <v>166752</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E83" s="13">
         <v>128561</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F83" s="13">
         <v>38191</v>
       </c>
-      <c r="G82" s="15">
+      <c r="G83" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H82" s="16">
-        <v>0</v>
-      </c>
-      <c r="I82" s="16">
-        <v>0</v>
-      </c>
-      <c r="J82" s="15">
+      <c r="H83" s="13">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
         <f t="shared" si="15"/>
         <v>37073</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K83" s="13">
         <v>24692</v>
       </c>
-      <c r="L82" s="16">
+      <c r="L83" s="13">
         <v>12381</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M83" s="14">
         <f t="shared" si="18"/>
         <v>14091.387999999999</v>
       </c>
-      <c r="N82" s="16">
+      <c r="N83" s="13">
         <v>9430.1080000000002</v>
       </c>
-      <c r="O82" s="16">
+      <c r="O83" s="13">
         <v>4661.28</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="20">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="17">
         <v>2018</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="21">
+      <c r="D84" s="18">
         <f t="shared" si="16"/>
         <v>158678</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E84" s="19">
         <v>121941</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F84" s="19">
         <v>36737</v>
       </c>
-      <c r="G83" s="21">
+      <c r="G84" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H83" s="22">
-        <v>0</v>
-      </c>
-      <c r="I83" s="22">
-        <v>0</v>
-      </c>
-      <c r="J83" s="21">
+      <c r="H84" s="19">
+        <v>0</v>
+      </c>
+      <c r="I84" s="19">
+        <v>0</v>
+      </c>
+      <c r="J84" s="18">
         <f t="shared" si="15"/>
         <v>34876</v>
       </c>
-      <c r="K83" s="22">
+      <c r="K84" s="19">
         <v>23300</v>
       </c>
-      <c r="L83" s="22">
+      <c r="L84" s="19">
         <v>11576</v>
       </c>
-      <c r="M83" s="23">
+      <c r="M84" s="20">
         <f t="shared" si="18"/>
         <v>12298.282999999999</v>
       </c>
-      <c r="N83" s="22">
+      <c r="N84" s="19">
         <v>8174.7749999999996</v>
       </c>
-      <c r="O83" s="22">
+      <c r="O84" s="19">
         <v>4123.5079999999998</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="14">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="12">
         <f t="shared" si="16"/>
         <v>168027</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E85" s="13">
         <v>131482</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F85" s="13">
         <v>36545</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G85" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H84" s="16">
-        <v>0</v>
-      </c>
-      <c r="I84" s="16">
-        <v>0</v>
-      </c>
-      <c r="J84" s="15">
+      <c r="H85" s="13">
+        <v>0</v>
+      </c>
+      <c r="I85" s="13">
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
         <f t="shared" si="15"/>
         <v>35688</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K85" s="13">
         <v>24015</v>
       </c>
-      <c r="L84" s="16">
+      <c r="L85" s="13">
         <v>11673</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M85" s="14">
         <f t="shared" si="18"/>
         <v>12153.535</v>
       </c>
-      <c r="N84" s="16">
+      <c r="N85" s="13">
         <v>8289.7060000000001</v>
       </c>
-      <c r="O84" s="16">
+      <c r="O85" s="13">
         <v>3863.8290000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="20">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="17">
         <v>2018</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C86" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="21">
+      <c r="D86" s="18">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E86" s="19">
         <v>128001</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F86" s="19">
         <v>39316</v>
       </c>
-      <c r="G85" s="21">
+      <c r="G86" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H85" s="22">
-        <v>0</v>
-      </c>
-      <c r="I85" s="22">
-        <v>0</v>
-      </c>
-      <c r="J85" s="21">
+      <c r="H86" s="19">
+        <v>0</v>
+      </c>
+      <c r="I86" s="19">
+        <v>0</v>
+      </c>
+      <c r="J86" s="18">
         <f t="shared" si="15"/>
         <v>34719</v>
       </c>
-      <c r="K85" s="22">
+      <c r="K86" s="19">
         <v>23289</v>
       </c>
-      <c r="L85" s="22">
+      <c r="L86" s="19">
         <v>11430</v>
       </c>
-      <c r="M85" s="23">
+      <c r="M86" s="20">
         <f t="shared" si="18"/>
         <v>12397.615</v>
       </c>
-      <c r="N85" s="22">
+      <c r="N86" s="19">
         <v>8179.683</v>
       </c>
-      <c r="O85" s="22">
+      <c r="O86" s="19">
         <v>4217.9319999999998</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="14">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D87" s="12">
         <f t="shared" si="16"/>
         <v>175525</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E87" s="13">
         <v>131590</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F87" s="13">
         <v>43935</v>
       </c>
-      <c r="G86" s="15">
+      <c r="G87" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H86" s="16">
-        <v>0</v>
-      </c>
-      <c r="I86" s="16">
-        <v>0</v>
-      </c>
-      <c r="J86" s="15">
+      <c r="H87" s="13">
+        <v>0</v>
+      </c>
+      <c r="I87" s="13">
+        <v>0</v>
+      </c>
+      <c r="J87" s="12">
         <f t="shared" si="15"/>
         <v>35499</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K87" s="13">
         <v>23540</v>
       </c>
-      <c r="L86" s="16">
+      <c r="L87" s="13">
         <v>11959</v>
       </c>
-      <c r="M86" s="17">
+      <c r="M87" s="14">
         <f t="shared" si="18"/>
         <v>12920.743</v>
       </c>
-      <c r="N86" s="16">
+      <c r="N87" s="13">
         <v>8102.1610000000001</v>
       </c>
-      <c r="O86" s="16">
+      <c r="O87" s="13">
         <v>4818.5820000000003</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="20">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="17">
         <v>2018</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C88" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D87" s="21">
+      <c r="D88" s="18">
         <f t="shared" si="16"/>
         <v>153732</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E88" s="19">
         <v>115727</v>
       </c>
-      <c r="F87" s="22">
+      <c r="F88" s="19">
         <v>38005</v>
       </c>
-      <c r="G87" s="21">
+      <c r="G88" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H87" s="22">
-        <v>0</v>
-      </c>
-      <c r="I87" s="22">
-        <v>0</v>
-      </c>
-      <c r="J87" s="21">
+      <c r="H88" s="19">
+        <v>0</v>
+      </c>
+      <c r="I88" s="19">
+        <v>0</v>
+      </c>
+      <c r="J88" s="18">
         <f t="shared" si="15"/>
         <v>31178</v>
       </c>
-      <c r="K87" s="22">
+      <c r="K88" s="19">
         <v>20697</v>
       </c>
-      <c r="L87" s="22">
+      <c r="L88" s="19">
         <v>10481</v>
       </c>
-      <c r="M87" s="23">
+      <c r="M88" s="20">
         <f t="shared" si="18"/>
         <v>10846.098</v>
       </c>
-      <c r="N87" s="22">
+      <c r="N88" s="19">
         <v>6820.4250000000002</v>
       </c>
-      <c r="O87" s="22">
+      <c r="O88" s="19">
         <v>4025.6729999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="14">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="11">
         <v>2018</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D89" s="12">
         <f t="shared" si="16"/>
         <v>165319</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E89" s="13">
         <v>123033</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F89" s="13">
         <v>42286</v>
       </c>
-      <c r="G88" s="15">
+      <c r="G89" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H88" s="16">
-        <v>0</v>
-      </c>
-      <c r="I88" s="16">
-        <v>0</v>
-      </c>
-      <c r="J88" s="15">
+      <c r="H89" s="13">
+        <v>0</v>
+      </c>
+      <c r="I89" s="13">
+        <v>0</v>
+      </c>
+      <c r="J89" s="12">
         <f t="shared" si="15"/>
         <v>35175</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K89" s="13">
         <v>23003</v>
       </c>
-      <c r="L88" s="16">
+      <c r="L89" s="13">
         <v>12172</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M89" s="14">
         <f t="shared" si="18"/>
         <v>12140.277</v>
       </c>
-      <c r="N88" s="16">
+      <c r="N89" s="13">
         <v>7540.7510000000002</v>
       </c>
-      <c r="O88" s="16">
+      <c r="O89" s="13">
         <v>4599.5259999999998</v>
       </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B89" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N89" s="22"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B90" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N90" s="22"/>
-      <c r="O90" s="37"/>
+        <v>36</v>
+      </c>
+      <c r="N90" s="19"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="22"/>
+        <v>29</v>
+      </c>
+      <c r="N91" s="19"/>
+      <c r="O91" s="34"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N92" s="22"/>
+        <v>5</v>
+      </c>
+      <c r="N92" s="19"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="N93" s="19"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="3" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Operaciones_pasajeros_A.xlsx
+++ b/Operaciones_pasajeros_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039DAC48-D232-409D-9E3E-46ECE5DE38C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E246979-FA57-41C3-B8BF-9E7E486D2268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
   <si>
     <t>Internacional</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            El concepto de Operaciones del AIFA, Inició operaciones el 21 de marzo de 2022.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            El concepto de Operaciones del AIFA, Periodo 2022 comprendido de marzo a diciembre de 2022.</t>
   </si>
   <si>
     <t xml:space="preserve">Total </t>
@@ -78,9 +72,6 @@
   </si>
   <si>
     <t>Fuente: Para total de operaciones y pasajeros atendidos: AFAC. Agencia Federal de Aviación Civil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AIFA. Numeralia Aeroportuaria. En: www.aifa.aero.</t>
   </si>
   <si>
     <t>Mes</t>
@@ -146,7 +137,16 @@
     <t xml:space="preserve">Operaciones </t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               AIFA. Numeralia Aeroportuaria. En: www.aifa.aero.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           El concepto de Operaciones del AIFA, Inició operaciones el 21 de marzo de 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           El concepto de Operaciones del AIFA, Periodo 2022 comprendido de marzo a diciembre de 2022.</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -466,6 +466,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -774,8 +786,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O89" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O90" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1033,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O95"/>
+  <dimension ref="B2:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1061,7 +1073,7 @@
   <sheetData>
     <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1"/>
       <c r="M2" s="1"/>
@@ -1075,7 +1087,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="37"/>
@@ -1085,7 +1097,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="37"/>
       <c r="J4" s="35" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="37"/>
@@ -1097,10 +1109,10 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>4</v>
@@ -1112,4098 +1124,4146 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="O5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B6" s="16">
+      <c r="B6" s="38">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="40">
+        <f>SUM(E6:F6)</f>
+        <v>161842</v>
+      </c>
+      <c r="E6" s="41">
+        <v>112729</v>
+      </c>
+      <c r="F6" s="41">
+        <v>49113</v>
+      </c>
+      <c r="G6" s="40">
+        <f>SUM(H6:I6)</f>
+        <v>5368</v>
+      </c>
+      <c r="H6" s="41">
+        <v>5061</v>
+      </c>
+      <c r="I6" s="41">
+        <v>307</v>
+      </c>
+      <c r="J6" s="40">
+        <f>SUM(K6:L6)</f>
+        <v>25418</v>
+      </c>
+      <c r="K6" s="41">
+        <v>15960</v>
+      </c>
+      <c r="L6" s="41">
+        <v>9458</v>
+      </c>
+      <c r="M6" s="42">
+        <f>SUM(N6:O6)</f>
+        <v>16253.696</v>
+      </c>
+      <c r="N6" s="41">
+        <v>10324.276</v>
+      </c>
+      <c r="O6" s="43">
+        <v>5929.42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="16">
         <v>2024</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="18">
+        <f>SUM(E7:F7)</f>
+        <v>167031</v>
+      </c>
+      <c r="E7" s="19">
+        <v>116920</v>
+      </c>
+      <c r="F7" s="19">
+        <v>50111</v>
+      </c>
+      <c r="G7" s="18">
+        <f>SUM(H7:I7)</f>
+        <v>5918</v>
+      </c>
+      <c r="H7" s="19">
+        <v>5595</v>
+      </c>
+      <c r="I7" s="19">
+        <v>323</v>
+      </c>
+      <c r="J7" s="18">
+        <f>SUM(K7:L7)</f>
+        <v>25085</v>
+      </c>
+      <c r="K7" s="19">
+        <v>15393</v>
+      </c>
+      <c r="L7" s="19">
+        <v>9692</v>
+      </c>
+      <c r="M7" s="20">
+        <f>SUM(N7:O7)</f>
+        <v>17224.003000000001</v>
+      </c>
+      <c r="N7" s="19">
+        <v>11183.15</v>
+      </c>
+      <c r="O7" s="21">
+        <v>6040.8530000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SUM(E8:F8)</f>
+        <v>163956</v>
+      </c>
+      <c r="E8" s="13">
+        <v>119294</v>
+      </c>
+      <c r="F8" s="13">
+        <v>44662</v>
+      </c>
+      <c r="G8" s="12">
+        <f>SUM(H8:I8)</f>
+        <v>5900</v>
+      </c>
+      <c r="H8" s="13">
+        <v>5580</v>
+      </c>
+      <c r="I8" s="13">
+        <v>320</v>
+      </c>
+      <c r="J8" s="12">
+        <f>SUM(K8:L8)</f>
+        <v>24195</v>
+      </c>
+      <c r="K8" s="13">
+        <v>15199</v>
+      </c>
+      <c r="L8" s="13">
+        <v>8996</v>
+      </c>
+      <c r="M8" s="14">
+        <f>SUM(N8:O8)</f>
+        <v>15816.669000000002</v>
+      </c>
+      <c r="N8" s="13">
+        <v>10696.485000000001</v>
+      </c>
+      <c r="O8" s="15">
+        <v>5120.1840000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="16">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" ref="D9" si="0">SUM(E9:F9)</f>
+        <v>154230</v>
+      </c>
+      <c r="E9" s="19">
+        <v>116413</v>
+      </c>
+      <c r="F9" s="19">
+        <v>37817</v>
+      </c>
+      <c r="G9" s="18">
+        <f t="shared" ref="G9" si="1">SUM(H9:I9)</f>
+        <v>5902</v>
+      </c>
+      <c r="H9" s="19">
+        <v>5574</v>
+      </c>
+      <c r="I9" s="19">
+        <v>328</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" ref="J9" si="2">SUM(K9:L9)</f>
+        <v>24943</v>
+      </c>
+      <c r="K9" s="19">
+        <v>16106</v>
+      </c>
+      <c r="L9" s="19">
+        <v>8837</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" ref="M9" si="3">SUM(N9:O9)</f>
+        <v>14932.208999999999</v>
+      </c>
+      <c r="N9" s="19">
+        <v>10562.91</v>
+      </c>
+      <c r="O9" s="21">
+        <v>4369.299</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="18">
-        <f>SUM(E6:F6)</f>
-        <v>167527</v>
-      </c>
-      <c r="E6" s="19">
-        <v>117298</v>
-      </c>
-      <c r="F6" s="19">
-        <v>50229</v>
-      </c>
-      <c r="G6" s="18">
-        <f>SUM(H6:I6)</f>
-        <v>5918</v>
-      </c>
-      <c r="H6" s="19">
-        <v>5595</v>
-      </c>
-      <c r="I6" s="19">
-        <v>323</v>
-      </c>
-      <c r="J6" s="18">
-        <f>SUM(K6:L6)</f>
-        <v>25085</v>
-      </c>
-      <c r="K6" s="19">
-        <v>15393</v>
-      </c>
-      <c r="L6" s="19">
-        <v>9692</v>
-      </c>
-      <c r="M6" s="20">
-        <f>SUM(N6:O6)</f>
-        <v>17224.042999999998</v>
-      </c>
-      <c r="N6" s="19">
-        <v>11183.159</v>
-      </c>
-      <c r="O6" s="21">
-        <v>6040.884</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+      <c r="D10" s="12">
+        <f>SUM(E10:F10)</f>
+        <v>141210</v>
+      </c>
+      <c r="E10" s="13">
+        <v>108351</v>
+      </c>
+      <c r="F10" s="13">
+        <v>32859</v>
+      </c>
+      <c r="G10" s="12">
+        <f>SUM(H10:I10)</f>
+        <v>5605</v>
+      </c>
+      <c r="H10" s="13">
+        <v>5292</v>
+      </c>
+      <c r="I10" s="13">
+        <v>313</v>
+      </c>
+      <c r="J10" s="12">
+        <f>SUM(K10:L10)</f>
+        <v>24172</v>
+      </c>
+      <c r="K10" s="13">
+        <v>12094</v>
+      </c>
+      <c r="L10" s="13">
+        <v>12078</v>
+      </c>
+      <c r="M10" s="14">
+        <f>SUM(N10:O10)</f>
+        <v>13837.021999999999</v>
+      </c>
+      <c r="N10" s="13">
+        <v>10036.638999999999</v>
+      </c>
+      <c r="O10" s="15">
+        <v>3800.3829999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="16">
         <v>2024</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="12">
-        <f>SUM(E7:F7)</f>
-        <v>164065</v>
-      </c>
-      <c r="E7" s="13">
-        <v>119436</v>
-      </c>
-      <c r="F7" s="13">
-        <v>44629</v>
-      </c>
-      <c r="G7" s="12">
-        <f>SUM(H7:I7)</f>
-        <v>5900</v>
-      </c>
-      <c r="H7" s="13">
-        <v>5580</v>
-      </c>
-      <c r="I7" s="13">
-        <v>320</v>
-      </c>
-      <c r="J7" s="12">
-        <f>SUM(K7:L7)</f>
-        <v>24195</v>
-      </c>
-      <c r="K7" s="13">
-        <v>15199</v>
-      </c>
-      <c r="L7" s="13">
-        <v>8996</v>
-      </c>
-      <c r="M7" s="14">
-        <f>SUM(N7:O7)</f>
-        <v>15816.669000000002</v>
-      </c>
-      <c r="N7" s="13">
-        <v>10696.485000000001</v>
-      </c>
-      <c r="O7" s="15">
-        <v>5120.1840000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="16">
+      <c r="C11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="18">
+        <f>SUM(E11:F11)</f>
+        <v>157045</v>
+      </c>
+      <c r="E11" s="19">
+        <v>118762</v>
+      </c>
+      <c r="F11" s="19">
+        <v>38283</v>
+      </c>
+      <c r="G11" s="18">
+        <f t="shared" ref="G11:G45" si="4">SUM(H11:I11)</f>
+        <v>5894</v>
+      </c>
+      <c r="H11" s="19">
+        <v>5553</v>
+      </c>
+      <c r="I11" s="19">
+        <v>341</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" ref="J11:J41" si="5">SUM(K11:L11)</f>
+        <v>26410</v>
+      </c>
+      <c r="K11" s="19">
+        <v>17075</v>
+      </c>
+      <c r="L11" s="19">
+        <v>9335</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" ref="M11:M45" si="6">SUM(N11:O11)</f>
+        <v>16048.866999999998</v>
+      </c>
+      <c r="N11" s="19">
+        <v>11325.605</v>
+      </c>
+      <c r="O11" s="21">
+        <v>4723.2619999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="18">
-        <f t="shared" ref="D8" si="0">SUM(E8:F8)</f>
-        <v>154230</v>
-      </c>
-      <c r="E8" s="19">
-        <v>116413</v>
-      </c>
-      <c r="F8" s="19">
-        <v>37817</v>
-      </c>
-      <c r="G8" s="18">
-        <f t="shared" ref="G8" si="1">SUM(H8:I8)</f>
-        <v>5902</v>
-      </c>
-      <c r="H8" s="19">
-        <v>5574</v>
-      </c>
-      <c r="I8" s="19">
-        <v>328</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" ref="J8" si="2">SUM(K8:L8)</f>
-        <v>24943</v>
-      </c>
-      <c r="K8" s="19">
-        <v>16106</v>
-      </c>
-      <c r="L8" s="19">
-        <v>8837</v>
-      </c>
-      <c r="M8" s="20">
-        <f t="shared" ref="M8" si="3">SUM(N8:O8)</f>
-        <v>14932.208999999999</v>
-      </c>
-      <c r="N8" s="19">
-        <v>10562.91</v>
-      </c>
-      <c r="O8" s="21">
-        <v>4369.299</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="12">
-        <f>SUM(E9:F9)</f>
-        <v>141210</v>
-      </c>
-      <c r="E9" s="13">
-        <v>108351</v>
-      </c>
-      <c r="F9" s="13">
-        <v>32859</v>
-      </c>
-      <c r="G9" s="12">
-        <f>SUM(H9:I9)</f>
-        <v>5605</v>
-      </c>
-      <c r="H9" s="13">
-        <v>5292</v>
-      </c>
-      <c r="I9" s="13">
-        <v>313</v>
-      </c>
-      <c r="J9" s="12">
-        <f>SUM(K9:L9)</f>
-        <v>24172</v>
-      </c>
-      <c r="K9" s="13">
-        <v>12094</v>
-      </c>
-      <c r="L9" s="13">
-        <v>12078</v>
-      </c>
-      <c r="M9" s="14">
-        <f>SUM(N9:O9)</f>
-        <v>13837.021999999999</v>
-      </c>
-      <c r="N9" s="13">
-        <v>10036.638999999999</v>
-      </c>
-      <c r="O9" s="15">
-        <v>3800.3829999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="16">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="18">
-        <f>SUM(E10:F10)</f>
-        <v>157044</v>
-      </c>
-      <c r="E10" s="19">
-        <v>118761</v>
-      </c>
-      <c r="F10" s="19">
-        <v>38283</v>
-      </c>
-      <c r="G10" s="18">
-        <f t="shared" ref="G10:G44" si="4">SUM(H10:I10)</f>
-        <v>5894</v>
-      </c>
-      <c r="H10" s="19">
-        <v>5553</v>
-      </c>
-      <c r="I10" s="19">
-        <v>341</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" ref="J10:J40" si="5">SUM(K10:L10)</f>
-        <v>26410</v>
-      </c>
-      <c r="K10" s="19">
-        <v>17075</v>
-      </c>
-      <c r="L10" s="19">
-        <v>9335</v>
-      </c>
-      <c r="M10" s="20">
-        <f t="shared" ref="M10:M44" si="6">SUM(N10:O10)</f>
-        <v>16048.866999999998</v>
-      </c>
-      <c r="N10" s="19">
-        <v>11325.605</v>
-      </c>
-      <c r="O10" s="21">
-        <v>4723.2619999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" ref="D11:D12" si="7">SUM(E11:F11)</f>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12:D13" si="7">SUM(E12:F12)</f>
         <v>157419</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>117177</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>40242</v>
       </c>
-      <c r="G11" s="12">
-        <f t="shared" ref="G11:G13" si="8">SUM(H11:I11)</f>
+      <c r="G12" s="12">
+        <f t="shared" ref="G12:G14" si="8">SUM(H12:I12)</f>
         <v>5817</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H12" s="13">
         <v>5496</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I12" s="13">
         <v>321</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J12" s="12">
         <f t="shared" si="5"/>
         <v>26445</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K12" s="13">
         <v>16888</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L12" s="13">
         <v>9557</v>
       </c>
-      <c r="M11" s="14">
-        <f t="shared" ref="M11:M13" si="9">SUM(N11:O11)</f>
+      <c r="M12" s="14">
+        <f t="shared" ref="M12:M14" si="9">SUM(N12:O12)</f>
         <v>16878.663</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N12" s="13">
         <v>11522.672</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O12" s="15">
         <v>5355.991</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="16">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="16">
         <v>2024</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18">
+      <c r="C13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="18">
         <f t="shared" si="7"/>
         <v>148346</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E13" s="19">
         <v>109282</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F13" s="19">
         <v>39064</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G13" s="18">
         <f t="shared" si="8"/>
         <v>5644</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H13" s="19">
         <v>5335</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I13" s="19">
         <v>309</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J13" s="18">
         <f t="shared" si="5"/>
         <v>25325</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K13" s="19">
         <v>16635</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L13" s="19">
         <v>8690</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M13" s="20">
         <f t="shared" si="9"/>
         <v>15314.61</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N13" s="19">
         <v>10370.779</v>
       </c>
-      <c r="O12" s="21">
+      <c r="O13" s="21">
         <v>4943.8310000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12">
-        <f>SUM(E13:F13)</f>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="12">
+        <f>SUM(E14:F14)</f>
         <v>159550</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>119704</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>39846</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <f t="shared" si="8"/>
         <v>5571</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>5254</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>317</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J14" s="12">
         <f t="shared" si="5"/>
         <v>26164</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <v>17387</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L14" s="13">
         <v>8777</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M14" s="14">
         <f t="shared" si="9"/>
         <v>15380.428</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N14" s="13">
         <v>10623.656000000001</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O14" s="15">
         <v>4756.7719999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="16">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="16">
         <v>2024</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="18">
-        <f t="shared" ref="D14:D44" si="10">SUM(E14:F14)</f>
+      <c r="C15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" ref="D15:D45" si="10">SUM(E15:F15)</f>
         <v>158975</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E15" s="19">
         <v>115595</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F15" s="19">
         <v>43380</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G15" s="18">
         <f t="shared" si="4"/>
         <v>5473</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H15" s="19">
         <v>5166</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I15" s="19">
         <v>307</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J15" s="18">
         <f t="shared" si="5"/>
         <v>25292</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K15" s="19">
         <v>16701</v>
       </c>
-      <c r="L14" s="19">
+      <c r="L15" s="19">
         <v>8591</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M15" s="20">
         <f t="shared" si="6"/>
         <v>15232.386999999999</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N15" s="19">
         <v>10112.061</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O15" s="21">
         <v>5120.326</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="10">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="10">
         <v>2024</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="12">
         <f t="shared" si="10"/>
         <v>160745</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>111522</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>49223</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <f t="shared" si="4"/>
         <v>4759</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H16" s="13">
         <v>4508</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I16" s="13">
         <v>251</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J16" s="12">
         <f t="shared" si="5"/>
         <v>25196</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>15924</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L16" s="13">
         <v>9272</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M16" s="14">
         <f t="shared" si="6"/>
         <v>15971.481</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N16" s="13">
         <v>9845.5509999999995</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O16" s="15">
         <v>6125.93</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="16">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="16">
         <v>2024</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="C17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="18">
         <f t="shared" si="10"/>
         <v>148853</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E17" s="19">
         <v>104440</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F17" s="19">
         <v>44413</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G17" s="18">
         <f t="shared" si="4"/>
         <v>4246</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H17" s="19">
         <v>4009.0000000000005</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I17" s="19">
         <v>237</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J17" s="18">
         <f t="shared" si="5"/>
         <v>23784</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K17" s="19">
         <v>15355</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L17" s="19">
         <v>8429</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M17" s="20">
         <f t="shared" si="6"/>
         <v>14272.33</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N17" s="19">
         <v>8893.5959999999995</v>
       </c>
-      <c r="O16" s="21">
+      <c r="O17" s="21">
         <v>5378.7340000000004</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="22">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="22">
         <v>2024</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="24">
+      <c r="C18" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="24">
         <f t="shared" si="10"/>
         <v>156666</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E18" s="25">
         <v>108922</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F18" s="25">
         <v>47744</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G18" s="24">
         <f t="shared" si="4"/>
         <v>4224</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H18" s="25">
         <v>4019</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I18" s="25">
         <v>205</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J18" s="24">
         <f t="shared" si="5"/>
         <v>25531</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K18" s="25">
         <v>16217</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L18" s="25">
         <v>9314</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M18" s="26">
         <f t="shared" si="6"/>
         <v>15551.477000000001</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N18" s="25">
         <v>9753.6540000000005</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O18" s="27">
         <v>5797.8230000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28">
+    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="28">
         <v>2023</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="C19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="30">
         <f t="shared" si="10"/>
         <v>163911</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E19" s="31">
         <v>118221</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F19" s="31">
         <v>45690</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G19" s="30">
         <f t="shared" si="4"/>
         <v>3526</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H19" s="31">
         <v>3337</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I19" s="31">
         <v>189</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J19" s="30">
         <f t="shared" si="5"/>
         <v>28577</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K19" s="31">
         <v>18492</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L19" s="31">
         <v>10085</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M19" s="32">
         <f t="shared" si="6"/>
         <v>16459.677</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N19" s="31">
         <v>10678.755999999999</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O19" s="33">
         <v>5780.9210000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="12">
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="12">
         <f t="shared" si="10"/>
         <v>158913</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>119949</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>38964</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="12">
         <f t="shared" si="4"/>
         <v>3081</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H20" s="13">
         <v>2892</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I20" s="13">
         <v>189</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J20" s="12">
         <f t="shared" si="5"/>
         <v>27656</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K20" s="13">
         <v>18844</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L20" s="13">
         <v>8812</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M20" s="14">
         <f t="shared" si="6"/>
         <v>15317.485000000001</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N20" s="13">
         <v>10453.232</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O20" s="15">
         <v>4864.2529999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="16">
+    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="16">
         <v>2023</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="C21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="18">
         <f t="shared" si="10"/>
         <v>155697</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E21" s="19">
         <v>120652</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F21" s="19">
         <v>35045</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G21" s="18">
         <f t="shared" si="4"/>
         <v>3222</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H21" s="19">
         <v>3013</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I21" s="19">
         <v>209</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J21" s="18">
         <f t="shared" si="5"/>
         <v>27597</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K21" s="19">
         <v>18942</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L21" s="19">
         <v>8655</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M21" s="20">
         <f t="shared" si="6"/>
         <v>15213.704999999998</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N21" s="19">
         <v>10935.924999999999</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O21" s="21">
         <v>4277.78</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="C22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="12">
         <f t="shared" si="10"/>
         <v>146668</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>114905</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>31763</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <f t="shared" si="4"/>
         <v>2726</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H22" s="13">
         <v>2544</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I22" s="13">
         <v>182</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J22" s="12">
         <f t="shared" si="5"/>
         <v>26793</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K22" s="13">
         <v>18467</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L22" s="13">
         <v>8326</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M22" s="14">
         <f t="shared" si="6"/>
         <v>13986.931</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N22" s="13">
         <v>10236.332</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O22" s="15">
         <v>3750.5990000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="16">
+    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="16">
         <v>2023</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="18">
+      <c r="C23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="18">
         <f t="shared" si="10"/>
         <v>162973</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E23" s="19">
         <v>125545</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F23" s="19">
         <v>37428</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G23" s="18">
         <f t="shared" si="4"/>
         <v>2769</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H23" s="19">
         <v>2584</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I23" s="19">
         <v>185</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J23" s="18">
         <f t="shared" si="5"/>
         <v>29095</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K23" s="19">
         <v>19522</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L23" s="19">
         <v>9573</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M23" s="20">
         <f t="shared" si="6"/>
         <v>16766.697</v>
       </c>
-      <c r="N22" s="19">
+      <c r="N23" s="19">
         <v>12077.877</v>
       </c>
-      <c r="O22" s="21">
+      <c r="O23" s="21">
         <v>4688.82</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="C24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="12">
         <f t="shared" si="10"/>
         <v>164170</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>124900</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>39270</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <f t="shared" si="4"/>
         <v>2336</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H24" s="13">
         <v>2164</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I24" s="13">
         <v>172</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J24" s="12">
         <f t="shared" si="5"/>
         <v>29231</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K24" s="13">
         <v>19311</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L24" s="13">
         <v>9920</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M24" s="14">
         <f t="shared" si="6"/>
         <v>17331.974000000002</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N24" s="13">
         <v>12036.081</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O24" s="15">
         <v>5295.893</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="16">
+    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="16">
         <v>2023</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="18">
+      <c r="C25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="18">
         <f t="shared" si="10"/>
         <v>158074</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E25" s="19">
         <v>120413</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F25" s="19">
         <v>37661</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G25" s="18">
         <f t="shared" si="4"/>
         <v>1942</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H25" s="19">
         <v>1784</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I25" s="19">
         <v>158</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J25" s="18">
         <f t="shared" si="5"/>
         <v>28215</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K25" s="19">
         <v>18972</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L25" s="19">
         <v>9243</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M25" s="20">
         <f t="shared" si="6"/>
         <v>15257.142</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N25" s="19">
         <v>10569.871999999999</v>
       </c>
-      <c r="O24" s="21">
+      <c r="O25" s="21">
         <v>4687.2700000000004</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="C26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="12">
         <f t="shared" si="10"/>
         <v>162182</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>124206</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>37976</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="12">
         <f t="shared" si="4"/>
         <v>1937</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H26" s="13">
         <v>1767</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I26" s="13">
         <v>170</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J26" s="12">
         <f t="shared" si="5"/>
         <v>28633</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K26" s="13">
         <v>19183</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L26" s="13">
         <v>9450</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M26" s="14">
         <f t="shared" si="6"/>
         <v>15115.095000000001</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N26" s="13">
         <v>10649.591</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O26" s="15">
         <v>4465.5039999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="16">
+    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="16">
         <v>2023</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="18">
+      <c r="C27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="18">
         <f t="shared" si="10"/>
         <v>159882</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E27" s="19">
         <v>120199</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F27" s="19">
         <v>39683</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G27" s="18">
         <f t="shared" si="4"/>
         <v>1796</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H27" s="19">
         <v>1691</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I27" s="19">
         <v>105</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J27" s="18">
         <f t="shared" si="5"/>
         <v>28347</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K27" s="19">
         <v>19276</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L27" s="19">
         <v>9071</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M27" s="20">
         <f t="shared" si="6"/>
         <v>15697.496999999999</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N27" s="19">
         <v>10803.382</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O27" s="21">
         <v>4894.1149999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="C28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="12">
         <f t="shared" si="10"/>
         <v>170638</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>126849</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>43789</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <f t="shared" si="4"/>
         <v>1923</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H28" s="13">
         <v>1812</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I28" s="13">
         <v>111</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J28" s="12">
         <f t="shared" si="5"/>
         <v>29361</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K28" s="13">
         <v>19711</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L28" s="13">
         <v>9650</v>
       </c>
-      <c r="M27" s="14">
+      <c r="M28" s="14">
         <f t="shared" si="6"/>
         <v>15935.796</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N28" s="13">
         <v>10528.172</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O28" s="15">
         <v>5407.6239999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="16">
+    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="16">
         <v>2023</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="18">
+      <c r="C29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="18">
         <f t="shared" si="10"/>
         <v>151336</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E29" s="19">
         <v>112299</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F29" s="19">
         <v>39037</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G29" s="18">
         <f t="shared" si="4"/>
         <v>1655</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H29" s="19">
         <v>1542</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I29" s="19">
         <v>113</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J29" s="18">
         <f t="shared" si="5"/>
         <v>26435</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K29" s="19">
         <v>17619</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L29" s="19">
         <v>8816</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M29" s="20">
         <f t="shared" si="6"/>
         <v>13705.822</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N29" s="19">
         <v>8982.0499999999993</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O29" s="21">
         <v>4723.7719999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="22">
+    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="22">
         <v>2023</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="24">
+      <c r="C30" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="24">
         <f t="shared" si="10"/>
         <v>165200</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E30" s="25">
         <v>121747</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F30" s="25">
         <v>43453</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G30" s="24">
         <f t="shared" si="4"/>
         <v>1856</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H30" s="25">
         <v>1722</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I30" s="25">
         <v>134</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J30" s="24">
         <f t="shared" si="5"/>
         <v>30227</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K30" s="25">
         <v>20162</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L30" s="25">
         <v>10065</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M30" s="26">
         <f t="shared" si="6"/>
         <v>15379.226000000001</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N30" s="25">
         <v>10060.075000000001</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O30" s="27">
         <v>5319.1509999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="28">
+    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="28">
         <v>2022</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="30">
+      <c r="C31" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="30">
         <f t="shared" si="10"/>
         <v>167972</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E31" s="31">
         <v>123936</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F31" s="31">
         <v>44036</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G31" s="30">
         <f t="shared" si="4"/>
         <v>1840</v>
       </c>
-      <c r="H30" s="31">
+      <c r="H31" s="31">
         <v>1713</v>
       </c>
-      <c r="I30" s="31">
+      <c r="I31" s="31">
         <v>127</v>
       </c>
-      <c r="J30" s="30">
+      <c r="J31" s="30">
         <f t="shared" si="5"/>
         <v>31046</v>
       </c>
-      <c r="K30" s="31">
+      <c r="K31" s="31">
         <v>20696</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L31" s="31">
         <v>10350</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M31" s="32">
         <f t="shared" si="6"/>
         <v>16259.23</v>
       </c>
-      <c r="N30" s="31">
+      <c r="N31" s="31">
         <v>11068.346</v>
       </c>
-      <c r="O30" s="33">
+      <c r="O31" s="33">
         <v>5190.884</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="C32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="12">
         <f t="shared" si="10"/>
         <v>162759</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>123505</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>39254</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <f t="shared" si="4"/>
         <v>1784</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H32" s="13">
         <v>1698</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I32" s="13">
         <v>86</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J32" s="12">
         <f t="shared" si="5"/>
         <v>30430</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K32" s="13">
         <v>20625</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L32" s="13">
         <v>9805</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M32" s="14">
         <f t="shared" si="6"/>
         <v>15141.996999999999</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N32" s="13">
         <v>10513.98</v>
       </c>
-      <c r="O31" s="15">
+      <c r="O32" s="15">
         <v>4628.0169999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="16">
+    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="16">
         <v>2022</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="18">
+      <c r="C33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="18">
         <f t="shared" si="10"/>
         <v>159864</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E33" s="19">
         <v>124747</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F33" s="19">
         <v>35117</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G33" s="18">
         <f t="shared" si="4"/>
         <v>1870</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H33" s="19">
         <v>1784</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I33" s="19">
         <v>86</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J33" s="18">
         <f t="shared" si="5"/>
         <v>31242</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K33" s="19">
         <v>21556</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L33" s="19">
         <v>9686</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M33" s="20">
         <f t="shared" si="6"/>
         <v>14556.514999999999</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N33" s="19">
         <v>10450.403</v>
       </c>
-      <c r="O32" s="21">
+      <c r="O33" s="21">
         <v>4106.1120000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="C34" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="12">
         <f t="shared" si="10"/>
         <v>147719</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>115614</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>32104.999999999996</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G34" s="12">
         <f t="shared" si="4"/>
         <v>1319</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H34" s="13">
         <v>1288</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I34" s="13">
         <v>31</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J34" s="12">
         <f t="shared" si="5"/>
         <v>29935</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K34" s="13">
         <v>20715</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L34" s="13">
         <v>9220</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M34" s="14">
         <f t="shared" si="6"/>
         <v>13130.359999999999</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N34" s="13">
         <v>9467.3269999999993</v>
       </c>
-      <c r="O33" s="15">
+      <c r="O34" s="15">
         <v>3663.0329999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="16">
+    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="16">
         <v>2022</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="18">
+      <c r="C35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="18">
         <f t="shared" si="10"/>
         <v>160707</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E35" s="19">
         <v>123479</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F35" s="19">
         <v>37228</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="18">
         <f t="shared" si="4"/>
         <v>620</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H35" s="19">
         <v>597</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I35" s="19">
         <v>23</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J35" s="18">
         <f t="shared" si="5"/>
         <v>32809</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K35" s="19">
         <v>22639</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L35" s="19">
         <v>10170</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M35" s="20">
         <f t="shared" si="6"/>
         <v>15003.125</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N35" s="19">
         <v>10508.375</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O35" s="21">
         <v>4494.75</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="C36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="12">
         <f t="shared" si="10"/>
         <v>161313</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>122637</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>38676</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="12">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H36" s="13">
         <v>336</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I36" s="13">
         <v>4</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J36" s="12">
         <f t="shared" si="5"/>
         <v>32288</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K36" s="13">
         <v>22146</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L36" s="13">
         <v>10142</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M36" s="14">
         <f t="shared" si="6"/>
         <v>15713.334999999999</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N36" s="13">
         <v>10715.734</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O36" s="15">
         <v>4997.6009999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="16">
+    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="16">
         <v>2022</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="18">
+      <c r="C37" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="18">
         <f t="shared" si="10"/>
         <v>153335</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E37" s="19">
         <v>116098</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F37" s="19">
         <v>37237</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G37" s="18">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H37" s="19">
         <v>351</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I37" s="19">
         <v>5</v>
       </c>
-      <c r="J36" s="18">
+      <c r="J37" s="18">
         <f t="shared" si="5"/>
         <v>30905</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K37" s="19">
         <v>21014</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L37" s="19">
         <v>9891</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M37" s="20">
         <f t="shared" si="6"/>
         <v>13344.656999999999</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N37" s="19">
         <v>9004.4539999999997</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O37" s="21">
         <v>4340.2030000000004</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="12">
+      <c r="C38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="12">
         <f t="shared" si="10"/>
         <v>158252</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>120591</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>37661</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="12">
         <f t="shared" si="4"/>
         <v>371</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H38" s="13">
         <v>365</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I38" s="13">
         <v>6</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J38" s="12">
         <f t="shared" si="5"/>
         <v>31398</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K38" s="13">
         <v>21509</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L38" s="13">
         <v>9889</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M38" s="14">
         <f t="shared" si="6"/>
         <v>13548.44</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N38" s="13">
         <v>9417.0650000000005</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O38" s="15">
         <v>4131.375</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="16">
+    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="16">
         <v>2022</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="18">
+      <c r="C39" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="18">
         <f t="shared" si="10"/>
         <v>157784</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E39" s="19">
         <v>117815</v>
       </c>
-      <c r="F38" s="19">
+      <c r="F39" s="19">
         <v>39969</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G39" s="18">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H39" s="19">
         <v>352</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I39" s="19">
         <v>4</v>
       </c>
-      <c r="J38" s="18">
+      <c r="J39" s="18">
         <f t="shared" si="5"/>
         <v>30844</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K39" s="19">
         <v>21295</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L39" s="19">
         <v>9549</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M39" s="20">
         <f t="shared" si="6"/>
         <v>14079.685000000001</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N39" s="19">
         <v>9562.2420000000002</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O39" s="21">
         <v>4517.4430000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="12">
+      <c r="C40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="12">
         <f t="shared" si="10"/>
         <v>161848</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>119127</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>42721</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="12">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H40" s="13">
         <v>134</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I40" s="13">
         <v>2</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J40" s="12">
         <f t="shared" si="5"/>
         <v>29318</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K40" s="13">
         <v>20239</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L40" s="13">
         <v>9079</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M40" s="14">
         <f t="shared" si="6"/>
         <v>13866.879000000001</v>
       </c>
-      <c r="N39" s="13">
+      <c r="N40" s="13">
         <v>9057.7270000000008</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O40" s="15">
         <v>4809.152</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="16">
+    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="16">
         <v>2022</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="18">
+      <c r="C41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="18">
         <f t="shared" si="10"/>
         <v>138416</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E41" s="19">
         <v>101843</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F41" s="19">
         <v>36573</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G41" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H40" s="19">
-        <v>0</v>
-      </c>
-      <c r="I40" s="19">
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19">
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
         <f t="shared" si="5"/>
         <v>24917</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K41" s="19">
         <v>17054</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L41" s="19">
         <v>7863</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M41" s="20">
         <f t="shared" si="6"/>
         <v>10915.597</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N41" s="19">
         <v>7204.1139999999996</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O41" s="21">
         <v>3711.4830000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="22">
+    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="22">
         <v>2022</v>
       </c>
-      <c r="C41" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="24">
+      <c r="C42" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="24">
         <f t="shared" si="10"/>
         <v>147774</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E42" s="25">
         <v>106370</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F42" s="25">
         <v>41404</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G42" s="24">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H41" s="25">
-        <v>0</v>
-      </c>
-      <c r="I41" s="25">
-        <v>0</v>
-      </c>
-      <c r="J41" s="24">
-        <f t="shared" ref="J41:J72" si="11">SUM(K41:L41)</f>
+      <c r="H42" s="25">
+        <v>0</v>
+      </c>
+      <c r="I42" s="25">
+        <v>0</v>
+      </c>
+      <c r="J42" s="24">
+        <f t="shared" ref="J42:J73" si="11">SUM(K42:L42)</f>
         <v>28778</v>
       </c>
-      <c r="K41" s="25">
+      <c r="K42" s="25">
         <v>19706</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L42" s="25">
         <v>9072</v>
       </c>
-      <c r="M41" s="26">
+      <c r="M42" s="26">
         <f t="shared" si="6"/>
         <v>11653.262000000001</v>
       </c>
-      <c r="N41" s="25">
+      <c r="N42" s="25">
         <v>7668.268</v>
       </c>
-      <c r="O41" s="27">
+      <c r="O42" s="27">
         <v>3984.9940000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="28">
+    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="28">
         <v>2021</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="30">
+      <c r="C43" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="30">
         <f t="shared" si="10"/>
         <v>161476</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E43" s="31">
         <v>118642</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F43" s="31">
         <v>42834</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G43" s="30">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H42" s="31">
-        <v>0</v>
-      </c>
-      <c r="I42" s="31">
-        <v>0</v>
-      </c>
-      <c r="J42" s="30">
+      <c r="H43" s="31">
+        <v>0</v>
+      </c>
+      <c r="I43" s="31">
+        <v>0</v>
+      </c>
+      <c r="J43" s="30">
         <f t="shared" si="11"/>
         <v>31395</v>
       </c>
-      <c r="K42" s="31">
+      <c r="K43" s="31">
         <v>21885</v>
       </c>
-      <c r="L42" s="31">
+      <c r="L43" s="31">
         <v>9510</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M43" s="32">
         <f t="shared" si="6"/>
         <v>13971.465</v>
       </c>
-      <c r="N42" s="31">
+      <c r="N43" s="31">
         <v>9508.3459999999995</v>
       </c>
-      <c r="O42" s="33">
+      <c r="O43" s="33">
         <v>4463.1189999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="12">
+      <c r="C44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="12">
         <f t="shared" si="10"/>
         <v>153263</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>115481</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>37782</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G44" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13">
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
         <f t="shared" si="11"/>
         <v>28646</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K44" s="13">
         <v>20157</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L44" s="13">
         <v>8489</v>
       </c>
-      <c r="M43" s="14">
+      <c r="M44" s="14">
         <f t="shared" si="6"/>
         <v>12687.374</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N44" s="13">
         <v>8761.0709999999999</v>
       </c>
-      <c r="O43" s="15">
+      <c r="O44" s="15">
         <v>3926.3029999999999</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="16">
+    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="16">
         <v>2021</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="18">
+      <c r="C45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="18">
         <f t="shared" si="10"/>
         <v>147053</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E45" s="19">
         <v>112669</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F45" s="19">
         <v>34384</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G45" s="18">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H44" s="19">
-        <v>0</v>
-      </c>
-      <c r="I44" s="19">
-        <v>0</v>
-      </c>
-      <c r="J44" s="18">
+      <c r="H45" s="19">
+        <v>0</v>
+      </c>
+      <c r="I45" s="19">
+        <v>0</v>
+      </c>
+      <c r="J45" s="18">
         <f t="shared" si="11"/>
         <v>28151</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K45" s="19">
         <v>19712</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L45" s="19">
         <v>8439</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M45" s="20">
         <f t="shared" si="6"/>
         <v>11848.638999999999</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N45" s="19">
         <v>8373.0280000000002</v>
       </c>
-      <c r="O44" s="21">
+      <c r="O45" s="21">
         <v>3475.6109999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="12">
-        <f t="shared" ref="D45:D76" si="12">SUM(E45:F45)</f>
+      <c r="C46" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" ref="D46:D77" si="12">SUM(E46:F46)</f>
         <v>132825</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>101771</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>31054</v>
       </c>
-      <c r="G45" s="12">
-        <f t="shared" ref="G45:G76" si="13">SUM(H45:I45)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="13">
-        <v>0</v>
-      </c>
-      <c r="I45" s="13">
-        <v>0</v>
-      </c>
-      <c r="J45" s="12">
+      <c r="G46" s="12">
+        <f t="shared" ref="G46:G77" si="13">SUM(H46:I46)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
         <f t="shared" si="11"/>
         <v>25472</v>
       </c>
-      <c r="K45" s="13">
+      <c r="K46" s="13">
         <v>17521</v>
       </c>
-      <c r="L45" s="13">
+      <c r="L46" s="13">
         <v>7951</v>
       </c>
-      <c r="M45" s="14">
-        <f t="shared" ref="M45:M76" si="14">SUM(N45:O45)</f>
+      <c r="M46" s="14">
+        <f t="shared" ref="M46:M77" si="14">SUM(N46:O46)</f>
         <v>10185.656000000001</v>
       </c>
-      <c r="N45" s="13">
+      <c r="N46" s="13">
         <v>7282.1530000000002</v>
       </c>
-      <c r="O45" s="15">
+      <c r="O46" s="15">
         <v>2903.5030000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="16">
+    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="16">
         <v>2021</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="18">
+      <c r="C47" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="18">
         <f t="shared" si="12"/>
         <v>144695</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E47" s="19">
         <v>110044</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F47" s="19">
         <v>34651</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G47" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H46" s="19">
-        <v>0</v>
-      </c>
-      <c r="I46" s="19">
-        <v>0</v>
-      </c>
-      <c r="J46" s="18">
+      <c r="H47" s="19">
+        <v>0</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="18">
         <f t="shared" si="11"/>
         <v>28906</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K47" s="19">
         <v>20368</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L47" s="19">
         <v>8538</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M47" s="20">
         <f t="shared" si="14"/>
         <v>11683.937</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N47" s="19">
         <v>8069.2780000000002</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O47" s="21">
         <v>3614.6590000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="12">
+      <c r="C48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="12">
         <f t="shared" si="12"/>
         <v>146353</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>110707</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>35646</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G48" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H47" s="13">
-        <v>0</v>
-      </c>
-      <c r="I47" s="13">
-        <v>0</v>
-      </c>
-      <c r="J47" s="12">
+      <c r="H48" s="13">
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
         <f t="shared" si="11"/>
         <v>28727</v>
       </c>
-      <c r="K47" s="13">
+      <c r="K48" s="13">
         <v>20266</v>
       </c>
-      <c r="L47" s="13">
+      <c r="L48" s="13">
         <v>8461</v>
       </c>
-      <c r="M47" s="14">
+      <c r="M48" s="14">
         <f t="shared" si="14"/>
         <v>12973.878000000001</v>
       </c>
-      <c r="N47" s="13">
+      <c r="N48" s="13">
         <v>8846.4060000000009</v>
       </c>
-      <c r="O47" s="15">
+      <c r="O48" s="15">
         <v>4127.4719999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="16">
+    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="16">
         <v>2021</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="18">
+      <c r="C49" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="18">
         <f t="shared" si="12"/>
         <v>134517</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E49" s="19">
         <v>101368</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F49" s="19">
         <v>33149</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G49" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H48" s="19">
-        <v>0</v>
-      </c>
-      <c r="I48" s="19">
-        <v>0</v>
-      </c>
-      <c r="J48" s="18">
+      <c r="H49" s="19">
+        <v>0</v>
+      </c>
+      <c r="I49" s="19">
+        <v>0</v>
+      </c>
+      <c r="J49" s="18">
         <f t="shared" si="11"/>
         <v>25545</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K49" s="19">
         <v>17937</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L49" s="19">
         <v>7608</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M49" s="20">
         <f t="shared" si="14"/>
         <v>11386.256000000001</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N49" s="19">
         <v>7719.55</v>
       </c>
-      <c r="O48" s="21">
+      <c r="O49" s="21">
         <v>3666.7060000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="12">
+      <c r="C50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="12">
         <f t="shared" si="12"/>
         <v>138743</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>106623</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>32119.999999999996</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H49" s="13">
-        <v>0</v>
-      </c>
-      <c r="I49" s="13">
-        <v>0</v>
-      </c>
-      <c r="J49" s="12">
+      <c r="H50" s="13">
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
         <f t="shared" si="11"/>
         <v>25018</v>
       </c>
-      <c r="K49" s="13">
+      <c r="K50" s="13">
         <v>17597</v>
       </c>
-      <c r="L49" s="13">
+      <c r="L50" s="13">
         <v>7421</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M50" s="14">
         <f t="shared" si="14"/>
         <v>10974.823</v>
       </c>
-      <c r="N49" s="13">
+      <c r="N50" s="13">
         <v>7697.7309999999998</v>
       </c>
-      <c r="O49" s="15">
+      <c r="O50" s="15">
         <v>3277.0920000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="16">
+    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="16">
         <v>2021</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="18">
+      <c r="C51" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="18">
         <f t="shared" si="12"/>
         <v>133584</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E51" s="19">
         <v>103668</v>
       </c>
-      <c r="F50" s="19">
+      <c r="F51" s="19">
         <v>29916</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G51" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H50" s="19">
-        <v>0</v>
-      </c>
-      <c r="I50" s="19">
-        <v>0</v>
-      </c>
-      <c r="J50" s="18">
+      <c r="H51" s="19">
+        <v>0</v>
+      </c>
+      <c r="I51" s="19">
+        <v>0</v>
+      </c>
+      <c r="J51" s="18">
         <f t="shared" si="11"/>
         <v>23420</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K51" s="19">
         <v>17095</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L51" s="19">
         <v>6325</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M51" s="20">
         <f t="shared" si="14"/>
         <v>9657.1949999999997</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N51" s="19">
         <v>7019.1059999999998</v>
       </c>
-      <c r="O50" s="21">
+      <c r="O51" s="21">
         <v>2638.0889999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="12">
+      <c r="C52" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="12">
         <f t="shared" si="12"/>
         <v>130340</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>99689</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>30651</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-      <c r="I51" s="13">
-        <v>0</v>
-      </c>
-      <c r="J51" s="12">
+      <c r="H52" s="13">
+        <v>0</v>
+      </c>
+      <c r="I52" s="13">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
         <f t="shared" si="11"/>
         <v>20932</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K52" s="13">
         <v>15296</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L52" s="13">
         <v>5636</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M52" s="14">
         <f t="shared" si="14"/>
         <v>8677.3739999999998</v>
       </c>
-      <c r="N51" s="13">
+      <c r="N52" s="13">
         <v>6424.5829999999996</v>
       </c>
-      <c r="O51" s="15">
+      <c r="O52" s="15">
         <v>2252.7910000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="16">
+    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="16">
         <v>2021</v>
       </c>
-      <c r="C52" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="18">
+      <c r="C53" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="18">
         <f t="shared" si="12"/>
         <v>105818</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E53" s="19">
         <v>80508</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F53" s="19">
         <v>25310</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G53" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H52" s="19">
-        <v>0</v>
-      </c>
-      <c r="I52" s="19">
-        <v>0</v>
-      </c>
-      <c r="J52" s="18">
+      <c r="H53" s="19">
+        <v>0</v>
+      </c>
+      <c r="I53" s="19">
+        <v>0</v>
+      </c>
+      <c r="J53" s="18">
         <f t="shared" si="11"/>
         <v>17155</v>
       </c>
-      <c r="K52" s="19">
+      <c r="K53" s="19">
         <v>12105</v>
       </c>
-      <c r="L52" s="19">
+      <c r="L53" s="19">
         <v>5050</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M53" s="20">
         <f t="shared" si="14"/>
         <v>5881.9269999999997</v>
       </c>
-      <c r="N52" s="19">
+      <c r="N53" s="19">
         <v>4501.4070000000002</v>
       </c>
-      <c r="O52" s="21">
+      <c r="O53" s="21">
         <v>1380.52</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="22">
+    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="22">
         <v>2021</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="24">
+      <c r="C54" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="24">
         <f t="shared" si="12"/>
         <v>124147</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E54" s="25">
         <v>93381</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F54" s="25">
         <v>30766</v>
       </c>
-      <c r="G53" s="24">
+      <c r="G54" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H53" s="25">
-        <v>0</v>
-      </c>
-      <c r="I53" s="25">
-        <v>0</v>
-      </c>
-      <c r="J53" s="24">
+      <c r="H54" s="25">
+        <v>0</v>
+      </c>
+      <c r="I54" s="25">
+        <v>0</v>
+      </c>
+      <c r="J54" s="24">
         <f t="shared" si="11"/>
         <v>22442</v>
       </c>
-      <c r="K53" s="25">
+      <c r="K54" s="25">
         <v>15855</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L54" s="25">
         <v>6587</v>
       </c>
-      <c r="M53" s="26">
+      <c r="M54" s="26">
         <f t="shared" si="14"/>
         <v>7530.1779999999999</v>
       </c>
-      <c r="N53" s="25">
+      <c r="N54" s="25">
         <v>5474.7460000000001</v>
       </c>
-      <c r="O53" s="27">
+      <c r="O54" s="27">
         <v>2055.4319999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="28">
+    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="28">
         <v>2020</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="30">
+      <c r="C55" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="30">
         <f t="shared" si="12"/>
         <v>129572</v>
       </c>
-      <c r="E54" s="31">
+      <c r="E55" s="31">
         <v>99674</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F55" s="31">
         <v>29898</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G55" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H54" s="31">
-        <v>0</v>
-      </c>
-      <c r="I54" s="31">
-        <v>0</v>
-      </c>
-      <c r="J54" s="30">
+      <c r="H55" s="31">
+        <v>0</v>
+      </c>
+      <c r="I55" s="31">
+        <v>0</v>
+      </c>
+      <c r="J55" s="30">
         <f t="shared" si="11"/>
         <v>22377</v>
       </c>
-      <c r="K54" s="31">
+      <c r="K55" s="31">
         <v>15901</v>
       </c>
-      <c r="L54" s="31">
+      <c r="L55" s="31">
         <v>6476</v>
       </c>
-      <c r="M54" s="32">
+      <c r="M55" s="32">
         <f t="shared" si="14"/>
         <v>8643.1899999999987</v>
       </c>
-      <c r="N54" s="31">
+      <c r="N55" s="31">
         <v>6389.2129999999997</v>
       </c>
-      <c r="O54" s="33">
+      <c r="O55" s="33">
         <v>2253.9769999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D55" s="12">
+      <c r="C56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="12">
         <f t="shared" si="12"/>
         <v>120789</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>97016</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>23773</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G56" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="13">
-        <v>0</v>
-      </c>
-      <c r="I55" s="13">
-        <v>0</v>
-      </c>
-      <c r="J55" s="12">
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="13">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
         <f t="shared" si="11"/>
         <v>20029</v>
       </c>
-      <c r="K55" s="13">
+      <c r="K56" s="13">
         <v>15112</v>
       </c>
-      <c r="L55" s="13">
+      <c r="L56" s="13">
         <v>4917</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M56" s="14">
         <f t="shared" si="14"/>
         <v>7700.1950000000006</v>
       </c>
-      <c r="N55" s="13">
+      <c r="N56" s="13">
         <v>5937.9480000000003</v>
       </c>
-      <c r="O55" s="15">
+      <c r="O56" s="15">
         <v>1762.2470000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="16">
+    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="16">
         <v>2020</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="18">
+      <c r="C57" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="18">
         <f t="shared" si="12"/>
         <v>111965</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E57" s="19">
         <v>92159</v>
       </c>
-      <c r="F56" s="19">
+      <c r="F57" s="19">
         <v>19806</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G57" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H56" s="19">
-        <v>0</v>
-      </c>
-      <c r="I56" s="19">
-        <v>0</v>
-      </c>
-      <c r="J56" s="18">
+      <c r="H57" s="19">
+        <v>0</v>
+      </c>
+      <c r="I57" s="19">
+        <v>0</v>
+      </c>
+      <c r="J57" s="18">
         <f t="shared" si="11"/>
         <v>18783</v>
       </c>
-      <c r="K56" s="19">
+      <c r="K57" s="19">
         <v>14512</v>
       </c>
-      <c r="L56" s="19">
+      <c r="L57" s="19">
         <v>4271</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M57" s="20">
         <f t="shared" si="14"/>
         <v>6958.1730000000007</v>
       </c>
-      <c r="N56" s="19">
+      <c r="N57" s="19">
         <v>5522.3990000000003</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O57" s="21">
         <v>1435.7739999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="12">
+      <c r="C58" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="12">
         <f t="shared" si="12"/>
         <v>98248</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>82749</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>15499</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H57" s="13">
-        <v>0</v>
-      </c>
-      <c r="I57" s="13">
-        <v>0</v>
-      </c>
-      <c r="J57" s="12">
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
         <f t="shared" si="11"/>
         <v>15967</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K58" s="13">
         <v>12434</v>
       </c>
-      <c r="L57" s="13">
+      <c r="L58" s="13">
         <v>3533</v>
       </c>
-      <c r="M57" s="14">
+      <c r="M58" s="14">
         <f t="shared" si="14"/>
         <v>5747.9449999999997</v>
       </c>
-      <c r="N57" s="13">
+      <c r="N58" s="13">
         <v>4716.3429999999998</v>
       </c>
-      <c r="O57" s="15">
+      <c r="O58" s="15">
         <v>1031.6020000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="16">
+    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="16">
         <v>2020</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="18">
+      <c r="C59" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="18">
         <f t="shared" si="12"/>
         <v>94778</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E59" s="19">
         <v>79993</v>
       </c>
-      <c r="F58" s="19">
+      <c r="F59" s="19">
         <v>14785</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G59" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H58" s="19">
-        <v>0</v>
-      </c>
-      <c r="I58" s="19">
-        <v>0</v>
-      </c>
-      <c r="J58" s="18">
+      <c r="H59" s="19">
+        <v>0</v>
+      </c>
+      <c r="I59" s="19">
+        <v>0</v>
+      </c>
+      <c r="J59" s="18">
         <f t="shared" si="11"/>
         <v>15399</v>
       </c>
-      <c r="K58" s="19">
+      <c r="K59" s="19">
         <v>11911</v>
       </c>
-      <c r="L58" s="19">
+      <c r="L59" s="19">
         <v>3488</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M59" s="20">
         <f t="shared" si="14"/>
         <v>5296.7969999999996</v>
       </c>
-      <c r="N58" s="19">
+      <c r="N59" s="19">
         <v>4313.7479999999996</v>
       </c>
-      <c r="O58" s="21">
+      <c r="O59" s="21">
         <v>983.04899999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="12">
+      <c r="C60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="12">
         <f t="shared" si="12"/>
         <v>85508</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>72657</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>12851</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H59" s="13">
-        <v>0</v>
-      </c>
-      <c r="I59" s="13">
-        <v>0</v>
-      </c>
-      <c r="J59" s="12">
+      <c r="H60" s="13">
+        <v>0</v>
+      </c>
+      <c r="I60" s="13">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
         <f t="shared" si="11"/>
         <v>12165</v>
       </c>
-      <c r="K59" s="13">
+      <c r="K60" s="13">
         <v>9419</v>
       </c>
-      <c r="L59" s="13">
+      <c r="L60" s="13">
         <v>2746</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M60" s="14">
         <f t="shared" si="14"/>
         <v>4185.5320000000002</v>
       </c>
-      <c r="N59" s="13">
+      <c r="N60" s="13">
         <v>3405.0259999999998</v>
       </c>
-      <c r="O59" s="15">
+      <c r="O60" s="15">
         <v>780.50599999999997</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="16">
+    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="16">
         <v>2020</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="18">
+      <c r="C61" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="18">
         <f t="shared" si="12"/>
         <v>58869</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E61" s="19">
         <v>50107</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F61" s="19">
         <v>8762</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G61" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H60" s="19">
-        <v>0</v>
-      </c>
-      <c r="I60" s="19">
-        <v>0</v>
-      </c>
-      <c r="J60" s="18">
+      <c r="H61" s="19">
+        <v>0</v>
+      </c>
+      <c r="I61" s="19">
+        <v>0</v>
+      </c>
+      <c r="J61" s="18">
         <f t="shared" si="11"/>
         <v>7578</v>
       </c>
-      <c r="K60" s="19">
+      <c r="K61" s="19">
         <v>5489</v>
       </c>
-      <c r="L60" s="19">
+      <c r="L61" s="19">
         <v>2089</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M61" s="20">
         <f t="shared" si="14"/>
         <v>2139.893</v>
       </c>
-      <c r="N60" s="19">
+      <c r="N61" s="19">
         <v>1815.4059999999999</v>
       </c>
-      <c r="O60" s="21">
+      <c r="O61" s="21">
         <v>324.48700000000002</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D61" s="12">
+      <c r="C62" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="12">
         <f t="shared" si="12"/>
         <v>40887</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>35082</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>5805</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H61" s="13">
-        <v>0</v>
-      </c>
-      <c r="I61" s="13">
-        <v>0</v>
-      </c>
-      <c r="J61" s="12">
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="13">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12">
         <f t="shared" si="11"/>
         <v>4836</v>
       </c>
-      <c r="K61" s="13">
+      <c r="K62" s="13">
         <v>3187</v>
       </c>
-      <c r="L61" s="13">
+      <c r="L62" s="13">
         <v>1649</v>
       </c>
-      <c r="M61" s="14">
+      <c r="M62" s="14">
         <f t="shared" si="14"/>
         <v>912.27</v>
       </c>
-      <c r="N61" s="13">
+      <c r="N62" s="13">
         <v>794.02</v>
       </c>
-      <c r="O61" s="15">
+      <c r="O62" s="15">
         <v>118.25</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="16">
+    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="16">
         <v>2020</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="18">
+      <c r="C63" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="18">
         <f t="shared" si="12"/>
         <v>39436</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E63" s="19">
         <v>33432</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F63" s="19">
         <v>6004</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G63" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H62" s="19">
-        <v>0</v>
-      </c>
-      <c r="I62" s="19">
-        <v>0</v>
-      </c>
-      <c r="J62" s="18">
+      <c r="H63" s="19">
+        <v>0</v>
+      </c>
+      <c r="I63" s="19">
+        <v>0</v>
+      </c>
+      <c r="J63" s="18">
         <f t="shared" si="11"/>
         <v>5483</v>
       </c>
-      <c r="K62" s="19">
+      <c r="K63" s="19">
         <v>3788</v>
       </c>
-      <c r="L62" s="19">
+      <c r="L63" s="19">
         <v>1695</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M63" s="20">
         <f t="shared" si="14"/>
         <v>958.75099999999998</v>
       </c>
-      <c r="N62" s="19">
+      <c r="N63" s="19">
         <v>841.01400000000001</v>
       </c>
-      <c r="O62" s="21">
+      <c r="O63" s="21">
         <v>117.73699999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="12">
+      <c r="C64" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="12">
         <f t="shared" si="12"/>
         <v>138604</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>105733</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>32871</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H63" s="13">
-        <v>0</v>
-      </c>
-      <c r="I63" s="13">
-        <v>0</v>
-      </c>
-      <c r="J63" s="12">
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
+      <c r="I64" s="13">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
         <f t="shared" si="11"/>
         <v>27685</v>
       </c>
-      <c r="K63" s="13">
+      <c r="K64" s="13">
         <v>19400</v>
       </c>
-      <c r="L63" s="13">
+      <c r="L64" s="13">
         <v>8285</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M64" s="14">
         <f t="shared" si="14"/>
         <v>9011.8619999999992</v>
       </c>
-      <c r="N63" s="13">
+      <c r="N64" s="13">
         <v>6133.3159999999998</v>
       </c>
-      <c r="O63" s="15">
+      <c r="O64" s="15">
         <v>2878.5459999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="16">
+    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="16">
         <v>2020</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="18">
+      <c r="C65" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="18">
         <f t="shared" si="12"/>
         <v>154600</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E65" s="19">
         <v>116643</v>
       </c>
-      <c r="F64" s="19">
+      <c r="F65" s="19">
         <v>37957</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G65" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H64" s="19">
-        <v>0</v>
-      </c>
-      <c r="I64" s="19">
-        <v>0</v>
-      </c>
-      <c r="J64" s="18">
+      <c r="H65" s="19">
+        <v>0</v>
+      </c>
+      <c r="I65" s="19">
+        <v>0</v>
+      </c>
+      <c r="J65" s="18">
         <f t="shared" si="11"/>
         <v>33096</v>
       </c>
-      <c r="K64" s="19">
+      <c r="K65" s="19">
         <v>22924</v>
       </c>
-      <c r="L64" s="19">
+      <c r="L65" s="19">
         <v>10172</v>
       </c>
-      <c r="M64" s="20">
+      <c r="M65" s="20">
         <f t="shared" si="14"/>
         <v>12555.147000000001</v>
       </c>
-      <c r="N64" s="19">
+      <c r="N65" s="19">
         <v>8141.3959999999997</v>
       </c>
-      <c r="O64" s="21">
+      <c r="O65" s="21">
         <v>4413.7510000000002</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="22">
+    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="22">
         <v>2020</v>
       </c>
-      <c r="C65" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D65" s="24">
+      <c r="C66" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="24">
         <f t="shared" si="12"/>
         <v>167619</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E66" s="25">
         <v>126846</v>
       </c>
-      <c r="F65" s="25">
+      <c r="F66" s="25">
         <v>40773</v>
       </c>
-      <c r="G65" s="24">
+      <c r="G66" s="24">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H65" s="25">
-        <v>0</v>
-      </c>
-      <c r="I65" s="25">
-        <v>0</v>
-      </c>
-      <c r="J65" s="24">
+      <c r="H66" s="25">
+        <v>0</v>
+      </c>
+      <c r="I66" s="25">
+        <v>0</v>
+      </c>
+      <c r="J66" s="24">
         <f t="shared" si="11"/>
         <v>37171</v>
       </c>
-      <c r="K65" s="25">
+      <c r="K66" s="25">
         <v>25779</v>
       </c>
-      <c r="L65" s="25">
+      <c r="L66" s="25">
         <v>11392</v>
       </c>
-      <c r="M65" s="26">
+      <c r="M66" s="26">
         <f t="shared" si="14"/>
         <v>13625.84</v>
       </c>
-      <c r="N65" s="25">
+      <c r="N66" s="25">
         <v>8800.0789999999997</v>
       </c>
-      <c r="O65" s="27">
+      <c r="O66" s="27">
         <v>4825.7610000000004</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="28">
+    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="28">
         <v>2019</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" s="30">
+      <c r="C67" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="30">
         <f t="shared" si="12"/>
         <v>167593</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E67" s="31">
         <v>126051</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F67" s="31">
         <v>41542</v>
       </c>
-      <c r="G66" s="30">
+      <c r="G67" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H66" s="31">
-        <v>0</v>
-      </c>
-      <c r="I66" s="31">
-        <v>0</v>
-      </c>
-      <c r="J66" s="30">
+      <c r="H67" s="31">
+        <v>0</v>
+      </c>
+      <c r="I67" s="31">
+        <v>0</v>
+      </c>
+      <c r="J67" s="30">
         <f t="shared" si="11"/>
         <v>37969</v>
       </c>
-      <c r="K66" s="31">
+      <c r="K67" s="31">
         <v>25919</v>
       </c>
-      <c r="L66" s="31">
+      <c r="L67" s="31">
         <v>12050</v>
       </c>
-      <c r="M66" s="32">
+      <c r="M67" s="32">
         <f t="shared" si="14"/>
         <v>14311.285</v>
       </c>
-      <c r="N66" s="31">
+      <c r="N67" s="31">
         <v>9491.1820000000007</v>
       </c>
-      <c r="O66" s="33">
+      <c r="O67" s="33">
         <v>4820.1030000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="12">
+      <c r="C68" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="12">
         <f t="shared" si="12"/>
         <v>161899</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>125646</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>36253</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G68" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H67" s="13">
-        <v>0</v>
-      </c>
-      <c r="I67" s="13">
-        <v>0</v>
-      </c>
-      <c r="J67" s="12">
+      <c r="H68" s="13">
+        <v>0</v>
+      </c>
+      <c r="I68" s="13">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
         <f t="shared" si="11"/>
         <v>36078</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K68" s="13">
         <v>25201</v>
       </c>
-      <c r="L67" s="13">
+      <c r="L68" s="13">
         <v>10877</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M68" s="14">
         <f t="shared" si="14"/>
         <v>13215.171</v>
       </c>
-      <c r="N67" s="13">
+      <c r="N68" s="13">
         <v>9104.4480000000003</v>
       </c>
-      <c r="O67" s="15">
+      <c r="O68" s="15">
         <v>4110.723</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="16">
+    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="16">
         <v>2019</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D68" s="18">
+      <c r="C69" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="18">
         <f t="shared" si="12"/>
         <v>159019</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E69" s="19">
         <v>126531</v>
       </c>
-      <c r="F68" s="19">
+      <c r="F69" s="19">
         <v>32488</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G69" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H68" s="19">
-        <v>0</v>
-      </c>
-      <c r="I68" s="19">
-        <v>0</v>
-      </c>
-      <c r="J68" s="18">
+      <c r="H69" s="19">
+        <v>0</v>
+      </c>
+      <c r="I69" s="19">
+        <v>0</v>
+      </c>
+      <c r="J69" s="18">
         <f t="shared" si="11"/>
         <v>36741</v>
       </c>
-      <c r="K68" s="19">
+      <c r="K69" s="19">
         <v>25823</v>
       </c>
-      <c r="L68" s="19">
+      <c r="L69" s="19">
         <v>10918</v>
       </c>
-      <c r="M68" s="20">
+      <c r="M69" s="20">
         <f t="shared" si="14"/>
         <v>12724.360999999999</v>
       </c>
-      <c r="N68" s="19">
+      <c r="N69" s="19">
         <v>9175.6839999999993</v>
       </c>
-      <c r="O68" s="21">
+      <c r="O69" s="21">
         <v>3548.6770000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D69" s="12">
+      <c r="C70" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="12">
         <f t="shared" si="12"/>
         <v>148583</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>118880</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>29703</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H69" s="13">
-        <v>0</v>
-      </c>
-      <c r="I69" s="13">
-        <v>0</v>
-      </c>
-      <c r="J69" s="12">
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="13">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
         <f t="shared" si="11"/>
         <v>34491</v>
       </c>
-      <c r="K69" s="13">
+      <c r="K70" s="13">
         <v>23749</v>
       </c>
-      <c r="L69" s="13">
+      <c r="L70" s="13">
         <v>10742</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M70" s="14">
         <f t="shared" si="14"/>
         <v>11512.314</v>
       </c>
-      <c r="N69" s="13">
+      <c r="N70" s="13">
         <v>8319.4240000000009</v>
       </c>
-      <c r="O69" s="15">
+      <c r="O70" s="15">
         <v>3192.89</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="16">
+    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="16">
         <v>2019</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="18">
+      <c r="C71" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="18">
         <f t="shared" si="12"/>
         <v>165304</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E71" s="19">
         <v>129776.00000000001</v>
       </c>
-      <c r="F70" s="19">
+      <c r="F71" s="19">
         <v>35528</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G71" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H70" s="19">
-        <v>0</v>
-      </c>
-      <c r="I70" s="19">
-        <v>0</v>
-      </c>
-      <c r="J70" s="18">
+      <c r="H71" s="19">
+        <v>0</v>
+      </c>
+      <c r="I71" s="19">
+        <v>0</v>
+      </c>
+      <c r="J71" s="18">
         <f t="shared" si="11"/>
         <v>37882</v>
       </c>
-      <c r="K70" s="19">
+      <c r="K71" s="19">
         <v>25900</v>
       </c>
-      <c r="L70" s="19">
+      <c r="L71" s="19">
         <v>11982</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M71" s="20">
         <f t="shared" si="14"/>
         <v>13678.462</v>
       </c>
-      <c r="N70" s="19">
+      <c r="N71" s="19">
         <v>9506.8289999999997</v>
       </c>
-      <c r="O70" s="21">
+      <c r="O71" s="21">
         <v>4171.6329999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="12">
+      <c r="C72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="12">
         <f t="shared" si="12"/>
         <v>168640</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>131068.99999999999</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>37571</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H71" s="13">
-        <v>0</v>
-      </c>
-      <c r="I71" s="13">
-        <v>0</v>
-      </c>
-      <c r="J71" s="12">
+      <c r="H72" s="13">
+        <v>0</v>
+      </c>
+      <c r="I72" s="13">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
         <f t="shared" si="11"/>
         <v>38116</v>
       </c>
-      <c r="K71" s="13">
+      <c r="K72" s="13">
         <v>25943</v>
       </c>
-      <c r="L71" s="13">
+      <c r="L72" s="13">
         <v>12173</v>
       </c>
-      <c r="M71" s="14">
+      <c r="M72" s="14">
         <f t="shared" si="14"/>
         <v>14682.169</v>
       </c>
-      <c r="N71" s="13">
+      <c r="N72" s="13">
         <v>9992.81</v>
       </c>
-      <c r="O71" s="15">
+      <c r="O72" s="15">
         <v>4689.3590000000004</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="16">
+    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="16">
         <v>2019</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="18">
+      <c r="C73" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="18">
         <f t="shared" si="12"/>
         <v>159253</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E73" s="19">
         <v>123607</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F73" s="19">
         <v>35646</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G73" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H72" s="19">
-        <v>0</v>
-      </c>
-      <c r="I72" s="19">
-        <v>0</v>
-      </c>
-      <c r="J72" s="18">
+      <c r="H73" s="19">
+        <v>0</v>
+      </c>
+      <c r="I73" s="19">
+        <v>0</v>
+      </c>
+      <c r="J73" s="18">
         <f t="shared" si="11"/>
         <v>35734</v>
       </c>
-      <c r="K72" s="19">
+      <c r="K73" s="19">
         <v>24362</v>
       </c>
-      <c r="L72" s="19">
+      <c r="L73" s="19">
         <v>11372</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M73" s="20">
         <f t="shared" si="14"/>
         <v>13352.69</v>
       </c>
-      <c r="N72" s="19">
+      <c r="N73" s="19">
         <v>9079.7170000000006</v>
       </c>
-      <c r="O72" s="21">
+      <c r="O73" s="21">
         <v>4272.973</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D73" s="12">
+      <c r="C74" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="12">
         <f t="shared" si="12"/>
         <v>166260</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>130592.99999999999</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>35667</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H73" s="13">
-        <v>0</v>
-      </c>
-      <c r="I73" s="13">
-        <v>0</v>
-      </c>
-      <c r="J73" s="12">
-        <f t="shared" ref="J73:J89" si="15">SUM(K73:L73)</f>
+      <c r="H74" s="13">
+        <v>0</v>
+      </c>
+      <c r="I74" s="13">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <f t="shared" ref="J74:J90" si="15">SUM(K74:L74)</f>
         <v>36624</v>
       </c>
-      <c r="K73" s="13">
+      <c r="K74" s="13">
         <v>25219</v>
       </c>
-      <c r="L73" s="13">
+      <c r="L74" s="13">
         <v>11405</v>
       </c>
-      <c r="M73" s="14">
+      <c r="M74" s="14">
         <f t="shared" si="14"/>
         <v>13434.785</v>
       </c>
-      <c r="N73" s="13">
+      <c r="N74" s="13">
         <v>9373.2109999999993</v>
       </c>
-      <c r="O73" s="15">
+      <c r="O74" s="15">
         <v>4061.5740000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="16">
+    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="16">
         <v>2019</v>
       </c>
-      <c r="C74" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="18">
+      <c r="C75" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="18">
         <f t="shared" si="12"/>
         <v>168338</v>
       </c>
-      <c r="E74" s="19">
+      <c r="E75" s="19">
         <v>129008.99999999999</v>
       </c>
-      <c r="F74" s="19">
+      <c r="F75" s="19">
         <v>39329</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G75" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H74" s="19">
-        <v>0</v>
-      </c>
-      <c r="I74" s="19">
-        <v>0</v>
-      </c>
-      <c r="J74" s="18">
+      <c r="H75" s="19">
+        <v>0</v>
+      </c>
+      <c r="I75" s="19">
+        <v>0</v>
+      </c>
+      <c r="J75" s="18">
         <f t="shared" si="15"/>
         <v>35519</v>
       </c>
-      <c r="K74" s="19">
+      <c r="K75" s="19">
         <v>24350</v>
       </c>
-      <c r="L74" s="19">
+      <c r="L75" s="19">
         <v>11169</v>
       </c>
-      <c r="M74" s="20">
+      <c r="M75" s="20">
         <f t="shared" si="14"/>
         <v>13245.237000000001</v>
       </c>
-      <c r="N74" s="19">
+      <c r="N75" s="19">
         <v>8877.2070000000003</v>
       </c>
-      <c r="O74" s="21">
+      <c r="O75" s="21">
         <v>4368.03</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D75" s="12">
+      <c r="C76" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="12">
         <f t="shared" si="12"/>
         <v>171618</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>128662</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>42956</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G76" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H75" s="13">
-        <v>0</v>
-      </c>
-      <c r="I75" s="13">
-        <v>0</v>
-      </c>
-      <c r="J75" s="12">
+      <c r="H76" s="13">
+        <v>0</v>
+      </c>
+      <c r="I76" s="13">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
         <f t="shared" si="15"/>
         <v>35392</v>
       </c>
-      <c r="K75" s="13">
+      <c r="K76" s="13">
         <v>24040</v>
       </c>
-      <c r="L75" s="13">
+      <c r="L76" s="13">
         <v>11352</v>
       </c>
-      <c r="M75" s="14">
+      <c r="M76" s="14">
         <f t="shared" si="14"/>
         <v>13468.561000000002</v>
       </c>
-      <c r="N75" s="13">
+      <c r="N76" s="13">
         <v>8550.9040000000005</v>
       </c>
-      <c r="O75" s="15">
+      <c r="O76" s="15">
         <v>4917.6570000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="16">
+    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="16">
         <v>2019</v>
       </c>
-      <c r="C76" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="18">
+      <c r="C77" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="18">
         <f t="shared" si="12"/>
         <v>151989</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E77" s="19">
         <v>114632</v>
       </c>
-      <c r="F76" s="19">
+      <c r="F77" s="19">
         <v>37357</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G77" s="18">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H76" s="19">
-        <v>0</v>
-      </c>
-      <c r="I76" s="19">
-        <v>0</v>
-      </c>
-      <c r="J76" s="18">
+      <c r="H77" s="19">
+        <v>0</v>
+      </c>
+      <c r="I77" s="19">
+        <v>0</v>
+      </c>
+      <c r="J77" s="18">
         <f t="shared" si="15"/>
         <v>31890</v>
       </c>
-      <c r="K76" s="19">
+      <c r="K77" s="19">
         <v>21784</v>
       </c>
-      <c r="L76" s="19">
+      <c r="L77" s="19">
         <v>10106</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M77" s="20">
         <f t="shared" si="14"/>
         <v>11254.142</v>
       </c>
-      <c r="N76" s="19">
+      <c r="N77" s="19">
         <v>7147.8</v>
       </c>
-      <c r="O76" s="21">
+      <c r="O77" s="21">
         <v>4106.3419999999996</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="22">
+    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="22">
         <v>2019</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D77" s="24">
-        <f t="shared" ref="D77:D89" si="16">SUM(E77:F77)</f>
+      <c r="C78" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="24">
+        <f t="shared" ref="D78:D90" si="16">SUM(E78:F78)</f>
         <v>165954</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E78" s="25">
         <v>124266</v>
       </c>
-      <c r="F77" s="25">
+      <c r="F78" s="25">
         <v>41688</v>
       </c>
-      <c r="G77" s="24">
-        <f t="shared" ref="G77:G89" si="17">SUM(H77:I77)</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="25">
-        <v>0</v>
-      </c>
-      <c r="I77" s="25">
-        <v>0</v>
-      </c>
-      <c r="J77" s="24">
+      <c r="G78" s="24">
+        <f t="shared" ref="G78:G90" si="17">SUM(H78:I78)</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="25">
+        <v>0</v>
+      </c>
+      <c r="I78" s="25">
+        <v>0</v>
+      </c>
+      <c r="J78" s="24">
         <f t="shared" si="15"/>
         <v>35932</v>
       </c>
-      <c r="K77" s="25">
+      <c r="K78" s="25">
         <v>24195</v>
       </c>
-      <c r="L77" s="25">
+      <c r="L78" s="25">
         <v>11737</v>
       </c>
-      <c r="M77" s="26">
-        <f t="shared" ref="M77:M89" si="18">SUM(N77:O77)</f>
+      <c r="M78" s="26">
+        <f t="shared" ref="M78:M90" si="18">SUM(N78:O78)</f>
         <v>12584.922</v>
       </c>
-      <c r="N77" s="25">
+      <c r="N78" s="25">
         <v>7965.4170000000004</v>
       </c>
-      <c r="O77" s="27">
+      <c r="O78" s="27">
         <v>4619.5050000000001</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="17">
+    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="17">
         <v>2018</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="18">
+      <c r="C79" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="18">
         <f t="shared" si="16"/>
         <v>167896</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E79" s="19">
         <v>126468</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F79" s="19">
         <v>41428</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G79" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H78" s="19">
-        <v>0</v>
-      </c>
-      <c r="I78" s="19">
-        <v>0</v>
-      </c>
-      <c r="J78" s="18">
+      <c r="H79" s="19">
+        <v>0</v>
+      </c>
+      <c r="I79" s="19">
+        <v>0</v>
+      </c>
+      <c r="J79" s="18">
         <f t="shared" si="15"/>
         <v>36796</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K79" s="19">
         <v>24610</v>
       </c>
-      <c r="L78" s="19">
+      <c r="L79" s="19">
         <v>12186</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M79" s="20">
         <f t="shared" si="18"/>
         <v>13446.27</v>
       </c>
-      <c r="N78" s="19">
+      <c r="N79" s="19">
         <v>8820.4920000000002</v>
       </c>
-      <c r="O78" s="19">
+      <c r="O79" s="19">
         <v>4625.7780000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="11">
+    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="11">
         <v>2018</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" s="12">
+      <c r="C80" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="12">
         <f t="shared" si="16"/>
         <v>165335</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>128314</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>37021</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G80" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H79" s="13">
-        <v>0</v>
-      </c>
-      <c r="I79" s="13">
-        <v>0</v>
-      </c>
-      <c r="J79" s="12">
+      <c r="H80" s="13">
+        <v>0</v>
+      </c>
+      <c r="I80" s="13">
+        <v>0</v>
+      </c>
+      <c r="J80" s="12">
         <f t="shared" si="15"/>
         <v>35251</v>
       </c>
-      <c r="K79" s="13">
+      <c r="K80" s="13">
         <v>23927</v>
       </c>
-      <c r="L79" s="13">
+      <c r="L80" s="13">
         <v>11324</v>
       </c>
-      <c r="M79" s="14">
+      <c r="M80" s="14">
         <f t="shared" si="18"/>
         <v>12543.215</v>
       </c>
-      <c r="N79" s="13">
+      <c r="N80" s="13">
         <v>8542.7430000000004</v>
       </c>
-      <c r="O79" s="13">
+      <c r="O80" s="13">
         <v>4000.4720000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="17">
+    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="17">
         <v>2018</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="18">
+      <c r="C81" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" s="18">
         <f t="shared" si="16"/>
         <v>162784</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E81" s="19">
         <v>129050.00000000001</v>
       </c>
-      <c r="F80" s="19">
+      <c r="F81" s="19">
         <v>33734</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G81" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H80" s="19">
-        <v>0</v>
-      </c>
-      <c r="I80" s="19">
-        <v>0</v>
-      </c>
-      <c r="J80" s="18">
+      <c r="H81" s="19">
+        <v>0</v>
+      </c>
+      <c r="I81" s="19">
+        <v>0</v>
+      </c>
+      <c r="J81" s="18">
         <f t="shared" si="15"/>
         <v>35903</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K81" s="19">
         <v>24186</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L81" s="19">
         <v>11717</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M81" s="20">
         <f t="shared" si="18"/>
         <v>11940.449000000001</v>
       </c>
-      <c r="N80" s="19">
+      <c r="N81" s="19">
         <v>8460.0640000000003</v>
       </c>
-      <c r="O80" s="19">
+      <c r="O81" s="19">
         <v>3480.3850000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="11">
+    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="11">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="12">
+      <c r="C82" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82" s="12">
         <f t="shared" si="16"/>
         <v>151218</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>120455</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>30763</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H81" s="13">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13">
-        <v>0</v>
-      </c>
-      <c r="J81" s="12">
+      <c r="H82" s="13">
+        <v>0</v>
+      </c>
+      <c r="I82" s="13">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
         <f t="shared" si="15"/>
         <v>34246</v>
       </c>
-      <c r="K81" s="13">
+      <c r="K82" s="13">
         <v>23006</v>
       </c>
-      <c r="L81" s="13">
+      <c r="L82" s="13">
         <v>11240</v>
       </c>
-      <c r="M81" s="14">
+      <c r="M82" s="14">
         <f t="shared" si="18"/>
         <v>10888.41</v>
       </c>
-      <c r="N81" s="13">
+      <c r="N82" s="13">
         <v>7775.683</v>
       </c>
-      <c r="O81" s="13">
+      <c r="O82" s="13">
         <v>3112.7269999999999</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="17">
+    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="17">
         <v>2018</v>
       </c>
-      <c r="C82" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D82" s="18">
+      <c r="C83" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" s="18">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E83" s="19">
         <v>131130</v>
       </c>
-      <c r="F82" s="19">
+      <c r="F83" s="19">
         <v>36187</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G83" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H82" s="19">
-        <v>0</v>
-      </c>
-      <c r="I82" s="19">
-        <v>0</v>
-      </c>
-      <c r="J82" s="18">
+      <c r="H83" s="19">
+        <v>0</v>
+      </c>
+      <c r="I83" s="19">
+        <v>0</v>
+      </c>
+      <c r="J83" s="18">
         <f t="shared" si="15"/>
         <v>37070</v>
       </c>
-      <c r="K82" s="19">
+      <c r="K83" s="19">
         <v>24746</v>
       </c>
-      <c r="L82" s="19">
+      <c r="L83" s="19">
         <v>12324</v>
       </c>
-      <c r="M82" s="20">
+      <c r="M83" s="20">
         <f t="shared" si="18"/>
         <v>12946.407999999999</v>
       </c>
-      <c r="N82" s="19">
+      <c r="N83" s="19">
         <v>8844.4689999999991</v>
       </c>
-      <c r="O82" s="19">
+      <c r="O83" s="19">
         <v>4101.9390000000003</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="11">
+    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="11">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="12">
+      <c r="C84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="12">
         <f t="shared" si="16"/>
         <v>166752</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>128561</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>38191</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H83" s="13">
-        <v>0</v>
-      </c>
-      <c r="I83" s="13">
-        <v>0</v>
-      </c>
-      <c r="J83" s="12">
+      <c r="H84" s="13">
+        <v>0</v>
+      </c>
+      <c r="I84" s="13">
+        <v>0</v>
+      </c>
+      <c r="J84" s="12">
         <f t="shared" si="15"/>
         <v>37073</v>
       </c>
-      <c r="K83" s="13">
+      <c r="K84" s="13">
         <v>24692</v>
       </c>
-      <c r="L83" s="13">
+      <c r="L84" s="13">
         <v>12381</v>
       </c>
-      <c r="M83" s="14">
+      <c r="M84" s="14">
         <f t="shared" si="18"/>
         <v>14091.387999999999</v>
       </c>
-      <c r="N83" s="13">
+      <c r="N84" s="13">
         <v>9430.1080000000002</v>
       </c>
-      <c r="O83" s="13">
+      <c r="O84" s="13">
         <v>4661.28</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="17">
+    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="17">
         <v>2018</v>
       </c>
-      <c r="C84" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="18">
+      <c r="C85" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="18">
         <f t="shared" si="16"/>
         <v>158678</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E85" s="19">
         <v>121941</v>
       </c>
-      <c r="F84" s="19">
+      <c r="F85" s="19">
         <v>36737</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G85" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H84" s="19">
-        <v>0</v>
-      </c>
-      <c r="I84" s="19">
-        <v>0</v>
-      </c>
-      <c r="J84" s="18">
+      <c r="H85" s="19">
+        <v>0</v>
+      </c>
+      <c r="I85" s="19">
+        <v>0</v>
+      </c>
+      <c r="J85" s="18">
         <f t="shared" si="15"/>
         <v>34876</v>
       </c>
-      <c r="K84" s="19">
+      <c r="K85" s="19">
         <v>23300</v>
       </c>
-      <c r="L84" s="19">
+      <c r="L85" s="19">
         <v>11576</v>
       </c>
-      <c r="M84" s="20">
+      <c r="M85" s="20">
         <f t="shared" si="18"/>
         <v>12298.282999999999</v>
       </c>
-      <c r="N84" s="19">
+      <c r="N85" s="19">
         <v>8174.7749999999996</v>
       </c>
-      <c r="O84" s="19">
+      <c r="O85" s="19">
         <v>4123.5079999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="11">
+    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="11">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="12">
+      <c r="C86" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="12">
         <f t="shared" si="16"/>
         <v>168027</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>131482</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>36545</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H85" s="13">
-        <v>0</v>
-      </c>
-      <c r="I85" s="13">
-        <v>0</v>
-      </c>
-      <c r="J85" s="12">
+      <c r="H86" s="13">
+        <v>0</v>
+      </c>
+      <c r="I86" s="13">
+        <v>0</v>
+      </c>
+      <c r="J86" s="12">
         <f t="shared" si="15"/>
         <v>35688</v>
       </c>
-      <c r="K85" s="13">
+      <c r="K86" s="13">
         <v>24015</v>
       </c>
-      <c r="L85" s="13">
+      <c r="L86" s="13">
         <v>11673</v>
       </c>
-      <c r="M85" s="14">
+      <c r="M86" s="14">
         <f t="shared" si="18"/>
         <v>12153.535</v>
       </c>
-      <c r="N85" s="13">
+      <c r="N86" s="13">
         <v>8289.7060000000001</v>
       </c>
-      <c r="O85" s="13">
+      <c r="O86" s="13">
         <v>3863.8290000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="17">
+    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="17">
         <v>2018</v>
       </c>
-      <c r="C86" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="18">
+      <c r="C87" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="18">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E87" s="19">
         <v>128001</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F87" s="19">
         <v>39316</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G87" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H86" s="19">
-        <v>0</v>
-      </c>
-      <c r="I86" s="19">
-        <v>0</v>
-      </c>
-      <c r="J86" s="18">
+      <c r="H87" s="19">
+        <v>0</v>
+      </c>
+      <c r="I87" s="19">
+        <v>0</v>
+      </c>
+      <c r="J87" s="18">
         <f t="shared" si="15"/>
         <v>34719</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K87" s="19">
         <v>23289</v>
       </c>
-      <c r="L86" s="19">
+      <c r="L87" s="19">
         <v>11430</v>
       </c>
-      <c r="M86" s="20">
+      <c r="M87" s="20">
         <f t="shared" si="18"/>
         <v>12397.615</v>
       </c>
-      <c r="N86" s="19">
+      <c r="N87" s="19">
         <v>8179.683</v>
       </c>
-      <c r="O86" s="19">
+      <c r="O87" s="19">
         <v>4217.9319999999998</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="11">
+    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="11">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="12">
+      <c r="C88" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="12">
         <f t="shared" si="16"/>
         <v>175525</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>131590</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>43935</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H87" s="13">
-        <v>0</v>
-      </c>
-      <c r="I87" s="13">
-        <v>0</v>
-      </c>
-      <c r="J87" s="12">
+      <c r="H88" s="13">
+        <v>0</v>
+      </c>
+      <c r="I88" s="13">
+        <v>0</v>
+      </c>
+      <c r="J88" s="12">
         <f t="shared" si="15"/>
         <v>35499</v>
       </c>
-      <c r="K87" s="13">
+      <c r="K88" s="13">
         <v>23540</v>
       </c>
-      <c r="L87" s="13">
+      <c r="L88" s="13">
         <v>11959</v>
       </c>
-      <c r="M87" s="14">
+      <c r="M88" s="14">
         <f t="shared" si="18"/>
         <v>12920.743</v>
       </c>
-      <c r="N87" s="13">
+      <c r="N88" s="13">
         <v>8102.1610000000001</v>
       </c>
-      <c r="O87" s="13">
+      <c r="O88" s="13">
         <v>4818.5820000000003</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="17">
+    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="17">
         <v>2018</v>
       </c>
-      <c r="C88" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="18">
+      <c r="C89" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="18">
         <f t="shared" si="16"/>
         <v>153732</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E89" s="19">
         <v>115727</v>
       </c>
-      <c r="F88" s="19">
+      <c r="F89" s="19">
         <v>38005</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G89" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H88" s="19">
-        <v>0</v>
-      </c>
-      <c r="I88" s="19">
-        <v>0</v>
-      </c>
-      <c r="J88" s="18">
+      <c r="H89" s="19">
+        <v>0</v>
+      </c>
+      <c r="I89" s="19">
+        <v>0</v>
+      </c>
+      <c r="J89" s="18">
         <f t="shared" si="15"/>
         <v>31178</v>
       </c>
-      <c r="K88" s="19">
+      <c r="K89" s="19">
         <v>20697</v>
       </c>
-      <c r="L88" s="19">
+      <c r="L89" s="19">
         <v>10481</v>
       </c>
-      <c r="M88" s="20">
+      <c r="M89" s="20">
         <f t="shared" si="18"/>
         <v>10846.098</v>
       </c>
-      <c r="N88" s="19">
+      <c r="N89" s="19">
         <v>6820.4250000000002</v>
       </c>
-      <c r="O88" s="19">
+      <c r="O89" s="19">
         <v>4025.6729999999998</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="11">
+    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="11">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="12">
+      <c r="C90" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="12">
         <f t="shared" si="16"/>
         <v>165319</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>123033</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>42286</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="12">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H89" s="13">
-        <v>0</v>
-      </c>
-      <c r="I89" s="13">
-        <v>0</v>
-      </c>
-      <c r="J89" s="12">
+      <c r="H90" s="13">
+        <v>0</v>
+      </c>
+      <c r="I90" s="13">
+        <v>0</v>
+      </c>
+      <c r="J90" s="12">
         <f t="shared" si="15"/>
         <v>35175</v>
       </c>
-      <c r="K89" s="13">
+      <c r="K90" s="13">
         <v>23003</v>
       </c>
-      <c r="L89" s="13">
+      <c r="L90" s="13">
         <v>12172</v>
       </c>
-      <c r="M89" s="14">
+      <c r="M90" s="14">
         <f t="shared" si="18"/>
         <v>12140.277</v>
       </c>
-      <c r="N89" s="13">
+      <c r="N90" s="13">
         <v>7540.7510000000002</v>
       </c>
-      <c r="O89" s="13">
+      <c r="O90" s="13">
         <v>4599.5259999999998</v>
       </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B90" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N90" s="19"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N91" s="19"/>
-      <c r="O91" s="34"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="N92" s="19"/>
+      <c r="O92" s="34"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="N93" s="19"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="N94" s="19"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B95" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B96" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Operaciones_pasajeros_A.xlsx
+++ b/Operaciones_pasajeros_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E246979-FA57-41C3-B8BF-9E7E486D2268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71A1D1-D821-4CD5-A34A-E92C6AC40D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_28" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>Internacional</t>
   </si>
@@ -137,9 +137,6 @@
     <t xml:space="preserve">Operaciones </t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
-  </si>
-  <si>
     <t xml:space="preserve">               AIFA. Numeralia Aeroportuaria. En: www.aifa.aero.</t>
   </si>
   <si>
@@ -147,6 +144,15 @@
   </si>
   <si>
     <t xml:space="preserve">           El concepto de Operaciones del AIFA, Periodo 2022 comprendido de marzo a diciembre de 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El concepto de "Operaciones del AIFA", a partir del mes de enero de 2025 hubo una reclasificación en las operaciones de carga del AIFA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> El concepto de "Operaciones del AIFA",  Excluye aviación general.</t>
+  </si>
+  <si>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,21 +246,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -374,12 +365,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -391,22 +395,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -417,8 +409,8 @@
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -429,33 +421,36 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -463,21 +458,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -786,8 +789,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O90" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O91" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1045,13 +1048,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O96"/>
+  <dimension ref="B2:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="3" customWidth="1"/>
@@ -1071,4199 +1074,4259 @@
     <col min="16" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" ht="18">
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:15">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:15">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="35" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="35" t="s">
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="35" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B5" s="6" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15">
       <c r="B6" s="38">
         <v>2025</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="39">
+        <f>SUM(E6:F6)</f>
+        <v>148741</v>
+      </c>
+      <c r="E6" s="40">
+        <v>105136</v>
+      </c>
+      <c r="F6" s="40">
+        <v>43605</v>
+      </c>
+      <c r="G6" s="39">
+        <f>SUM(H6:I6)</f>
+        <v>5271</v>
+      </c>
+      <c r="H6" s="40">
+        <v>4251</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1020</v>
+      </c>
+      <c r="J6" s="39">
+        <f>SUM(K6:L6)</f>
+        <v>22852</v>
+      </c>
+      <c r="K6" s="40">
+        <v>14515</v>
+      </c>
+      <c r="L6" s="40">
+        <v>8337</v>
+      </c>
+      <c r="M6" s="41">
+        <f>SUM(N6:O6)</f>
+        <v>14261.053</v>
+      </c>
+      <c r="N6" s="40">
+        <v>9133.57</v>
+      </c>
+      <c r="O6" s="40">
+        <v>5127.4830000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="18">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="40">
-        <f>SUM(E6:F6)</f>
-        <v>161842</v>
-      </c>
-      <c r="E6" s="41">
-        <v>112729</v>
-      </c>
-      <c r="F6" s="41">
+      <c r="D7" s="20">
+        <f>SUM(E7:F7)</f>
+        <v>163357</v>
+      </c>
+      <c r="E7" s="21">
+        <v>114244</v>
+      </c>
+      <c r="F7" s="21">
         <v>49113</v>
       </c>
-      <c r="G6" s="40">
-        <f>SUM(H6:I6)</f>
-        <v>5368</v>
-      </c>
-      <c r="H6" s="41">
-        <v>5061</v>
-      </c>
-      <c r="I6" s="41">
-        <v>307</v>
-      </c>
-      <c r="J6" s="40">
-        <f>SUM(K6:L6)</f>
+      <c r="G7" s="20">
+        <f>SUM(H7:I7)</f>
+        <v>4916</v>
+      </c>
+      <c r="H7" s="21">
+        <v>3799</v>
+      </c>
+      <c r="I7" s="21">
+        <v>1117</v>
+      </c>
+      <c r="J7" s="20">
+        <f>SUM(K7:L7)</f>
         <v>25418</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K7" s="21">
         <v>15960</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L7" s="21">
         <v>9458</v>
       </c>
-      <c r="M6" s="42">
-        <f>SUM(N6:O6)</f>
-        <v>16253.696</v>
-      </c>
-      <c r="N6" s="41">
-        <v>10324.276</v>
-      </c>
-      <c r="O6" s="43">
-        <v>5929.42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
+      <c r="M7" s="22">
+        <f>SUM(N7:O7)</f>
+        <v>16253.322</v>
+      </c>
+      <c r="N7" s="21">
+        <v>10323.901</v>
+      </c>
+      <c r="O7" s="23">
+        <v>5929.4210000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="12">
         <v>2024</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="18">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="14">
+        <f>SUM(E8:F8)</f>
         <v>167031</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E8" s="15">
         <v>116920</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F8" s="15">
         <v>50111</v>
       </c>
-      <c r="G7" s="18">
-        <f>SUM(H7:I7)</f>
+      <c r="G8" s="14">
+        <f>SUM(H8:I8)</f>
         <v>5918</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H8" s="15">
         <v>5595</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I8" s="15">
         <v>323</v>
       </c>
-      <c r="J7" s="18">
-        <f>SUM(K7:L7)</f>
+      <c r="J8" s="14">
+        <f>SUM(K8:L8)</f>
         <v>25085</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K8" s="15">
         <v>15393</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L8" s="15">
         <v>9692</v>
       </c>
-      <c r="M7" s="20">
-        <f>SUM(N7:O7)</f>
+      <c r="M8" s="16">
+        <f>SUM(N8:O8)</f>
         <v>17224.003000000001</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N8" s="15">
         <v>11183.15</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O8" s="17">
         <v>6040.8530000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+    <row r="9" spans="2:15">
+      <c r="B9" s="6">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="12">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="8">
+        <f>SUM(E9:F9)</f>
         <v>163956</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="9">
         <v>119294</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="9">
         <v>44662</v>
       </c>
-      <c r="G8" s="12">
-        <f>SUM(H8:I8)</f>
+      <c r="G9" s="8">
+        <f>SUM(H9:I9)</f>
         <v>5900</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H9" s="9">
         <v>5580</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I9" s="9">
         <v>320</v>
       </c>
-      <c r="J8" s="12">
-        <f>SUM(K8:L8)</f>
+      <c r="J9" s="8">
+        <f>SUM(K9:L9)</f>
         <v>24195</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K9" s="9">
         <v>15199</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L9" s="9">
         <v>8996</v>
       </c>
-      <c r="M8" s="14">
-        <f>SUM(N8:O8)</f>
+      <c r="M9" s="10">
+        <f>SUM(N9:O9)</f>
         <v>15816.669000000002</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N9" s="9">
         <v>10696.485000000001</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O9" s="11">
         <v>5120.1840000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="16">
+    <row r="10" spans="2:15">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="18">
-        <f t="shared" ref="D9" si="0">SUM(E9:F9)</f>
+      <c r="D10" s="14">
+        <f t="shared" ref="D10" si="0">SUM(E10:F10)</f>
         <v>154230</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E10" s="15">
         <v>116413</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F10" s="15">
         <v>37817</v>
       </c>
-      <c r="G9" s="18">
-        <f t="shared" ref="G9" si="1">SUM(H9:I9)</f>
+      <c r="G10" s="14">
+        <f t="shared" ref="G10" si="1">SUM(H10:I10)</f>
         <v>5902</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H10" s="15">
         <v>5574</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I10" s="15">
         <v>328</v>
       </c>
-      <c r="J9" s="18">
-        <f t="shared" ref="J9" si="2">SUM(K9:L9)</f>
+      <c r="J10" s="14">
+        <f t="shared" ref="J10" si="2">SUM(K10:L10)</f>
         <v>24943</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K10" s="15">
         <v>16106</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L10" s="15">
         <v>8837</v>
       </c>
-      <c r="M9" s="20">
-        <f t="shared" ref="M9" si="3">SUM(N9:O9)</f>
+      <c r="M10" s="16">
+        <f t="shared" ref="M10" si="3">SUM(N10:O10)</f>
         <v>14932.208999999999</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N10" s="15">
         <v>10562.91</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O10" s="17">
         <v>4369.299</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:15">
+      <c r="B11" s="6">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12">
-        <f>SUM(E10:F10)</f>
+      <c r="D11" s="8">
+        <f>SUM(E11:F11)</f>
         <v>141210</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="9">
         <v>108351</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="9">
         <v>32859</v>
       </c>
-      <c r="G10" s="12">
-        <f>SUM(H10:I10)</f>
+      <c r="G11" s="8">
+        <f>SUM(H11:I11)</f>
         <v>5605</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H11" s="9">
         <v>5292</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I11" s="9">
         <v>313</v>
       </c>
-      <c r="J10" s="12">
-        <f>SUM(K10:L10)</f>
+      <c r="J11" s="8">
+        <f>SUM(K11:L11)</f>
         <v>24172</v>
       </c>
-      <c r="K10" s="13">
-        <v>12094</v>
-      </c>
-      <c r="L10" s="13">
-        <v>12078</v>
-      </c>
-      <c r="M10" s="14">
-        <f>SUM(N10:O10)</f>
+      <c r="K11" s="9">
+        <v>15661</v>
+      </c>
+      <c r="L11" s="9">
+        <v>8511</v>
+      </c>
+      <c r="M11" s="10">
+        <f>SUM(N11:O11)</f>
         <v>13837.021999999999</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N11" s="9">
         <v>10036.638999999999</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O11" s="11">
         <v>3800.3829999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+    <row r="12" spans="2:15">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="18">
-        <f>SUM(E11:F11)</f>
+      <c r="D12" s="14">
+        <f>SUM(E12:F12)</f>
         <v>157045</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="15">
         <v>118762</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F12" s="15">
         <v>38283</v>
       </c>
-      <c r="G11" s="18">
-        <f t="shared" ref="G11:G45" si="4">SUM(H11:I11)</f>
+      <c r="G12" s="14">
+        <f t="shared" ref="G12:G46" si="4">SUM(H12:I12)</f>
         <v>5894</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H12" s="15">
         <v>5553</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I12" s="15">
         <v>341</v>
       </c>
-      <c r="J11" s="18">
-        <f t="shared" ref="J11:J41" si="5">SUM(K11:L11)</f>
+      <c r="J12" s="14">
+        <f t="shared" ref="J12:J42" si="5">SUM(K12:L12)</f>
         <v>26410</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K12" s="15">
         <v>17075</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L12" s="15">
         <v>9335</v>
       </c>
-      <c r="M11" s="20">
-        <f t="shared" ref="M11:M45" si="6">SUM(N11:O11)</f>
+      <c r="M12" s="16">
+        <f t="shared" ref="M12:M46" si="6">SUM(N12:O12)</f>
         <v>16048.866999999998</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N12" s="15">
         <v>11325.605</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O12" s="17">
         <v>4723.2619999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+    <row r="13" spans="2:15">
+      <c r="B13" s="6">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="12">
-        <f t="shared" ref="D12:D13" si="7">SUM(E12:F12)</f>
+      <c r="D13" s="8">
+        <f t="shared" ref="D13:D14" si="7">SUM(E13:F13)</f>
         <v>157419</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="9">
         <v>117177</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="9">
         <v>40242</v>
       </c>
-      <c r="G12" s="12">
-        <f t="shared" ref="G12:G14" si="8">SUM(H12:I12)</f>
+      <c r="G13" s="8">
+        <f t="shared" ref="G13:G15" si="8">SUM(H13:I13)</f>
         <v>5817</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H13" s="9">
         <v>5496</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I13" s="9">
         <v>321</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J13" s="8">
         <f t="shared" si="5"/>
         <v>26445</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K13" s="9">
         <v>16888</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L13" s="9">
         <v>9557</v>
       </c>
-      <c r="M12" s="14">
-        <f t="shared" ref="M12:M14" si="9">SUM(N12:O12)</f>
+      <c r="M13" s="10">
+        <f t="shared" ref="M13:M15" si="9">SUM(N13:O13)</f>
         <v>16878.663</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N13" s="9">
         <v>11522.672</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O13" s="11">
         <v>5355.991</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B13" s="16">
+    <row r="14" spans="2:15">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D14" s="14">
         <f t="shared" si="7"/>
         <v>148346</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E14" s="15">
         <v>109282</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F14" s="15">
         <v>39064</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G14" s="14">
         <f t="shared" si="8"/>
         <v>5644</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H14" s="15">
         <v>5335</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I14" s="15">
         <v>309</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J14" s="14">
         <f t="shared" si="5"/>
         <v>25325</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K14" s="15">
         <v>16635</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L14" s="15">
         <v>8690</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M14" s="16">
         <f t="shared" si="9"/>
         <v>15314.61</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N14" s="15">
         <v>10370.779</v>
       </c>
-      <c r="O13" s="21">
+      <c r="O14" s="17">
         <v>4943.8310000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:15">
+      <c r="B15" s="6">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="12">
-        <f>SUM(E14:F14)</f>
+      <c r="D15" s="8">
+        <f>SUM(E15:F15)</f>
         <v>159550</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="9">
         <v>119704</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="9">
         <v>39846</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="8">
         <f t="shared" si="8"/>
         <v>5571</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H15" s="9">
         <v>5254</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I15" s="9">
         <v>317</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J15" s="8">
         <f t="shared" si="5"/>
         <v>26164</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K15" s="9">
         <v>17387</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L15" s="9">
         <v>8777</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M15" s="10">
         <f t="shared" si="9"/>
         <v>15380.428</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N15" s="9">
         <v>10623.656000000001</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O15" s="11">
         <v>4756.7719999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B15" s="16">
+    <row r="16" spans="2:15">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="18">
-        <f t="shared" ref="D15:D45" si="10">SUM(E15:F15)</f>
+      <c r="D16" s="14">
+        <f t="shared" ref="D16:D46" si="10">SUM(E16:F16)</f>
         <v>158975</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E16" s="15">
         <v>115595</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F16" s="15">
         <v>43380</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G16" s="14">
         <f t="shared" si="4"/>
         <v>5473</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H16" s="15">
         <v>5166</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I16" s="15">
         <v>307</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J16" s="14">
         <f t="shared" si="5"/>
         <v>25292</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K16" s="15">
         <v>16701</v>
       </c>
-      <c r="L15" s="19">
+      <c r="L16" s="15">
         <v>8591</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M16" s="16">
         <f t="shared" si="6"/>
         <v>15232.386999999999</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N16" s="15">
         <v>10112.061</v>
       </c>
-      <c r="O15" s="21">
+      <c r="O16" s="17">
         <v>5120.326</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B16" s="10">
+    <row r="17" spans="2:15">
+      <c r="B17" s="6">
         <v>2024</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D17" s="8">
         <f t="shared" si="10"/>
         <v>160745</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="9">
         <v>111522</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F17" s="9">
         <v>49223</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="8">
         <f t="shared" si="4"/>
         <v>4759</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H17" s="9">
         <v>4508</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I17" s="9">
         <v>251</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J17" s="8">
         <f t="shared" si="5"/>
         <v>25196</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K17" s="9">
         <v>15924</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L17" s="9">
         <v>9272</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M17" s="10">
         <f t="shared" si="6"/>
         <v>15971.481</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N17" s="9">
         <v>9845.5509999999995</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O17" s="11">
         <v>6125.93</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="16">
+    <row r="18" spans="2:15">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="14">
         <f t="shared" si="10"/>
         <v>148853</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E18" s="15">
         <v>104440</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F18" s="15">
         <v>44413</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G18" s="14">
         <f t="shared" si="4"/>
         <v>4246</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H18" s="15">
         <v>4009.0000000000005</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I18" s="15">
         <v>237</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J18" s="14">
         <f t="shared" si="5"/>
         <v>23784</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K18" s="15">
         <v>15355</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L18" s="15">
         <v>8429</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M18" s="16">
         <f t="shared" si="6"/>
         <v>14272.33</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N18" s="15">
         <v>8893.5959999999995</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O18" s="17">
         <v>5378.7340000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="22">
+    <row r="19" spans="2:15">
+      <c r="B19" s="18">
         <v>2024</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D19" s="20">
         <f t="shared" si="10"/>
         <v>156666</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E19" s="21">
         <v>108922</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F19" s="21">
         <v>47744</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G19" s="20">
         <f t="shared" si="4"/>
         <v>4224</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H19" s="21">
         <v>4019</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I19" s="21">
         <v>205</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J19" s="20">
         <f t="shared" si="5"/>
         <v>25531</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K19" s="21">
         <v>16217</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L19" s="21">
         <v>9314</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M19" s="22">
         <f t="shared" si="6"/>
         <v>15551.477000000001</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N19" s="21">
         <v>9753.6540000000005</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O19" s="23">
         <v>5797.8230000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28">
+    <row r="20" spans="2:15" hidden="1">
+      <c r="B20" s="24">
         <v>2023</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D20" s="26">
         <f t="shared" si="10"/>
         <v>163911</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E20" s="27">
         <v>118221</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F20" s="27">
         <v>45690</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G20" s="26">
         <f t="shared" si="4"/>
         <v>3526</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H20" s="27">
         <v>3337</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I20" s="27">
         <v>189</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J20" s="26">
         <f t="shared" si="5"/>
         <v>28577</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K20" s="27">
         <v>18492</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L20" s="27">
         <v>10085</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M20" s="28">
         <f t="shared" si="6"/>
-        <v>16459.677</v>
-      </c>
-      <c r="N19" s="31">
-        <v>10678.755999999999</v>
-      </c>
-      <c r="O19" s="33">
-        <v>5780.9210000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+        <v>16722.900000000001</v>
+      </c>
+      <c r="N20" s="27">
+        <v>10949.384</v>
+      </c>
+      <c r="O20" s="29">
+        <v>5773.5159999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" hidden="1">
+      <c r="B21" s="6">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="8">
         <f t="shared" si="10"/>
         <v>158913</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="9">
         <v>119949</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="9">
         <v>38964</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="8">
         <f t="shared" si="4"/>
         <v>3081</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="9">
         <v>2892</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I21" s="9">
         <v>189</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J21" s="8">
         <f t="shared" si="5"/>
         <v>27656</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K21" s="9">
         <v>18844</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L21" s="9">
         <v>8812</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M21" s="10">
         <f t="shared" si="6"/>
-        <v>15317.485000000001</v>
-      </c>
-      <c r="N20" s="13">
-        <v>10453.232</v>
-      </c>
-      <c r="O20" s="15">
-        <v>4864.2529999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="16">
+        <v>15490.629000000001</v>
+      </c>
+      <c r="N21" s="9">
+        <v>10633.794</v>
+      </c>
+      <c r="O21" s="11">
+        <v>4856.835</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" hidden="1">
+      <c r="B22" s="12">
         <v>2023</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D22" s="14">
         <f t="shared" si="10"/>
         <v>155697</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E22" s="15">
         <v>120652</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F22" s="15">
         <v>35045</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G22" s="14">
         <f t="shared" si="4"/>
         <v>3222</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H22" s="15">
         <v>3013</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I22" s="15">
         <v>209</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J22" s="14">
         <f t="shared" si="5"/>
         <v>27597</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K22" s="15">
         <v>18942</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L22" s="15">
         <v>8655</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M22" s="16">
         <f t="shared" si="6"/>
         <v>15213.704999999998</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N22" s="15">
         <v>10935.924999999999</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O22" s="17">
         <v>4277.78</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:15" hidden="1">
+      <c r="B23" s="6">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="8">
         <f t="shared" si="10"/>
         <v>146668</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="9">
         <v>114905</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="9">
         <v>31763</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="8">
         <f t="shared" si="4"/>
         <v>2726</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H23" s="9">
         <v>2544</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I23" s="9">
         <v>182</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J23" s="8">
         <f t="shared" si="5"/>
         <v>26793</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K23" s="9">
         <v>18467</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L23" s="9">
         <v>8326</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M23" s="10">
         <f t="shared" si="6"/>
         <v>13986.931</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N23" s="9">
         <v>10236.332</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O23" s="11">
         <v>3750.5990000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="16">
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D24" s="14">
         <f t="shared" si="10"/>
         <v>162973</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E24" s="15">
         <v>125545</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F24" s="15">
         <v>37428</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G24" s="14">
         <f t="shared" si="4"/>
         <v>2769</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H24" s="15">
         <v>2584</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I24" s="15">
         <v>185</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J24" s="14">
         <f t="shared" si="5"/>
         <v>29095</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K24" s="15">
         <v>19522</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L24" s="15">
         <v>9573</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M24" s="16">
         <f t="shared" si="6"/>
         <v>16766.697</v>
       </c>
-      <c r="N23" s="19">
+      <c r="N24" s="15">
         <v>12077.877</v>
       </c>
-      <c r="O23" s="21">
+      <c r="O24" s="17">
         <v>4688.82</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="6">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="8">
         <f t="shared" si="10"/>
         <v>164170</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="9">
         <v>124900</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="9">
         <v>39270</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="8">
         <f t="shared" si="4"/>
         <v>2336</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H25" s="9">
         <v>2164</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I25" s="9">
         <v>172</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J25" s="8">
         <f t="shared" si="5"/>
         <v>29231</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K25" s="9">
         <v>19311</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L25" s="9">
         <v>9920</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M25" s="10">
         <f t="shared" si="6"/>
         <v>17331.974000000002</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N25" s="9">
         <v>12036.081</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O25" s="11">
         <v>5295.893</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="16">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D26" s="14">
         <f t="shared" si="10"/>
         <v>158074</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E26" s="15">
         <v>120413</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F26" s="15">
         <v>37661</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G26" s="14">
         <f t="shared" si="4"/>
         <v>1942</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H26" s="15">
         <v>1784</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I26" s="15">
         <v>158</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J26" s="14">
         <f t="shared" si="5"/>
         <v>28215</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K26" s="15">
         <v>18972</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L26" s="15">
         <v>9243</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M26" s="16">
         <f t="shared" si="6"/>
         <v>15257.142</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N26" s="15">
         <v>10569.871999999999</v>
       </c>
-      <c r="O25" s="21">
+      <c r="O26" s="17">
         <v>4687.2700000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="6">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="8">
         <f t="shared" si="10"/>
         <v>162182</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="9">
         <v>124206</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="9">
         <v>37976</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="8">
         <f t="shared" si="4"/>
         <v>1937</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H27" s="9">
         <v>1767</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I27" s="9">
         <v>170</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J27" s="8">
         <f t="shared" si="5"/>
         <v>28633</v>
       </c>
-      <c r="K26" s="13">
+      <c r="K27" s="9">
         <v>19183</v>
       </c>
-      <c r="L26" s="13">
+      <c r="L27" s="9">
         <v>9450</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M27" s="10">
         <f t="shared" si="6"/>
         <v>15115.095000000001</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N27" s="9">
         <v>10649.591</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O27" s="11">
         <v>4465.5039999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="16">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D28" s="14">
         <f t="shared" si="10"/>
         <v>159882</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="15">
         <v>120199</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F28" s="15">
         <v>39683</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G28" s="14">
         <f t="shared" si="4"/>
         <v>1796</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H28" s="15">
         <v>1691</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I28" s="15">
         <v>105</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J28" s="14">
         <f t="shared" si="5"/>
         <v>28347</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K28" s="15">
         <v>19276</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L28" s="15">
         <v>9071</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M28" s="16">
         <f t="shared" si="6"/>
         <v>15697.496999999999</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N28" s="15">
         <v>10803.382</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O28" s="17">
         <v>4894.1149999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="10">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="6">
         <v>2023</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D29" s="8">
         <f t="shared" si="10"/>
         <v>170638</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="9">
         <v>126849</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F29" s="9">
         <v>43789</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="8">
         <f t="shared" si="4"/>
         <v>1923</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H29" s="9">
         <v>1812</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I29" s="9">
         <v>111</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J29" s="8">
         <f t="shared" si="5"/>
         <v>29361</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K29" s="9">
         <v>19711</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L29" s="9">
         <v>9650</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M29" s="10">
         <f t="shared" si="6"/>
         <v>15935.796</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N29" s="9">
         <v>10528.172</v>
       </c>
-      <c r="O28" s="15">
+      <c r="O29" s="11">
         <v>5407.6239999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="16">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D30" s="14">
         <f t="shared" si="10"/>
         <v>151336</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="15">
         <v>112299</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F30" s="15">
         <v>39037</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G30" s="14">
         <f t="shared" si="4"/>
         <v>1655</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H30" s="15">
         <v>1542</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I30" s="15">
         <v>113</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J30" s="14">
         <f t="shared" si="5"/>
         <v>26435</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K30" s="15">
         <v>17619</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L30" s="15">
         <v>8816</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M30" s="16">
         <f t="shared" si="6"/>
         <v>13705.822</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N30" s="15">
         <v>8982.0499999999993</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O30" s="17">
         <v>4723.7719999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="22">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="18">
         <v>2023</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D31" s="20">
         <f t="shared" si="10"/>
         <v>165200</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E31" s="21">
         <v>121747</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F31" s="21">
         <v>43453</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G31" s="20">
         <f t="shared" si="4"/>
         <v>1856</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H31" s="21">
         <v>1722</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I31" s="21">
         <v>134</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J31" s="20">
         <f t="shared" si="5"/>
         <v>30227</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K31" s="21">
         <v>20162</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L31" s="21">
         <v>10065</v>
       </c>
-      <c r="M30" s="26">
+      <c r="M31" s="22">
         <f t="shared" si="6"/>
         <v>15379.226000000001</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N31" s="21">
         <v>10060.075000000001</v>
       </c>
-      <c r="O30" s="27">
+      <c r="O31" s="23">
         <v>5319.1509999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="28">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="24">
         <v>2022</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C32" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="30">
+      <c r="D32" s="26">
         <f t="shared" si="10"/>
         <v>167972</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E32" s="27">
         <v>123936</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F32" s="27">
         <v>44036</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G32" s="26">
         <f t="shared" si="4"/>
         <v>1840</v>
       </c>
-      <c r="H31" s="31">
+      <c r="H32" s="27">
         <v>1713</v>
       </c>
-      <c r="I31" s="31">
+      <c r="I32" s="27">
         <v>127</v>
       </c>
-      <c r="J31" s="30">
+      <c r="J32" s="26">
         <f t="shared" si="5"/>
         <v>31046</v>
       </c>
-      <c r="K31" s="31">
+      <c r="K32" s="27">
         <v>20696</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L32" s="27">
         <v>10350</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M32" s="28">
         <f t="shared" si="6"/>
         <v>16259.23</v>
       </c>
-      <c r="N31" s="31">
+      <c r="N32" s="27">
         <v>11068.346</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O32" s="29">
         <v>5190.884</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="6">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="8">
         <f t="shared" si="10"/>
         <v>162759</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="9">
         <v>123505</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="9">
         <v>39254</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="8">
         <f t="shared" si="4"/>
         <v>1784</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H33" s="9">
         <v>1698</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I33" s="9">
         <v>86</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J33" s="8">
         <f t="shared" si="5"/>
         <v>30430</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K33" s="9">
         <v>20625</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L33" s="9">
         <v>9805</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M33" s="10">
         <f t="shared" si="6"/>
         <v>15141.996999999999</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N33" s="9">
         <v>10513.98</v>
       </c>
-      <c r="O32" s="15">
+      <c r="O33" s="11">
         <v>4628.0169999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="16">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="12">
         <v>2022</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C34" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D34" s="14">
         <f t="shared" si="10"/>
         <v>159864</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E34" s="15">
         <v>124747</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F34" s="15">
         <v>35117</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G34" s="14">
         <f t="shared" si="4"/>
         <v>1870</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H34" s="15">
         <v>1784</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I34" s="15">
         <v>86</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J34" s="14">
         <f t="shared" si="5"/>
         <v>31242</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K34" s="15">
         <v>21556</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L34" s="15">
         <v>9686</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M34" s="16">
         <f t="shared" si="6"/>
         <v>14556.514999999999</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N34" s="15">
         <v>10450.403</v>
       </c>
-      <c r="O33" s="21">
+      <c r="O34" s="17">
         <v>4106.1120000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="6">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="8">
         <f t="shared" si="10"/>
         <v>147719</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="9">
         <v>115614</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="9">
         <v>32104.999999999996</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="8">
         <f t="shared" si="4"/>
         <v>1319</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H35" s="9">
         <v>1288</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I35" s="9">
         <v>31</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J35" s="8">
         <f t="shared" si="5"/>
         <v>29935</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K35" s="9">
         <v>20715</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L35" s="9">
         <v>9220</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M35" s="10">
         <f t="shared" si="6"/>
         <v>13130.359999999999</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N35" s="9">
         <v>9467.3269999999993</v>
       </c>
-      <c r="O34" s="15">
+      <c r="O35" s="11">
         <v>3663.0329999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="16">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D36" s="14">
         <f t="shared" si="10"/>
         <v>160707</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E36" s="15">
         <v>123479</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F36" s="15">
         <v>37228</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G36" s="14">
         <f t="shared" si="4"/>
         <v>620</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H36" s="15">
         <v>597</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I36" s="15">
         <v>23</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J36" s="14">
         <f t="shared" si="5"/>
         <v>32809</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K36" s="15">
         <v>22639</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L36" s="15">
         <v>10170</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M36" s="16">
         <f t="shared" si="6"/>
         <v>15003.125</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N36" s="15">
         <v>10508.375</v>
       </c>
-      <c r="O35" s="21">
+      <c r="O36" s="17">
         <v>4494.75</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="6">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="8">
         <f t="shared" si="10"/>
         <v>161313</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="9">
         <v>122637</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="9">
         <v>38676</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="8">
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H37" s="9">
         <v>336</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I37" s="9">
         <v>4</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J37" s="8">
         <f t="shared" si="5"/>
         <v>32288</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K37" s="9">
         <v>22146</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L37" s="9">
         <v>10142</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M37" s="10">
         <f t="shared" si="6"/>
         <v>15713.334999999999</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N37" s="9">
         <v>10715.734</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O37" s="11">
         <v>4997.6009999999997</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="16">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D38" s="14">
         <f t="shared" si="10"/>
         <v>153335</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E38" s="15">
         <v>116098</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F38" s="15">
         <v>37237</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G38" s="14">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H38" s="15">
         <v>351</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I38" s="15">
         <v>5</v>
       </c>
-      <c r="J37" s="18">
+      <c r="J38" s="14">
         <f t="shared" si="5"/>
         <v>30905</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K38" s="15">
         <v>21014</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L38" s="15">
         <v>9891</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M38" s="16">
         <f t="shared" si="6"/>
         <v>13344.656999999999</v>
       </c>
-      <c r="N37" s="19">
+      <c r="N38" s="15">
         <v>9004.4539999999997</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O38" s="17">
         <v>4340.2030000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="6">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="8">
         <f t="shared" si="10"/>
         <v>158252</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="9">
         <v>120591</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="9">
         <v>37661</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="8">
         <f t="shared" si="4"/>
         <v>371</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H39" s="9">
         <v>365</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I39" s="9">
         <v>6</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J39" s="8">
         <f t="shared" si="5"/>
         <v>31398</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K39" s="9">
         <v>21509</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L39" s="9">
         <v>9889</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M39" s="10">
         <f t="shared" si="6"/>
         <v>13548.44</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N39" s="9">
         <v>9417.0650000000005</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O39" s="11">
         <v>4131.375</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="16">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D40" s="14">
         <f t="shared" si="10"/>
         <v>157784</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="15">
         <v>117815</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="15">
         <v>39969</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G40" s="14">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H40" s="15">
         <v>352</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I40" s="15">
         <v>4</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J40" s="14">
         <f t="shared" si="5"/>
         <v>30844</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K40" s="15">
         <v>21295</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L40" s="15">
         <v>9549</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M40" s="16">
         <f t="shared" si="6"/>
         <v>14079.685000000001</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N40" s="15">
         <v>9562.2420000000002</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O40" s="17">
         <v>4517.4430000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="10">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="6">
         <v>2022</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D41" s="8">
         <f t="shared" si="10"/>
         <v>161848</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E41" s="9">
         <v>119127</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F41" s="9">
         <v>42721</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="8">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H41" s="9">
         <v>134</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I41" s="9">
         <v>2</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J41" s="8">
         <f t="shared" si="5"/>
         <v>29318</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K41" s="9">
         <v>20239</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L41" s="9">
         <v>9079</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M41" s="10">
         <f t="shared" si="6"/>
         <v>13866.879000000001</v>
       </c>
-      <c r="N40" s="13">
+      <c r="N41" s="9">
         <v>9057.7270000000008</v>
       </c>
-      <c r="O40" s="15">
+      <c r="O41" s="11">
         <v>4809.152</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="16">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D42" s="14">
         <f t="shared" si="10"/>
         <v>138416</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="15">
         <v>101843</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="15">
         <v>36573</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G42" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H41" s="19">
-        <v>0</v>
-      </c>
-      <c r="I41" s="19">
-        <v>0</v>
-      </c>
-      <c r="J41" s="18">
+      <c r="H42" s="15">
+        <v>0</v>
+      </c>
+      <c r="I42" s="15">
+        <v>0</v>
+      </c>
+      <c r="J42" s="14">
         <f t="shared" si="5"/>
         <v>24917</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K42" s="15">
         <v>17054</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L42" s="15">
         <v>7863</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M42" s="16">
         <f t="shared" si="6"/>
         <v>10915.597</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N42" s="15">
         <v>7204.1139999999996</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O42" s="17">
         <v>3711.4830000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="22">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="18">
         <v>2022</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C43" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D43" s="20">
         <f t="shared" si="10"/>
         <v>147774</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E43" s="21">
         <v>106370</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F43" s="21">
         <v>41404</v>
       </c>
-      <c r="G42" s="24">
+      <c r="G43" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H42" s="25">
-        <v>0</v>
-      </c>
-      <c r="I42" s="25">
-        <v>0</v>
-      </c>
-      <c r="J42" s="24">
-        <f t="shared" ref="J42:J73" si="11">SUM(K42:L42)</f>
+      <c r="H43" s="21">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21">
+        <v>0</v>
+      </c>
+      <c r="J43" s="20">
+        <f t="shared" ref="J43:J74" si="11">SUM(K43:L43)</f>
         <v>28778</v>
       </c>
-      <c r="K42" s="25">
+      <c r="K43" s="21">
         <v>19706</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L43" s="21">
         <v>9072</v>
       </c>
-      <c r="M42" s="26">
+      <c r="M43" s="22">
         <f t="shared" si="6"/>
         <v>11653.262000000001</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N43" s="21">
         <v>7668.268</v>
       </c>
-      <c r="O42" s="27">
+      <c r="O43" s="23">
         <v>3984.9940000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="28">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="24">
         <v>2021</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C44" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D44" s="26">
         <f t="shared" si="10"/>
         <v>161476</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E44" s="27">
         <v>118642</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F44" s="27">
         <v>42834</v>
       </c>
-      <c r="G43" s="30">
+      <c r="G44" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H43" s="31">
-        <v>0</v>
-      </c>
-      <c r="I43" s="31">
-        <v>0</v>
-      </c>
-      <c r="J43" s="30">
+      <c r="H44" s="27">
+        <v>0</v>
+      </c>
+      <c r="I44" s="27">
+        <v>0</v>
+      </c>
+      <c r="J44" s="26">
         <f t="shared" si="11"/>
         <v>31395</v>
       </c>
-      <c r="K43" s="31">
+      <c r="K44" s="27">
         <v>21885</v>
       </c>
-      <c r="L43" s="31">
+      <c r="L44" s="27">
         <v>9510</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M44" s="28">
         <f t="shared" si="6"/>
         <v>13971.465</v>
       </c>
-      <c r="N43" s="31">
+      <c r="N44" s="27">
         <v>9508.3459999999995</v>
       </c>
-      <c r="O43" s="33">
+      <c r="O44" s="29">
         <v>4463.1189999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="6">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="8">
         <f t="shared" si="10"/>
         <v>153263</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="9">
         <v>115481</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="9">
         <v>37782</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H44" s="13">
-        <v>0</v>
-      </c>
-      <c r="I44" s="13">
-        <v>0</v>
-      </c>
-      <c r="J44" s="12">
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8">
         <f t="shared" si="11"/>
         <v>28646</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K45" s="9">
         <v>20157</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L45" s="9">
         <v>8489</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M45" s="10">
         <f t="shared" si="6"/>
         <v>12687.374</v>
       </c>
-      <c r="N44" s="13">
+      <c r="N45" s="9">
         <v>8761.0709999999999</v>
       </c>
-      <c r="O44" s="15">
+      <c r="O45" s="11">
         <v>3926.3029999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="16">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="12">
         <v>2021</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C46" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D46" s="14">
         <f t="shared" si="10"/>
         <v>147053</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E46" s="15">
         <v>112669</v>
       </c>
-      <c r="F45" s="19">
+      <c r="F46" s="15">
         <v>34384</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G46" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H45" s="19">
-        <v>0</v>
-      </c>
-      <c r="I45" s="19">
-        <v>0</v>
-      </c>
-      <c r="J45" s="18">
+      <c r="H46" s="15">
+        <v>0</v>
+      </c>
+      <c r="I46" s="15">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
         <f t="shared" si="11"/>
         <v>28151</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K46" s="15">
         <v>19712</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L46" s="15">
         <v>8439</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M46" s="16">
         <f t="shared" si="6"/>
         <v>11848.638999999999</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N46" s="15">
         <v>8373.0280000000002</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O46" s="17">
         <v>3475.6109999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="6">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="12">
-        <f t="shared" ref="D46:D77" si="12">SUM(E46:F46)</f>
+      <c r="D47" s="8">
+        <f t="shared" ref="D47:D78" si="12">SUM(E47:F47)</f>
         <v>132825</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="9">
         <v>101771</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="9">
         <v>31054</v>
       </c>
-      <c r="G46" s="12">
-        <f t="shared" ref="G46:G77" si="13">SUM(H46:I46)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="13">
-        <v>0</v>
-      </c>
-      <c r="J46" s="12">
+      <c r="G47" s="8">
+        <f t="shared" ref="G47:G78" si="13">SUM(H47:I47)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
         <f t="shared" si="11"/>
         <v>25472</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K47" s="9">
         <v>17521</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L47" s="9">
         <v>7951</v>
       </c>
-      <c r="M46" s="14">
-        <f t="shared" ref="M46:M77" si="14">SUM(N46:O46)</f>
+      <c r="M47" s="10">
+        <f t="shared" ref="M47:M78" si="14">SUM(N47:O47)</f>
         <v>10185.656000000001</v>
       </c>
-      <c r="N46" s="13">
+      <c r="N47" s="9">
         <v>7282.1530000000002</v>
       </c>
-      <c r="O46" s="15">
+      <c r="O47" s="11">
         <v>2903.5030000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="16">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D48" s="14">
         <f t="shared" si="12"/>
         <v>144695</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E48" s="15">
         <v>110044</v>
       </c>
-      <c r="F47" s="19">
+      <c r="F48" s="15">
         <v>34651</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G48" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H47" s="19">
-        <v>0</v>
-      </c>
-      <c r="I47" s="19">
-        <v>0</v>
-      </c>
-      <c r="J47" s="18">
+      <c r="H48" s="15">
+        <v>0</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
         <f t="shared" si="11"/>
         <v>28906</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K48" s="15">
         <v>20368</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L48" s="15">
         <v>8538</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M48" s="16">
         <f t="shared" si="14"/>
         <v>11683.937</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N48" s="15">
         <v>8069.2780000000002</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O48" s="17">
         <v>3614.6590000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="6">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="8">
         <f t="shared" si="12"/>
         <v>146353</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="9">
         <v>110707</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="9">
         <v>35646</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-      <c r="I48" s="13">
-        <v>0</v>
-      </c>
-      <c r="J48" s="12">
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
         <f t="shared" si="11"/>
         <v>28727</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K49" s="9">
         <v>20266</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L49" s="9">
         <v>8461</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M49" s="10">
         <f t="shared" si="14"/>
         <v>12973.878000000001</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N49" s="9">
         <v>8846.4060000000009</v>
       </c>
-      <c r="O48" s="15">
+      <c r="O49" s="11">
         <v>4127.4719999999998</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="16">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C50" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D50" s="14">
         <f t="shared" si="12"/>
         <v>134517</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E50" s="15">
         <v>101368</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F50" s="15">
         <v>33149</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G50" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H49" s="19">
-        <v>0</v>
-      </c>
-      <c r="I49" s="19">
-        <v>0</v>
-      </c>
-      <c r="J49" s="18">
+      <c r="H50" s="15">
+        <v>0</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
         <f t="shared" si="11"/>
         <v>25545</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K50" s="15">
         <v>17937</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L50" s="15">
         <v>7608</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M50" s="16">
         <f t="shared" si="14"/>
         <v>11386.256000000001</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N50" s="15">
         <v>7719.55</v>
       </c>
-      <c r="O49" s="21">
+      <c r="O50" s="17">
         <v>3666.7060000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="6">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="8">
         <f t="shared" si="12"/>
         <v>138743</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="9">
         <v>106623</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="9">
         <v>32119.999999999996</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H50" s="13">
-        <v>0</v>
-      </c>
-      <c r="I50" s="13">
-        <v>0</v>
-      </c>
-      <c r="J50" s="12">
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
         <f t="shared" si="11"/>
         <v>25018</v>
       </c>
-      <c r="K50" s="13">
+      <c r="K51" s="9">
         <v>17597</v>
       </c>
-      <c r="L50" s="13">
+      <c r="L51" s="9">
         <v>7421</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M51" s="10">
         <f t="shared" si="14"/>
         <v>10974.823</v>
       </c>
-      <c r="N50" s="13">
+      <c r="N51" s="9">
         <v>7697.7309999999998</v>
       </c>
-      <c r="O50" s="15">
+      <c r="O51" s="11">
         <v>3277.0920000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="16">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C52" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D52" s="14">
         <f t="shared" si="12"/>
         <v>133584</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="15">
         <v>103668</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="15">
         <v>29916</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G52" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H51" s="19">
-        <v>0</v>
-      </c>
-      <c r="I51" s="19">
-        <v>0</v>
-      </c>
-      <c r="J51" s="18">
+      <c r="H52" s="15">
+        <v>0</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
         <f t="shared" si="11"/>
         <v>23420</v>
       </c>
-      <c r="K51" s="19">
+      <c r="K52" s="15">
         <v>17095</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L52" s="15">
         <v>6325</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M52" s="16">
         <f t="shared" si="14"/>
         <v>9657.1949999999997</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N52" s="15">
         <v>7019.1059999999998</v>
       </c>
-      <c r="O51" s="21">
+      <c r="O52" s="17">
         <v>2638.0889999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="10">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="6">
         <v>2021</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C53" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D53" s="8">
         <f t="shared" si="12"/>
         <v>130340</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E53" s="9">
         <v>99689</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F53" s="9">
         <v>30651</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H52" s="13">
-        <v>0</v>
-      </c>
-      <c r="I52" s="13">
-        <v>0</v>
-      </c>
-      <c r="J52" s="12">
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
         <f t="shared" si="11"/>
         <v>20932</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K53" s="9">
         <v>15296</v>
       </c>
-      <c r="L52" s="13">
+      <c r="L53" s="9">
         <v>5636</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M53" s="10">
         <f t="shared" si="14"/>
         <v>8677.3739999999998</v>
       </c>
-      <c r="N52" s="13">
+      <c r="N53" s="9">
         <v>6424.5829999999996</v>
       </c>
-      <c r="O52" s="15">
+      <c r="O53" s="11">
         <v>2252.7910000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="16">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D54" s="14">
         <f t="shared" si="12"/>
         <v>105818</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="15">
         <v>80508</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F54" s="15">
         <v>25310</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G54" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H53" s="19">
-        <v>0</v>
-      </c>
-      <c r="I53" s="19">
-        <v>0</v>
-      </c>
-      <c r="J53" s="18">
+      <c r="H54" s="15">
+        <v>0</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
         <f t="shared" si="11"/>
         <v>17155</v>
       </c>
-      <c r="K53" s="19">
+      <c r="K54" s="15">
         <v>12105</v>
       </c>
-      <c r="L53" s="19">
+      <c r="L54" s="15">
         <v>5050</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M54" s="16">
         <f t="shared" si="14"/>
         <v>5881.9269999999997</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N54" s="15">
         <v>4501.4070000000002</v>
       </c>
-      <c r="O53" s="21">
+      <c r="O54" s="17">
         <v>1380.52</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="22">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="18">
         <v>2021</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C55" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D55" s="20">
         <f t="shared" si="12"/>
         <v>124147</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E55" s="21">
         <v>93381</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F55" s="21">
         <v>30766</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G55" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H54" s="25">
-        <v>0</v>
-      </c>
-      <c r="I54" s="25">
-        <v>0</v>
-      </c>
-      <c r="J54" s="24">
+      <c r="H55" s="21">
+        <v>0</v>
+      </c>
+      <c r="I55" s="21">
+        <v>0</v>
+      </c>
+      <c r="J55" s="20">
         <f t="shared" si="11"/>
         <v>22442</v>
       </c>
-      <c r="K54" s="25">
+      <c r="K55" s="21">
         <v>15855</v>
       </c>
-      <c r="L54" s="25">
+      <c r="L55" s="21">
         <v>6587</v>
       </c>
-      <c r="M54" s="26">
+      <c r="M55" s="22">
         <f t="shared" si="14"/>
         <v>7530.1779999999999</v>
       </c>
-      <c r="N54" s="25">
+      <c r="N55" s="21">
         <v>5474.7460000000001</v>
       </c>
-      <c r="O54" s="27">
+      <c r="O55" s="23">
         <v>2055.4319999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="28">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="24">
         <v>2020</v>
       </c>
-      <c r="C55" s="29" t="s">
+      <c r="C56" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D56" s="26">
         <f t="shared" si="12"/>
         <v>129572</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E56" s="27">
         <v>99674</v>
       </c>
-      <c r="F55" s="31">
+      <c r="F56" s="27">
         <v>29898</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G56" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="31">
-        <v>0</v>
-      </c>
-      <c r="I55" s="31">
-        <v>0</v>
-      </c>
-      <c r="J55" s="30">
+      <c r="H56" s="27">
+        <v>0</v>
+      </c>
+      <c r="I56" s="27">
+        <v>0</v>
+      </c>
+      <c r="J56" s="26">
         <f t="shared" si="11"/>
         <v>22377</v>
       </c>
-      <c r="K55" s="31">
+      <c r="K56" s="27">
         <v>15901</v>
       </c>
-      <c r="L55" s="31">
+      <c r="L56" s="27">
         <v>6476</v>
       </c>
-      <c r="M55" s="32">
+      <c r="M56" s="28">
         <f t="shared" si="14"/>
         <v>8643.1899999999987</v>
       </c>
-      <c r="N55" s="31">
+      <c r="N56" s="27">
         <v>6389.2129999999997</v>
       </c>
-      <c r="O55" s="33">
+      <c r="O56" s="29">
         <v>2253.9769999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="6">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="8">
         <f t="shared" si="12"/>
         <v>120789</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="9">
         <v>97016</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="9">
         <v>23773</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H56" s="13">
-        <v>0</v>
-      </c>
-      <c r="I56" s="13">
-        <v>0</v>
-      </c>
-      <c r="J56" s="12">
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8">
         <f t="shared" si="11"/>
         <v>20029</v>
       </c>
-      <c r="K56" s="13">
+      <c r="K57" s="9">
         <v>15112</v>
       </c>
-      <c r="L56" s="13">
+      <c r="L57" s="9">
         <v>4917</v>
       </c>
-      <c r="M56" s="14">
+      <c r="M57" s="10">
         <f t="shared" si="14"/>
         <v>7700.1950000000006</v>
       </c>
-      <c r="N56" s="13">
+      <c r="N57" s="9">
         <v>5937.9480000000003</v>
       </c>
-      <c r="O56" s="15">
+      <c r="O57" s="11">
         <v>1762.2470000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="16">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="12">
         <v>2020</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C58" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D58" s="14">
         <f t="shared" si="12"/>
         <v>111965</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E58" s="15">
         <v>92159</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F58" s="15">
         <v>19806</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G58" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H57" s="19">
-        <v>0</v>
-      </c>
-      <c r="I57" s="19">
-        <v>0</v>
-      </c>
-      <c r="J57" s="18">
+      <c r="H58" s="15">
+        <v>0</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
         <f t="shared" si="11"/>
         <v>18783</v>
       </c>
-      <c r="K57" s="19">
+      <c r="K58" s="15">
         <v>14512</v>
       </c>
-      <c r="L57" s="19">
+      <c r="L58" s="15">
         <v>4271</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M58" s="16">
         <f t="shared" si="14"/>
         <v>6958.1730000000007</v>
       </c>
-      <c r="N57" s="19">
+      <c r="N58" s="15">
         <v>5522.3990000000003</v>
       </c>
-      <c r="O57" s="21">
+      <c r="O58" s="17">
         <v>1435.7739999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="6">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="8">
         <f t="shared" si="12"/>
         <v>98248</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="9">
         <v>82749</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="9">
         <v>15499</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H58" s="13">
-        <v>0</v>
-      </c>
-      <c r="I58" s="13">
-        <v>0</v>
-      </c>
-      <c r="J58" s="12">
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
         <f t="shared" si="11"/>
         <v>15967</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K59" s="9">
         <v>12434</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L59" s="9">
         <v>3533</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M59" s="10">
         <f t="shared" si="14"/>
         <v>5747.9449999999997</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N59" s="9">
         <v>4716.3429999999998</v>
       </c>
-      <c r="O58" s="15">
+      <c r="O59" s="11">
         <v>1031.6020000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="16">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C60" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D60" s="14">
         <f t="shared" si="12"/>
         <v>94778</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E60" s="15">
         <v>79993</v>
       </c>
-      <c r="F59" s="19">
+      <c r="F60" s="15">
         <v>14785</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G60" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H59" s="19">
-        <v>0</v>
-      </c>
-      <c r="I59" s="19">
-        <v>0</v>
-      </c>
-      <c r="J59" s="18">
+      <c r="H60" s="15">
+        <v>0</v>
+      </c>
+      <c r="I60" s="15">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
         <f t="shared" si="11"/>
         <v>15399</v>
       </c>
-      <c r="K59" s="19">
+      <c r="K60" s="15">
         <v>11911</v>
       </c>
-      <c r="L59" s="19">
+      <c r="L60" s="15">
         <v>3488</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M60" s="16">
         <f t="shared" si="14"/>
         <v>5296.7969999999996</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N60" s="15">
         <v>4313.7479999999996</v>
       </c>
-      <c r="O59" s="21">
+      <c r="O60" s="17">
         <v>983.04899999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="6">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="8">
         <f t="shared" si="12"/>
         <v>85508</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="9">
         <v>72657</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="9">
         <v>12851</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-      <c r="I60" s="13">
-        <v>0</v>
-      </c>
-      <c r="J60" s="12">
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
         <f t="shared" si="11"/>
         <v>12165</v>
       </c>
-      <c r="K60" s="13">
+      <c r="K61" s="9">
         <v>9419</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L61" s="9">
         <v>2746</v>
       </c>
-      <c r="M60" s="14">
+      <c r="M61" s="10">
         <f t="shared" si="14"/>
         <v>4185.5320000000002</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N61" s="9">
         <v>3405.0259999999998</v>
       </c>
-      <c r="O60" s="15">
+      <c r="O61" s="11">
         <v>780.50599999999997</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="16">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C62" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D62" s="14">
         <f t="shared" si="12"/>
         <v>58869</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E62" s="15">
         <v>50107</v>
       </c>
-      <c r="F61" s="19">
+      <c r="F62" s="15">
         <v>8762</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G62" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H61" s="19">
-        <v>0</v>
-      </c>
-      <c r="I61" s="19">
-        <v>0</v>
-      </c>
-      <c r="J61" s="18">
+      <c r="H62" s="15">
+        <v>0</v>
+      </c>
+      <c r="I62" s="15">
+        <v>0</v>
+      </c>
+      <c r="J62" s="14">
         <f t="shared" si="11"/>
         <v>7578</v>
       </c>
-      <c r="K61" s="19">
+      <c r="K62" s="15">
         <v>5489</v>
       </c>
-      <c r="L61" s="19">
+      <c r="L62" s="15">
         <v>2089</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M62" s="16">
         <f t="shared" si="14"/>
         <v>2139.893</v>
       </c>
-      <c r="N61" s="19">
+      <c r="N62" s="15">
         <v>1815.4059999999999</v>
       </c>
-      <c r="O61" s="21">
+      <c r="O62" s="17">
         <v>324.48700000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="6">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="8">
         <f t="shared" si="12"/>
         <v>40887</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="9">
         <v>35082</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="9">
         <v>5805</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H62" s="13">
-        <v>0</v>
-      </c>
-      <c r="I62" s="13">
-        <v>0</v>
-      </c>
-      <c r="J62" s="12">
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8">
         <f t="shared" si="11"/>
         <v>4836</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K63" s="9">
         <v>3187</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L63" s="9">
         <v>1649</v>
       </c>
-      <c r="M62" s="14">
+      <c r="M63" s="10">
         <f t="shared" si="14"/>
         <v>912.27</v>
       </c>
-      <c r="N62" s="13">
+      <c r="N63" s="9">
         <v>794.02</v>
       </c>
-      <c r="O62" s="15">
+      <c r="O63" s="11">
         <v>118.25</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="16">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C64" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D64" s="14">
         <f t="shared" si="12"/>
         <v>39436</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="15">
         <v>33432</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F64" s="15">
         <v>6004</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G64" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H63" s="19">
-        <v>0</v>
-      </c>
-      <c r="I63" s="19">
-        <v>0</v>
-      </c>
-      <c r="J63" s="18">
+      <c r="H64" s="15">
+        <v>0</v>
+      </c>
+      <c r="I64" s="15">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
         <f t="shared" si="11"/>
         <v>5483</v>
       </c>
-      <c r="K63" s="19">
+      <c r="K64" s="15">
         <v>3788</v>
       </c>
-      <c r="L63" s="19">
+      <c r="L64" s="15">
         <v>1695</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M64" s="16">
         <f t="shared" si="14"/>
         <v>958.75099999999998</v>
       </c>
-      <c r="N63" s="19">
+      <c r="N64" s="15">
         <v>841.01400000000001</v>
       </c>
-      <c r="O63" s="21">
+      <c r="O64" s="17">
         <v>117.73699999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="10">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="6">
         <v>2020</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D65" s="8">
         <f t="shared" si="12"/>
         <v>138604</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E65" s="9">
         <v>105733</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F65" s="9">
         <v>32871</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H64" s="13">
-        <v>0</v>
-      </c>
-      <c r="I64" s="13">
-        <v>0</v>
-      </c>
-      <c r="J64" s="12">
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8">
         <f t="shared" si="11"/>
         <v>27685</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K65" s="9">
         <v>19400</v>
       </c>
-      <c r="L64" s="13">
+      <c r="L65" s="9">
         <v>8285</v>
       </c>
-      <c r="M64" s="14">
+      <c r="M65" s="10">
         <f t="shared" si="14"/>
         <v>9011.8619999999992</v>
       </c>
-      <c r="N64" s="13">
+      <c r="N65" s="9">
         <v>6133.3159999999998</v>
       </c>
-      <c r="O64" s="15">
+      <c r="O65" s="11">
         <v>2878.5459999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="16">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C66" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D66" s="14">
         <f t="shared" si="12"/>
         <v>154600</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="15">
         <v>116643</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="15">
         <v>37957</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G66" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H65" s="19">
-        <v>0</v>
-      </c>
-      <c r="I65" s="19">
-        <v>0</v>
-      </c>
-      <c r="J65" s="18">
+      <c r="H66" s="15">
+        <v>0</v>
+      </c>
+      <c r="I66" s="15">
+        <v>0</v>
+      </c>
+      <c r="J66" s="14">
         <f t="shared" si="11"/>
         <v>33096</v>
       </c>
-      <c r="K65" s="19">
+      <c r="K66" s="15">
         <v>22924</v>
       </c>
-      <c r="L65" s="19">
+      <c r="L66" s="15">
         <v>10172</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M66" s="16">
         <f t="shared" si="14"/>
         <v>12555.147000000001</v>
       </c>
-      <c r="N65" s="19">
+      <c r="N66" s="15">
         <v>8141.3959999999997</v>
       </c>
-      <c r="O65" s="21">
+      <c r="O66" s="17">
         <v>4413.7510000000002</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="22">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="18">
         <v>2020</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C67" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D67" s="20">
         <f t="shared" si="12"/>
         <v>167619</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E67" s="21">
         <v>126846</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F67" s="21">
         <v>40773</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G67" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H66" s="25">
-        <v>0</v>
-      </c>
-      <c r="I66" s="25">
-        <v>0</v>
-      </c>
-      <c r="J66" s="24">
+      <c r="H67" s="21">
+        <v>0</v>
+      </c>
+      <c r="I67" s="21">
+        <v>0</v>
+      </c>
+      <c r="J67" s="20">
         <f t="shared" si="11"/>
         <v>37171</v>
       </c>
-      <c r="K66" s="25">
+      <c r="K67" s="21">
         <v>25779</v>
       </c>
-      <c r="L66" s="25">
+      <c r="L67" s="21">
         <v>11392</v>
       </c>
-      <c r="M66" s="26">
+      <c r="M67" s="22">
         <f t="shared" si="14"/>
         <v>13625.84</v>
       </c>
-      <c r="N66" s="25">
+      <c r="N67" s="21">
         <v>8800.0789999999997</v>
       </c>
-      <c r="O66" s="27">
+      <c r="O67" s="23">
         <v>4825.7610000000004</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="28">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="24">
         <v>2019</v>
       </c>
-      <c r="C67" s="29" t="s">
+      <c r="C68" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="30">
+      <c r="D68" s="26">
         <f t="shared" si="12"/>
         <v>167593</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E68" s="27">
         <v>126051</v>
       </c>
-      <c r="F67" s="31">
+      <c r="F68" s="27">
         <v>41542</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G68" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H67" s="31">
-        <v>0</v>
-      </c>
-      <c r="I67" s="31">
-        <v>0</v>
-      </c>
-      <c r="J67" s="30">
+      <c r="H68" s="27">
+        <v>0</v>
+      </c>
+      <c r="I68" s="27">
+        <v>0</v>
+      </c>
+      <c r="J68" s="26">
         <f t="shared" si="11"/>
         <v>37969</v>
       </c>
-      <c r="K67" s="31">
+      <c r="K68" s="27">
         <v>25919</v>
       </c>
-      <c r="L67" s="31">
+      <c r="L68" s="27">
         <v>12050</v>
       </c>
-      <c r="M67" s="32">
+      <c r="M68" s="28">
         <f t="shared" si="14"/>
         <v>14311.285</v>
       </c>
-      <c r="N67" s="31">
+      <c r="N68" s="27">
         <v>9491.1820000000007</v>
       </c>
-      <c r="O67" s="33">
+      <c r="O68" s="29">
         <v>4820.1030000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="6">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="8">
         <f t="shared" si="12"/>
         <v>161899</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="9">
         <v>125646</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="9">
         <v>36253</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H68" s="13">
-        <v>0</v>
-      </c>
-      <c r="I68" s="13">
-        <v>0</v>
-      </c>
-      <c r="J68" s="12">
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="8">
         <f t="shared" si="11"/>
         <v>36078</v>
       </c>
-      <c r="K68" s="13">
+      <c r="K69" s="9">
         <v>25201</v>
       </c>
-      <c r="L68" s="13">
+      <c r="L69" s="9">
         <v>10877</v>
       </c>
-      <c r="M68" s="14">
+      <c r="M69" s="10">
         <f t="shared" si="14"/>
         <v>13215.171</v>
       </c>
-      <c r="N68" s="13">
+      <c r="N69" s="9">
         <v>9104.4480000000003</v>
       </c>
-      <c r="O68" s="15">
+      <c r="O69" s="11">
         <v>4110.723</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="16">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="12">
         <v>2019</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C70" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D70" s="14">
         <f t="shared" si="12"/>
         <v>159019</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E70" s="15">
         <v>126531</v>
       </c>
-      <c r="F69" s="19">
+      <c r="F70" s="15">
         <v>32488</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G70" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H69" s="19">
-        <v>0</v>
-      </c>
-      <c r="I69" s="19">
-        <v>0</v>
-      </c>
-      <c r="J69" s="18">
+      <c r="H70" s="15">
+        <v>0</v>
+      </c>
+      <c r="I70" s="15">
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
         <f t="shared" si="11"/>
         <v>36741</v>
       </c>
-      <c r="K69" s="19">
+      <c r="K70" s="15">
         <v>25823</v>
       </c>
-      <c r="L69" s="19">
+      <c r="L70" s="15">
         <v>10918</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M70" s="16">
         <f t="shared" si="14"/>
         <v>12724.360999999999</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N70" s="15">
         <v>9175.6839999999993</v>
       </c>
-      <c r="O69" s="21">
+      <c r="O70" s="17">
         <v>3548.6770000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="6">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="8">
         <f t="shared" si="12"/>
         <v>148583</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="9">
         <v>118880</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="9">
         <v>29703</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H70" s="13">
-        <v>0</v>
-      </c>
-      <c r="I70" s="13">
-        <v>0</v>
-      </c>
-      <c r="J70" s="12">
+      <c r="H71" s="9">
+        <v>0</v>
+      </c>
+      <c r="I71" s="9">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
         <f t="shared" si="11"/>
         <v>34491</v>
       </c>
-      <c r="K70" s="13">
+      <c r="K71" s="9">
         <v>23749</v>
       </c>
-      <c r="L70" s="13">
+      <c r="L71" s="9">
         <v>10742</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M71" s="10">
         <f t="shared" si="14"/>
         <v>11512.314</v>
       </c>
-      <c r="N70" s="13">
+      <c r="N71" s="9">
         <v>8319.4240000000009</v>
       </c>
-      <c r="O70" s="15">
+      <c r="O71" s="11">
         <v>3192.89</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="16">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C72" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D72" s="14">
         <f t="shared" si="12"/>
         <v>165304</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E72" s="15">
         <v>129776.00000000001</v>
       </c>
-      <c r="F71" s="19">
+      <c r="F72" s="15">
         <v>35528</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G72" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H71" s="19">
-        <v>0</v>
-      </c>
-      <c r="I71" s="19">
-        <v>0</v>
-      </c>
-      <c r="J71" s="18">
+      <c r="H72" s="15">
+        <v>0</v>
+      </c>
+      <c r="I72" s="15">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
         <f t="shared" si="11"/>
         <v>37882</v>
       </c>
-      <c r="K71" s="19">
+      <c r="K72" s="15">
         <v>25900</v>
       </c>
-      <c r="L71" s="19">
+      <c r="L72" s="15">
         <v>11982</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M72" s="16">
         <f t="shared" si="14"/>
         <v>13678.462</v>
       </c>
-      <c r="N71" s="19">
+      <c r="N72" s="15">
         <v>9506.8289999999997</v>
       </c>
-      <c r="O71" s="21">
+      <c r="O72" s="17">
         <v>4171.6329999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="6">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="8">
         <f t="shared" si="12"/>
         <v>168640</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="9">
         <v>131068.99999999999</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="9">
         <v>37571</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H72" s="13">
-        <v>0</v>
-      </c>
-      <c r="I72" s="13">
-        <v>0</v>
-      </c>
-      <c r="J72" s="12">
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
         <f t="shared" si="11"/>
         <v>38116</v>
       </c>
-      <c r="K72" s="13">
+      <c r="K73" s="9">
         <v>25943</v>
       </c>
-      <c r="L72" s="13">
+      <c r="L73" s="9">
         <v>12173</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M73" s="10">
         <f t="shared" si="14"/>
         <v>14682.169</v>
       </c>
-      <c r="N72" s="13">
+      <c r="N73" s="9">
         <v>9992.81</v>
       </c>
-      <c r="O72" s="15">
+      <c r="O73" s="11">
         <v>4689.3590000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="16">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C74" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D74" s="14">
         <f t="shared" si="12"/>
         <v>159253</v>
       </c>
-      <c r="E73" s="19">
+      <c r="E74" s="15">
         <v>123607</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F74" s="15">
         <v>35646</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G74" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H73" s="19">
-        <v>0</v>
-      </c>
-      <c r="I73" s="19">
-        <v>0</v>
-      </c>
-      <c r="J73" s="18">
+      <c r="H74" s="15">
+        <v>0</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0</v>
+      </c>
+      <c r="J74" s="14">
         <f t="shared" si="11"/>
         <v>35734</v>
       </c>
-      <c r="K73" s="19">
+      <c r="K74" s="15">
         <v>24362</v>
       </c>
-      <c r="L73" s="19">
+      <c r="L74" s="15">
         <v>11372</v>
       </c>
-      <c r="M73" s="20">
+      <c r="M74" s="16">
         <f t="shared" si="14"/>
         <v>13352.69</v>
       </c>
-      <c r="N73" s="19">
+      <c r="N74" s="15">
         <v>9079.7170000000006</v>
       </c>
-      <c r="O73" s="21">
+      <c r="O74" s="17">
         <v>4272.973</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="6">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="8">
         <f t="shared" si="12"/>
         <v>166260</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="9">
         <v>130592.99999999999</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="9">
         <v>35667</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H74" s="13">
-        <v>0</v>
-      </c>
-      <c r="I74" s="13">
-        <v>0</v>
-      </c>
-      <c r="J74" s="12">
-        <f t="shared" ref="J74:J90" si="15">SUM(K74:L74)</f>
+      <c r="H75" s="9">
+        <v>0</v>
+      </c>
+      <c r="I75" s="9">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
+        <f t="shared" ref="J75:J91" si="15">SUM(K75:L75)</f>
         <v>36624</v>
       </c>
-      <c r="K74" s="13">
+      <c r="K75" s="9">
         <v>25219</v>
       </c>
-      <c r="L74" s="13">
+      <c r="L75" s="9">
         <v>11405</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M75" s="10">
         <f t="shared" si="14"/>
         <v>13434.785</v>
       </c>
-      <c r="N74" s="13">
+      <c r="N75" s="9">
         <v>9373.2109999999993</v>
       </c>
-      <c r="O74" s="15">
+      <c r="O75" s="11">
         <v>4061.5740000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="16">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C76" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D76" s="14">
         <f t="shared" si="12"/>
         <v>168338</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E76" s="15">
         <v>129008.99999999999</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F76" s="15">
         <v>39329</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G76" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H75" s="19">
-        <v>0</v>
-      </c>
-      <c r="I75" s="19">
-        <v>0</v>
-      </c>
-      <c r="J75" s="18">
+      <c r="H76" s="15">
+        <v>0</v>
+      </c>
+      <c r="I76" s="15">
+        <v>0</v>
+      </c>
+      <c r="J76" s="14">
         <f t="shared" si="15"/>
         <v>35519</v>
       </c>
-      <c r="K75" s="19">
+      <c r="K76" s="15">
         <v>24350</v>
       </c>
-      <c r="L75" s="19">
+      <c r="L76" s="15">
         <v>11169</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M76" s="16">
         <f t="shared" si="14"/>
         <v>13245.237000000001</v>
       </c>
-      <c r="N75" s="19">
+      <c r="N76" s="15">
         <v>8877.2070000000003</v>
       </c>
-      <c r="O75" s="21">
+      <c r="O76" s="17">
         <v>4368.03</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="10">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="6">
         <v>2019</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C77" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D77" s="8">
         <f t="shared" si="12"/>
         <v>171618</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E77" s="9">
         <v>128662</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F77" s="9">
         <v>42956</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H76" s="13">
-        <v>0</v>
-      </c>
-      <c r="I76" s="13">
-        <v>0</v>
-      </c>
-      <c r="J76" s="12">
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>0</v>
+      </c>
+      <c r="J77" s="8">
         <f t="shared" si="15"/>
         <v>35392</v>
       </c>
-      <c r="K76" s="13">
+      <c r="K77" s="9">
         <v>24040</v>
       </c>
-      <c r="L76" s="13">
+      <c r="L77" s="9">
         <v>11352</v>
       </c>
-      <c r="M76" s="14">
+      <c r="M77" s="10">
         <f t="shared" si="14"/>
         <v>13468.561000000002</v>
       </c>
-      <c r="N76" s="13">
+      <c r="N77" s="9">
         <v>8550.9040000000005</v>
       </c>
-      <c r="O76" s="15">
+      <c r="O77" s="11">
         <v>4917.6570000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="16">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C78" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D78" s="14">
         <f t="shared" si="12"/>
         <v>151989</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="15">
         <v>114632</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="15">
         <v>37357</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G78" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H77" s="19">
-        <v>0</v>
-      </c>
-      <c r="I77" s="19">
-        <v>0</v>
-      </c>
-      <c r="J77" s="18">
+      <c r="H78" s="15">
+        <v>0</v>
+      </c>
+      <c r="I78" s="15">
+        <v>0</v>
+      </c>
+      <c r="J78" s="14">
         <f t="shared" si="15"/>
         <v>31890</v>
       </c>
-      <c r="K77" s="19">
+      <c r="K78" s="15">
         <v>21784</v>
       </c>
-      <c r="L77" s="19">
+      <c r="L78" s="15">
         <v>10106</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M78" s="16">
         <f t="shared" si="14"/>
         <v>11254.142</v>
       </c>
-      <c r="N77" s="19">
+      <c r="N78" s="15">
         <v>7147.8</v>
       </c>
-      <c r="O77" s="21">
+      <c r="O78" s="17">
         <v>4106.3419999999996</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="22">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="18">
         <v>2019</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C79" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="24">
-        <f t="shared" ref="D78:D90" si="16">SUM(E78:F78)</f>
+      <c r="D79" s="20">
+        <f t="shared" ref="D79:D91" si="16">SUM(E79:F79)</f>
         <v>165954</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E79" s="21">
         <v>124266</v>
       </c>
-      <c r="F78" s="25">
+      <c r="F79" s="21">
         <v>41688</v>
       </c>
-      <c r="G78" s="24">
-        <f t="shared" ref="G78:G90" si="17">SUM(H78:I78)</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="25">
-        <v>0</v>
-      </c>
-      <c r="I78" s="25">
-        <v>0</v>
-      </c>
-      <c r="J78" s="24">
+      <c r="G79" s="20">
+        <f t="shared" ref="G79:G91" si="17">SUM(H79:I79)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="21">
+        <v>0</v>
+      </c>
+      <c r="I79" s="21">
+        <v>0</v>
+      </c>
+      <c r="J79" s="20">
         <f t="shared" si="15"/>
         <v>35932</v>
       </c>
-      <c r="K78" s="25">
+      <c r="K79" s="21">
         <v>24195</v>
       </c>
-      <c r="L78" s="25">
+      <c r="L79" s="21">
         <v>11737</v>
       </c>
-      <c r="M78" s="26">
-        <f t="shared" ref="M78:M90" si="18">SUM(N78:O78)</f>
+      <c r="M79" s="22">
+        <f t="shared" ref="M79:M91" si="18">SUM(N79:O79)</f>
         <v>12584.922</v>
       </c>
-      <c r="N78" s="25">
+      <c r="N79" s="21">
         <v>7965.4170000000004</v>
       </c>
-      <c r="O78" s="27">
+      <c r="O79" s="23">
         <v>4619.5050000000001</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="17">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C80" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D80" s="14">
         <f t="shared" si="16"/>
         <v>167896</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E80" s="15">
         <v>126468</v>
       </c>
-      <c r="F79" s="19">
+      <c r="F80" s="15">
         <v>41428</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G80" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H79" s="19">
-        <v>0</v>
-      </c>
-      <c r="I79" s="19">
-        <v>0</v>
-      </c>
-      <c r="J79" s="18">
+      <c r="H80" s="15">
+        <v>0</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
         <f t="shared" si="15"/>
         <v>36796</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K80" s="15">
         <v>24610</v>
       </c>
-      <c r="L79" s="19">
+      <c r="L80" s="15">
         <v>12186</v>
       </c>
-      <c r="M79" s="20">
+      <c r="M80" s="16">
         <f t="shared" si="18"/>
         <v>13446.27</v>
       </c>
-      <c r="N79" s="19">
+      <c r="N80" s="15">
         <v>8820.4920000000002</v>
       </c>
-      <c r="O79" s="19">
+      <c r="O80" s="15">
         <v>4625.7780000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="11">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="7">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="8">
         <f t="shared" si="16"/>
         <v>165335</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="9">
         <v>128314</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="9">
         <v>37021</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H80" s="13">
-        <v>0</v>
-      </c>
-      <c r="I80" s="13">
-        <v>0</v>
-      </c>
-      <c r="J80" s="12">
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="8">
         <f t="shared" si="15"/>
         <v>35251</v>
       </c>
-      <c r="K80" s="13">
+      <c r="K81" s="9">
         <v>23927</v>
       </c>
-      <c r="L80" s="13">
+      <c r="L81" s="9">
         <v>11324</v>
       </c>
-      <c r="M80" s="14">
+      <c r="M81" s="10">
         <f t="shared" si="18"/>
         <v>12543.215</v>
       </c>
-      <c r="N80" s="13">
+      <c r="N81" s="9">
         <v>8542.7430000000004</v>
       </c>
-      <c r="O80" s="13">
+      <c r="O81" s="9">
         <v>4000.4720000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="17">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C82" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D82" s="14">
         <f t="shared" si="16"/>
         <v>162784</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E82" s="15">
         <v>129050.00000000001</v>
       </c>
-      <c r="F81" s="19">
+      <c r="F82" s="15">
         <v>33734</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G82" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H81" s="19">
-        <v>0</v>
-      </c>
-      <c r="I81" s="19">
-        <v>0</v>
-      </c>
-      <c r="J81" s="18">
+      <c r="H82" s="15">
+        <v>0</v>
+      </c>
+      <c r="I82" s="15">
+        <v>0</v>
+      </c>
+      <c r="J82" s="14">
         <f t="shared" si="15"/>
         <v>35903</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K82" s="15">
         <v>24186</v>
       </c>
-      <c r="L81" s="19">
+      <c r="L82" s="15">
         <v>11717</v>
       </c>
-      <c r="M81" s="20">
+      <c r="M82" s="16">
         <f t="shared" si="18"/>
         <v>11940.449000000001</v>
       </c>
-      <c r="N81" s="19">
+      <c r="N82" s="15">
         <v>8460.0640000000003</v>
       </c>
-      <c r="O81" s="19">
+      <c r="O82" s="15">
         <v>3480.3850000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="11">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="8">
         <f t="shared" si="16"/>
         <v>151218</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="9">
         <v>120455</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="9">
         <v>30763</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H82" s="13">
-        <v>0</v>
-      </c>
-      <c r="I82" s="13">
-        <v>0</v>
-      </c>
-      <c r="J82" s="12">
+      <c r="H83" s="9">
+        <v>0</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0</v>
+      </c>
+      <c r="J83" s="8">
         <f t="shared" si="15"/>
         <v>34246</v>
       </c>
-      <c r="K82" s="13">
+      <c r="K83" s="9">
         <v>23006</v>
       </c>
-      <c r="L82" s="13">
+      <c r="L83" s="9">
         <v>11240</v>
       </c>
-      <c r="M82" s="14">
+      <c r="M83" s="10">
         <f t="shared" si="18"/>
         <v>10888.41</v>
       </c>
-      <c r="N82" s="13">
+      <c r="N83" s="9">
         <v>7775.683</v>
       </c>
-      <c r="O82" s="13">
+      <c r="O83" s="9">
         <v>3112.7269999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="17">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C84" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D84" s="14">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E84" s="15">
         <v>131130</v>
       </c>
-      <c r="F83" s="19">
+      <c r="F84" s="15">
         <v>36187</v>
       </c>
-      <c r="G83" s="18">
+      <c r="G84" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H83" s="19">
-        <v>0</v>
-      </c>
-      <c r="I83" s="19">
-        <v>0</v>
-      </c>
-      <c r="J83" s="18">
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+      <c r="I84" s="15">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
         <f t="shared" si="15"/>
         <v>37070</v>
       </c>
-      <c r="K83" s="19">
+      <c r="K84" s="15">
         <v>24746</v>
       </c>
-      <c r="L83" s="19">
+      <c r="L84" s="15">
         <v>12324</v>
       </c>
-      <c r="M83" s="20">
+      <c r="M84" s="16">
         <f t="shared" si="18"/>
         <v>12946.407999999999</v>
       </c>
-      <c r="N83" s="19">
+      <c r="N84" s="15">
         <v>8844.4689999999991</v>
       </c>
-      <c r="O83" s="19">
+      <c r="O84" s="15">
         <v>4101.9390000000003</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="11">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="8">
         <f t="shared" si="16"/>
         <v>166752</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="9">
         <v>128561</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="9">
         <v>38191</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H84" s="13">
-        <v>0</v>
-      </c>
-      <c r="I84" s="13">
-        <v>0</v>
-      </c>
-      <c r="J84" s="12">
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+      <c r="J85" s="8">
         <f t="shared" si="15"/>
         <v>37073</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K85" s="9">
         <v>24692</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L85" s="9">
         <v>12381</v>
       </c>
-      <c r="M84" s="14">
+      <c r="M85" s="10">
         <f t="shared" si="18"/>
         <v>14091.387999999999</v>
       </c>
-      <c r="N84" s="13">
+      <c r="N85" s="9">
         <v>9430.1080000000002</v>
       </c>
-      <c r="O84" s="13">
+      <c r="O85" s="9">
         <v>4661.28</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="17">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C86" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D86" s="14">
         <f t="shared" si="16"/>
         <v>158678</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E86" s="15">
         <v>121941</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F86" s="15">
         <v>36737</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G86" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H85" s="19">
-        <v>0</v>
-      </c>
-      <c r="I85" s="19">
-        <v>0</v>
-      </c>
-      <c r="J85" s="18">
+      <c r="H86" s="15">
+        <v>0</v>
+      </c>
+      <c r="I86" s="15">
+        <v>0</v>
+      </c>
+      <c r="J86" s="14">
         <f t="shared" si="15"/>
         <v>34876</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K86" s="15">
         <v>23300</v>
       </c>
-      <c r="L85" s="19">
+      <c r="L86" s="15">
         <v>11576</v>
       </c>
-      <c r="M85" s="20">
+      <c r="M86" s="16">
         <f t="shared" si="18"/>
         <v>12298.282999999999</v>
       </c>
-      <c r="N85" s="19">
+      <c r="N86" s="15">
         <v>8174.7749999999996</v>
       </c>
-      <c r="O85" s="19">
+      <c r="O86" s="15">
         <v>4123.5079999999998</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="11">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="8">
         <f t="shared" si="16"/>
         <v>168027</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="9">
         <v>131482</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="9">
         <v>36545</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H86" s="13">
-        <v>0</v>
-      </c>
-      <c r="I86" s="13">
-        <v>0</v>
-      </c>
-      <c r="J86" s="12">
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8">
         <f t="shared" si="15"/>
         <v>35688</v>
       </c>
-      <c r="K86" s="13">
+      <c r="K87" s="9">
         <v>24015</v>
       </c>
-      <c r="L86" s="13">
+      <c r="L87" s="9">
         <v>11673</v>
       </c>
-      <c r="M86" s="14">
+      <c r="M87" s="10">
         <f t="shared" si="18"/>
         <v>12153.535</v>
       </c>
-      <c r="N86" s="13">
+      <c r="N87" s="9">
         <v>8289.7060000000001</v>
       </c>
-      <c r="O86" s="13">
+      <c r="O87" s="9">
         <v>3863.8290000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="17">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C88" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D88" s="14">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E88" s="15">
         <v>128001</v>
       </c>
-      <c r="F87" s="19">
+      <c r="F88" s="15">
         <v>39316</v>
       </c>
-      <c r="G87" s="18">
+      <c r="G88" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H87" s="19">
-        <v>0</v>
-      </c>
-      <c r="I87" s="19">
-        <v>0</v>
-      </c>
-      <c r="J87" s="18">
+      <c r="H88" s="15">
+        <v>0</v>
+      </c>
+      <c r="I88" s="15">
+        <v>0</v>
+      </c>
+      <c r="J88" s="14">
         <f t="shared" si="15"/>
         <v>34719</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K88" s="15">
         <v>23289</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L88" s="15">
         <v>11430</v>
       </c>
-      <c r="M87" s="20">
+      <c r="M88" s="16">
         <f t="shared" si="18"/>
         <v>12397.615</v>
       </c>
-      <c r="N87" s="19">
+      <c r="N88" s="15">
         <v>8179.683</v>
       </c>
-      <c r="O87" s="19">
+      <c r="O88" s="15">
         <v>4217.9319999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="11">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="8">
         <f t="shared" si="16"/>
         <v>175525</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="9">
         <v>131590</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="9">
         <v>43935</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H88" s="13">
-        <v>0</v>
-      </c>
-      <c r="I88" s="13">
-        <v>0</v>
-      </c>
-      <c r="J88" s="12">
+      <c r="H89" s="9">
+        <v>0</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0</v>
+      </c>
+      <c r="J89" s="8">
         <f t="shared" si="15"/>
         <v>35499</v>
       </c>
-      <c r="K88" s="13">
+      <c r="K89" s="9">
         <v>23540</v>
       </c>
-      <c r="L88" s="13">
+      <c r="L89" s="9">
         <v>11959</v>
       </c>
-      <c r="M88" s="14">
+      <c r="M89" s="10">
         <f t="shared" si="18"/>
         <v>12920.743</v>
       </c>
-      <c r="N88" s="13">
+      <c r="N89" s="9">
         <v>8102.1610000000001</v>
       </c>
-      <c r="O88" s="13">
+      <c r="O89" s="9">
         <v>4818.5820000000003</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="17">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C90" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D90" s="14">
         <f t="shared" si="16"/>
         <v>153732</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E90" s="15">
         <v>115727</v>
       </c>
-      <c r="F89" s="19">
+      <c r="F90" s="15">
         <v>38005</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G90" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H89" s="19">
-        <v>0</v>
-      </c>
-      <c r="I89" s="19">
-        <v>0</v>
-      </c>
-      <c r="J89" s="18">
+      <c r="H90" s="15">
+        <v>0</v>
+      </c>
+      <c r="I90" s="15">
+        <v>0</v>
+      </c>
+      <c r="J90" s="14">
         <f t="shared" si="15"/>
         <v>31178</v>
       </c>
-      <c r="K89" s="19">
+      <c r="K90" s="15">
         <v>20697</v>
       </c>
-      <c r="L89" s="19">
+      <c r="L90" s="15">
         <v>10481</v>
       </c>
-      <c r="M89" s="20">
+      <c r="M90" s="16">
         <f t="shared" si="18"/>
         <v>10846.098</v>
       </c>
-      <c r="N89" s="19">
+      <c r="N90" s="15">
         <v>6820.4250000000002</v>
       </c>
-      <c r="O89" s="19">
+      <c r="O90" s="15">
         <v>4025.6729999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="11">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D91" s="8">
         <f t="shared" si="16"/>
         <v>165319</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E91" s="9">
         <v>123033</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F91" s="9">
         <v>42286</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G91" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H90" s="13">
-        <v>0</v>
-      </c>
-      <c r="I90" s="13">
-        <v>0</v>
-      </c>
-      <c r="J90" s="12">
+      <c r="H91" s="9">
+        <v>0</v>
+      </c>
+      <c r="I91" s="9">
+        <v>0</v>
+      </c>
+      <c r="J91" s="8">
         <f t="shared" si="15"/>
         <v>35175</v>
       </c>
-      <c r="K90" s="13">
+      <c r="K91" s="9">
         <v>23003</v>
       </c>
-      <c r="L90" s="13">
+      <c r="L91" s="9">
         <v>12172</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M91" s="10">
         <f t="shared" si="18"/>
         <v>12140.277</v>
       </c>
-      <c r="N90" s="13">
+      <c r="N91" s="9">
         <v>7540.7510000000002</v>
       </c>
-      <c r="O90" s="13">
+      <c r="O91" s="9">
         <v>4599.5259999999998</v>
       </c>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+    <row r="92" spans="2:15">
+      <c r="B92" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N92" s="15"/>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N93" s="15"/>
+      <c r="O93" s="30"/>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N94" s="15"/>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N95" s="15"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="N96" s="15"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="N97" s="15"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14">
+      <c r="B99" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="N91" s="19"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N92" s="19"/>
-      <c r="O92" s="34"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N93" s="19"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B94" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N94" s="19"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B95" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B96" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Operaciones_pasajeros_A.xlsx
+++ b/Operaciones_pasajeros_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71A1D1-D821-4CD5-A34A-E92C6AC40D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDB276-EFB6-4DE8-9E7A-83C2DACD6F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_28" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t>Internacional</t>
   </si>
@@ -149,10 +149,7 @@
     <t xml:space="preserve"> El concepto de "Operaciones del AIFA", a partir del mes de enero de 2025 hubo una reclasificación en las operaciones de carga del AIFA.</t>
   </si>
   <si>
-    <t xml:space="preserve"> El concepto de "Operaciones del AIFA",  Excluye aviación general.</t>
-  </si>
-  <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -383,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -449,16 +446,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,16 +458,17 @@
     <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,13 +696,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -737,6 +719,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -789,11 +778,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O91" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O91" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O92" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="B5:O92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
+        <filter val="2025"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1051,7 +1041,7 @@
   <dimension ref="B2:O99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1089,4233 +1079,4275 @@
     <row r="4" spans="2:15">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="31" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="31" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="31" t="s">
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="32"/>
-      <c r="O4" s="33"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="35" t="s">
+      <c r="F5" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="35" t="s">
+      <c r="M5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="38">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:F6)</f>
+        <v>168971</v>
+      </c>
+      <c r="E6" s="9">
+        <v>117821</v>
+      </c>
+      <c r="F6" s="9">
+        <v>51150</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(H6:I6)</f>
+        <v>5604</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4377</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1227</v>
+      </c>
+      <c r="J6" s="8">
+        <f>SUM(K6:L6)</f>
+        <v>25250</v>
+      </c>
+      <c r="K6" s="9">
+        <v>15847</v>
+      </c>
+      <c r="L6" s="9">
+        <v>9403</v>
+      </c>
+      <c r="M6" s="10">
+        <f>SUM(N6:O6)</f>
+        <v>16721.387000000002</v>
+      </c>
+      <c r="N6" s="9">
+        <v>10657.406000000001</v>
+      </c>
+      <c r="O6" s="11">
+        <v>6063.9809999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="39">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="14">
+        <f>SUM(E7:F7)</f>
         <v>148741</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E7" s="15">
         <v>105136</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F7" s="15">
         <v>43605</v>
       </c>
-      <c r="G6" s="39">
-        <f>SUM(H6:I6)</f>
-        <v>5271</v>
-      </c>
-      <c r="H6" s="40">
-        <v>4251</v>
-      </c>
-      <c r="I6" s="40">
-        <v>1020</v>
-      </c>
-      <c r="J6" s="39">
-        <f>SUM(K6:L6)</f>
+      <c r="G7" s="14">
+        <f>SUM(H7:I7)</f>
+        <v>5055</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3975</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1080</v>
+      </c>
+      <c r="J7" s="14">
+        <f>SUM(K7:L7)</f>
         <v>22852</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K7" s="15">
         <v>14515</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L7" s="15">
         <v>8337</v>
       </c>
-      <c r="M6" s="41">
-        <f>SUM(N6:O6)</f>
+      <c r="M7" s="16">
+        <f>SUM(N7:O7)</f>
         <v>14261.053</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N7" s="15">
         <v>9133.57</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O7" s="15">
         <v>5127.4830000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="18">
+    <row r="8" spans="2:15">
+      <c r="B8" s="18">
         <v>2025</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="20">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="20">
+        <f>SUM(E8:F8)</f>
         <v>163357</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E8" s="21">
         <v>114244</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F8" s="21">
         <v>49113</v>
       </c>
-      <c r="G7" s="20">
-        <f>SUM(H7:I7)</f>
-        <v>4916</v>
-      </c>
-      <c r="H7" s="21">
-        <v>3799</v>
-      </c>
-      <c r="I7" s="21">
-        <v>1117</v>
-      </c>
-      <c r="J7" s="20">
-        <f>SUM(K7:L7)</f>
+      <c r="G8" s="20">
+        <f>SUM(H8:I8)</f>
+        <v>5607</v>
+      </c>
+      <c r="H8" s="21">
+        <v>4426</v>
+      </c>
+      <c r="I8" s="21">
+        <v>1181</v>
+      </c>
+      <c r="J8" s="20">
+        <f>SUM(K8:L8)</f>
         <v>25418</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K8" s="21">
         <v>15960</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L8" s="21">
         <v>9458</v>
       </c>
-      <c r="M7" s="22">
-        <f>SUM(N7:O7)</f>
+      <c r="M8" s="22">
+        <f>SUM(N8:O8)</f>
         <v>16253.322</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N8" s="21">
         <v>10323.901</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O8" s="23">
         <v>5929.4210000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="12">
+    <row r="9" spans="2:15">
+      <c r="B9" s="12">
         <v>2024</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="14">
+        <f>SUM(E9:F9)</f>
         <v>167031</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="15">
         <v>116920</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="15">
         <v>50111</v>
       </c>
-      <c r="G8" s="14">
-        <f>SUM(H8:I8)</f>
-        <v>5918</v>
-      </c>
-      <c r="H8" s="15">
-        <v>5595</v>
-      </c>
-      <c r="I8" s="15">
-        <v>323</v>
-      </c>
-      <c r="J8" s="14">
-        <f>SUM(K8:L8)</f>
+      <c r="G9" s="14">
+        <f>SUM(H9:I9)</f>
+        <v>6198</v>
+      </c>
+      <c r="H9" s="15">
+        <v>4882</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1316</v>
+      </c>
+      <c r="J9" s="14">
+        <f>SUM(K9:L9)</f>
         <v>25085</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K9" s="15">
         <v>15393</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L9" s="15">
         <v>9692</v>
       </c>
-      <c r="M8" s="16">
-        <f>SUM(N8:O8)</f>
+      <c r="M9" s="16">
+        <f>SUM(N9:O9)</f>
         <v>17224.003000000001</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N9" s="15">
         <v>11183.15</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O9" s="17">
         <v>6040.8530000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="6">
+    <row r="10" spans="2:15">
+      <c r="B10" s="6">
         <v>2024</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8">
-        <f>SUM(E9:F9)</f>
+      <c r="D10" s="8">
+        <f>SUM(E10:F10)</f>
         <v>163956</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>119294</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>44662</v>
       </c>
-      <c r="G9" s="8">
-        <f>SUM(H9:I9)</f>
-        <v>5900</v>
-      </c>
-      <c r="H9" s="9">
-        <v>5580</v>
-      </c>
-      <c r="I9" s="9">
-        <v>320</v>
-      </c>
-      <c r="J9" s="8">
-        <f>SUM(K9:L9)</f>
+      <c r="G10" s="8">
+        <f>SUM(H10:I10)</f>
+        <v>6142</v>
+      </c>
+      <c r="H10" s="9">
+        <v>4751</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1391</v>
+      </c>
+      <c r="J10" s="8">
+        <f>SUM(K10:L10)</f>
         <v>24195</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="9">
         <v>15199</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L10" s="9">
         <v>8996</v>
       </c>
-      <c r="M9" s="10">
-        <f>SUM(N9:O9)</f>
+      <c r="M10" s="10">
+        <f>SUM(N10:O10)</f>
         <v>15816.669000000002</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N10" s="9">
         <v>10696.485000000001</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O10" s="11">
         <v>5120.1840000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="12">
+    <row r="11" spans="2:15">
+      <c r="B11" s="12">
         <v>2024</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14">
-        <f t="shared" ref="D10" si="0">SUM(E10:F10)</f>
+      <c r="D11" s="14">
+        <f t="shared" ref="D11" si="0">SUM(E11:F11)</f>
         <v>154230</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="15">
         <v>116413</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F11" s="15">
         <v>37817</v>
       </c>
-      <c r="G10" s="14">
-        <f t="shared" ref="G10" si="1">SUM(H10:I10)</f>
-        <v>5902</v>
-      </c>
-      <c r="H10" s="15">
-        <v>5574</v>
-      </c>
-      <c r="I10" s="15">
-        <v>328</v>
-      </c>
-      <c r="J10" s="14">
-        <f t="shared" ref="J10" si="2">SUM(K10:L10)</f>
+      <c r="G11" s="14">
+        <f t="shared" ref="G11" si="1">SUM(H11:I11)</f>
+        <v>6250</v>
+      </c>
+      <c r="H11" s="15">
+        <v>4792</v>
+      </c>
+      <c r="I11" s="15">
+        <v>1458</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" ref="J11" si="2">SUM(K11:L11)</f>
         <v>24943</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K11" s="15">
         <v>16106</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L11" s="15">
         <v>8837</v>
       </c>
-      <c r="M10" s="16">
-        <f t="shared" ref="M10" si="3">SUM(N10:O10)</f>
+      <c r="M11" s="16">
+        <f t="shared" ref="M11" si="3">SUM(N11:O11)</f>
         <v>14932.208999999999</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N11" s="15">
         <v>10562.91</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O11" s="17">
         <v>4369.299</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="6">
+    <row r="12" spans="2:15">
+      <c r="B12" s="6">
         <v>2024</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8">
-        <f>SUM(E11:F11)</f>
+      <c r="D12" s="8">
+        <f>SUM(E12:F12)</f>
         <v>141210</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E12" s="9">
         <v>108351</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>32859</v>
       </c>
-      <c r="G11" s="8">
-        <f>SUM(H11:I11)</f>
-        <v>5605</v>
-      </c>
-      <c r="H11" s="9">
-        <v>5292</v>
-      </c>
-      <c r="I11" s="9">
-        <v>313</v>
-      </c>
-      <c r="J11" s="8">
-        <f>SUM(K11:L11)</f>
+      <c r="G12" s="8">
+        <f>SUM(H12:I12)</f>
+        <v>5876</v>
+      </c>
+      <c r="H12" s="9">
+        <v>4518</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1358</v>
+      </c>
+      <c r="J12" s="8">
+        <f>SUM(K12:L12)</f>
         <v>24172</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K12" s="9">
         <v>15661</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L12" s="9">
         <v>8511</v>
       </c>
-      <c r="M11" s="10">
-        <f>SUM(N11:O11)</f>
+      <c r="M12" s="10">
+        <f>SUM(N12:O12)</f>
         <v>13837.021999999999</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N12" s="9">
         <v>10036.638999999999</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O12" s="11">
         <v>3800.3829999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="12">
+    <row r="13" spans="2:15">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="14">
-        <f>SUM(E12:F12)</f>
+      <c r="D13" s="14">
+        <f>SUM(E13:F13)</f>
         <v>157045</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>118762</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F13" s="15">
         <v>38283</v>
       </c>
-      <c r="G12" s="14">
-        <f t="shared" ref="G12:G46" si="4">SUM(H12:I12)</f>
-        <v>5894</v>
-      </c>
-      <c r="H12" s="15">
-        <v>5553</v>
-      </c>
-      <c r="I12" s="15">
-        <v>341</v>
-      </c>
-      <c r="J12" s="14">
-        <f t="shared" ref="J12:J42" si="5">SUM(K12:L12)</f>
+      <c r="G13" s="14">
+        <f t="shared" ref="G13:G47" si="4">SUM(H13:I13)</f>
+        <v>6079</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4643</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1436</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" ref="J13:J43" si="5">SUM(K13:L13)</f>
         <v>26410</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K13" s="15">
         <v>17075</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L13" s="15">
         <v>9335</v>
       </c>
-      <c r="M12" s="16">
-        <f t="shared" ref="M12:M46" si="6">SUM(N12:O12)</f>
+      <c r="M13" s="16">
+        <f t="shared" ref="M13:M47" si="6">SUM(N13:O13)</f>
         <v>16048.866999999998</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N13" s="15">
         <v>11325.605</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O13" s="17">
         <v>4723.2619999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="6">
+    <row r="14" spans="2:15">
+      <c r="B14" s="6">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" ref="D13:D14" si="7">SUM(E13:F13)</f>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14:D15" si="7">SUM(E14:F14)</f>
         <v>157419</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>117177</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>40242</v>
       </c>
-      <c r="G13" s="8">
-        <f t="shared" ref="G13:G15" si="8">SUM(H13:I13)</f>
-        <v>5817</v>
-      </c>
-      <c r="H13" s="9">
-        <v>5496</v>
-      </c>
-      <c r="I13" s="9">
-        <v>321</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="G14" s="8">
+        <f t="shared" ref="G14:G16" si="8">SUM(H14:I14)</f>
+        <v>6016</v>
+      </c>
+      <c r="H14" s="9">
+        <v>4625</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1391</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" si="5"/>
         <v>26445</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="9">
         <v>16888</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <v>9557</v>
       </c>
-      <c r="M13" s="10">
-        <f t="shared" ref="M13:M15" si="9">SUM(N13:O13)</f>
+      <c r="M14" s="10">
+        <f t="shared" ref="M14:M16" si="9">SUM(N14:O14)</f>
         <v>16878.663</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="9">
         <v>11522.672</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O14" s="11">
         <v>5355.991</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="12">
+    <row r="15" spans="2:15">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D15" s="14">
         <f t="shared" si="7"/>
         <v>148346</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>109282</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F15" s="15">
         <v>39064</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="14">
         <f t="shared" si="8"/>
-        <v>5644</v>
-      </c>
-      <c r="H14" s="15">
-        <v>5335</v>
-      </c>
-      <c r="I14" s="15">
-        <v>309</v>
-      </c>
-      <c r="J14" s="14">
+        <v>5818</v>
+      </c>
+      <c r="H15" s="15">
+        <v>4413</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1405</v>
+      </c>
+      <c r="J15" s="14">
         <f t="shared" si="5"/>
         <v>25325</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K15" s="15">
         <v>16635</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L15" s="15">
         <v>8690</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M15" s="16">
         <f t="shared" si="9"/>
         <v>15314.61</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N15" s="15">
         <v>10370.779</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O15" s="17">
         <v>4943.8310000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="6">
+    <row r="16" spans="2:15">
+      <c r="B16" s="6">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8">
-        <f>SUM(E15:F15)</f>
+      <c r="D16" s="8">
+        <f>SUM(E16:F16)</f>
         <v>159550</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>119704</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>39846</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <f t="shared" si="8"/>
-        <v>5571</v>
-      </c>
-      <c r="H15" s="9">
-        <v>5254</v>
-      </c>
-      <c r="I15" s="9">
-        <v>317</v>
-      </c>
-      <c r="J15" s="8">
+        <v>5832</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4318</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1514</v>
+      </c>
+      <c r="J16" s="8">
         <f t="shared" si="5"/>
         <v>26164</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="9">
         <v>17387</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L16" s="9">
         <v>8777</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M16" s="10">
         <f t="shared" si="9"/>
         <v>15380.428</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="9">
         <v>10623.656000000001</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O16" s="11">
         <v>4756.7719999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="12">
+    <row r="17" spans="2:15">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="14">
-        <f t="shared" ref="D16:D46" si="10">SUM(E16:F16)</f>
+      <c r="D17" s="14">
+        <f t="shared" ref="D17:D47" si="10">SUM(E17:F17)</f>
         <v>158975</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>115595</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F17" s="15">
         <v>43380</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G17" s="14">
         <f t="shared" si="4"/>
-        <v>5473</v>
-      </c>
-      <c r="H16" s="15">
-        <v>5166</v>
-      </c>
-      <c r="I16" s="15">
-        <v>307</v>
-      </c>
-      <c r="J16" s="14">
+        <v>5691</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4266</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1425</v>
+      </c>
+      <c r="J17" s="14">
         <f t="shared" si="5"/>
         <v>25292</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K17" s="15">
         <v>16701</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L17" s="15">
         <v>8591</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M17" s="16">
         <f t="shared" si="6"/>
         <v>15232.386999999999</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N17" s="15">
         <v>10112.061</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O17" s="17">
         <v>5120.326</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="6">
+    <row r="18" spans="2:15">
+      <c r="B18" s="6">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <f t="shared" si="10"/>
         <v>160745</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>111522</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>49223</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <f t="shared" si="4"/>
-        <v>4759</v>
-      </c>
-      <c r="H17" s="9">
-        <v>4508</v>
-      </c>
-      <c r="I17" s="9">
-        <v>251</v>
-      </c>
-      <c r="J17" s="8">
+        <v>4951</v>
+      </c>
+      <c r="H18" s="9">
+        <v>3643</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1308</v>
+      </c>
+      <c r="J18" s="8">
         <f t="shared" si="5"/>
         <v>25196</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="9">
         <v>15924</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L18" s="9">
         <v>9272</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M18" s="10">
         <f t="shared" si="6"/>
         <v>15971.481</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N18" s="9">
         <v>9845.5509999999995</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O18" s="11">
         <v>6125.93</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="12">
+    <row r="19" spans="2:15">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <f t="shared" si="10"/>
         <v>148853</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>104440</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="15">
         <v>44413</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="14">
         <f t="shared" si="4"/>
-        <v>4246</v>
-      </c>
-      <c r="H18" s="15">
-        <v>4009.0000000000005</v>
-      </c>
-      <c r="I18" s="15">
-        <v>237</v>
-      </c>
-      <c r="J18" s="14">
+        <v>4469</v>
+      </c>
+      <c r="H19" s="15">
+        <v>3222</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1247</v>
+      </c>
+      <c r="J19" s="14">
         <f t="shared" si="5"/>
         <v>23784</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K19" s="15">
         <v>15355</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L19" s="15">
         <v>8429</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M19" s="16">
         <f t="shared" si="6"/>
         <v>14272.33</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N19" s="15">
         <v>8893.5959999999995</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O19" s="17">
         <v>5378.7340000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="18">
+    <row r="20" spans="2:15">
+      <c r="B20" s="18">
         <v>2024</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D20" s="20">
         <f t="shared" si="10"/>
         <v>156666</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E20" s="21">
         <v>108922</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F20" s="21">
         <v>47744</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G20" s="20">
         <f t="shared" si="4"/>
-        <v>4224</v>
-      </c>
-      <c r="H19" s="21">
-        <v>4019</v>
-      </c>
-      <c r="I19" s="21">
-        <v>205</v>
-      </c>
-      <c r="J19" s="20">
+        <v>4402</v>
+      </c>
+      <c r="H20" s="21">
+        <v>3190</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1212</v>
+      </c>
+      <c r="J20" s="20">
         <f t="shared" si="5"/>
         <v>25531</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K20" s="21">
         <v>16217</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L20" s="21">
         <v>9314</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M20" s="22">
         <f t="shared" si="6"/>
         <v>15551.477000000001</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N20" s="21">
         <v>9753.6540000000005</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O20" s="23">
         <v>5797.8230000000003</v>
       </c>
     </row>
-    <row r="20" spans="2:15" hidden="1">
-      <c r="B20" s="24">
+    <row r="21" spans="2:15" hidden="1">
+      <c r="B21" s="24">
         <v>2023</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D21" s="26">
         <f t="shared" si="10"/>
         <v>163911</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E21" s="27">
         <v>118221</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F21" s="27">
         <v>45690</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G21" s="26">
         <f t="shared" si="4"/>
-        <v>3526</v>
-      </c>
-      <c r="H20" s="27">
-        <v>3337</v>
-      </c>
-      <c r="I20" s="27">
-        <v>189</v>
-      </c>
-      <c r="J20" s="26">
+        <v>2455</v>
+      </c>
+      <c r="H21" s="27">
+        <v>2237</v>
+      </c>
+      <c r="I21" s="27">
+        <v>218</v>
+      </c>
+      <c r="J21" s="26">
         <f t="shared" si="5"/>
         <v>28577</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K21" s="27">
         <v>18492</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L21" s="27">
         <v>10085</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M21" s="28">
         <f t="shared" si="6"/>
         <v>16722.900000000001</v>
       </c>
-      <c r="N20" s="27">
+      <c r="N21" s="27">
         <v>10949.384</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O21" s="29">
         <v>5773.5159999999996</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1">
-      <c r="B21" s="6">
+    <row r="22" spans="2:15" hidden="1">
+      <c r="B22" s="6">
         <v>2023</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <f t="shared" si="10"/>
         <v>158913</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>119949</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>38964</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <f t="shared" si="4"/>
-        <v>3081</v>
-      </c>
-      <c r="H21" s="9">
-        <v>2892</v>
-      </c>
-      <c r="I21" s="9">
+        <v>2027</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1838</v>
+      </c>
+      <c r="I22" s="9">
         <v>189</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <f t="shared" si="5"/>
         <v>27656</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <v>18844</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L22" s="9">
         <v>8812</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M22" s="10">
         <f t="shared" si="6"/>
         <v>15490.629000000001</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N22" s="9">
         <v>10633.794</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="11">
         <v>4856.835</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1">
-      <c r="B22" s="12">
+    <row r="23" spans="2:15" hidden="1">
+      <c r="B23" s="12">
         <v>2023</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <f t="shared" si="10"/>
         <v>155697</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>120652</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F23" s="15">
         <v>35045</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="14">
         <f t="shared" si="4"/>
-        <v>3222</v>
-      </c>
-      <c r="H22" s="15">
-        <v>3013</v>
-      </c>
-      <c r="I22" s="15">
+        <v>2106</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1897</v>
+      </c>
+      <c r="I23" s="15">
         <v>209</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="14">
         <f t="shared" si="5"/>
         <v>27597</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K23" s="15">
         <v>18942</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L23" s="15">
         <v>8655</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M23" s="16">
         <f t="shared" si="6"/>
         <v>15213.704999999998</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N23" s="15">
         <v>10935.924999999999</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O23" s="17">
         <v>4277.78</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1">
-      <c r="B23" s="6">
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="6">
         <v>2023</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <f t="shared" si="10"/>
         <v>146668</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>114905</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>31763</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <f t="shared" si="4"/>
-        <v>2726</v>
-      </c>
-      <c r="H23" s="9">
-        <v>2544</v>
-      </c>
-      <c r="I23" s="9">
+        <v>1731</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1549</v>
+      </c>
+      <c r="I24" s="9">
         <v>182</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J24" s="8">
         <f t="shared" si="5"/>
         <v>26793</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K24" s="9">
         <v>18467</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L24" s="9">
         <v>8326</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M24" s="10">
         <f t="shared" si="6"/>
         <v>13986.931</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N24" s="9">
         <v>10236.332</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O24" s="11">
         <v>3750.5990000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="12">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="12">
         <v>2023</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D25" s="14">
         <f t="shared" si="10"/>
         <v>162973</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <v>125545</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F25" s="15">
         <v>37428</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G25" s="14">
         <f t="shared" si="4"/>
-        <v>2769</v>
-      </c>
-      <c r="H24" s="15">
-        <v>2584</v>
-      </c>
-      <c r="I24" s="15">
+        <v>2108</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1923</v>
+      </c>
+      <c r="I25" s="15">
         <v>185</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J25" s="14">
         <f t="shared" si="5"/>
         <v>29095</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K25" s="15">
         <v>19522</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L25" s="15">
         <v>9573</v>
       </c>
-      <c r="M24" s="16">
+      <c r="M25" s="16">
         <f t="shared" si="6"/>
         <v>16766.697</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N25" s="15">
         <v>12077.877</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O25" s="17">
         <v>4688.82</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1">
-      <c r="B25" s="6">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="6">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <f t="shared" si="10"/>
         <v>164170</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>124900</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>39270</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <f t="shared" si="4"/>
-        <v>2336</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2164</v>
-      </c>
-      <c r="I25" s="9">
+        <v>2029</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1857</v>
+      </c>
+      <c r="I26" s="9">
         <v>172</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J26" s="8">
         <f t="shared" si="5"/>
         <v>29231</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K26" s="9">
         <v>19311</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L26" s="9">
         <v>9920</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M26" s="10">
         <f t="shared" si="6"/>
         <v>17331.974000000002</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N26" s="9">
         <v>12036.081</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O26" s="11">
         <v>5295.893</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <f t="shared" si="10"/>
         <v>158074</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>120413</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F27" s="15">
         <v>37661</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="14">
         <f t="shared" si="4"/>
-        <v>1942</v>
-      </c>
-      <c r="H26" s="15">
-        <v>1784</v>
-      </c>
-      <c r="I26" s="15">
+        <v>1839</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1681</v>
+      </c>
+      <c r="I27" s="15">
         <v>158</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J27" s="14">
         <f t="shared" si="5"/>
         <v>28215</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K27" s="15">
         <v>18972</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L27" s="15">
         <v>9243</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M27" s="16">
         <f t="shared" si="6"/>
         <v>15257.142</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N27" s="15">
         <v>10569.871999999999</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O27" s="17">
         <v>4687.2700000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1">
-      <c r="B27" s="6">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="6">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <f t="shared" si="10"/>
         <v>162182</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>124206</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>37976</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <f t="shared" si="4"/>
-        <v>1937</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1767</v>
-      </c>
-      <c r="I27" s="9">
+        <v>1851</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1681</v>
+      </c>
+      <c r="I28" s="9">
         <v>170</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="8">
         <f t="shared" si="5"/>
         <v>28633</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <v>19183</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L28" s="9">
         <v>9450</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M28" s="10">
         <f t="shared" si="6"/>
         <v>15115.095000000001</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N28" s="9">
         <v>10649.591</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O28" s="11">
         <v>4465.5039999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <f t="shared" si="10"/>
         <v>159882</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>120199</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F29" s="15">
         <v>39683</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <f t="shared" si="4"/>
-        <v>1796</v>
-      </c>
-      <c r="H28" s="15">
-        <v>1691</v>
-      </c>
-      <c r="I28" s="15">
+        <v>1710</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1605</v>
+      </c>
+      <c r="I29" s="15">
         <v>105</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <f t="shared" si="5"/>
         <v>28347</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K29" s="15">
         <v>19276</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L29" s="15">
         <v>9071</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M29" s="16">
         <f t="shared" si="6"/>
         <v>15697.496999999999</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N29" s="15">
         <v>10803.382</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O29" s="17">
         <v>4894.1149999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1">
-      <c r="B29" s="6">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="6">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <f t="shared" si="10"/>
         <v>170638</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>126849</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>43789</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <f t="shared" si="4"/>
-        <v>1923</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1812</v>
-      </c>
-      <c r="I29" s="9">
-        <v>111</v>
-      </c>
-      <c r="J29" s="8">
+        <v>1840</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1730</v>
+      </c>
+      <c r="I30" s="9">
+        <v>110</v>
+      </c>
+      <c r="J30" s="8">
         <f t="shared" si="5"/>
         <v>29361</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="9">
         <v>19711</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L30" s="9">
         <v>9650</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M30" s="10">
         <f t="shared" si="6"/>
         <v>15935.796</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N30" s="9">
         <v>10528.172</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O30" s="11">
         <v>5407.6239999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <f t="shared" si="10"/>
         <v>151336</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <v>112299</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <v>39037</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G31" s="14">
         <f t="shared" si="4"/>
-        <v>1655</v>
-      </c>
-      <c r="H30" s="15">
-        <v>1542</v>
-      </c>
-      <c r="I30" s="15">
+        <v>1650</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1537</v>
+      </c>
+      <c r="I31" s="15">
         <v>113</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J31" s="14">
         <f t="shared" si="5"/>
         <v>26435</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K31" s="15">
         <v>17619</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L31" s="15">
         <v>8816</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M31" s="16">
         <f t="shared" si="6"/>
         <v>13705.822</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N31" s="15">
         <v>8982.0499999999993</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O31" s="17">
         <v>4723.7719999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1">
-      <c r="B31" s="18">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="18">
         <v>2023</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D32" s="20">
         <f t="shared" si="10"/>
         <v>165200</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E32" s="21">
         <v>121747</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F32" s="21">
         <v>43453</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G32" s="20">
         <f t="shared" si="4"/>
         <v>1856</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H32" s="21">
         <v>1722</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I32" s="21">
         <v>134</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J32" s="20">
         <f t="shared" si="5"/>
         <v>30227</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K32" s="21">
         <v>20162</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L32" s="21">
         <v>10065</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M32" s="22">
         <f t="shared" si="6"/>
         <v>15379.226000000001</v>
       </c>
-      <c r="N31" s="21">
+      <c r="N32" s="21">
         <v>10060.075000000001</v>
       </c>
-      <c r="O31" s="23">
+      <c r="O32" s="23">
         <v>5319.1509999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1">
-      <c r="B32" s="24">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="24">
         <v>2022</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C33" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D33" s="26">
         <f t="shared" si="10"/>
         <v>167972</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E33" s="27">
         <v>123936</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F33" s="27">
         <v>44036</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G33" s="26">
         <f t="shared" si="4"/>
         <v>1840</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H33" s="27">
         <v>1713</v>
       </c>
-      <c r="I32" s="27">
+      <c r="I33" s="27">
         <v>127</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J33" s="26">
         <f t="shared" si="5"/>
         <v>31046</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K33" s="27">
         <v>20696</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L33" s="27">
         <v>10350</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M33" s="28">
         <f t="shared" si="6"/>
         <v>16259.23</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N33" s="27">
         <v>11068.346</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O33" s="29">
         <v>5190.884</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="6">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="6">
         <v>2022</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <f t="shared" si="10"/>
         <v>162759</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>123505</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>39254</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <f t="shared" si="4"/>
         <v>1784</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H34" s="9">
         <v>1698</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I34" s="9">
         <v>86</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J34" s="8">
         <f t="shared" si="5"/>
         <v>30430</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K34" s="9">
         <v>20625</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L34" s="9">
         <v>9805</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M34" s="10">
         <f t="shared" si="6"/>
         <v>15141.996999999999</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N34" s="9">
         <v>10513.98</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O34" s="11">
         <v>4628.0169999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="12">
         <v>2022</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <f t="shared" si="10"/>
         <v>159864</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="15">
         <v>124747</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="15">
         <v>35117</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="14">
         <f t="shared" si="4"/>
-        <v>1870</v>
-      </c>
-      <c r="H34" s="15">
-        <v>1784</v>
-      </c>
-      <c r="I34" s="15">
+        <v>1866</v>
+      </c>
+      <c r="H35" s="15">
+        <v>1780</v>
+      </c>
+      <c r="I35" s="15">
         <v>86</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J35" s="14">
         <f t="shared" si="5"/>
         <v>31242</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K35" s="15">
         <v>21556</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L35" s="15">
         <v>9686</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M35" s="16">
         <f t="shared" si="6"/>
         <v>14556.514999999999</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N35" s="15">
         <v>10450.403</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O35" s="17">
         <v>4106.1120000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="6">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="6">
         <v>2022</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D36" s="8">
         <f t="shared" si="10"/>
         <v>147719</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E36" s="9">
         <v>115614</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>32104.999999999996</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G36" s="8">
         <f t="shared" si="4"/>
-        <v>1319</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1288</v>
-      </c>
-      <c r="I35" s="9">
+        <v>1327</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1296</v>
+      </c>
+      <c r="I36" s="9">
         <v>31</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J36" s="8">
         <f t="shared" si="5"/>
         <v>29935</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K36" s="9">
         <v>20715</v>
       </c>
-      <c r="L35" s="9">
+      <c r="L36" s="9">
         <v>9220</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M36" s="10">
         <f t="shared" si="6"/>
         <v>13130.359999999999</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N36" s="9">
         <v>9467.3269999999993</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O36" s="11">
         <v>3663.0329999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="12">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="12">
         <v>2022</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D37" s="14">
         <f t="shared" si="10"/>
         <v>160707</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="15">
         <v>123479</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="15">
         <v>37228</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <f t="shared" si="4"/>
         <v>620</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H37" s="15">
         <v>597</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I37" s="15">
         <v>23</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J37" s="14">
         <f t="shared" si="5"/>
         <v>32809</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K37" s="15">
         <v>22639</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L37" s="15">
         <v>10170</v>
       </c>
-      <c r="M36" s="16">
+      <c r="M37" s="16">
         <f t="shared" si="6"/>
         <v>15003.125</v>
       </c>
-      <c r="N36" s="15">
+      <c r="N37" s="15">
         <v>10508.375</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O37" s="17">
         <v>4494.75</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1">
-      <c r="B37" s="6">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="6">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <f t="shared" si="10"/>
         <v>161313</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>122637</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>38676</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <f t="shared" si="4"/>
-        <v>340</v>
-      </c>
-      <c r="H37" s="9">
-        <v>336</v>
-      </c>
-      <c r="I37" s="9">
+        <v>338</v>
+      </c>
+      <c r="H38" s="9">
+        <v>334</v>
+      </c>
+      <c r="I38" s="9">
         <v>4</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J38" s="8">
         <f t="shared" si="5"/>
         <v>32288</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K38" s="9">
         <v>22146</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L38" s="9">
         <v>10142</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M38" s="10">
         <f t="shared" si="6"/>
         <v>15713.334999999999</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N38" s="9">
         <v>10715.734</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O38" s="11">
         <v>4997.6009999999997</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <f t="shared" si="10"/>
         <v>153335</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="15">
         <v>116098</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="15">
         <v>37237</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H39" s="15">
         <v>351</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I39" s="15">
         <v>5</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J39" s="14">
         <f t="shared" si="5"/>
         <v>30905</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K39" s="15">
         <v>21014</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L39" s="15">
         <v>9891</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M39" s="16">
         <f t="shared" si="6"/>
         <v>13344.656999999999</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N39" s="15">
         <v>9004.4539999999997</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O39" s="17">
         <v>4340.2030000000004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1">
-      <c r="B39" s="6">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="6">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <f t="shared" si="10"/>
         <v>158252</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>120591</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>37661</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <f t="shared" si="4"/>
         <v>371</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="9">
         <v>365</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <v>6</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="8">
         <f t="shared" si="5"/>
         <v>31398</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K40" s="9">
         <v>21509</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L40" s="9">
         <v>9889</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M40" s="10">
         <f t="shared" si="6"/>
         <v>13548.44</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N40" s="9">
         <v>9417.0650000000005</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O40" s="11">
         <v>4131.375</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <f t="shared" si="10"/>
         <v>157784</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>117815</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F41" s="15">
         <v>39969</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H41" s="15">
         <v>352</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I41" s="15">
         <v>4</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J41" s="14">
         <f t="shared" si="5"/>
         <v>30844</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K41" s="15">
         <v>21295</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L41" s="15">
         <v>9549</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M41" s="16">
         <f t="shared" si="6"/>
         <v>14079.685000000001</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N41" s="15">
         <v>9562.2420000000002</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O41" s="17">
         <v>4517.4430000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1">
-      <c r="B41" s="6">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="6">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <f t="shared" si="10"/>
         <v>161848</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>119127</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>42721</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <f t="shared" si="4"/>
-        <v>136</v>
-      </c>
-      <c r="H41" s="9">
-        <v>134</v>
-      </c>
-      <c r="I41" s="9">
-        <v>2</v>
-      </c>
-      <c r="J41" s="8">
+        <v>138</v>
+      </c>
+      <c r="H42" s="9">
+        <v>135</v>
+      </c>
+      <c r="I42" s="9">
+        <v>3</v>
+      </c>
+      <c r="J42" s="8">
         <f t="shared" si="5"/>
         <v>29318</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K42" s="9">
         <v>20239</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L42" s="9">
         <v>9079</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M42" s="10">
         <f t="shared" si="6"/>
         <v>13866.879000000001</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N42" s="9">
         <v>9057.7270000000008</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O42" s="11">
         <v>4809.152</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <f t="shared" si="10"/>
         <v>138416</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>101843</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>36573</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H42" s="15">
-        <v>0</v>
-      </c>
-      <c r="I42" s="15">
-        <v>0</v>
-      </c>
-      <c r="J42" s="14">
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="14">
         <f t="shared" si="5"/>
         <v>24917</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K43" s="15">
         <v>17054</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L43" s="15">
         <v>7863</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M43" s="16">
         <f t="shared" si="6"/>
         <v>10915.597</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N43" s="15">
         <v>7204.1139999999996</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O43" s="17">
         <v>3711.4830000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1">
-      <c r="B43" s="18">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="18">
         <v>2022</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D44" s="20">
         <f t="shared" si="10"/>
         <v>147774</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E44" s="21">
         <v>106370</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F44" s="21">
         <v>41404</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G44" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H43" s="21">
-        <v>0</v>
-      </c>
-      <c r="I43" s="21">
-        <v>0</v>
-      </c>
-      <c r="J43" s="20">
-        <f t="shared" ref="J43:J74" si="11">SUM(K43:L43)</f>
+      <c r="H44" s="21">
+        <v>0</v>
+      </c>
+      <c r="I44" s="21">
+        <v>0</v>
+      </c>
+      <c r="J44" s="20">
+        <f t="shared" ref="J44:J75" si="11">SUM(K44:L44)</f>
         <v>28778</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K44" s="21">
         <v>19706</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L44" s="21">
         <v>9072</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M44" s="22">
         <f t="shared" si="6"/>
         <v>11653.262000000001</v>
       </c>
-      <c r="N43" s="21">
+      <c r="N44" s="21">
         <v>7668.268</v>
       </c>
-      <c r="O43" s="23">
+      <c r="O44" s="23">
         <v>3984.9940000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1">
-      <c r="B44" s="24">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="24">
         <v>2021</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C45" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D45" s="26">
         <f t="shared" si="10"/>
         <v>161476</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E45" s="27">
         <v>118642</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F45" s="27">
         <v>42834</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G45" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H44" s="27">
-        <v>0</v>
-      </c>
-      <c r="I44" s="27">
-        <v>0</v>
-      </c>
-      <c r="J44" s="26">
+      <c r="H45" s="27">
+        <v>0</v>
+      </c>
+      <c r="I45" s="27">
+        <v>0</v>
+      </c>
+      <c r="J45" s="26">
         <f t="shared" si="11"/>
         <v>31395</v>
       </c>
-      <c r="K44" s="27">
+      <c r="K45" s="27">
         <v>21885</v>
       </c>
-      <c r="L44" s="27">
+      <c r="L45" s="27">
         <v>9510</v>
       </c>
-      <c r="M44" s="28">
+      <c r="M45" s="28">
         <f t="shared" si="6"/>
         <v>13971.465</v>
       </c>
-      <c r="N44" s="27">
+      <c r="N45" s="27">
         <v>9508.3459999999995</v>
       </c>
-      <c r="O44" s="29">
+      <c r="O45" s="29">
         <v>4463.1189999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="6">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="6">
         <v>2021</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <f t="shared" si="10"/>
         <v>153263</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>115481</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>37782</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H45" s="9">
-        <v>0</v>
-      </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8">
         <f t="shared" si="11"/>
         <v>28646</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K46" s="9">
         <v>20157</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L46" s="9">
         <v>8489</v>
       </c>
-      <c r="M45" s="10">
+      <c r="M46" s="10">
         <f t="shared" si="6"/>
         <v>12687.374</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N46" s="9">
         <v>8761.0709999999999</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O46" s="11">
         <v>3926.3029999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="12">
         <v>2021</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <f t="shared" si="10"/>
         <v>147053</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="15">
         <v>112669</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>34384</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H46" s="15">
-        <v>0</v>
-      </c>
-      <c r="I46" s="15">
-        <v>0</v>
-      </c>
-      <c r="J46" s="14">
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
         <f t="shared" si="11"/>
         <v>28151</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K47" s="15">
         <v>19712</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L47" s="15">
         <v>8439</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M47" s="16">
         <f t="shared" si="6"/>
         <v>11848.638999999999</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N47" s="15">
         <v>8373.0280000000002</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O47" s="17">
         <v>3475.6109999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="6">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="6">
         <v>2021</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="8">
-        <f t="shared" ref="D47:D78" si="12">SUM(E47:F47)</f>
+      <c r="D48" s="8">
+        <f t="shared" ref="D48:D79" si="12">SUM(E48:F48)</f>
         <v>132825</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E48" s="9">
         <v>101771</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F48" s="9">
         <v>31054</v>
       </c>
-      <c r="G47" s="8">
-        <f t="shared" ref="G47:G78" si="13">SUM(H47:I47)</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
+      <c r="G48" s="8">
+        <f t="shared" ref="G48:G79" si="13">SUM(H48:I48)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8">
         <f t="shared" si="11"/>
         <v>25472</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K48" s="9">
         <v>17521</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L48" s="9">
         <v>7951</v>
       </c>
-      <c r="M47" s="10">
-        <f t="shared" ref="M47:M78" si="14">SUM(N47:O47)</f>
+      <c r="M48" s="10">
+        <f t="shared" ref="M48:M79" si="14">SUM(N48:O48)</f>
         <v>10185.656000000001</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N48" s="9">
         <v>7282.1530000000002</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O48" s="11">
         <v>2903.5030000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="12">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="12">
         <v>2021</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D49" s="14">
         <f t="shared" si="12"/>
         <v>144695</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="15">
         <v>110044</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="15">
         <v>34651</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H48" s="15">
-        <v>0</v>
-      </c>
-      <c r="I48" s="15">
-        <v>0</v>
-      </c>
-      <c r="J48" s="14">
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
         <f t="shared" si="11"/>
         <v>28906</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K49" s="15">
         <v>20368</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L49" s="15">
         <v>8538</v>
       </c>
-      <c r="M48" s="16">
+      <c r="M49" s="16">
         <f t="shared" si="14"/>
         <v>11683.937</v>
       </c>
-      <c r="N48" s="15">
+      <c r="N49" s="15">
         <v>8069.2780000000002</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O49" s="17">
         <v>3614.6590000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1">
-      <c r="B49" s="6">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="6">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <f t="shared" si="12"/>
         <v>146353</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>110707</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>35646</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
         <f t="shared" si="11"/>
         <v>28727</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K50" s="9">
         <v>20266</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L50" s="9">
         <v>8461</v>
       </c>
-      <c r="M49" s="10">
+      <c r="M50" s="10">
         <f t="shared" si="14"/>
         <v>12973.878000000001</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N50" s="9">
         <v>8846.4060000000009</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O50" s="11">
         <v>4127.4719999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1">
-      <c r="B50" s="12">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <f t="shared" si="12"/>
         <v>134517</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="15">
         <v>101368</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="15">
         <v>33149</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H50" s="15">
-        <v>0</v>
-      </c>
-      <c r="I50" s="15">
-        <v>0</v>
-      </c>
-      <c r="J50" s="14">
+      <c r="H51" s="15">
+        <v>0</v>
+      </c>
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
         <f t="shared" si="11"/>
         <v>25545</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K51" s="15">
         <v>17937</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L51" s="15">
         <v>7608</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M51" s="16">
         <f t="shared" si="14"/>
         <v>11386.256000000001</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N51" s="15">
         <v>7719.55</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O51" s="17">
         <v>3666.7060000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1">
-      <c r="B51" s="6">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="6">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D52" s="8">
         <f t="shared" si="12"/>
         <v>138743</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>106623</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>32119.999999999996</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H51" s="9">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
         <f t="shared" si="11"/>
         <v>25018</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K52" s="9">
         <v>17597</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L52" s="9">
         <v>7421</v>
       </c>
-      <c r="M51" s="10">
+      <c r="M52" s="10">
         <f t="shared" si="14"/>
         <v>10974.823</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N52" s="9">
         <v>7697.7309999999998</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O52" s="11">
         <v>3277.0920000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1">
-      <c r="B52" s="12">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <f t="shared" si="12"/>
         <v>133584</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>103668</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="15">
         <v>29916</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H52" s="15">
-        <v>0</v>
-      </c>
-      <c r="I52" s="15">
-        <v>0</v>
-      </c>
-      <c r="J52" s="14">
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
         <f t="shared" si="11"/>
         <v>23420</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K53" s="15">
         <v>17095</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L53" s="15">
         <v>6325</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M53" s="16">
         <f t="shared" si="14"/>
         <v>9657.1949999999997</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N53" s="15">
         <v>7019.1059999999998</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O53" s="17">
         <v>2638.0889999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1">
-      <c r="B53" s="6">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="6">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <f t="shared" si="12"/>
         <v>130340</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>99689</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>30651</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
+      <c r="H54" s="9">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
         <f t="shared" si="11"/>
         <v>20932</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K54" s="9">
         <v>15296</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L54" s="9">
         <v>5636</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M54" s="10">
         <f t="shared" si="14"/>
         <v>8677.3739999999998</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N54" s="9">
         <v>6424.5829999999996</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O54" s="11">
         <v>2252.7910000000002</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <f t="shared" si="12"/>
         <v>105818</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>80508</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="15">
         <v>25310</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H54" s="15">
-        <v>0</v>
-      </c>
-      <c r="I54" s="15">
-        <v>0</v>
-      </c>
-      <c r="J54" s="14">
+      <c r="H55" s="15">
+        <v>0</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="14">
         <f t="shared" si="11"/>
         <v>17155</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K55" s="15">
         <v>12105</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L55" s="15">
         <v>5050</v>
       </c>
-      <c r="M54" s="16">
+      <c r="M55" s="16">
         <f t="shared" si="14"/>
         <v>5881.9269999999997</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N55" s="15">
         <v>4501.4070000000002</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O55" s="17">
         <v>1380.52</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1">
-      <c r="B55" s="18">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="18">
         <v>2021</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D56" s="20">
         <f t="shared" si="12"/>
         <v>124147</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E56" s="21">
         <v>93381</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F56" s="21">
         <v>30766</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G56" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="21">
-        <v>0</v>
-      </c>
-      <c r="I55" s="21">
-        <v>0</v>
-      </c>
-      <c r="J55" s="20">
+      <c r="H56" s="21">
+        <v>0</v>
+      </c>
+      <c r="I56" s="21">
+        <v>0</v>
+      </c>
+      <c r="J56" s="20">
         <f t="shared" si="11"/>
         <v>22442</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K56" s="21">
         <v>15855</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L56" s="21">
         <v>6587</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M56" s="22">
         <f t="shared" si="14"/>
         <v>7530.1779999999999</v>
       </c>
-      <c r="N55" s="21">
+      <c r="N56" s="21">
         <v>5474.7460000000001</v>
       </c>
-      <c r="O55" s="23">
+      <c r="O56" s="23">
         <v>2055.4319999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1">
-      <c r="B56" s="24">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="24">
         <v>2020</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C57" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D57" s="26">
         <f t="shared" si="12"/>
         <v>129572</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E57" s="27">
         <v>99674</v>
       </c>
-      <c r="F56" s="27">
+      <c r="F57" s="27">
         <v>29898</v>
       </c>
-      <c r="G56" s="26">
+      <c r="G57" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H56" s="27">
-        <v>0</v>
-      </c>
-      <c r="I56" s="27">
-        <v>0</v>
-      </c>
-      <c r="J56" s="26">
+      <c r="H57" s="27">
+        <v>0</v>
+      </c>
+      <c r="I57" s="27">
+        <v>0</v>
+      </c>
+      <c r="J57" s="26">
         <f t="shared" si="11"/>
         <v>22377</v>
       </c>
-      <c r="K56" s="27">
+      <c r="K57" s="27">
         <v>15901</v>
       </c>
-      <c r="L56" s="27">
+      <c r="L57" s="27">
         <v>6476</v>
       </c>
-      <c r="M56" s="28">
+      <c r="M57" s="28">
         <f t="shared" si="14"/>
         <v>8643.1899999999987</v>
       </c>
-      <c r="N56" s="27">
+      <c r="N57" s="27">
         <v>6389.2129999999997</v>
       </c>
-      <c r="O56" s="29">
+      <c r="O57" s="29">
         <v>2253.9769999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="6">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="6">
         <v>2020</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <f t="shared" si="12"/>
         <v>120789</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>97016</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>23773</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8">
         <f t="shared" si="11"/>
         <v>20029</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K58" s="9">
         <v>15112</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L58" s="9">
         <v>4917</v>
       </c>
-      <c r="M57" s="10">
+      <c r="M58" s="10">
         <f t="shared" si="14"/>
         <v>7700.1950000000006</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N58" s="9">
         <v>5937.9480000000003</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O58" s="11">
         <v>1762.2470000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="12">
         <v>2020</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <f t="shared" si="12"/>
         <v>111965</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="15">
         <v>92159</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="15">
         <v>19806</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H58" s="15">
-        <v>0</v>
-      </c>
-      <c r="I58" s="15">
-        <v>0</v>
-      </c>
-      <c r="J58" s="14">
+      <c r="H59" s="15">
+        <v>0</v>
+      </c>
+      <c r="I59" s="15">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14">
         <f t="shared" si="11"/>
         <v>18783</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K59" s="15">
         <v>14512</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L59" s="15">
         <v>4271</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M59" s="16">
         <f t="shared" si="14"/>
         <v>6958.1730000000007</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N59" s="15">
         <v>5522.3990000000003</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O59" s="17">
         <v>1435.7739999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="6">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="6">
         <v>2020</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D60" s="8">
         <f t="shared" si="12"/>
         <v>98248</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E60" s="9">
         <v>82749</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F60" s="9">
         <v>15499</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G60" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H59" s="9">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0</v>
+      </c>
+      <c r="J60" s="8">
         <f t="shared" si="11"/>
         <v>15967</v>
       </c>
-      <c r="K59" s="9">
+      <c r="K60" s="9">
         <v>12434</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L60" s="9">
         <v>3533</v>
       </c>
-      <c r="M59" s="10">
+      <c r="M60" s="10">
         <f t="shared" si="14"/>
         <v>5747.9449999999997</v>
       </c>
-      <c r="N59" s="9">
+      <c r="N60" s="9">
         <v>4716.3429999999998</v>
       </c>
-      <c r="O59" s="11">
+      <c r="O60" s="11">
         <v>1031.6020000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="12">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="12">
         <v>2020</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="14">
         <f t="shared" si="12"/>
         <v>94778</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="15">
         <v>79993</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="15">
         <v>14785</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H60" s="15">
-        <v>0</v>
-      </c>
-      <c r="I60" s="15">
-        <v>0</v>
-      </c>
-      <c r="J60" s="14">
+      <c r="H61" s="15">
+        <v>0</v>
+      </c>
+      <c r="I61" s="15">
+        <v>0</v>
+      </c>
+      <c r="J61" s="14">
         <f t="shared" si="11"/>
         <v>15399</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K61" s="15">
         <v>11911</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L61" s="15">
         <v>3488</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M61" s="16">
         <f t="shared" si="14"/>
         <v>5296.7969999999996</v>
       </c>
-      <c r="N60" s="15">
+      <c r="N61" s="15">
         <v>4313.7479999999996</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O61" s="17">
         <v>983.04899999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1">
-      <c r="B61" s="6">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="6">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <f t="shared" si="12"/>
         <v>85508</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>72657</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>12851</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
+      <c r="H62" s="9">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8">
         <f t="shared" si="11"/>
         <v>12165</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K62" s="9">
         <v>9419</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L62" s="9">
         <v>2746</v>
       </c>
-      <c r="M61" s="10">
+      <c r="M62" s="10">
         <f t="shared" si="14"/>
         <v>4185.5320000000002</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N62" s="9">
         <v>3405.0259999999998</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O62" s="11">
         <v>780.50599999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1">
-      <c r="B62" s="12">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <f t="shared" si="12"/>
         <v>58869</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>50107</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="15">
         <v>8762</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H62" s="15">
-        <v>0</v>
-      </c>
-      <c r="I62" s="15">
-        <v>0</v>
-      </c>
-      <c r="J62" s="14">
+      <c r="H63" s="15">
+        <v>0</v>
+      </c>
+      <c r="I63" s="15">
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
         <f t="shared" si="11"/>
         <v>7578</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K63" s="15">
         <v>5489</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L63" s="15">
         <v>2089</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M63" s="16">
         <f t="shared" si="14"/>
         <v>2139.893</v>
       </c>
-      <c r="N62" s="15">
+      <c r="N63" s="15">
         <v>1815.4059999999999</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O63" s="17">
         <v>324.48700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1">
-      <c r="B63" s="6">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="6">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <f t="shared" si="12"/>
         <v>40887</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>35082</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>5805</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H63" s="9">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8">
         <f t="shared" si="11"/>
         <v>4836</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K64" s="9">
         <v>3187</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L64" s="9">
         <v>1649</v>
       </c>
-      <c r="M63" s="10">
+      <c r="M64" s="10">
         <f t="shared" si="14"/>
         <v>912.27</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N64" s="9">
         <v>794.02</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O64" s="11">
         <v>118.25</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1">
-      <c r="B64" s="12">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <f t="shared" si="12"/>
         <v>39436</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="15">
         <v>33432</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F65" s="15">
         <v>6004</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H64" s="15">
-        <v>0</v>
-      </c>
-      <c r="I64" s="15">
-        <v>0</v>
-      </c>
-      <c r="J64" s="14">
+      <c r="H65" s="15">
+        <v>0</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0</v>
+      </c>
+      <c r="J65" s="14">
         <f t="shared" si="11"/>
         <v>5483</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K65" s="15">
         <v>3788</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L65" s="15">
         <v>1695</v>
       </c>
-      <c r="M64" s="16">
+      <c r="M65" s="16">
         <f t="shared" si="14"/>
         <v>958.75099999999998</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N65" s="15">
         <v>841.01400000000001</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O65" s="17">
         <v>117.73699999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1">
-      <c r="B65" s="6">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="6">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <f t="shared" si="12"/>
         <v>138604</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>105733</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>32871</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="8">
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8">
         <f t="shared" si="11"/>
         <v>27685</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K66" s="9">
         <v>19400</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L66" s="9">
         <v>8285</v>
       </c>
-      <c r="M65" s="10">
+      <c r="M66" s="10">
         <f t="shared" si="14"/>
         <v>9011.8619999999992</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N66" s="9">
         <v>6133.3159999999998</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O66" s="11">
         <v>2878.5459999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <f t="shared" si="12"/>
         <v>154600</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="15">
         <v>116643</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="15">
         <v>37957</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H66" s="15">
-        <v>0</v>
-      </c>
-      <c r="I66" s="15">
-        <v>0</v>
-      </c>
-      <c r="J66" s="14">
+      <c r="H67" s="15">
+        <v>0</v>
+      </c>
+      <c r="I67" s="15">
+        <v>0</v>
+      </c>
+      <c r="J67" s="14">
         <f t="shared" si="11"/>
         <v>33096</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K67" s="15">
         <v>22924</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L67" s="15">
         <v>10172</v>
       </c>
-      <c r="M66" s="16">
+      <c r="M67" s="16">
         <f t="shared" si="14"/>
         <v>12555.147000000001</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N67" s="15">
         <v>8141.3959999999997</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O67" s="17">
         <v>4413.7510000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1">
-      <c r="B67" s="18">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="18">
         <v>2020</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D68" s="20">
         <f t="shared" si="12"/>
         <v>167619</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E68" s="21">
         <v>126846</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F68" s="21">
         <v>40773</v>
       </c>
-      <c r="G67" s="20">
+      <c r="G68" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H67" s="21">
-        <v>0</v>
-      </c>
-      <c r="I67" s="21">
-        <v>0</v>
-      </c>
-      <c r="J67" s="20">
+      <c r="H68" s="21">
+        <v>0</v>
+      </c>
+      <c r="I68" s="21">
+        <v>0</v>
+      </c>
+      <c r="J68" s="20">
         <f t="shared" si="11"/>
         <v>37171</v>
       </c>
-      <c r="K67" s="21">
+      <c r="K68" s="21">
         <v>25779</v>
       </c>
-      <c r="L67" s="21">
+      <c r="L68" s="21">
         <v>11392</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M68" s="22">
         <f t="shared" si="14"/>
         <v>13625.84</v>
       </c>
-      <c r="N67" s="21">
+      <c r="N68" s="21">
         <v>8800.0789999999997</v>
       </c>
-      <c r="O67" s="23">
+      <c r="O68" s="23">
         <v>4825.7610000000004</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1">
-      <c r="B68" s="24">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="24">
         <v>2019</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C69" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D69" s="26">
         <f t="shared" si="12"/>
         <v>167593</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E69" s="27">
         <v>126051</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F69" s="27">
         <v>41542</v>
       </c>
-      <c r="G68" s="26">
+      <c r="G69" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H68" s="27">
-        <v>0</v>
-      </c>
-      <c r="I68" s="27">
-        <v>0</v>
-      </c>
-      <c r="J68" s="26">
+      <c r="H69" s="27">
+        <v>0</v>
+      </c>
+      <c r="I69" s="27">
+        <v>0</v>
+      </c>
+      <c r="J69" s="26">
         <f t="shared" si="11"/>
         <v>37969</v>
       </c>
-      <c r="K68" s="27">
+      <c r="K69" s="27">
         <v>25919</v>
       </c>
-      <c r="L68" s="27">
+      <c r="L69" s="27">
         <v>12050</v>
       </c>
-      <c r="M68" s="28">
+      <c r="M69" s="28">
         <f t="shared" si="14"/>
         <v>14311.285</v>
       </c>
-      <c r="N68" s="27">
+      <c r="N69" s="27">
         <v>9491.1820000000007</v>
       </c>
-      <c r="O68" s="29">
+      <c r="O69" s="29">
         <v>4820.1030000000001</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="6">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="6">
         <v>2019</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <f t="shared" si="12"/>
         <v>161899</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>125646</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>36253</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H69" s="9">
-        <v>0</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
+      <c r="I70" s="9">
+        <v>0</v>
+      </c>
+      <c r="J70" s="8">
         <f t="shared" si="11"/>
         <v>36078</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K70" s="9">
         <v>25201</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L70" s="9">
         <v>10877</v>
       </c>
-      <c r="M69" s="10">
+      <c r="M70" s="10">
         <f t="shared" si="14"/>
         <v>13215.171</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N70" s="9">
         <v>9104.4480000000003</v>
       </c>
-      <c r="O69" s="11">
+      <c r="O70" s="11">
         <v>4110.723</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="12">
         <v>2019</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <f t="shared" si="12"/>
         <v>159019</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="15">
         <v>126531</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="15">
         <v>32488</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H70" s="15">
-        <v>0</v>
-      </c>
-      <c r="I70" s="15">
-        <v>0</v>
-      </c>
-      <c r="J70" s="14">
+      <c r="H71" s="15">
+        <v>0</v>
+      </c>
+      <c r="I71" s="15">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14">
         <f t="shared" si="11"/>
         <v>36741</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K71" s="15">
         <v>25823</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L71" s="15">
         <v>10918</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M71" s="16">
         <f t="shared" si="14"/>
         <v>12724.360999999999</v>
       </c>
-      <c r="N70" s="15">
+      <c r="N71" s="15">
         <v>9175.6839999999993</v>
       </c>
-      <c r="O70" s="17">
+      <c r="O71" s="17">
         <v>3548.6770000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="6">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="6">
         <v>2019</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D72" s="8">
         <f t="shared" si="12"/>
         <v>148583</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>118880</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>29703</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H71" s="9">
-        <v>0</v>
-      </c>
-      <c r="I71" s="9">
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
+      <c r="H72" s="9">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9">
+        <v>0</v>
+      </c>
+      <c r="J72" s="8">
         <f t="shared" si="11"/>
         <v>34491</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K72" s="9">
         <v>23749</v>
       </c>
-      <c r="L71" s="9">
+      <c r="L72" s="9">
         <v>10742</v>
       </c>
-      <c r="M71" s="10">
+      <c r="M72" s="10">
         <f t="shared" si="14"/>
         <v>11512.314</v>
       </c>
-      <c r="N71" s="9">
+      <c r="N72" s="9">
         <v>8319.4240000000009</v>
       </c>
-      <c r="O71" s="11">
+      <c r="O72" s="11">
         <v>3192.89</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="12">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="12">
         <v>2019</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D73" s="14">
         <f t="shared" si="12"/>
         <v>165304</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="15">
         <v>129776.00000000001</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="15">
         <v>35528</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H72" s="15">
-        <v>0</v>
-      </c>
-      <c r="I72" s="15">
-        <v>0</v>
-      </c>
-      <c r="J72" s="14">
+      <c r="H73" s="15">
+        <v>0</v>
+      </c>
+      <c r="I73" s="15">
+        <v>0</v>
+      </c>
+      <c r="J73" s="14">
         <f t="shared" si="11"/>
         <v>37882</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K73" s="15">
         <v>25900</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L73" s="15">
         <v>11982</v>
       </c>
-      <c r="M72" s="16">
+      <c r="M73" s="16">
         <f t="shared" si="14"/>
         <v>13678.462</v>
       </c>
-      <c r="N72" s="15">
+      <c r="N73" s="15">
         <v>9506.8289999999997</v>
       </c>
-      <c r="O72" s="17">
+      <c r="O73" s="17">
         <v>4171.6329999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1">
-      <c r="B73" s="6">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="6">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <f t="shared" si="12"/>
         <v>168640</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>131068.99999999999</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>37571</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H73" s="9">
-        <v>0</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
+      <c r="H74" s="9">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9">
+        <v>0</v>
+      </c>
+      <c r="J74" s="8">
         <f t="shared" si="11"/>
         <v>38116</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K74" s="9">
         <v>25943</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L74" s="9">
         <v>12173</v>
       </c>
-      <c r="M73" s="10">
+      <c r="M74" s="10">
         <f t="shared" si="14"/>
         <v>14682.169</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N74" s="9">
         <v>9992.81</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O74" s="11">
         <v>4689.3590000000004</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1">
-      <c r="B74" s="12">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <f t="shared" si="12"/>
         <v>159253</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="15">
         <v>123607</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="15">
         <v>35646</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H74" s="15">
-        <v>0</v>
-      </c>
-      <c r="I74" s="15">
-        <v>0</v>
-      </c>
-      <c r="J74" s="14">
+      <c r="H75" s="15">
+        <v>0</v>
+      </c>
+      <c r="I75" s="15">
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
         <f t="shared" si="11"/>
         <v>35734</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K75" s="15">
         <v>24362</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L75" s="15">
         <v>11372</v>
       </c>
-      <c r="M74" s="16">
+      <c r="M75" s="16">
         <f t="shared" si="14"/>
         <v>13352.69</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N75" s="15">
         <v>9079.7170000000006</v>
       </c>
-      <c r="O74" s="17">
+      <c r="O75" s="17">
         <v>4272.973</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1">
-      <c r="B75" s="6">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="6">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <f t="shared" si="12"/>
         <v>166260</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>130592.99999999999</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>35667</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H75" s="9">
-        <v>0</v>
-      </c>
-      <c r="I75" s="9">
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
-        <f t="shared" ref="J75:J91" si="15">SUM(K75:L75)</f>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
+        <f t="shared" ref="J76:J92" si="15">SUM(K76:L76)</f>
         <v>36624</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K76" s="9">
         <v>25219</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L76" s="9">
         <v>11405</v>
       </c>
-      <c r="M75" s="10">
+      <c r="M76" s="10">
         <f t="shared" si="14"/>
         <v>13434.785</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N76" s="9">
         <v>9373.2109999999993</v>
       </c>
-      <c r="O75" s="11">
+      <c r="O76" s="11">
         <v>4061.5740000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1">
-      <c r="B76" s="12">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <f t="shared" si="12"/>
         <v>168338</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="15">
         <v>129008.99999999999</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F77" s="15">
         <v>39329</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H76" s="15">
-        <v>0</v>
-      </c>
-      <c r="I76" s="15">
-        <v>0</v>
-      </c>
-      <c r="J76" s="14">
+      <c r="H77" s="15">
+        <v>0</v>
+      </c>
+      <c r="I77" s="15">
+        <v>0</v>
+      </c>
+      <c r="J77" s="14">
         <f t="shared" si="15"/>
         <v>35519</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K77" s="15">
         <v>24350</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L77" s="15">
         <v>11169</v>
       </c>
-      <c r="M76" s="16">
+      <c r="M77" s="16">
         <f t="shared" si="14"/>
         <v>13245.237000000001</v>
       </c>
-      <c r="N76" s="15">
+      <c r="N77" s="15">
         <v>8877.2070000000003</v>
       </c>
-      <c r="O76" s="17">
+      <c r="O77" s="17">
         <v>4368.03</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1">
-      <c r="B77" s="6">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="6">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <f t="shared" si="12"/>
         <v>171618</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>128662</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>42956</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H77" s="9">
-        <v>0</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
+      <c r="H78" s="9">
+        <v>0</v>
+      </c>
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="8">
         <f t="shared" si="15"/>
         <v>35392</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K78" s="9">
         <v>24040</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L78" s="9">
         <v>11352</v>
       </c>
-      <c r="M77" s="10">
+      <c r="M78" s="10">
         <f t="shared" si="14"/>
         <v>13468.561000000002</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N78" s="9">
         <v>8550.9040000000005</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O78" s="11">
         <v>4917.6570000000002</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <f t="shared" si="12"/>
         <v>151989</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="15">
         <v>114632</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="15">
         <v>37357</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H78" s="15">
-        <v>0</v>
-      </c>
-      <c r="I78" s="15">
-        <v>0</v>
-      </c>
-      <c r="J78" s="14">
+      <c r="H79" s="15">
+        <v>0</v>
+      </c>
+      <c r="I79" s="15">
+        <v>0</v>
+      </c>
+      <c r="J79" s="14">
         <f t="shared" si="15"/>
         <v>31890</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K79" s="15">
         <v>21784</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L79" s="15">
         <v>10106</v>
       </c>
-      <c r="M78" s="16">
+      <c r="M79" s="16">
         <f t="shared" si="14"/>
         <v>11254.142</v>
       </c>
-      <c r="N78" s="15">
+      <c r="N79" s="15">
         <v>7147.8</v>
       </c>
-      <c r="O78" s="17">
+      <c r="O79" s="17">
         <v>4106.3419999999996</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1">
-      <c r="B79" s="18">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="18">
         <v>2019</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C80" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="20">
-        <f t="shared" ref="D79:D91" si="16">SUM(E79:F79)</f>
+      <c r="D80" s="20">
+        <f t="shared" ref="D80:D92" si="16">SUM(E80:F80)</f>
         <v>165954</v>
       </c>
-      <c r="E79" s="21">
+      <c r="E80" s="21">
         <v>124266</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F80" s="21">
         <v>41688</v>
       </c>
-      <c r="G79" s="20">
-        <f t="shared" ref="G79:G91" si="17">SUM(H79:I79)</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="21">
-        <v>0</v>
-      </c>
-      <c r="I79" s="21">
-        <v>0</v>
-      </c>
-      <c r="J79" s="20">
+      <c r="G80" s="20">
+        <f t="shared" ref="G80:G92" si="17">SUM(H80:I80)</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="21">
+        <v>0</v>
+      </c>
+      <c r="I80" s="21">
+        <v>0</v>
+      </c>
+      <c r="J80" s="20">
         <f t="shared" si="15"/>
         <v>35932</v>
       </c>
-      <c r="K79" s="21">
+      <c r="K80" s="21">
         <v>24195</v>
       </c>
-      <c r="L79" s="21">
+      <c r="L80" s="21">
         <v>11737</v>
       </c>
-      <c r="M79" s="22">
-        <f t="shared" ref="M79:M91" si="18">SUM(N79:O79)</f>
+      <c r="M80" s="22">
+        <f t="shared" ref="M80:M92" si="18">SUM(N80:O80)</f>
         <v>12584.922</v>
       </c>
-      <c r="N79" s="21">
+      <c r="N80" s="21">
         <v>7965.4170000000004</v>
       </c>
-      <c r="O79" s="23">
+      <c r="O80" s="23">
         <v>4619.5050000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1">
-      <c r="B80" s="13">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <f t="shared" si="16"/>
         <v>167896</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="15">
         <v>126468</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <v>41428</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H80" s="15">
-        <v>0</v>
-      </c>
-      <c r="I80" s="15">
-        <v>0</v>
-      </c>
-      <c r="J80" s="14">
+      <c r="H81" s="15">
+        <v>0</v>
+      </c>
+      <c r="I81" s="15">
+        <v>0</v>
+      </c>
+      <c r="J81" s="14">
         <f t="shared" si="15"/>
         <v>36796</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K81" s="15">
         <v>24610</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L81" s="15">
         <v>12186</v>
       </c>
-      <c r="M80" s="16">
+      <c r="M81" s="16">
         <f t="shared" si="18"/>
         <v>13446.27</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N81" s="15">
         <v>8820.4920000000002</v>
       </c>
-      <c r="O80" s="15">
+      <c r="O81" s="15">
         <v>4625.7780000000002</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="7">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="7">
         <v>2018</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <f t="shared" si="16"/>
         <v>165335</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>128314</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>37021</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H81" s="9">
-        <v>0</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0</v>
-      </c>
-      <c r="J81" s="8">
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8">
         <f t="shared" si="15"/>
         <v>35251</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K82" s="9">
         <v>23927</v>
       </c>
-      <c r="L81" s="9">
+      <c r="L82" s="9">
         <v>11324</v>
       </c>
-      <c r="M81" s="10">
+      <c r="M82" s="10">
         <f t="shared" si="18"/>
         <v>12543.215</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N82" s="9">
         <v>8542.7430000000004</v>
       </c>
-      <c r="O81" s="9">
+      <c r="O82" s="9">
         <v>4000.4720000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="13">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <f t="shared" si="16"/>
         <v>162784</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="15">
         <v>129050.00000000001</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="15">
         <v>33734</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H82" s="15">
-        <v>0</v>
-      </c>
-      <c r="I82" s="15">
-        <v>0</v>
-      </c>
-      <c r="J82" s="14">
+      <c r="H83" s="15">
+        <v>0</v>
+      </c>
+      <c r="I83" s="15">
+        <v>0</v>
+      </c>
+      <c r="J83" s="14">
         <f t="shared" si="15"/>
         <v>35903</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K83" s="15">
         <v>24186</v>
       </c>
-      <c r="L82" s="15">
+      <c r="L83" s="15">
         <v>11717</v>
       </c>
-      <c r="M82" s="16">
+      <c r="M83" s="16">
         <f t="shared" si="18"/>
         <v>11940.449000000001</v>
       </c>
-      <c r="N82" s="15">
+      <c r="N83" s="15">
         <v>8460.0640000000003</v>
       </c>
-      <c r="O82" s="15">
+      <c r="O83" s="15">
         <v>3480.3850000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="7">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="7">
         <v>2018</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C84" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D84" s="8">
         <f t="shared" si="16"/>
         <v>151218</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E84" s="9">
         <v>120455</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F84" s="9">
         <v>30763</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H83" s="9">
-        <v>0</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
-      <c r="J83" s="8">
+      <c r="H84" s="9">
+        <v>0</v>
+      </c>
+      <c r="I84" s="9">
+        <v>0</v>
+      </c>
+      <c r="J84" s="8">
         <f t="shared" si="15"/>
         <v>34246</v>
       </c>
-      <c r="K83" s="9">
+      <c r="K84" s="9">
         <v>23006</v>
       </c>
-      <c r="L83" s="9">
+      <c r="L84" s="9">
         <v>11240</v>
       </c>
-      <c r="M83" s="10">
+      <c r="M84" s="10">
         <f t="shared" si="18"/>
         <v>10888.41</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N84" s="9">
         <v>7775.683</v>
       </c>
-      <c r="O83" s="9">
+      <c r="O84" s="9">
         <v>3112.7269999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="13">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="15">
         <v>131130</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="15">
         <v>36187</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H84" s="15">
-        <v>0</v>
-      </c>
-      <c r="I84" s="15">
-        <v>0</v>
-      </c>
-      <c r="J84" s="14">
+      <c r="H85" s="15">
+        <v>0</v>
+      </c>
+      <c r="I85" s="15">
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
         <f t="shared" si="15"/>
         <v>37070</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K85" s="15">
         <v>24746</v>
       </c>
-      <c r="L84" s="15">
+      <c r="L85" s="15">
         <v>12324</v>
       </c>
-      <c r="M84" s="16">
+      <c r="M85" s="16">
         <f t="shared" si="18"/>
         <v>12946.407999999999</v>
       </c>
-      <c r="N84" s="15">
+      <c r="N85" s="15">
         <v>8844.4689999999991</v>
       </c>
-      <c r="O84" s="15">
+      <c r="O85" s="15">
         <v>4101.9390000000003</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <f t="shared" si="16"/>
         <v>166752</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>128561</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>38191</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H85" s="9">
-        <v>0</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0</v>
-      </c>
-      <c r="J85" s="8">
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0</v>
+      </c>
+      <c r="J86" s="8">
         <f t="shared" si="15"/>
         <v>37073</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K86" s="9">
         <v>24692</v>
       </c>
-      <c r="L85" s="9">
+      <c r="L86" s="9">
         <v>12381</v>
       </c>
-      <c r="M85" s="10">
+      <c r="M86" s="10">
         <f t="shared" si="18"/>
         <v>14091.387999999999</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N86" s="9">
         <v>9430.1080000000002</v>
       </c>
-      <c r="O85" s="9">
+      <c r="O86" s="9">
         <v>4661.28</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="13">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <f t="shared" si="16"/>
         <v>158678</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="15">
         <v>121941</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="15">
         <v>36737</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H86" s="15">
-        <v>0</v>
-      </c>
-      <c r="I86" s="15">
-        <v>0</v>
-      </c>
-      <c r="J86" s="14">
+      <c r="H87" s="15">
+        <v>0</v>
+      </c>
+      <c r="I87" s="15">
+        <v>0</v>
+      </c>
+      <c r="J87" s="14">
         <f t="shared" si="15"/>
         <v>34876</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K87" s="15">
         <v>23300</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L87" s="15">
         <v>11576</v>
       </c>
-      <c r="M86" s="16">
+      <c r="M87" s="16">
         <f t="shared" si="18"/>
         <v>12298.282999999999</v>
       </c>
-      <c r="N86" s="15">
+      <c r="N87" s="15">
         <v>8174.7749999999996</v>
       </c>
-      <c r="O86" s="15">
+      <c r="O87" s="15">
         <v>4123.5079999999998</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <f t="shared" si="16"/>
         <v>168027</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>131482</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>36545</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H87" s="9">
-        <v>0</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0</v>
-      </c>
-      <c r="J87" s="8">
+      <c r="H88" s="9">
+        <v>0</v>
+      </c>
+      <c r="I88" s="9">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8">
         <f t="shared" si="15"/>
         <v>35688</v>
       </c>
-      <c r="K87" s="9">
+      <c r="K88" s="9">
         <v>24015</v>
       </c>
-      <c r="L87" s="9">
+      <c r="L88" s="9">
         <v>11673</v>
       </c>
-      <c r="M87" s="10">
+      <c r="M88" s="10">
         <f t="shared" si="18"/>
         <v>12153.535</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N88" s="9">
         <v>8289.7060000000001</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O88" s="9">
         <v>3863.8290000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="13">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="15">
         <v>128001</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="15">
         <v>39316</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H88" s="15">
-        <v>0</v>
-      </c>
-      <c r="I88" s="15">
-        <v>0</v>
-      </c>
-      <c r="J88" s="14">
+      <c r="H89" s="15">
+        <v>0</v>
+      </c>
+      <c r="I89" s="15">
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
         <f t="shared" si="15"/>
         <v>34719</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K89" s="15">
         <v>23289</v>
       </c>
-      <c r="L88" s="15">
+      <c r="L89" s="15">
         <v>11430</v>
       </c>
-      <c r="M88" s="16">
+      <c r="M89" s="16">
         <f t="shared" si="18"/>
         <v>12397.615</v>
       </c>
-      <c r="N88" s="15">
+      <c r="N89" s="15">
         <v>8179.683</v>
       </c>
-      <c r="O88" s="15">
+      <c r="O89" s="15">
         <v>4217.9319999999998</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="7">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <f t="shared" si="16"/>
         <v>175525</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>131590</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>43935</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G90" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H89" s="9">
-        <v>0</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-      <c r="J89" s="8">
+      <c r="H90" s="9">
+        <v>0</v>
+      </c>
+      <c r="I90" s="9">
+        <v>0</v>
+      </c>
+      <c r="J90" s="8">
         <f t="shared" si="15"/>
         <v>35499</v>
       </c>
-      <c r="K89" s="9">
+      <c r="K90" s="9">
         <v>23540</v>
       </c>
-      <c r="L89" s="9">
+      <c r="L90" s="9">
         <v>11959</v>
       </c>
-      <c r="M89" s="10">
+      <c r="M90" s="10">
         <f t="shared" si="18"/>
         <v>12920.743</v>
       </c>
-      <c r="N89" s="9">
+      <c r="N90" s="9">
         <v>8102.1610000000001</v>
       </c>
-      <c r="O89" s="9">
+      <c r="O90" s="9">
         <v>4818.5820000000003</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="13">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <f t="shared" si="16"/>
         <v>153732</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E91" s="15">
         <v>115727</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F91" s="15">
         <v>38005</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G91" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H90" s="15">
-        <v>0</v>
-      </c>
-      <c r="I90" s="15">
-        <v>0</v>
-      </c>
-      <c r="J90" s="14">
+      <c r="H91" s="15">
+        <v>0</v>
+      </c>
+      <c r="I91" s="15">
+        <v>0</v>
+      </c>
+      <c r="J91" s="14">
         <f t="shared" si="15"/>
         <v>31178</v>
       </c>
-      <c r="K90" s="15">
+      <c r="K91" s="15">
         <v>20697</v>
       </c>
-      <c r="L90" s="15">
+      <c r="L91" s="15">
         <v>10481</v>
       </c>
-      <c r="M90" s="16">
+      <c r="M91" s="16">
         <f t="shared" si="18"/>
         <v>10846.098</v>
       </c>
-      <c r="N90" s="15">
+      <c r="N91" s="15">
         <v>6820.4250000000002</v>
       </c>
-      <c r="O90" s="15">
+      <c r="O91" s="15">
         <v>4025.6729999999998</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="7">
+    <row r="92" spans="2:15" hidden="1">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <f t="shared" si="16"/>
         <v>165319</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>123033</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>42286</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G92" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H91" s="9">
-        <v>0</v>
-      </c>
-      <c r="I91" s="9">
-        <v>0</v>
-      </c>
-      <c r="J91" s="8">
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0</v>
+      </c>
+      <c r="J92" s="8">
         <f t="shared" si="15"/>
         <v>35175</v>
       </c>
-      <c r="K91" s="9">
+      <c r="K92" s="9">
         <v>23003</v>
       </c>
-      <c r="L91" s="9">
+      <c r="L92" s="9">
         <v>12172</v>
       </c>
-      <c r="M91" s="10">
+      <c r="M92" s="10">
         <f t="shared" si="18"/>
         <v>12140.277</v>
       </c>
-      <c r="N91" s="9">
+      <c r="N92" s="9">
         <v>7540.7510000000002</v>
       </c>
-      <c r="O91" s="9">
+      <c r="O92" s="9">
         <v>4599.5259999999998</v>
       </c>
-    </row>
-    <row r="92" spans="2:15">
-      <c r="B92" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N92" s="15"/>
     </row>
     <row r="93" spans="2:15">
       <c r="B93" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N93" s="15"/>
-      <c r="O93" s="30"/>
     </row>
     <row r="94" spans="2:15">
       <c r="B94" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N94" s="15"/>
+      <c r="O94" s="30"/>
     </row>
     <row r="95" spans="2:15">
       <c r="B95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N95" s="15"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N95" s="15"/>
-    </row>
-    <row r="96" spans="2:15">
-      <c r="B96" s="42" t="s">
+      <c r="N96" s="15"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="35" t="s">
         <v>36</v>
-      </c>
-      <c r="N96" s="15"/>
-    </row>
-    <row r="97" spans="2:14">
-      <c r="B97" s="42" t="s">
-        <v>37</v>
       </c>
       <c r="N97" s="15"/>
     </row>

--- a/Operaciones_pasajeros_A.xlsx
+++ b/Operaciones_pasajeros_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CDB276-EFB6-4DE8-9E7A-83C2DACD6F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84FCF65-A682-40AA-822F-0B89CE35C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
   <si>
     <t>Internacional</t>
   </si>
@@ -149,7 +149,7 @@
     <t xml:space="preserve"> El concepto de "Operaciones del AIFA", a partir del mes de enero de 2025 hubo una reclasificación en las operaciones de carga del AIFA.</t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -696,6 +696,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -719,13 +726,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -778,8 +778,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O92" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
-  <autoFilter ref="B5:O92" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O93" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1038,10 +1038,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O99"/>
+  <dimension ref="B2:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
@@ -1145,4219 +1145,4267 @@
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="6">
+      <c r="B6" s="13">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(E6:F6)</f>
+        <v>163693</v>
+      </c>
+      <c r="E6" s="15">
+        <v>117744</v>
+      </c>
+      <c r="F6" s="15">
+        <v>45949</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(H6:I6)</f>
+        <v>5726</v>
+      </c>
+      <c r="H6" s="15">
+        <v>4515</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1211</v>
+      </c>
+      <c r="J6" s="14">
+        <f>SUM(K6:L6)</f>
+        <v>24458</v>
+      </c>
+      <c r="K6" s="15">
+        <v>15312</v>
+      </c>
+      <c r="L6" s="15">
+        <v>9146</v>
+      </c>
+      <c r="M6" s="16">
+        <f>SUM(N6:O6)</f>
+        <v>16382.235000000001</v>
+      </c>
+      <c r="N6" s="15">
+        <v>11055.959000000001</v>
+      </c>
+      <c r="O6" s="15">
+        <v>5326.2759999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:F6)</f>
+      <c r="D7" s="8">
+        <f>SUM(E7:F7)</f>
         <v>168971</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>117821</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>51150</v>
       </c>
-      <c r="G6" s="8">
-        <f>SUM(H6:I6)</f>
-        <v>5604</v>
-      </c>
-      <c r="H6" s="9">
-        <v>4377</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="G7" s="8">
+        <f>SUM(H7:I7)</f>
+        <v>5614</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4387</v>
+      </c>
+      <c r="I7" s="9">
         <v>1227</v>
       </c>
-      <c r="J6" s="8">
-        <f>SUM(K6:L6)</f>
+      <c r="J7" s="8">
+        <f>SUM(K7:L7)</f>
         <v>25250</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K7" s="9">
         <v>15847</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="9">
         <v>9403</v>
       </c>
-      <c r="M6" s="10">
-        <f>SUM(N6:O6)</f>
+      <c r="M7" s="10">
+        <f>SUM(N7:O7)</f>
         <v>16721.387000000002</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N7" s="9">
         <v>10657.406000000001</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O7" s="11">
         <v>6063.9809999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="13">
+    <row r="8" spans="2:15">
+      <c r="B8" s="13">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="14">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="14">
+        <f>SUM(E8:F8)</f>
         <v>148741</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <v>105136</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="15">
         <v>43605</v>
       </c>
-      <c r="G7" s="14">
-        <f>SUM(H7:I7)</f>
-        <v>5055</v>
-      </c>
-      <c r="H7" s="15">
-        <v>3975</v>
-      </c>
-      <c r="I7" s="15">
+      <c r="G8" s="14">
+        <f>SUM(H8:I8)</f>
+        <v>5061</v>
+      </c>
+      <c r="H8" s="15">
+        <v>3981</v>
+      </c>
+      <c r="I8" s="15">
         <v>1080</v>
       </c>
-      <c r="J7" s="14">
-        <f>SUM(K7:L7)</f>
+      <c r="J8" s="14">
+        <f>SUM(K8:L8)</f>
         <v>22852</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K8" s="15">
         <v>14515</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L8" s="15">
         <v>8337</v>
       </c>
-      <c r="M7" s="16">
-        <f>SUM(N7:O7)</f>
+      <c r="M8" s="16">
+        <f>SUM(N8:O8)</f>
         <v>14261.053</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N8" s="15">
         <v>9133.57</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O8" s="15">
         <v>5127.4830000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="18">
+    <row r="9" spans="2:15">
+      <c r="B9" s="18">
         <v>2025</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="20">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="20">
+        <f>SUM(E9:F9)</f>
         <v>163357</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E9" s="21">
         <v>114244</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F9" s="21">
         <v>49113</v>
       </c>
-      <c r="G8" s="20">
-        <f>SUM(H8:I8)</f>
-        <v>5607</v>
-      </c>
-      <c r="H8" s="21">
-        <v>4426</v>
-      </c>
-      <c r="I8" s="21">
+      <c r="G9" s="20">
+        <f>SUM(H9:I9)</f>
+        <v>5619</v>
+      </c>
+      <c r="H9" s="21">
+        <v>4438</v>
+      </c>
+      <c r="I9" s="21">
         <v>1181</v>
       </c>
-      <c r="J8" s="20">
-        <f>SUM(K8:L8)</f>
+      <c r="J9" s="20">
+        <f>SUM(K9:L9)</f>
         <v>25418</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K9" s="21">
         <v>15960</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L9" s="21">
         <v>9458</v>
       </c>
-      <c r="M8" s="22">
-        <f>SUM(N8:O8)</f>
+      <c r="M9" s="22">
+        <f>SUM(N9:O9)</f>
         <v>16253.322</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N9" s="21">
         <v>10323.901</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O9" s="23">
         <v>5929.4210000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="12">
+    <row r="10" spans="2:15">
+      <c r="B10" s="12">
         <v>2024</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14">
-        <f>SUM(E9:F9)</f>
+      <c r="D10" s="14">
+        <f>SUM(E10:F10)</f>
         <v>167031</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>116920</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="15">
         <v>50111</v>
       </c>
-      <c r="G9" s="14">
-        <f>SUM(H9:I9)</f>
+      <c r="G10" s="14">
+        <f>SUM(H10:I10)</f>
         <v>6198</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H10" s="15">
         <v>4882</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="15">
         <v>1316</v>
       </c>
-      <c r="J9" s="14">
-        <f>SUM(K9:L9)</f>
+      <c r="J10" s="14">
+        <f>SUM(K10:L10)</f>
         <v>25085</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K10" s="15">
         <v>15393</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L10" s="15">
         <v>9692</v>
       </c>
-      <c r="M9" s="16">
-        <f>SUM(N9:O9)</f>
+      <c r="M10" s="16">
+        <f>SUM(N10:O10)</f>
         <v>17224.003000000001</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N10" s="15">
         <v>11183.15</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O10" s="17">
         <v>6040.8530000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="6">
+    <row r="11" spans="2:15">
+      <c r="B11" s="6">
         <v>2024</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8">
-        <f>SUM(E10:F10)</f>
+      <c r="D11" s="8">
+        <f>SUM(E11:F11)</f>
         <v>163956</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>119294</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>44662</v>
       </c>
-      <c r="G10" s="8">
-        <f>SUM(H10:I10)</f>
+      <c r="G11" s="8">
+        <f>SUM(H11:I11)</f>
         <v>6142</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>4751</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="9">
         <v>1391</v>
       </c>
-      <c r="J10" s="8">
-        <f>SUM(K10:L10)</f>
+      <c r="J11" s="8">
+        <f>SUM(K11:L11)</f>
         <v>24195</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K11" s="9">
         <v>15199</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L11" s="9">
         <v>8996</v>
       </c>
-      <c r="M10" s="10">
-        <f>SUM(N10:O10)</f>
+      <c r="M11" s="10">
+        <f>SUM(N11:O11)</f>
         <v>15816.669000000002</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N11" s="9">
         <v>10696.485000000001</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O11" s="11">
         <v>5120.1840000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="12">
+    <row r="12" spans="2:15">
+      <c r="B12" s="12">
         <v>2024</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="14">
-        <f t="shared" ref="D11" si="0">SUM(E11:F11)</f>
+      <c r="D12" s="14">
+        <f t="shared" ref="D12" si="0">SUM(E12:F12)</f>
         <v>154230</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>116413</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="15">
         <v>37817</v>
       </c>
-      <c r="G11" s="14">
-        <f t="shared" ref="G11" si="1">SUM(H11:I11)</f>
+      <c r="G12" s="14">
+        <f t="shared" ref="G12" si="1">SUM(H12:I12)</f>
         <v>6250</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="15">
         <v>4792</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="15">
         <v>1458</v>
       </c>
-      <c r="J11" s="14">
-        <f t="shared" ref="J11" si="2">SUM(K11:L11)</f>
+      <c r="J12" s="14">
+        <f t="shared" ref="J12" si="2">SUM(K12:L12)</f>
         <v>24943</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K12" s="15">
         <v>16106</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L12" s="15">
         <v>8837</v>
       </c>
-      <c r="M11" s="16">
-        <f t="shared" ref="M11" si="3">SUM(N11:O11)</f>
+      <c r="M12" s="16">
+        <f t="shared" ref="M12" si="3">SUM(N12:O12)</f>
         <v>14932.208999999999</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N12" s="15">
         <v>10562.91</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O12" s="17">
         <v>4369.299</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="6">
+    <row r="13" spans="2:15">
+      <c r="B13" s="6">
         <v>2024</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8">
-        <f>SUM(E12:F12)</f>
+      <c r="D13" s="8">
+        <f>SUM(E13:F13)</f>
         <v>141210</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E13" s="9">
         <v>108351</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>32859</v>
       </c>
-      <c r="G12" s="8">
-        <f>SUM(H12:I12)</f>
+      <c r="G13" s="8">
+        <f>SUM(H13:I13)</f>
         <v>5876</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H13" s="9">
         <v>4518</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I13" s="9">
         <v>1358</v>
       </c>
-      <c r="J12" s="8">
-        <f>SUM(K12:L12)</f>
+      <c r="J13" s="8">
+        <f>SUM(K13:L13)</f>
         <v>24172</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K13" s="9">
         <v>15661</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L13" s="9">
         <v>8511</v>
       </c>
-      <c r="M12" s="10">
-        <f>SUM(N12:O12)</f>
+      <c r="M13" s="10">
+        <f>SUM(N13:O13)</f>
         <v>13837.021999999999</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N13" s="9">
         <v>10036.638999999999</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O13" s="11">
         <v>3800.3829999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="12">
+    <row r="14" spans="2:15">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="14">
-        <f>SUM(E13:F13)</f>
+      <c r="D14" s="14">
+        <f>SUM(E14:F14)</f>
         <v>157045</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <v>118762</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="15">
         <v>38283</v>
       </c>
-      <c r="G13" s="14">
-        <f t="shared" ref="G13:G47" si="4">SUM(H13:I13)</f>
+      <c r="G14" s="14">
+        <f t="shared" ref="G14:G48" si="4">SUM(H14:I14)</f>
         <v>6079</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H14" s="15">
         <v>4643</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="15">
         <v>1436</v>
       </c>
-      <c r="J13" s="14">
-        <f t="shared" ref="J13:J43" si="5">SUM(K13:L13)</f>
+      <c r="J14" s="14">
+        <f t="shared" ref="J14:J44" si="5">SUM(K14:L14)</f>
         <v>26410</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K14" s="15">
         <v>17075</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L14" s="15">
         <v>9335</v>
       </c>
-      <c r="M13" s="16">
-        <f t="shared" ref="M13:M47" si="6">SUM(N13:O13)</f>
+      <c r="M14" s="16">
+        <f t="shared" ref="M14:M48" si="6">SUM(N14:O14)</f>
         <v>16048.866999999998</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N14" s="15">
         <v>11325.605</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O14" s="17">
         <v>4723.2619999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="6">
+    <row r="15" spans="2:15">
+      <c r="B15" s="6">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" ref="D14:D15" si="7">SUM(E14:F14)</f>
+      <c r="D15" s="8">
+        <f t="shared" ref="D15:D16" si="7">SUM(E15:F15)</f>
         <v>157419</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>117177</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>40242</v>
       </c>
-      <c r="G14" s="8">
-        <f t="shared" ref="G14:G16" si="8">SUM(H14:I14)</f>
+      <c r="G15" s="8">
+        <f t="shared" ref="G15:G17" si="8">SUM(H15:I15)</f>
         <v>6016</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="9">
         <v>4625</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <v>1391</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15" s="8">
         <f t="shared" si="5"/>
         <v>26445</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K15" s="9">
         <v>16888</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L15" s="9">
         <v>9557</v>
       </c>
-      <c r="M14" s="10">
-        <f t="shared" ref="M14:M16" si="9">SUM(N14:O14)</f>
+      <c r="M15" s="10">
+        <f t="shared" ref="M15:M17" si="9">SUM(N15:O15)</f>
         <v>16878.663</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N15" s="9">
         <v>11522.672</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O15" s="11">
         <v>5355.991</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="12">
+    <row r="16" spans="2:15">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <f t="shared" si="7"/>
         <v>148346</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="15">
         <v>109282</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16" s="15">
         <v>39064</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="14">
         <f t="shared" si="8"/>
         <v>5818</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H16" s="15">
         <v>4413</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I16" s="15">
         <v>1405</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J16" s="14">
         <f t="shared" si="5"/>
         <v>25325</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K16" s="15">
         <v>16635</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L16" s="15">
         <v>8690</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M16" s="16">
         <f t="shared" si="9"/>
         <v>15314.61</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N16" s="15">
         <v>10370.779</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O16" s="17">
         <v>4943.8310000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="6">
+    <row r="17" spans="2:15">
+      <c r="B17" s="6">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8">
-        <f>SUM(E16:F16)</f>
+      <c r="D17" s="8">
+        <f>SUM(E17:F17)</f>
         <v>159550</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>119704</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>39846</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <f t="shared" si="8"/>
         <v>5832</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="9">
         <v>4318</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="9">
         <v>1514</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J17" s="8">
         <f t="shared" si="5"/>
         <v>26164</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="9">
         <v>17387</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L17" s="9">
         <v>8777</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M17" s="10">
         <f t="shared" si="9"/>
         <v>15380.428</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N17" s="9">
         <v>10623.656000000001</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O17" s="11">
         <v>4756.7719999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="12">
+    <row r="18" spans="2:15">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="14">
-        <f t="shared" ref="D17:D47" si="10">SUM(E17:F17)</f>
+      <c r="D18" s="14">
+        <f t="shared" ref="D18:D48" si="10">SUM(E18:F18)</f>
         <v>158975</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <v>115595</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F18" s="15">
         <v>43380</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="14">
         <f t="shared" si="4"/>
         <v>5691</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H18" s="15">
         <v>4266</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I18" s="15">
         <v>1425</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J18" s="14">
         <f t="shared" si="5"/>
         <v>25292</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K18" s="15">
         <v>16701</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L18" s="15">
         <v>8591</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M18" s="16">
         <f t="shared" si="6"/>
         <v>15232.386999999999</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N18" s="15">
         <v>10112.061</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O18" s="17">
         <v>5120.326</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="6">
+    <row r="19" spans="2:15">
+      <c r="B19" s="6">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <f t="shared" si="10"/>
         <v>160745</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>111522</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>49223</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <f t="shared" si="4"/>
         <v>4951</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <v>3643</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="9">
         <v>1308</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="8">
         <f t="shared" si="5"/>
         <v>25196</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="9">
         <v>15924</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L19" s="9">
         <v>9272</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M19" s="10">
         <f t="shared" si="6"/>
         <v>15971.481</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N19" s="9">
         <v>9845.5509999999995</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O19" s="11">
         <v>6125.93</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="12">
+    <row r="20" spans="2:15">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <f t="shared" si="10"/>
         <v>148853</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>104440</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="15">
         <v>44413</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="14">
         <f t="shared" si="4"/>
         <v>4469</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H20" s="15">
         <v>3222</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I20" s="15">
         <v>1247</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J20" s="14">
         <f t="shared" si="5"/>
         <v>23784</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K20" s="15">
         <v>15355</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L20" s="15">
         <v>8429</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M20" s="16">
         <f t="shared" si="6"/>
         <v>14272.33</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N20" s="15">
         <v>8893.5959999999995</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O20" s="17">
         <v>5378.7340000000004</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="18">
+    <row r="21" spans="2:15">
+      <c r="B21" s="18">
         <v>2024</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D21" s="20">
         <f t="shared" si="10"/>
         <v>156666</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E21" s="21">
         <v>108922</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F21" s="21">
         <v>47744</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G21" s="20">
         <f t="shared" si="4"/>
         <v>4402</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H21" s="21">
         <v>3190</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I21" s="21">
         <v>1212</v>
       </c>
-      <c r="J20" s="20">
+      <c r="J21" s="20">
         <f t="shared" si="5"/>
         <v>25531</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K21" s="21">
         <v>16217</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L21" s="21">
         <v>9314</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M21" s="22">
         <f t="shared" si="6"/>
         <v>15551.477000000001</v>
       </c>
-      <c r="N20" s="21">
+      <c r="N21" s="21">
         <v>9753.6540000000005</v>
       </c>
-      <c r="O20" s="23">
+      <c r="O21" s="23">
         <v>5797.8230000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:15" hidden="1">
-      <c r="B21" s="24">
+    <row r="22" spans="2:15" hidden="1">
+      <c r="B22" s="24">
         <v>2023</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D22" s="26">
         <f t="shared" si="10"/>
         <v>163911</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E22" s="27">
         <v>118221</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F22" s="27">
         <v>45690</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G22" s="26">
         <f t="shared" si="4"/>
         <v>2455</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H22" s="27">
         <v>2237</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I22" s="27">
         <v>218</v>
       </c>
-      <c r="J21" s="26">
+      <c r="J22" s="26">
         <f t="shared" si="5"/>
         <v>28577</v>
       </c>
-      <c r="K21" s="27">
+      <c r="K22" s="27">
         <v>18492</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L22" s="27">
         <v>10085</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M22" s="28">
         <f t="shared" si="6"/>
         <v>16722.900000000001</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N22" s="27">
         <v>10949.384</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O22" s="29">
         <v>5773.5159999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1">
-      <c r="B22" s="6">
+    <row r="23" spans="2:15" hidden="1">
+      <c r="B23" s="6">
         <v>2023</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <f t="shared" si="10"/>
         <v>158913</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>119949</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>38964</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <f t="shared" si="4"/>
         <v>2027</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <v>1838</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="9">
         <v>189</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="8">
         <f t="shared" si="5"/>
         <v>27656</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K23" s="9">
         <v>18844</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L23" s="9">
         <v>8812</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M23" s="10">
         <f t="shared" si="6"/>
         <v>15490.629000000001</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N23" s="9">
         <v>10633.794</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O23" s="11">
         <v>4856.835</v>
       </c>
     </row>
-    <row r="23" spans="2:15" hidden="1">
-      <c r="B23" s="12">
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="12">
         <v>2023</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <f t="shared" si="10"/>
         <v>155697</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>120652</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="15">
         <v>35045</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="14">
         <f t="shared" si="4"/>
         <v>2106</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="15">
         <v>1897</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I24" s="15">
         <v>209</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J24" s="14">
         <f t="shared" si="5"/>
         <v>27597</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K24" s="15">
         <v>18942</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L24" s="15">
         <v>8655</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M24" s="16">
         <f t="shared" si="6"/>
         <v>15213.704999999998</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N24" s="15">
         <v>10935.924999999999</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O24" s="17">
         <v>4277.78</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="6">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="6">
         <v>2023</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D25" s="8">
         <f t="shared" si="10"/>
         <v>146668</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E25" s="9">
         <v>114905</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F25" s="9">
         <v>31763</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <f t="shared" si="4"/>
         <v>1731</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H25" s="9">
         <v>1549</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I25" s="9">
         <v>182</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J25" s="8">
         <f t="shared" si="5"/>
         <v>26793</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K25" s="9">
         <v>18467</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L25" s="9">
         <v>8326</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M25" s="10">
         <f t="shared" si="6"/>
         <v>13986.931</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N25" s="9">
         <v>10236.332</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O25" s="11">
         <v>3750.5990000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1">
-      <c r="B25" s="12">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="12">
         <v>2023</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <f t="shared" si="10"/>
         <v>162973</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>125545</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F26" s="15">
         <v>37428</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="14">
         <f t="shared" si="4"/>
         <v>2108</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H26" s="15">
         <v>1923</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I26" s="15">
         <v>185</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J26" s="14">
         <f t="shared" si="5"/>
         <v>29095</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K26" s="15">
         <v>19522</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L26" s="15">
         <v>9573</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M26" s="16">
         <f t="shared" si="6"/>
         <v>16766.697</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N26" s="15">
         <v>12077.877</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O26" s="17">
         <v>4688.82</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1">
-      <c r="B26" s="6">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="6">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <f t="shared" si="10"/>
         <v>164170</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>124900</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>39270</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <f t="shared" si="4"/>
         <v>2029</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="9">
         <v>1857</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <v>172</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="8">
         <f t="shared" si="5"/>
         <v>29231</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K27" s="9">
         <v>19311</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L27" s="9">
         <v>9920</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M27" s="10">
         <f t="shared" si="6"/>
         <v>17331.974000000002</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N27" s="9">
         <v>12036.081</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O27" s="11">
         <v>5295.893</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <f t="shared" si="10"/>
         <v>158074</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>120413</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="15">
         <v>37661</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="14">
         <f t="shared" si="4"/>
         <v>1839</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <v>1681</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I28" s="15">
         <v>158</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="14">
         <f t="shared" si="5"/>
         <v>28215</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K28" s="15">
         <v>18972</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L28" s="15">
         <v>9243</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M28" s="16">
         <f t="shared" si="6"/>
         <v>15257.142</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N28" s="15">
         <v>10569.871999999999</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O28" s="17">
         <v>4687.2700000000004</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1">
-      <c r="B28" s="6">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="6">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <f t="shared" si="10"/>
         <v>162182</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>124206</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>37976</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <f t="shared" si="4"/>
         <v>1851</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="9">
         <v>1681</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I29" s="9">
         <v>170</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J29" s="8">
         <f t="shared" si="5"/>
         <v>28633</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K29" s="9">
         <v>19183</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L29" s="9">
         <v>9450</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M29" s="10">
         <f t="shared" si="6"/>
         <v>15115.095000000001</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N29" s="9">
         <v>10649.591</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O29" s="11">
         <v>4465.5039999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <f t="shared" si="10"/>
         <v>159882</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>120199</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="15">
         <v>39683</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="14">
         <f t="shared" si="4"/>
         <v>1710</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H30" s="15">
         <v>1605</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I30" s="15">
         <v>105</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="14">
         <f t="shared" si="5"/>
         <v>28347</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K30" s="15">
         <v>19276</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L30" s="15">
         <v>9071</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M30" s="16">
         <f t="shared" si="6"/>
         <v>15697.496999999999</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N30" s="15">
         <v>10803.382</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O30" s="17">
         <v>4894.1149999999998</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1">
-      <c r="B30" s="6">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="6">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <f t="shared" si="10"/>
         <v>170638</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>126849</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>43789</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <f t="shared" si="4"/>
         <v>1840</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <v>1730</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I31" s="9">
         <v>110</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J31" s="8">
         <f t="shared" si="5"/>
         <v>29361</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K31" s="9">
         <v>19711</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L31" s="9">
         <v>9650</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M31" s="10">
         <f t="shared" si="6"/>
         <v>15935.796</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N31" s="9">
         <v>10528.172</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O31" s="11">
         <v>5407.6239999999998</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <f t="shared" si="10"/>
         <v>151336</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>112299</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>39037</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="14">
         <f t="shared" si="4"/>
         <v>1650</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H32" s="15">
         <v>1537</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I32" s="15">
         <v>113</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J32" s="14">
         <f t="shared" si="5"/>
         <v>26435</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K32" s="15">
         <v>17619</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L32" s="15">
         <v>8816</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M32" s="16">
         <f t="shared" si="6"/>
         <v>13705.822</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N32" s="15">
         <v>8982.0499999999993</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O32" s="17">
         <v>4723.7719999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1">
-      <c r="B32" s="18">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="18">
         <v>2023</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D33" s="20">
         <f t="shared" si="10"/>
         <v>165200</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E33" s="21">
         <v>121747</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F33" s="21">
         <v>43453</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G33" s="20">
         <f t="shared" si="4"/>
         <v>1856</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H33" s="21">
         <v>1722</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I33" s="21">
         <v>134</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J33" s="20">
         <f t="shared" si="5"/>
         <v>30227</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K33" s="21">
         <v>20162</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L33" s="21">
         <v>10065</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M33" s="22">
         <f t="shared" si="6"/>
         <v>15379.226000000001</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N33" s="21">
         <v>10060.075000000001</v>
       </c>
-      <c r="O32" s="23">
+      <c r="O33" s="23">
         <v>5319.1509999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="24">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="24">
         <v>2022</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C34" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D34" s="26">
         <f t="shared" si="10"/>
         <v>167972</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E34" s="27">
         <v>123936</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F34" s="27">
         <v>44036</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G34" s="26">
         <f t="shared" si="4"/>
         <v>1840</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H34" s="27">
         <v>1713</v>
       </c>
-      <c r="I33" s="27">
+      <c r="I34" s="27">
         <v>127</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J34" s="26">
         <f t="shared" si="5"/>
         <v>31046</v>
       </c>
-      <c r="K33" s="27">
+      <c r="K34" s="27">
         <v>20696</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L34" s="27">
         <v>10350</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M34" s="28">
         <f t="shared" si="6"/>
         <v>16259.23</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N34" s="27">
         <v>11068.346</v>
       </c>
-      <c r="O33" s="29">
+      <c r="O34" s="29">
         <v>5190.884</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="6">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="6">
         <v>2022</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <f t="shared" si="10"/>
         <v>162759</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>123505</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>39254</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <f t="shared" si="4"/>
         <v>1784</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H35" s="9">
         <v>1698</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I35" s="9">
         <v>86</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J35" s="8">
         <f t="shared" si="5"/>
         <v>30430</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K35" s="9">
         <v>20625</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L35" s="9">
         <v>9805</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M35" s="10">
         <f t="shared" si="6"/>
         <v>15141.996999999999</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N35" s="9">
         <v>10513.98</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O35" s="11">
         <v>4628.0169999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="12">
         <v>2022</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <f t="shared" si="10"/>
         <v>159864</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>124747</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>35117</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <f t="shared" si="4"/>
         <v>1866</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H36" s="15">
         <v>1780</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I36" s="15">
         <v>86</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J36" s="14">
         <f t="shared" si="5"/>
         <v>31242</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K36" s="15">
         <v>21556</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L36" s="15">
         <v>9686</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M36" s="16">
         <f t="shared" si="6"/>
         <v>14556.514999999999</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N36" s="15">
         <v>10450.403</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O36" s="17">
         <v>4106.1120000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="6">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="6">
         <v>2022</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D37" s="8">
         <f t="shared" si="10"/>
         <v>147719</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E37" s="9">
         <v>115614</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>32104.999999999996</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G37" s="8">
         <f t="shared" si="4"/>
         <v>1327</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H37" s="9">
         <v>1296</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I37" s="9">
         <v>31</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J37" s="8">
         <f t="shared" si="5"/>
         <v>29935</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K37" s="9">
         <v>20715</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L37" s="9">
         <v>9220</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M37" s="10">
         <f t="shared" si="6"/>
         <v>13130.359999999999</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N37" s="9">
         <v>9467.3269999999993</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O37" s="11">
         <v>3663.0329999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1">
-      <c r="B37" s="12">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="12">
         <v>2022</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <f t="shared" si="10"/>
         <v>160707</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="15">
         <v>123479</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="15">
         <v>37228</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="14">
         <f t="shared" si="4"/>
         <v>620</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H38" s="15">
         <v>597</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I38" s="15">
         <v>23</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J38" s="14">
         <f t="shared" si="5"/>
         <v>32809</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K38" s="15">
         <v>22639</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L38" s="15">
         <v>10170</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M38" s="16">
         <f t="shared" si="6"/>
         <v>15003.125</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N38" s="15">
         <v>10508.375</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O38" s="17">
         <v>4494.75</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1">
-      <c r="B38" s="6">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="6">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <f t="shared" si="10"/>
         <v>161313</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>122637</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>38676</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H39" s="9">
         <v>334</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I39" s="9">
         <v>4</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J39" s="8">
         <f t="shared" si="5"/>
         <v>32288</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K39" s="9">
         <v>22146</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L39" s="9">
         <v>10142</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M39" s="10">
         <f t="shared" si="6"/>
         <v>15713.334999999999</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N39" s="9">
         <v>10715.734</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O39" s="11">
         <v>4997.6009999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <f t="shared" si="10"/>
         <v>153335</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>116098</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>37237</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H40" s="15">
         <v>351</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I40" s="15">
         <v>5</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J40" s="14">
         <f t="shared" si="5"/>
         <v>30905</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K40" s="15">
         <v>21014</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L40" s="15">
         <v>9891</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M40" s="16">
         <f t="shared" si="6"/>
         <v>13344.656999999999</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N40" s="15">
         <v>9004.4539999999997</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O40" s="17">
         <v>4340.2030000000004</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1">
-      <c r="B40" s="6">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="6">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <f t="shared" si="10"/>
         <v>158252</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>120591</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>37661</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <f t="shared" si="4"/>
         <v>371</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H41" s="9">
         <v>365</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I41" s="9">
         <v>6</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J41" s="8">
         <f t="shared" si="5"/>
         <v>31398</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K41" s="9">
         <v>21509</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L41" s="9">
         <v>9889</v>
       </c>
-      <c r="M40" s="10">
+      <c r="M41" s="10">
         <f t="shared" si="6"/>
         <v>13548.44</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N41" s="9">
         <v>9417.0650000000005</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O41" s="11">
         <v>4131.375</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <f t="shared" si="10"/>
         <v>157784</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>117815</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="15">
         <v>39969</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <f t="shared" si="4"/>
         <v>356</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H42" s="15">
         <v>352</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I42" s="15">
         <v>4</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J42" s="14">
         <f t="shared" si="5"/>
         <v>30844</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K42" s="15">
         <v>21295</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L42" s="15">
         <v>9549</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M42" s="16">
         <f t="shared" si="6"/>
         <v>14079.685000000001</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N42" s="15">
         <v>9562.2420000000002</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O42" s="17">
         <v>4517.4430000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1">
-      <c r="B42" s="6">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="6">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <f t="shared" si="10"/>
         <v>161848</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>119127</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>42721</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G43" s="8">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H43" s="9">
         <v>135</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I43" s="9">
         <v>3</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J43" s="8">
         <f t="shared" si="5"/>
         <v>29318</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K43" s="9">
         <v>20239</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L43" s="9">
         <v>9079</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M43" s="10">
         <f t="shared" si="6"/>
         <v>13866.879000000001</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N43" s="9">
         <v>9057.7270000000008</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O43" s="11">
         <v>4809.152</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <f t="shared" si="10"/>
         <v>138416</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>101843</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>36573</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-      <c r="I43" s="15">
-        <v>0</v>
-      </c>
-      <c r="J43" s="14">
+      <c r="H44" s="15">
+        <v>0</v>
+      </c>
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="14">
         <f t="shared" si="5"/>
         <v>24917</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K44" s="15">
         <v>17054</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L44" s="15">
         <v>7863</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M44" s="16">
         <f t="shared" si="6"/>
         <v>10915.597</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N44" s="15">
         <v>7204.1139999999996</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O44" s="17">
         <v>3711.4830000000002</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1">
-      <c r="B44" s="18">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="18">
         <v>2022</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D45" s="20">
         <f t="shared" si="10"/>
         <v>147774</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E45" s="21">
         <v>106370</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F45" s="21">
         <v>41404</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G45" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H44" s="21">
-        <v>0</v>
-      </c>
-      <c r="I44" s="21">
-        <v>0</v>
-      </c>
-      <c r="J44" s="20">
-        <f t="shared" ref="J44:J75" si="11">SUM(K44:L44)</f>
+      <c r="H45" s="21">
+        <v>0</v>
+      </c>
+      <c r="I45" s="21">
+        <v>0</v>
+      </c>
+      <c r="J45" s="20">
+        <f t="shared" ref="J45:J76" si="11">SUM(K45:L45)</f>
         <v>28778</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K45" s="21">
         <v>19706</v>
       </c>
-      <c r="L44" s="21">
+      <c r="L45" s="21">
         <v>9072</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M45" s="22">
         <f t="shared" si="6"/>
         <v>11653.262000000001</v>
       </c>
-      <c r="N44" s="21">
+      <c r="N45" s="21">
         <v>7668.268</v>
       </c>
-      <c r="O44" s="23">
+      <c r="O45" s="23">
         <v>3984.9940000000001</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="24">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="24">
         <v>2021</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C46" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="26">
+      <c r="D46" s="26">
         <f t="shared" si="10"/>
         <v>161476</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E46" s="27">
         <v>118642</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F46" s="27">
         <v>42834</v>
       </c>
-      <c r="G45" s="26">
+      <c r="G46" s="26">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H45" s="27">
-        <v>0</v>
-      </c>
-      <c r="I45" s="27">
-        <v>0</v>
-      </c>
-      <c r="J45" s="26">
+      <c r="H46" s="27">
+        <v>0</v>
+      </c>
+      <c r="I46" s="27">
+        <v>0</v>
+      </c>
+      <c r="J46" s="26">
         <f t="shared" si="11"/>
         <v>31395</v>
       </c>
-      <c r="K45" s="27">
+      <c r="K46" s="27">
         <v>21885</v>
       </c>
-      <c r="L45" s="27">
+      <c r="L46" s="27">
         <v>9510</v>
       </c>
-      <c r="M45" s="28">
+      <c r="M46" s="28">
         <f t="shared" si="6"/>
         <v>13971.465</v>
       </c>
-      <c r="N45" s="27">
+      <c r="N46" s="27">
         <v>9508.3459999999995</v>
       </c>
-      <c r="O45" s="29">
+      <c r="O46" s="29">
         <v>4463.1189999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="6">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="6">
         <v>2021</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <f t="shared" si="10"/>
         <v>153263</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>115481</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>37782</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G47" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H46" s="9">
-        <v>0</v>
-      </c>
-      <c r="I46" s="9">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8">
         <f t="shared" si="11"/>
         <v>28646</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K47" s="9">
         <v>20157</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L47" s="9">
         <v>8489</v>
       </c>
-      <c r="M46" s="10">
+      <c r="M47" s="10">
         <f t="shared" si="6"/>
         <v>12687.374</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N47" s="9">
         <v>8761.0709999999999</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O47" s="11">
         <v>3926.3029999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="12">
         <v>2021</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <f t="shared" si="10"/>
         <v>147053</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>112669</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>34384</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="14">
+      <c r="H48" s="15">
+        <v>0</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
         <f t="shared" si="11"/>
         <v>28151</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K48" s="15">
         <v>19712</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L48" s="15">
         <v>8439</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M48" s="16">
         <f t="shared" si="6"/>
         <v>11848.638999999999</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N48" s="15">
         <v>8373.0280000000002</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O48" s="17">
         <v>3475.6109999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="6">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="6">
         <v>2021</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="8">
-        <f t="shared" ref="D48:D79" si="12">SUM(E48:F48)</f>
+      <c r="D49" s="8">
+        <f t="shared" ref="D49:D80" si="12">SUM(E49:F49)</f>
         <v>132825</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E49" s="9">
         <v>101771</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F49" s="9">
         <v>31054</v>
       </c>
-      <c r="G48" s="8">
-        <f t="shared" ref="G48:G79" si="13">SUM(H48:I48)</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
-      </c>
-      <c r="I48" s="9">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
+      <c r="G49" s="8">
+        <f t="shared" ref="G49:G80" si="13">SUM(H49:I49)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8">
         <f t="shared" si="11"/>
         <v>25472</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K49" s="9">
         <v>17521</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L49" s="9">
         <v>7951</v>
       </c>
-      <c r="M48" s="10">
-        <f t="shared" ref="M48:M79" si="14">SUM(N48:O48)</f>
+      <c r="M49" s="10">
+        <f t="shared" ref="M49:M80" si="14">SUM(N49:O49)</f>
         <v>10185.656000000001</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N49" s="9">
         <v>7282.1530000000002</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O49" s="11">
         <v>2903.5030000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1">
-      <c r="B49" s="12">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="12">
         <v>2021</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <f t="shared" si="12"/>
         <v>144695</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="15">
         <v>110044</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="15">
         <v>34651</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="14">
+      <c r="H50" s="15">
+        <v>0</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
         <f t="shared" si="11"/>
         <v>28906</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K50" s="15">
         <v>20368</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L50" s="15">
         <v>8538</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M50" s="16">
         <f t="shared" si="14"/>
         <v>11683.937</v>
       </c>
-      <c r="N49" s="15">
+      <c r="N50" s="15">
         <v>8069.2780000000002</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O50" s="17">
         <v>3614.6590000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1">
-      <c r="B50" s="6">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="6">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <f t="shared" si="12"/>
         <v>146353</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>110707</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>35646</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H50" s="9">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
         <f t="shared" si="11"/>
         <v>28727</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K51" s="9">
         <v>20266</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L51" s="9">
         <v>8461</v>
       </c>
-      <c r="M50" s="10">
+      <c r="M51" s="10">
         <f t="shared" si="14"/>
         <v>12973.878000000001</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N51" s="9">
         <v>8846.4060000000009</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O51" s="11">
         <v>4127.4719999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <f t="shared" si="12"/>
         <v>134517</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>101368</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <v>33149</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H51" s="15">
-        <v>0</v>
-      </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="14">
+      <c r="H52" s="15">
+        <v>0</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
         <f t="shared" si="11"/>
         <v>25545</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K52" s="15">
         <v>17937</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L52" s="15">
         <v>7608</v>
       </c>
-      <c r="M51" s="16">
+      <c r="M52" s="16">
         <f t="shared" si="14"/>
         <v>11386.256000000001</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N52" s="15">
         <v>7719.55</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O52" s="17">
         <v>3666.7060000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1">
-      <c r="B52" s="6">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="6">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <f t="shared" si="12"/>
         <v>138743</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>106623</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>32119.999999999996</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G53" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H52" s="9">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
         <f t="shared" si="11"/>
         <v>25018</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K53" s="9">
         <v>17597</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L53" s="9">
         <v>7421</v>
       </c>
-      <c r="M52" s="10">
+      <c r="M53" s="10">
         <f t="shared" si="14"/>
         <v>10974.823</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N53" s="9">
         <v>7697.7309999999998</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O53" s="11">
         <v>3277.0920000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <f t="shared" si="12"/>
         <v>133584</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>103668</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F54" s="15">
         <v>29916</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H53" s="15">
-        <v>0</v>
-      </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="14">
+      <c r="H54" s="15">
+        <v>0</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
         <f t="shared" si="11"/>
         <v>23420</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K54" s="15">
         <v>17095</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L54" s="15">
         <v>6325</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M54" s="16">
         <f t="shared" si="14"/>
         <v>9657.1949999999997</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N54" s="15">
         <v>7019.1059999999998</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O54" s="17">
         <v>2638.0889999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1">
-      <c r="B54" s="6">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="6">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <f t="shared" si="12"/>
         <v>130340</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>99689</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>30651</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G55" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H54" s="9">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
         <f t="shared" si="11"/>
         <v>20932</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K55" s="9">
         <v>15296</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L55" s="9">
         <v>5636</v>
       </c>
-      <c r="M54" s="10">
+      <c r="M55" s="10">
         <f t="shared" si="14"/>
         <v>8677.3739999999998</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N55" s="9">
         <v>6424.5829999999996</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O55" s="11">
         <v>2252.7910000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <f t="shared" si="12"/>
         <v>105818</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>80508</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>25310</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H55" s="15">
-        <v>0</v>
-      </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="14">
+      <c r="H56" s="15">
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
         <f t="shared" si="11"/>
         <v>17155</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K56" s="15">
         <v>12105</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L56" s="15">
         <v>5050</v>
       </c>
-      <c r="M55" s="16">
+      <c r="M56" s="16">
         <f t="shared" si="14"/>
         <v>5881.9269999999997</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N56" s="15">
         <v>4501.4070000000002</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O56" s="17">
         <v>1380.52</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1">
-      <c r="B56" s="18">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="18">
         <v>2021</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D57" s="20">
         <f t="shared" si="12"/>
         <v>124147</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E57" s="21">
         <v>93381</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F57" s="21">
         <v>30766</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G57" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H56" s="21">
-        <v>0</v>
-      </c>
-      <c r="I56" s="21">
-        <v>0</v>
-      </c>
-      <c r="J56" s="20">
+      <c r="H57" s="21">
+        <v>0</v>
+      </c>
+      <c r="I57" s="21">
+        <v>0</v>
+      </c>
+      <c r="J57" s="20">
         <f t="shared" si="11"/>
         <v>22442</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K57" s="21">
         <v>15855</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L57" s="21">
         <v>6587</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M57" s="22">
         <f t="shared" si="14"/>
         <v>7530.1779999999999</v>
       </c>
-      <c r="N56" s="21">
+      <c r="N57" s="21">
         <v>5474.7460000000001</v>
       </c>
-      <c r="O56" s="23">
+      <c r="O57" s="23">
         <v>2055.4319999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="24">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="24">
         <v>2020</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C58" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="26">
+      <c r="D58" s="26">
         <f t="shared" si="12"/>
         <v>129572</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E58" s="27">
         <v>99674</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F58" s="27">
         <v>29898</v>
       </c>
-      <c r="G57" s="26">
+      <c r="G58" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H57" s="27">
-        <v>0</v>
-      </c>
-      <c r="I57" s="27">
-        <v>0</v>
-      </c>
-      <c r="J57" s="26">
+      <c r="H58" s="27">
+        <v>0</v>
+      </c>
+      <c r="I58" s="27">
+        <v>0</v>
+      </c>
+      <c r="J58" s="26">
         <f t="shared" si="11"/>
         <v>22377</v>
       </c>
-      <c r="K57" s="27">
+      <c r="K58" s="27">
         <v>15901</v>
       </c>
-      <c r="L57" s="27">
+      <c r="L58" s="27">
         <v>6476</v>
       </c>
-      <c r="M57" s="28">
+      <c r="M58" s="28">
         <f t="shared" si="14"/>
         <v>8643.1899999999987</v>
       </c>
-      <c r="N57" s="27">
+      <c r="N58" s="27">
         <v>6389.2129999999997</v>
       </c>
-      <c r="O57" s="29">
+      <c r="O58" s="29">
         <v>2253.9769999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="6">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="6">
         <v>2020</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <f t="shared" si="12"/>
         <v>120789</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>97016</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>23773</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H58" s="9">
-        <v>0</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8">
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
         <f t="shared" si="11"/>
         <v>20029</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K59" s="9">
         <v>15112</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L59" s="9">
         <v>4917</v>
       </c>
-      <c r="M58" s="10">
+      <c r="M59" s="10">
         <f t="shared" si="14"/>
         <v>7700.1950000000006</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N59" s="9">
         <v>5937.9480000000003</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O59" s="11">
         <v>1762.2470000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="12">
         <v>2020</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <f t="shared" si="12"/>
         <v>111965</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>92159</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>19806</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H59" s="15">
-        <v>0</v>
-      </c>
-      <c r="I59" s="15">
-        <v>0</v>
-      </c>
-      <c r="J59" s="14">
+      <c r="H60" s="15">
+        <v>0</v>
+      </c>
+      <c r="I60" s="15">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
         <f t="shared" si="11"/>
         <v>18783</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K60" s="15">
         <v>14512</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L60" s="15">
         <v>4271</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M60" s="16">
         <f t="shared" si="14"/>
         <v>6958.1730000000007</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N60" s="15">
         <v>5522.3990000000003</v>
       </c>
-      <c r="O59" s="17">
+      <c r="O60" s="17">
         <v>1435.7739999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="6">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="6">
         <v>2020</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D61" s="8">
         <f t="shared" si="12"/>
         <v>98248</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E61" s="9">
         <v>82749</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F61" s="9">
         <v>15499</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G61" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H60" s="9">
-        <v>0</v>
-      </c>
-      <c r="I60" s="9">
-        <v>0</v>
-      </c>
-      <c r="J60" s="8">
+      <c r="H61" s="9">
+        <v>0</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8">
         <f t="shared" si="11"/>
         <v>15967</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K61" s="9">
         <v>12434</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L61" s="9">
         <v>3533</v>
       </c>
-      <c r="M60" s="10">
+      <c r="M61" s="10">
         <f t="shared" si="14"/>
         <v>5747.9449999999997</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N61" s="9">
         <v>4716.3429999999998</v>
       </c>
-      <c r="O60" s="11">
+      <c r="O61" s="11">
         <v>1031.6020000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1">
-      <c r="B61" s="12">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="12">
         <v>2020</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C62" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <f t="shared" si="12"/>
         <v>94778</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="15">
         <v>79993</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="15">
         <v>14785</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H61" s="15">
-        <v>0</v>
-      </c>
-      <c r="I61" s="15">
-        <v>0</v>
-      </c>
-      <c r="J61" s="14">
+      <c r="H62" s="15">
+        <v>0</v>
+      </c>
+      <c r="I62" s="15">
+        <v>0</v>
+      </c>
+      <c r="J62" s="14">
         <f t="shared" si="11"/>
         <v>15399</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K62" s="15">
         <v>11911</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L62" s="15">
         <v>3488</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M62" s="16">
         <f t="shared" si="14"/>
         <v>5296.7969999999996</v>
       </c>
-      <c r="N61" s="15">
+      <c r="N62" s="15">
         <v>4313.7479999999996</v>
       </c>
-      <c r="O61" s="17">
+      <c r="O62" s="17">
         <v>983.04899999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1">
-      <c r="B62" s="6">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="6">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <f t="shared" si="12"/>
         <v>85508</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>72657</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>12851</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H62" s="9">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-      <c r="J62" s="8">
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8">
         <f t="shared" si="11"/>
         <v>12165</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K63" s="9">
         <v>9419</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L63" s="9">
         <v>2746</v>
       </c>
-      <c r="M62" s="10">
+      <c r="M63" s="10">
         <f t="shared" si="14"/>
         <v>4185.5320000000002</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N63" s="9">
         <v>3405.0259999999998</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O63" s="11">
         <v>780.50599999999997</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <f t="shared" si="12"/>
         <v>58869</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>50107</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>8762</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H63" s="15">
-        <v>0</v>
-      </c>
-      <c r="I63" s="15">
-        <v>0</v>
-      </c>
-      <c r="J63" s="14">
+      <c r="H64" s="15">
+        <v>0</v>
+      </c>
+      <c r="I64" s="15">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
         <f t="shared" si="11"/>
         <v>7578</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K64" s="15">
         <v>5489</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L64" s="15">
         <v>2089</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M64" s="16">
         <f t="shared" si="14"/>
         <v>2139.893</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N64" s="15">
         <v>1815.4059999999999</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O64" s="17">
         <v>324.48700000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1">
-      <c r="B64" s="6">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="6">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <f t="shared" si="12"/>
         <v>40887</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>35082</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>5805</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H64" s="9">
-        <v>0</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8">
         <f t="shared" si="11"/>
         <v>4836</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K65" s="9">
         <v>3187</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L65" s="9">
         <v>1649</v>
       </c>
-      <c r="M64" s="10">
+      <c r="M65" s="10">
         <f t="shared" si="14"/>
         <v>912.27</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N65" s="9">
         <v>794.02</v>
       </c>
-      <c r="O64" s="11">
+      <c r="O65" s="11">
         <v>118.25</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <f t="shared" si="12"/>
         <v>39436</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>33432</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>6004</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H65" s="15">
-        <v>0</v>
-      </c>
-      <c r="I65" s="15">
-        <v>0</v>
-      </c>
-      <c r="J65" s="14">
+      <c r="H66" s="15">
+        <v>0</v>
+      </c>
+      <c r="I66" s="15">
+        <v>0</v>
+      </c>
+      <c r="J66" s="14">
         <f t="shared" si="11"/>
         <v>5483</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K66" s="15">
         <v>3788</v>
       </c>
-      <c r="L65" s="15">
+      <c r="L66" s="15">
         <v>1695</v>
       </c>
-      <c r="M65" s="16">
+      <c r="M66" s="16">
         <f t="shared" si="14"/>
         <v>958.75099999999998</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N66" s="15">
         <v>841.01400000000001</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O66" s="17">
         <v>117.73699999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1">
-      <c r="B66" s="6">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="6">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <f t="shared" si="12"/>
         <v>138604</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>105733</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>32871</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G67" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H66" s="9">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0</v>
+      </c>
+      <c r="J67" s="8">
         <f t="shared" si="11"/>
         <v>27685</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K67" s="9">
         <v>19400</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L67" s="9">
         <v>8285</v>
       </c>
-      <c r="M66" s="10">
+      <c r="M67" s="10">
         <f t="shared" si="14"/>
         <v>9011.8619999999992</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N67" s="9">
         <v>6133.3159999999998</v>
       </c>
-      <c r="O66" s="11">
+      <c r="O67" s="11">
         <v>2878.5459999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <f t="shared" si="12"/>
         <v>154600</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>116643</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>37957</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G68" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H67" s="15">
-        <v>0</v>
-      </c>
-      <c r="I67" s="15">
-        <v>0</v>
-      </c>
-      <c r="J67" s="14">
+      <c r="H68" s="15">
+        <v>0</v>
+      </c>
+      <c r="I68" s="15">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
         <f t="shared" si="11"/>
         <v>33096</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K68" s="15">
         <v>22924</v>
       </c>
-      <c r="L67" s="15">
+      <c r="L68" s="15">
         <v>10172</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M68" s="16">
         <f t="shared" si="14"/>
         <v>12555.147000000001</v>
       </c>
-      <c r="N67" s="15">
+      <c r="N68" s="15">
         <v>8141.3959999999997</v>
       </c>
-      <c r="O67" s="17">
+      <c r="O68" s="17">
         <v>4413.7510000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1">
-      <c r="B68" s="18">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="18">
         <v>2020</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D69" s="20">
         <f t="shared" si="12"/>
         <v>167619</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E69" s="21">
         <v>126846</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F69" s="21">
         <v>40773</v>
       </c>
-      <c r="G68" s="20">
+      <c r="G69" s="20">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H68" s="21">
-        <v>0</v>
-      </c>
-      <c r="I68" s="21">
-        <v>0</v>
-      </c>
-      <c r="J68" s="20">
+      <c r="H69" s="21">
+        <v>0</v>
+      </c>
+      <c r="I69" s="21">
+        <v>0</v>
+      </c>
+      <c r="J69" s="20">
         <f t="shared" si="11"/>
         <v>37171</v>
       </c>
-      <c r="K68" s="21">
+      <c r="K69" s="21">
         <v>25779</v>
       </c>
-      <c r="L68" s="21">
+      <c r="L69" s="21">
         <v>11392</v>
       </c>
-      <c r="M68" s="22">
+      <c r="M69" s="22">
         <f t="shared" si="14"/>
         <v>13625.84</v>
       </c>
-      <c r="N68" s="21">
+      <c r="N69" s="21">
         <v>8800.0789999999997</v>
       </c>
-      <c r="O68" s="23">
+      <c r="O69" s="23">
         <v>4825.7610000000004</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="24">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="24">
         <v>2019</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C70" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="26">
+      <c r="D70" s="26">
         <f t="shared" si="12"/>
         <v>167593</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E70" s="27">
         <v>126051</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F70" s="27">
         <v>41542</v>
       </c>
-      <c r="G69" s="26">
+      <c r="G70" s="26">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H69" s="27">
-        <v>0</v>
-      </c>
-      <c r="I69" s="27">
-        <v>0</v>
-      </c>
-      <c r="J69" s="26">
+      <c r="H70" s="27">
+        <v>0</v>
+      </c>
+      <c r="I70" s="27">
+        <v>0</v>
+      </c>
+      <c r="J70" s="26">
         <f t="shared" si="11"/>
         <v>37969</v>
       </c>
-      <c r="K69" s="27">
+      <c r="K70" s="27">
         <v>25919</v>
       </c>
-      <c r="L69" s="27">
+      <c r="L70" s="27">
         <v>12050</v>
       </c>
-      <c r="M69" s="28">
+      <c r="M70" s="28">
         <f t="shared" si="14"/>
         <v>14311.285</v>
       </c>
-      <c r="N69" s="27">
+      <c r="N70" s="27">
         <v>9491.1820000000007</v>
       </c>
-      <c r="O69" s="29">
+      <c r="O70" s="29">
         <v>4820.1030000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="6">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="6">
         <v>2019</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <f t="shared" si="12"/>
         <v>161899</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>125646</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>36253</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G71" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H70" s="9">
-        <v>0</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0</v>
-      </c>
-      <c r="J70" s="8">
+      <c r="H71" s="9">
+        <v>0</v>
+      </c>
+      <c r="I71" s="9">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
         <f t="shared" si="11"/>
         <v>36078</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K71" s="9">
         <v>25201</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L71" s="9">
         <v>10877</v>
       </c>
-      <c r="M70" s="10">
+      <c r="M71" s="10">
         <f t="shared" si="14"/>
         <v>13215.171</v>
       </c>
-      <c r="N70" s="9">
+      <c r="N71" s="9">
         <v>9104.4480000000003</v>
       </c>
-      <c r="O70" s="11">
+      <c r="O71" s="11">
         <v>4110.723</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="12">
         <v>2019</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <f t="shared" si="12"/>
         <v>159019</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>126531</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>32488</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H71" s="15">
-        <v>0</v>
-      </c>
-      <c r="I71" s="15">
-        <v>0</v>
-      </c>
-      <c r="J71" s="14">
+      <c r="H72" s="15">
+        <v>0</v>
+      </c>
+      <c r="I72" s="15">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
         <f t="shared" si="11"/>
         <v>36741</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K72" s="15">
         <v>25823</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L72" s="15">
         <v>10918</v>
       </c>
-      <c r="M71" s="16">
+      <c r="M72" s="16">
         <f t="shared" si="14"/>
         <v>12724.360999999999</v>
       </c>
-      <c r="N71" s="15">
+      <c r="N72" s="15">
         <v>9175.6839999999993</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O72" s="17">
         <v>3548.6770000000001</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="6">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="6">
         <v>2019</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D73" s="8">
         <f t="shared" si="12"/>
         <v>148583</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>118880</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>29703</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G73" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H72" s="9">
-        <v>0</v>
-      </c>
-      <c r="I72" s="9">
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
+      <c r="H73" s="9">
+        <v>0</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
         <f t="shared" si="11"/>
         <v>34491</v>
       </c>
-      <c r="K72" s="9">
+      <c r="K73" s="9">
         <v>23749</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L73" s="9">
         <v>10742</v>
       </c>
-      <c r="M72" s="10">
+      <c r="M73" s="10">
         <f t="shared" si="14"/>
         <v>11512.314</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N73" s="9">
         <v>8319.4240000000009</v>
       </c>
-      <c r="O72" s="11">
+      <c r="O73" s="11">
         <v>3192.89</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1">
-      <c r="B73" s="12">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="12">
         <v>2019</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <f t="shared" si="12"/>
         <v>165304</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="15">
         <v>129776.00000000001</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="15">
         <v>35528</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H73" s="15">
-        <v>0</v>
-      </c>
-      <c r="I73" s="15">
-        <v>0</v>
-      </c>
-      <c r="J73" s="14">
+      <c r="H74" s="15">
+        <v>0</v>
+      </c>
+      <c r="I74" s="15">
+        <v>0</v>
+      </c>
+      <c r="J74" s="14">
         <f t="shared" si="11"/>
         <v>37882</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K74" s="15">
         <v>25900</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L74" s="15">
         <v>11982</v>
       </c>
-      <c r="M73" s="16">
+      <c r="M74" s="16">
         <f t="shared" si="14"/>
         <v>13678.462</v>
       </c>
-      <c r="N73" s="15">
+      <c r="N74" s="15">
         <v>9506.8289999999997</v>
       </c>
-      <c r="O73" s="17">
+      <c r="O74" s="17">
         <v>4171.6329999999998</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1">
-      <c r="B74" s="6">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="6">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <f t="shared" si="12"/>
         <v>168640</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>131068.99999999999</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>37571</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G75" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H74" s="9">
-        <v>0</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0</v>
-      </c>
-      <c r="J74" s="8">
+      <c r="H75" s="9">
+        <v>0</v>
+      </c>
+      <c r="I75" s="9">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
         <f t="shared" si="11"/>
         <v>38116</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K75" s="9">
         <v>25943</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L75" s="9">
         <v>12173</v>
       </c>
-      <c r="M74" s="10">
+      <c r="M75" s="10">
         <f t="shared" si="14"/>
         <v>14682.169</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N75" s="9">
         <v>9992.81</v>
       </c>
-      <c r="O74" s="11">
+      <c r="O75" s="11">
         <v>4689.3590000000004</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <f t="shared" si="12"/>
         <v>159253</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>123607</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>35646</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H75" s="15">
-        <v>0</v>
-      </c>
-      <c r="I75" s="15">
-        <v>0</v>
-      </c>
-      <c r="J75" s="14">
+      <c r="H76" s="15">
+        <v>0</v>
+      </c>
+      <c r="I76" s="15">
+        <v>0</v>
+      </c>
+      <c r="J76" s="14">
         <f t="shared" si="11"/>
         <v>35734</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K76" s="15">
         <v>24362</v>
       </c>
-      <c r="L75" s="15">
+      <c r="L76" s="15">
         <v>11372</v>
       </c>
-      <c r="M75" s="16">
+      <c r="M76" s="16">
         <f t="shared" si="14"/>
         <v>13352.69</v>
       </c>
-      <c r="N75" s="15">
+      <c r="N76" s="15">
         <v>9079.7170000000006</v>
       </c>
-      <c r="O75" s="17">
+      <c r="O76" s="17">
         <v>4272.973</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1">
-      <c r="B76" s="6">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="6">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <f t="shared" si="12"/>
         <v>166260</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>130592.99999999999</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="9">
         <v>35667</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H76" s="9">
-        <v>0</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0</v>
-      </c>
-      <c r="J76" s="8">
-        <f t="shared" ref="J76:J92" si="15">SUM(K76:L76)</f>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>0</v>
+      </c>
+      <c r="J77" s="8">
+        <f t="shared" ref="J77:J93" si="15">SUM(K77:L77)</f>
         <v>36624</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K77" s="9">
         <v>25219</v>
       </c>
-      <c r="L76" s="9">
+      <c r="L77" s="9">
         <v>11405</v>
       </c>
-      <c r="M76" s="10">
+      <c r="M77" s="10">
         <f t="shared" si="14"/>
         <v>13434.785</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N77" s="9">
         <v>9373.2109999999993</v>
       </c>
-      <c r="O76" s="11">
+      <c r="O77" s="11">
         <v>4061.5740000000001</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <f t="shared" si="12"/>
         <v>168338</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="15">
         <v>129008.99999999999</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F78" s="15">
         <v>39329</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H77" s="15">
-        <v>0</v>
-      </c>
-      <c r="I77" s="15">
-        <v>0</v>
-      </c>
-      <c r="J77" s="14">
+      <c r="H78" s="15">
+        <v>0</v>
+      </c>
+      <c r="I78" s="15">
+        <v>0</v>
+      </c>
+      <c r="J78" s="14">
         <f t="shared" si="15"/>
         <v>35519</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K78" s="15">
         <v>24350</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L78" s="15">
         <v>11169</v>
       </c>
-      <c r="M77" s="16">
+      <c r="M78" s="16">
         <f t="shared" si="14"/>
         <v>13245.237000000001</v>
       </c>
-      <c r="N77" s="15">
+      <c r="N78" s="15">
         <v>8877.2070000000003</v>
       </c>
-      <c r="O77" s="17">
+      <c r="O78" s="17">
         <v>4368.03</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1">
-      <c r="B78" s="6">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="6">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <f t="shared" si="12"/>
         <v>171618</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>128662</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>42956</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G79" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H78" s="9">
-        <v>0</v>
-      </c>
-      <c r="I78" s="9">
-        <v>0</v>
-      </c>
-      <c r="J78" s="8">
+      <c r="H79" s="9">
+        <v>0</v>
+      </c>
+      <c r="I79" s="9">
+        <v>0</v>
+      </c>
+      <c r="J79" s="8">
         <f t="shared" si="15"/>
         <v>35392</v>
       </c>
-      <c r="K78" s="9">
+      <c r="K79" s="9">
         <v>24040</v>
       </c>
-      <c r="L78" s="9">
+      <c r="L79" s="9">
         <v>11352</v>
       </c>
-      <c r="M78" s="10">
+      <c r="M79" s="10">
         <f t="shared" si="14"/>
         <v>13468.561000000002</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N79" s="9">
         <v>8550.9040000000005</v>
       </c>
-      <c r="O78" s="11">
+      <c r="O79" s="11">
         <v>4917.6570000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1">
-      <c r="B79" s="12">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <f t="shared" si="12"/>
         <v>151989</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>114632</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>37357</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H79" s="15">
-        <v>0</v>
-      </c>
-      <c r="I79" s="15">
-        <v>0</v>
-      </c>
-      <c r="J79" s="14">
+      <c r="H80" s="15">
+        <v>0</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
         <f t="shared" si="15"/>
         <v>31890</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K80" s="15">
         <v>21784</v>
       </c>
-      <c r="L79" s="15">
+      <c r="L80" s="15">
         <v>10106</v>
       </c>
-      <c r="M79" s="16">
+      <c r="M80" s="16">
         <f t="shared" si="14"/>
         <v>11254.142</v>
       </c>
-      <c r="N79" s="15">
+      <c r="N80" s="15">
         <v>7147.8</v>
       </c>
-      <c r="O79" s="17">
+      <c r="O80" s="17">
         <v>4106.3419999999996</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1">
-      <c r="B80" s="18">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="18">
         <v>2019</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="20">
-        <f t="shared" ref="D80:D92" si="16">SUM(E80:F80)</f>
+      <c r="D81" s="20">
+        <f t="shared" ref="D81:D93" si="16">SUM(E81:F81)</f>
         <v>165954</v>
       </c>
-      <c r="E80" s="21">
+      <c r="E81" s="21">
         <v>124266</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F81" s="21">
         <v>41688</v>
       </c>
-      <c r="G80" s="20">
-        <f t="shared" ref="G80:G92" si="17">SUM(H80:I80)</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="21">
-        <v>0</v>
-      </c>
-      <c r="I80" s="21">
-        <v>0</v>
-      </c>
-      <c r="J80" s="20">
+      <c r="G81" s="20">
+        <f t="shared" ref="G81:G93" si="17">SUM(H81:I81)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="21">
+        <v>0</v>
+      </c>
+      <c r="I81" s="21">
+        <v>0</v>
+      </c>
+      <c r="J81" s="20">
         <f t="shared" si="15"/>
         <v>35932</v>
       </c>
-      <c r="K80" s="21">
+      <c r="K81" s="21">
         <v>24195</v>
       </c>
-      <c r="L80" s="21">
+      <c r="L81" s="21">
         <v>11737</v>
       </c>
-      <c r="M80" s="22">
-        <f t="shared" ref="M80:M92" si="18">SUM(N80:O80)</f>
+      <c r="M81" s="22">
+        <f t="shared" ref="M81:M93" si="18">SUM(N81:O81)</f>
         <v>12584.922</v>
       </c>
-      <c r="N80" s="21">
+      <c r="N81" s="21">
         <v>7965.4170000000004</v>
       </c>
-      <c r="O80" s="23">
+      <c r="O81" s="23">
         <v>4619.5050000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="13">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <f t="shared" si="16"/>
         <v>167896</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>126468</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>41428</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H81" s="15">
-        <v>0</v>
-      </c>
-      <c r="I81" s="15">
-        <v>0</v>
-      </c>
-      <c r="J81" s="14">
+      <c r="H82" s="15">
+        <v>0</v>
+      </c>
+      <c r="I82" s="15">
+        <v>0</v>
+      </c>
+      <c r="J82" s="14">
         <f t="shared" si="15"/>
         <v>36796</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K82" s="15">
         <v>24610</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L82" s="15">
         <v>12186</v>
       </c>
-      <c r="M81" s="16">
+      <c r="M82" s="16">
         <f t="shared" si="18"/>
         <v>13446.27</v>
       </c>
-      <c r="N81" s="15">
+      <c r="N82" s="15">
         <v>8820.4920000000002</v>
       </c>
-      <c r="O81" s="15">
+      <c r="O82" s="15">
         <v>4625.7780000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="7">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="7">
         <v>2018</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <f t="shared" si="16"/>
         <v>165335</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>128314</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>37021</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H82" s="9">
-        <v>0</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0</v>
-      </c>
-      <c r="J82" s="8">
+      <c r="H83" s="9">
+        <v>0</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0</v>
+      </c>
+      <c r="J83" s="8">
         <f t="shared" si="15"/>
         <v>35251</v>
       </c>
-      <c r="K82" s="9">
+      <c r="K83" s="9">
         <v>23927</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L83" s="9">
         <v>11324</v>
       </c>
-      <c r="M82" s="10">
+      <c r="M83" s="10">
         <f t="shared" si="18"/>
         <v>12543.215</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N83" s="9">
         <v>8542.7430000000004</v>
       </c>
-      <c r="O82" s="9">
+      <c r="O83" s="9">
         <v>4000.4720000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="13">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <f t="shared" si="16"/>
         <v>162784</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>129050.00000000001</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>33734</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H83" s="15">
-        <v>0</v>
-      </c>
-      <c r="I83" s="15">
-        <v>0</v>
-      </c>
-      <c r="J83" s="14">
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+      <c r="I84" s="15">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
         <f t="shared" si="15"/>
         <v>35903</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K84" s="15">
         <v>24186</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L84" s="15">
         <v>11717</v>
       </c>
-      <c r="M83" s="16">
+      <c r="M84" s="16">
         <f t="shared" si="18"/>
         <v>11940.449000000001</v>
       </c>
-      <c r="N83" s="15">
+      <c r="N84" s="15">
         <v>8460.0640000000003</v>
       </c>
-      <c r="O83" s="15">
+      <c r="O84" s="15">
         <v>3480.3850000000002</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="7">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="7">
         <v>2018</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C85" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D85" s="8">
         <f t="shared" si="16"/>
         <v>151218</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E85" s="9">
         <v>120455</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F85" s="9">
         <v>30763</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G85" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H84" s="9">
-        <v>0</v>
-      </c>
-      <c r="I84" s="9">
-        <v>0</v>
-      </c>
-      <c r="J84" s="8">
+      <c r="H85" s="9">
+        <v>0</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+      <c r="J85" s="8">
         <f t="shared" si="15"/>
         <v>34246</v>
       </c>
-      <c r="K84" s="9">
+      <c r="K85" s="9">
         <v>23006</v>
       </c>
-      <c r="L84" s="9">
+      <c r="L85" s="9">
         <v>11240</v>
       </c>
-      <c r="M84" s="10">
+      <c r="M85" s="10">
         <f t="shared" si="18"/>
         <v>10888.41</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N85" s="9">
         <v>7775.683</v>
       </c>
-      <c r="O84" s="9">
+      <c r="O85" s="9">
         <v>3112.7269999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="13">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>131130</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>36187</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H85" s="15">
-        <v>0</v>
-      </c>
-      <c r="I85" s="15">
-        <v>0</v>
-      </c>
-      <c r="J85" s="14">
+      <c r="H86" s="15">
+        <v>0</v>
+      </c>
+      <c r="I86" s="15">
+        <v>0</v>
+      </c>
+      <c r="J86" s="14">
         <f t="shared" si="15"/>
         <v>37070</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K86" s="15">
         <v>24746</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L86" s="15">
         <v>12324</v>
       </c>
-      <c r="M85" s="16">
+      <c r="M86" s="16">
         <f t="shared" si="18"/>
         <v>12946.407999999999</v>
       </c>
-      <c r="N85" s="15">
+      <c r="N86" s="15">
         <v>8844.4689999999991</v>
       </c>
-      <c r="O85" s="15">
+      <c r="O86" s="15">
         <v>4101.9390000000003</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <f t="shared" si="16"/>
         <v>166752</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>128561</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>38191</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H86" s="9">
-        <v>0</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0</v>
-      </c>
-      <c r="J86" s="8">
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8">
         <f t="shared" si="15"/>
         <v>37073</v>
       </c>
-      <c r="K86" s="9">
+      <c r="K87" s="9">
         <v>24692</v>
       </c>
-      <c r="L86" s="9">
+      <c r="L87" s="9">
         <v>12381</v>
       </c>
-      <c r="M86" s="10">
+      <c r="M87" s="10">
         <f t="shared" si="18"/>
         <v>14091.387999999999</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N87" s="9">
         <v>9430.1080000000002</v>
       </c>
-      <c r="O86" s="9">
+      <c r="O87" s="9">
         <v>4661.28</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="13">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <f t="shared" si="16"/>
         <v>158678</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="15">
         <v>121941</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="15">
         <v>36737</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H87" s="15">
-        <v>0</v>
-      </c>
-      <c r="I87" s="15">
-        <v>0</v>
-      </c>
-      <c r="J87" s="14">
+      <c r="H88" s="15">
+        <v>0</v>
+      </c>
+      <c r="I88" s="15">
+        <v>0</v>
+      </c>
+      <c r="J88" s="14">
         <f t="shared" si="15"/>
         <v>34876</v>
       </c>
-      <c r="K87" s="15">
+      <c r="K88" s="15">
         <v>23300</v>
       </c>
-      <c r="L87" s="15">
+      <c r="L88" s="15">
         <v>11576</v>
       </c>
-      <c r="M87" s="16">
+      <c r="M88" s="16">
         <f t="shared" si="18"/>
         <v>12298.282999999999</v>
       </c>
-      <c r="N87" s="15">
+      <c r="N88" s="15">
         <v>8174.7749999999996</v>
       </c>
-      <c r="O87" s="15">
+      <c r="O88" s="15">
         <v>4123.5079999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <f t="shared" si="16"/>
         <v>168027</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>131482</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>36545</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G89" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H88" s="9">
-        <v>0</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0</v>
-      </c>
-      <c r="J88" s="8">
+      <c r="H89" s="9">
+        <v>0</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0</v>
+      </c>
+      <c r="J89" s="8">
         <f t="shared" si="15"/>
         <v>35688</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K89" s="9">
         <v>24015</v>
       </c>
-      <c r="L88" s="9">
+      <c r="L89" s="9">
         <v>11673</v>
       </c>
-      <c r="M88" s="10">
+      <c r="M89" s="10">
         <f t="shared" si="18"/>
         <v>12153.535</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N89" s="9">
         <v>8289.7060000000001</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O89" s="9">
         <v>3863.8290000000002</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="13">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <f t="shared" si="16"/>
         <v>167317</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <v>128001</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <v>39316</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H89" s="15">
-        <v>0</v>
-      </c>
-      <c r="I89" s="15">
-        <v>0</v>
-      </c>
-      <c r="J89" s="14">
+      <c r="H90" s="15">
+        <v>0</v>
+      </c>
+      <c r="I90" s="15">
+        <v>0</v>
+      </c>
+      <c r="J90" s="14">
         <f t="shared" si="15"/>
         <v>34719</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K90" s="15">
         <v>23289</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L90" s="15">
         <v>11430</v>
       </c>
-      <c r="M89" s="16">
+      <c r="M90" s="16">
         <f t="shared" si="18"/>
         <v>12397.615</v>
       </c>
-      <c r="N89" s="15">
+      <c r="N90" s="15">
         <v>8179.683</v>
       </c>
-      <c r="O89" s="15">
+      <c r="O90" s="15">
         <v>4217.9319999999998</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="7">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <f t="shared" si="16"/>
         <v>175525</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>131590</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>43935</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G91" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H90" s="9">
-        <v>0</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0</v>
-      </c>
-      <c r="J90" s="8">
+      <c r="H91" s="9">
+        <v>0</v>
+      </c>
+      <c r="I91" s="9">
+        <v>0</v>
+      </c>
+      <c r="J91" s="8">
         <f t="shared" si="15"/>
         <v>35499</v>
       </c>
-      <c r="K90" s="9">
+      <c r="K91" s="9">
         <v>23540</v>
       </c>
-      <c r="L90" s="9">
+      <c r="L91" s="9">
         <v>11959</v>
       </c>
-      <c r="M90" s="10">
+      <c r="M91" s="10">
         <f t="shared" si="18"/>
         <v>12920.743</v>
       </c>
-      <c r="N90" s="9">
+      <c r="N91" s="9">
         <v>8102.1610000000001</v>
       </c>
-      <c r="O90" s="9">
+      <c r="O91" s="9">
         <v>4818.5820000000003</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="13">
+    <row r="92" spans="2:15" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D92" s="14">
         <f t="shared" si="16"/>
         <v>153732</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E92" s="15">
         <v>115727</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F92" s="15">
         <v>38005</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G92" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H91" s="15">
-        <v>0</v>
-      </c>
-      <c r="I91" s="15">
-        <v>0</v>
-      </c>
-      <c r="J91" s="14">
+      <c r="H92" s="15">
+        <v>0</v>
+      </c>
+      <c r="I92" s="15">
+        <v>0</v>
+      </c>
+      <c r="J92" s="14">
         <f t="shared" si="15"/>
         <v>31178</v>
       </c>
-      <c r="K91" s="15">
+      <c r="K92" s="15">
         <v>20697</v>
       </c>
-      <c r="L91" s="15">
+      <c r="L92" s="15">
         <v>10481</v>
       </c>
-      <c r="M91" s="16">
+      <c r="M92" s="16">
         <f t="shared" si="18"/>
         <v>10846.098</v>
       </c>
-      <c r="N91" s="15">
+      <c r="N92" s="15">
         <v>6820.4250000000002</v>
       </c>
-      <c r="O91" s="15">
+      <c r="O92" s="15">
         <v>4025.6729999999998</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1">
-      <c r="B92" s="7">
+    <row r="93" spans="2:15" hidden="1">
+      <c r="B93" s="7">
         <v>2018</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D93" s="8">
         <f t="shared" si="16"/>
         <v>165319</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E93" s="9">
         <v>123033</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F93" s="9">
         <v>42286</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G93" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H92" s="9">
-        <v>0</v>
-      </c>
-      <c r="I92" s="9">
-        <v>0</v>
-      </c>
-      <c r="J92" s="8">
+      <c r="H93" s="9">
+        <v>0</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0</v>
+      </c>
+      <c r="J93" s="8">
         <f t="shared" si="15"/>
         <v>35175</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K93" s="9">
         <v>23003</v>
       </c>
-      <c r="L92" s="9">
+      <c r="L93" s="9">
         <v>12172</v>
       </c>
-      <c r="M92" s="10">
+      <c r="M93" s="10">
         <f t="shared" si="18"/>
         <v>12140.277</v>
       </c>
-      <c r="N92" s="9">
+      <c r="N93" s="9">
         <v>7540.7510000000002</v>
       </c>
-      <c r="O92" s="9">
+      <c r="O93" s="9">
         <v>4599.5259999999998</v>
       </c>
-    </row>
-    <row r="93" spans="2:15">
-      <c r="B93" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N93" s="15"/>
     </row>
     <row r="94" spans="2:15">
       <c r="B94" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N94" s="15"/>
-      <c r="O94" s="30"/>
     </row>
     <row r="95" spans="2:15">
       <c r="B95" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N95" s="15"/>
+      <c r="O95" s="30"/>
     </row>
     <row r="96" spans="2:15">
       <c r="B96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N96" s="15"/>
+    </row>
+    <row r="97" spans="2:14">
+      <c r="B97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N96" s="15"/>
-    </row>
-    <row r="97" spans="2:14">
-      <c r="B97" s="35" t="s">
+      <c r="N97" s="15"/>
+    </row>
+    <row r="98" spans="2:14">
+      <c r="B98" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="N97" s="15"/>
-    </row>
-    <row r="98" spans="2:14">
-      <c r="B98" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="N98" s="15"/>
     </row>
     <row r="99" spans="2:14">
       <c r="B99" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14">
+      <c r="B100" s="3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Operaciones_pasajeros_A.xlsx
+++ b/Operaciones_pasajeros_A.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84FCF65-A682-40AA-822F-0B89CE35C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6815B-5F21-4AE7-8E35-E73D19B74DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
   <si>
     <t>Internacional</t>
   </si>
@@ -149,7 +149,7 @@
     <t xml:space="preserve"> El concepto de "Operaciones del AIFA", a partir del mes de enero de 2025 hubo una reclasificación en las operaciones de carga del AIFA.</t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -778,8 +778,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O93" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O93" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O95" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1038,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O100"/>
+  <dimension ref="B2:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1149,47 +1149,47 @@
         <v>2025</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="14">
         <f>SUM(E6:F6)</f>
-        <v>163693</v>
+        <v>149261</v>
       </c>
       <c r="E6" s="15">
-        <v>117744</v>
+        <v>109395</v>
       </c>
       <c r="F6" s="15">
-        <v>45949</v>
+        <v>39866</v>
       </c>
       <c r="G6" s="14">
         <f>SUM(H6:I6)</f>
-        <v>5726</v>
+        <v>5352</v>
       </c>
       <c r="H6" s="15">
-        <v>4515</v>
+        <v>4064</v>
       </c>
       <c r="I6" s="15">
-        <v>1211</v>
+        <v>1288</v>
       </c>
       <c r="J6" s="14">
         <f>SUM(K6:L6)</f>
-        <v>24458</v>
+        <v>24639</v>
       </c>
       <c r="K6" s="15">
-        <v>15312</v>
+        <v>15464</v>
       </c>
       <c r="L6" s="15">
-        <v>9146</v>
+        <v>9175</v>
       </c>
       <c r="M6" s="16">
         <f>SUM(N6:O6)</f>
-        <v>16382.235000000001</v>
+        <v>15347.235000000001</v>
       </c>
       <c r="N6" s="15">
-        <v>11055.959000000001</v>
+        <v>10458.013000000001</v>
       </c>
       <c r="O6" s="15">
-        <v>5326.2759999999998</v>
+        <v>4889.2219999999998</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -1197,47 +1197,47 @@
         <v>2025</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8">
         <f>SUM(E7:F7)</f>
-        <v>168971</v>
+        <v>158854</v>
       </c>
       <c r="E7" s="9">
-        <v>117821</v>
+        <v>118274</v>
       </c>
       <c r="F7" s="9">
-        <v>51150</v>
+        <v>40580</v>
       </c>
       <c r="G7" s="8">
         <f>SUM(H7:I7)</f>
-        <v>5614</v>
+        <v>5675</v>
       </c>
       <c r="H7" s="9">
-        <v>4387</v>
+        <v>4378</v>
       </c>
       <c r="I7" s="9">
-        <v>1227</v>
+        <v>1297</v>
       </c>
       <c r="J7" s="8">
         <f>SUM(K7:L7)</f>
-        <v>25250</v>
+        <v>25288</v>
       </c>
       <c r="K7" s="9">
-        <v>15847</v>
+        <v>16099</v>
       </c>
       <c r="L7" s="9">
-        <v>9403</v>
+        <v>9189</v>
       </c>
       <c r="M7" s="10">
         <f>SUM(N7:O7)</f>
-        <v>16721.387000000002</v>
+        <v>15562.080999999998</v>
       </c>
       <c r="N7" s="9">
-        <v>10657.406000000001</v>
+        <v>10871.63</v>
       </c>
       <c r="O7" s="11">
-        <v>6063.9809999999998</v>
+        <v>4690.451</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -1245,191 +1245,191 @@
         <v>2025</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" ref="D8:D13" si="0">SUM(E8:F8)</f>
+        <v>163693</v>
+      </c>
+      <c r="E8" s="15">
+        <v>117744</v>
+      </c>
+      <c r="F8" s="15">
+        <v>45949</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" ref="G8:G13" si="1">SUM(H8:I8)</f>
+        <v>5726</v>
+      </c>
+      <c r="H8" s="15">
+        <v>4515</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1211</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" ref="J8:J13" si="2">SUM(K8:L8)</f>
+        <v>24458</v>
+      </c>
+      <c r="K8" s="15">
+        <v>15312</v>
+      </c>
+      <c r="L8" s="15">
+        <v>9146</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" ref="M8:M13" si="3">SUM(N8:O8)</f>
+        <v>16382.235000000001</v>
+      </c>
+      <c r="N8" s="15">
+        <v>11055.959000000001</v>
+      </c>
+      <c r="O8" s="15">
+        <v>5326.2759999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>168971</v>
+      </c>
+      <c r="E9" s="9">
+        <v>117821</v>
+      </c>
+      <c r="F9" s="9">
+        <v>51150</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
+        <v>5614</v>
+      </c>
+      <c r="H9" s="9">
+        <v>4387</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1227</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="2"/>
+        <v>25250</v>
+      </c>
+      <c r="K9" s="9">
+        <v>15847</v>
+      </c>
+      <c r="L9" s="9">
+        <v>9403</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="3"/>
+        <v>16721.387000000002</v>
+      </c>
+      <c r="N9" s="9">
+        <v>10657.406000000001</v>
+      </c>
+      <c r="O9" s="11">
+        <v>6063.9809999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14">
-        <f>SUM(E8:F8)</f>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
         <v>148741</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E10" s="15">
         <v>105136</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F10" s="15">
         <v>43605</v>
       </c>
-      <c r="G8" s="14">
-        <f>SUM(H8:I8)</f>
+      <c r="G10" s="14">
+        <f t="shared" si="1"/>
         <v>5061</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H10" s="15">
         <v>3981</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I10" s="15">
         <v>1080</v>
       </c>
-      <c r="J8" s="14">
-        <f>SUM(K8:L8)</f>
+      <c r="J10" s="14">
+        <f t="shared" si="2"/>
         <v>22852</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K10" s="15">
         <v>14515</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L10" s="15">
         <v>8337</v>
       </c>
-      <c r="M8" s="16">
-        <f>SUM(N8:O8)</f>
+      <c r="M10" s="16">
+        <f t="shared" si="3"/>
         <v>14261.053</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N10" s="15">
         <v>9133.57</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O10" s="15">
         <v>5127.4830000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="18">
+    <row r="11" spans="2:15">
+      <c r="B11" s="18">
         <v>2025</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="20">
-        <f>SUM(E9:F9)</f>
+      <c r="D11" s="20">
+        <f t="shared" si="0"/>
         <v>163357</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E11" s="21">
         <v>114244</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F11" s="21">
         <v>49113</v>
       </c>
-      <c r="G9" s="20">
-        <f>SUM(H9:I9)</f>
+      <c r="G11" s="20">
+        <f t="shared" si="1"/>
         <v>5619</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H11" s="21">
         <v>4438</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I11" s="21">
         <v>1181</v>
       </c>
-      <c r="J9" s="20">
-        <f>SUM(K9:L9)</f>
+      <c r="J11" s="20">
+        <f t="shared" si="2"/>
         <v>25418</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K11" s="21">
         <v>15960</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L11" s="21">
         <v>9458</v>
       </c>
-      <c r="M9" s="22">
-        <f>SUM(N9:O9)</f>
+      <c r="M11" s="22">
+        <f t="shared" si="3"/>
         <v>16253.322</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N11" s="21">
         <v>10323.901</v>
       </c>
-      <c r="O9" s="23">
+      <c r="O11" s="23">
         <v>5929.4210000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="12">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="14">
-        <f>SUM(E10:F10)</f>
-        <v>167031</v>
-      </c>
-      <c r="E10" s="15">
-        <v>116920</v>
-      </c>
-      <c r="F10" s="15">
-        <v>50111</v>
-      </c>
-      <c r="G10" s="14">
-        <f>SUM(H10:I10)</f>
-        <v>6198</v>
-      </c>
-      <c r="H10" s="15">
-        <v>4882</v>
-      </c>
-      <c r="I10" s="15">
-        <v>1316</v>
-      </c>
-      <c r="J10" s="14">
-        <f>SUM(K10:L10)</f>
-        <v>25085</v>
-      </c>
-      <c r="K10" s="15">
-        <v>15393</v>
-      </c>
-      <c r="L10" s="15">
-        <v>9692</v>
-      </c>
-      <c r="M10" s="16">
-        <f>SUM(N10:O10)</f>
-        <v>17224.003000000001</v>
-      </c>
-      <c r="N10" s="15">
-        <v>11183.15</v>
-      </c>
-      <c r="O10" s="17">
-        <v>6040.8530000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="6">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8">
-        <f>SUM(E11:F11)</f>
-        <v>163956</v>
-      </c>
-      <c r="E11" s="9">
-        <v>119294</v>
-      </c>
-      <c r="F11" s="9">
-        <v>44662</v>
-      </c>
-      <c r="G11" s="8">
-        <f>SUM(H11:I11)</f>
-        <v>6142</v>
-      </c>
-      <c r="H11" s="9">
-        <v>4751</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1391</v>
-      </c>
-      <c r="J11" s="8">
-        <f>SUM(K11:L11)</f>
-        <v>24195</v>
-      </c>
-      <c r="K11" s="9">
-        <v>15199</v>
-      </c>
-      <c r="L11" s="9">
-        <v>8996</v>
-      </c>
-      <c r="M11" s="10">
-        <f>SUM(N11:O11)</f>
-        <v>15816.669000000002</v>
-      </c>
-      <c r="N11" s="9">
-        <v>10696.485000000001</v>
-      </c>
-      <c r="O11" s="11">
-        <v>5120.1840000000002</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -1437,47 +1437,47 @@
         <v>2024</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="14">
-        <f t="shared" ref="D12" si="0">SUM(E12:F12)</f>
-        <v>154230</v>
+        <f t="shared" si="0"/>
+        <v>167031</v>
       </c>
       <c r="E12" s="15">
-        <v>116413</v>
+        <v>116920</v>
       </c>
       <c r="F12" s="15">
-        <v>37817</v>
+        <v>50111</v>
       </c>
       <c r="G12" s="14">
-        <f t="shared" ref="G12" si="1">SUM(H12:I12)</f>
-        <v>6250</v>
+        <f t="shared" si="1"/>
+        <v>6198</v>
       </c>
       <c r="H12" s="15">
-        <v>4792</v>
+        <v>4882</v>
       </c>
       <c r="I12" s="15">
-        <v>1458</v>
+        <v>1316</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" ref="J12" si="2">SUM(K12:L12)</f>
-        <v>24943</v>
+        <f t="shared" si="2"/>
+        <v>25085</v>
       </c>
       <c r="K12" s="15">
-        <v>16106</v>
+        <v>15393</v>
       </c>
       <c r="L12" s="15">
-        <v>8837</v>
+        <v>9692</v>
       </c>
       <c r="M12" s="16">
-        <f t="shared" ref="M12" si="3">SUM(N12:O12)</f>
-        <v>14932.208999999999</v>
+        <f t="shared" si="3"/>
+        <v>17224.003000000001</v>
       </c>
       <c r="N12" s="15">
-        <v>10562.91</v>
+        <v>11183.15</v>
       </c>
       <c r="O12" s="17">
-        <v>4369.299</v>
+        <v>6040.8530000000001</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -1485,47 +1485,47 @@
         <v>2024</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8">
-        <f>SUM(E13:F13)</f>
-        <v>141210</v>
+        <f t="shared" si="0"/>
+        <v>163956</v>
       </c>
       <c r="E13" s="9">
-        <v>108351</v>
+        <v>119294</v>
       </c>
       <c r="F13" s="9">
-        <v>32859</v>
+        <v>44662</v>
       </c>
       <c r="G13" s="8">
-        <f>SUM(H13:I13)</f>
-        <v>5876</v>
+        <f t="shared" si="1"/>
+        <v>6142</v>
       </c>
       <c r="H13" s="9">
-        <v>4518</v>
+        <v>4751</v>
       </c>
       <c r="I13" s="9">
-        <v>1358</v>
+        <v>1391</v>
       </c>
       <c r="J13" s="8">
-        <f>SUM(K13:L13)</f>
-        <v>24172</v>
+        <f t="shared" si="2"/>
+        <v>24195</v>
       </c>
       <c r="K13" s="9">
-        <v>15661</v>
+        <v>15199</v>
       </c>
       <c r="L13" s="9">
-        <v>8511</v>
+        <v>8996</v>
       </c>
       <c r="M13" s="10">
-        <f>SUM(N13:O13)</f>
-        <v>13837.021999999999</v>
+        <f t="shared" si="3"/>
+        <v>15816.669000000002</v>
       </c>
       <c r="N13" s="9">
-        <v>10036.638999999999</v>
+        <v>10696.485000000001</v>
       </c>
       <c r="O13" s="11">
-        <v>3800.3829999999998</v>
+        <v>5120.1840000000002</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -1533,47 +1533,47 @@
         <v>2024</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D14" s="14">
-        <f>SUM(E14:F14)</f>
-        <v>157045</v>
+        <f t="shared" ref="D14" si="4">SUM(E14:F14)</f>
+        <v>154230</v>
       </c>
       <c r="E14" s="15">
-        <v>118762</v>
+        <v>116413</v>
       </c>
       <c r="F14" s="15">
-        <v>38283</v>
+        <v>37817</v>
       </c>
       <c r="G14" s="14">
-        <f t="shared" ref="G14:G48" si="4">SUM(H14:I14)</f>
-        <v>6079</v>
+        <f t="shared" ref="G14" si="5">SUM(H14:I14)</f>
+        <v>6250</v>
       </c>
       <c r="H14" s="15">
-        <v>4643</v>
+        <v>4792</v>
       </c>
       <c r="I14" s="15">
-        <v>1436</v>
+        <v>1458</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" ref="J14:J44" si="5">SUM(K14:L14)</f>
-        <v>26410</v>
+        <f t="shared" ref="J14" si="6">SUM(K14:L14)</f>
+        <v>24943</v>
       </c>
       <c r="K14" s="15">
-        <v>17075</v>
+        <v>16106.000000000002</v>
       </c>
       <c r="L14" s="15">
-        <v>9335</v>
+        <v>8837</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" ref="M14:M48" si="6">SUM(N14:O14)</f>
-        <v>16048.866999999998</v>
+        <f t="shared" ref="M14" si="7">SUM(N14:O14)</f>
+        <v>14932.208999999999</v>
       </c>
       <c r="N14" s="15">
-        <v>11325.605</v>
+        <v>10562.91</v>
       </c>
       <c r="O14" s="17">
-        <v>4723.2619999999997</v>
+        <v>4369.299</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -1581,47 +1581,47 @@
         <v>2024</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" ref="D15:D16" si="7">SUM(E15:F15)</f>
-        <v>157419</v>
+        <f>SUM(E15:F15)</f>
+        <v>141210</v>
       </c>
       <c r="E15" s="9">
-        <v>117177</v>
+        <v>108351</v>
       </c>
       <c r="F15" s="9">
-        <v>40242</v>
+        <v>32859</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" ref="G15:G17" si="8">SUM(H15:I15)</f>
-        <v>6016</v>
+        <f>SUM(H15:I15)</f>
+        <v>5876</v>
       </c>
       <c r="H15" s="9">
-        <v>4625</v>
+        <v>4518</v>
       </c>
       <c r="I15" s="9">
-        <v>1391</v>
+        <v>1358</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="5"/>
-        <v>26445</v>
+        <f>SUM(K15:L15)</f>
+        <v>24172</v>
       </c>
       <c r="K15" s="9">
-        <v>16888</v>
+        <v>15661</v>
       </c>
       <c r="L15" s="9">
-        <v>9557</v>
+        <v>8511</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" ref="M15:M17" si="9">SUM(N15:O15)</f>
-        <v>16878.663</v>
+        <f>SUM(N15:O15)</f>
+        <v>13837.021999999999</v>
       </c>
       <c r="N15" s="9">
-        <v>11522.672</v>
+        <v>10036.638999999999</v>
       </c>
       <c r="O15" s="11">
-        <v>5355.991</v>
+        <v>3800.3829999999998</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -1629,47 +1629,47 @@
         <v>2024</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="14">
-        <f t="shared" si="7"/>
-        <v>148346</v>
+        <f>SUM(E16:F16)</f>
+        <v>157045</v>
       </c>
       <c r="E16" s="15">
-        <v>109282</v>
+        <v>118762</v>
       </c>
       <c r="F16" s="15">
-        <v>39064</v>
+        <v>38283</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="8"/>
-        <v>5818</v>
+        <f t="shared" ref="G16:G50" si="8">SUM(H16:I16)</f>
+        <v>6079</v>
       </c>
       <c r="H16" s="15">
-        <v>4413</v>
+        <v>4643</v>
       </c>
       <c r="I16" s="15">
-        <v>1405</v>
+        <v>1436</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="5"/>
-        <v>25325</v>
+        <f t="shared" ref="J16:J46" si="9">SUM(K16:L16)</f>
+        <v>26410</v>
       </c>
       <c r="K16" s="15">
-        <v>16635</v>
+        <v>17075</v>
       </c>
       <c r="L16" s="15">
-        <v>8690</v>
+        <v>9335</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="9"/>
-        <v>15314.61</v>
+        <f t="shared" ref="M16:M50" si="10">SUM(N16:O16)</f>
+        <v>16048.866999999998</v>
       </c>
       <c r="N16" s="15">
-        <v>10370.779</v>
+        <v>11325.605</v>
       </c>
       <c r="O16" s="17">
-        <v>4943.8310000000001</v>
+        <v>4723.2619999999997</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -1677,47 +1677,47 @@
         <v>2024</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="8">
-        <f>SUM(E17:F17)</f>
-        <v>159550</v>
+        <f t="shared" ref="D17:D18" si="11">SUM(E17:F17)</f>
+        <v>157419</v>
       </c>
       <c r="E17" s="9">
-        <v>119704</v>
+        <v>117177</v>
       </c>
       <c r="F17" s="9">
-        <v>39846</v>
+        <v>40242</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="8"/>
-        <v>5832</v>
+        <f t="shared" ref="G17:G19" si="12">SUM(H17:I17)</f>
+        <v>6016</v>
       </c>
       <c r="H17" s="9">
-        <v>4318</v>
+        <v>4625</v>
       </c>
       <c r="I17" s="9">
-        <v>1514</v>
+        <v>1391</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="5"/>
-        <v>26164</v>
+        <f t="shared" si="9"/>
+        <v>26445</v>
       </c>
       <c r="K17" s="9">
-        <v>17387</v>
+        <v>16888</v>
       </c>
       <c r="L17" s="9">
-        <v>8777</v>
+        <v>9557</v>
       </c>
       <c r="M17" s="10">
-        <f t="shared" si="9"/>
-        <v>15380.428</v>
+        <f t="shared" ref="M17:M19" si="13">SUM(N17:O17)</f>
+        <v>16878.663</v>
       </c>
       <c r="N17" s="9">
-        <v>10623.656000000001</v>
+        <v>11522.672</v>
       </c>
       <c r="O17" s="11">
-        <v>4756.7719999999999</v>
+        <v>5355.991</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -1725,47 +1725,47 @@
         <v>2024</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="14">
-        <f t="shared" ref="D18:D48" si="10">SUM(E18:F18)</f>
-        <v>158975</v>
+        <f t="shared" si="11"/>
+        <v>148346</v>
       </c>
       <c r="E18" s="15">
-        <v>115595</v>
+        <v>109282</v>
       </c>
       <c r="F18" s="15">
-        <v>43380</v>
+        <v>39064</v>
       </c>
       <c r="G18" s="14">
-        <f t="shared" si="4"/>
-        <v>5691</v>
+        <f t="shared" si="12"/>
+        <v>5818</v>
       </c>
       <c r="H18" s="15">
-        <v>4266</v>
+        <v>4413</v>
       </c>
       <c r="I18" s="15">
-        <v>1425</v>
+        <v>1405</v>
       </c>
       <c r="J18" s="14">
-        <f t="shared" si="5"/>
-        <v>25292</v>
+        <f t="shared" si="9"/>
+        <v>25325</v>
       </c>
       <c r="K18" s="15">
-        <v>16701</v>
+        <v>16635</v>
       </c>
       <c r="L18" s="15">
-        <v>8591</v>
+        <v>8690</v>
       </c>
       <c r="M18" s="16">
-        <f t="shared" si="6"/>
-        <v>15232.386999999999</v>
+        <f t="shared" si="13"/>
+        <v>15314.61</v>
       </c>
       <c r="N18" s="15">
-        <v>10112.061</v>
+        <v>10370.779</v>
       </c>
       <c r="O18" s="17">
-        <v>5120.326</v>
+        <v>4943.8310000000001</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -1773,47 +1773,47 @@
         <v>2024</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="10"/>
-        <v>160745</v>
+        <f>SUM(E19:F19)</f>
+        <v>159550</v>
       </c>
       <c r="E19" s="9">
-        <v>111522</v>
+        <v>119704</v>
       </c>
       <c r="F19" s="9">
-        <v>49223</v>
+        <v>39846</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="4"/>
-        <v>4951</v>
+        <f t="shared" si="12"/>
+        <v>5832</v>
       </c>
       <c r="H19" s="9">
-        <v>3643</v>
+        <v>4318</v>
       </c>
       <c r="I19" s="9">
-        <v>1308</v>
+        <v>1514</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="5"/>
-        <v>25196</v>
+        <f t="shared" si="9"/>
+        <v>26164</v>
       </c>
       <c r="K19" s="9">
-        <v>15924</v>
+        <v>17387</v>
       </c>
       <c r="L19" s="9">
-        <v>9272</v>
+        <v>8777</v>
       </c>
       <c r="M19" s="10">
-        <f t="shared" si="6"/>
-        <v>15971.481</v>
+        <f t="shared" si="13"/>
+        <v>15380.428</v>
       </c>
       <c r="N19" s="9">
-        <v>9845.5509999999995</v>
+        <v>10623.656000000001</v>
       </c>
       <c r="O19" s="11">
-        <v>6125.93</v>
+        <v>4756.7719999999999</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -1821,239 +1821,239 @@
         <v>2024</v>
       </c>
       <c r="C20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" ref="D20:D50" si="14">SUM(E20:F20)</f>
+        <v>158975</v>
+      </c>
+      <c r="E20" s="15">
+        <v>115595</v>
+      </c>
+      <c r="F20" s="15">
+        <v>43380</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="8"/>
+        <v>5691</v>
+      </c>
+      <c r="H20" s="15">
+        <v>4266</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1425</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="9"/>
+        <v>25292</v>
+      </c>
+      <c r="K20" s="15">
+        <v>16701</v>
+      </c>
+      <c r="L20" s="15">
+        <v>8591</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="10"/>
+        <v>15232.386999999999</v>
+      </c>
+      <c r="N20" s="15">
+        <v>10112.061</v>
+      </c>
+      <c r="O20" s="17">
+        <v>5120.326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="6">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="14"/>
+        <v>160745</v>
+      </c>
+      <c r="E21" s="9">
+        <v>111522</v>
+      </c>
+      <c r="F21" s="9">
+        <v>49223</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="8"/>
+        <v>4951</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3643</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1308</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="9"/>
+        <v>25196</v>
+      </c>
+      <c r="K21" s="9">
+        <v>15924</v>
+      </c>
+      <c r="L21" s="9">
+        <v>9272</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="10"/>
+        <v>15971.481</v>
+      </c>
+      <c r="N21" s="9">
+        <v>9845.5509999999995</v>
+      </c>
+      <c r="O21" s="11">
+        <v>6125.93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="12">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D22" s="14">
+        <f t="shared" si="14"/>
+        <v>148853</v>
+      </c>
+      <c r="E22" s="15">
+        <v>104440</v>
+      </c>
+      <c r="F22" s="15">
+        <v>44413</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="8"/>
+        <v>4469</v>
+      </c>
+      <c r="H22" s="15">
+        <v>3222</v>
+      </c>
+      <c r="I22" s="15">
+        <v>1247</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="9"/>
+        <v>23784</v>
+      </c>
+      <c r="K22" s="15">
+        <v>15355</v>
+      </c>
+      <c r="L22" s="15">
+        <v>8429</v>
+      </c>
+      <c r="M22" s="16">
         <f t="shared" si="10"/>
-        <v>148853</v>
-      </c>
-      <c r="E20" s="15">
-        <v>104440</v>
-      </c>
-      <c r="F20" s="15">
-        <v>44413</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="4"/>
-        <v>4469</v>
-      </c>
-      <c r="H20" s="15">
-        <v>3222</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1247</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="5"/>
-        <v>23784</v>
-      </c>
-      <c r="K20" s="15">
-        <v>15355</v>
-      </c>
-      <c r="L20" s="15">
-        <v>8429</v>
-      </c>
-      <c r="M20" s="16">
-        <f t="shared" si="6"/>
         <v>14272.33</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N22" s="15">
         <v>8893.5959999999995</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O22" s="17">
         <v>5378.7340000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="18">
+    <row r="23" spans="2:15">
+      <c r="B23" s="18">
         <v>2024</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D23" s="20">
+        <f t="shared" si="14"/>
+        <v>156666</v>
+      </c>
+      <c r="E23" s="21">
+        <v>108922</v>
+      </c>
+      <c r="F23" s="21">
+        <v>47744</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="8"/>
+        <v>4402</v>
+      </c>
+      <c r="H23" s="21">
+        <v>3190</v>
+      </c>
+      <c r="I23" s="21">
+        <v>1212</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="9"/>
+        <v>25531</v>
+      </c>
+      <c r="K23" s="21">
+        <v>16217</v>
+      </c>
+      <c r="L23" s="21">
+        <v>9314</v>
+      </c>
+      <c r="M23" s="22">
         <f t="shared" si="10"/>
-        <v>156666</v>
-      </c>
-      <c r="E21" s="21">
-        <v>108922</v>
-      </c>
-      <c r="F21" s="21">
-        <v>47744</v>
-      </c>
-      <c r="G21" s="20">
-        <f t="shared" si="4"/>
-        <v>4402</v>
-      </c>
-      <c r="H21" s="21">
-        <v>3190</v>
-      </c>
-      <c r="I21" s="21">
-        <v>1212</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="5"/>
-        <v>25531</v>
-      </c>
-      <c r="K21" s="21">
-        <v>16217</v>
-      </c>
-      <c r="L21" s="21">
-        <v>9314</v>
-      </c>
-      <c r="M21" s="22">
-        <f t="shared" si="6"/>
         <v>15551.477000000001</v>
       </c>
-      <c r="N21" s="21">
+      <c r="N23" s="21">
         <v>9753.6540000000005</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O23" s="23">
         <v>5797.8230000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:15" hidden="1">
-      <c r="B22" s="24">
+    <row r="24" spans="2:15" hidden="1">
+      <c r="B24" s="24">
         <v>2023</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D24" s="26">
+        <f t="shared" si="14"/>
+        <v>163911</v>
+      </c>
+      <c r="E24" s="27">
+        <v>118221</v>
+      </c>
+      <c r="F24" s="27">
+        <v>45690</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="8"/>
+        <v>2455</v>
+      </c>
+      <c r="H24" s="27">
+        <v>2237</v>
+      </c>
+      <c r="I24" s="27">
+        <v>218</v>
+      </c>
+      <c r="J24" s="26">
+        <f t="shared" si="9"/>
+        <v>28577</v>
+      </c>
+      <c r="K24" s="27">
+        <v>18492</v>
+      </c>
+      <c r="L24" s="27">
+        <v>10085</v>
+      </c>
+      <c r="M24" s="28">
         <f t="shared" si="10"/>
-        <v>163911</v>
-      </c>
-      <c r="E22" s="27">
-        <v>118221</v>
-      </c>
-      <c r="F22" s="27">
-        <v>45690</v>
-      </c>
-      <c r="G22" s="26">
-        <f t="shared" si="4"/>
-        <v>2455</v>
-      </c>
-      <c r="H22" s="27">
-        <v>2237</v>
-      </c>
-      <c r="I22" s="27">
-        <v>218</v>
-      </c>
-      <c r="J22" s="26">
-        <f t="shared" si="5"/>
-        <v>28577</v>
-      </c>
-      <c r="K22" s="27">
-        <v>18492</v>
-      </c>
-      <c r="L22" s="27">
-        <v>10085</v>
-      </c>
-      <c r="M22" s="28">
-        <f t="shared" si="6"/>
         <v>16722.900000000001</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N24" s="27">
         <v>10949.384</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O24" s="29">
         <v>5773.5159999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" hidden="1">
-      <c r="B23" s="6">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="10"/>
-        <v>158913</v>
-      </c>
-      <c r="E23" s="9">
-        <v>119949</v>
-      </c>
-      <c r="F23" s="9">
-        <v>38964</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="4"/>
-        <v>2027</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1838</v>
-      </c>
-      <c r="I23" s="9">
-        <v>189</v>
-      </c>
-      <c r="J23" s="8">
-        <f t="shared" si="5"/>
-        <v>27656</v>
-      </c>
-      <c r="K23" s="9">
-        <v>18844</v>
-      </c>
-      <c r="L23" s="9">
-        <v>8812</v>
-      </c>
-      <c r="M23" s="10">
-        <f t="shared" si="6"/>
-        <v>15490.629000000001</v>
-      </c>
-      <c r="N23" s="9">
-        <v>10633.794</v>
-      </c>
-      <c r="O23" s="11">
-        <v>4856.835</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="12">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="14">
-        <f t="shared" si="10"/>
-        <v>155697</v>
-      </c>
-      <c r="E24" s="15">
-        <v>120652</v>
-      </c>
-      <c r="F24" s="15">
-        <v>35045</v>
-      </c>
-      <c r="G24" s="14">
-        <f t="shared" si="4"/>
-        <v>2106</v>
-      </c>
-      <c r="H24" s="15">
-        <v>1897</v>
-      </c>
-      <c r="I24" s="15">
-        <v>209</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="5"/>
-        <v>27597</v>
-      </c>
-      <c r="K24" s="15">
-        <v>18942</v>
-      </c>
-      <c r="L24" s="15">
-        <v>8655</v>
-      </c>
-      <c r="M24" s="16">
-        <f t="shared" si="6"/>
-        <v>15213.704999999998</v>
-      </c>
-      <c r="N24" s="15">
-        <v>10935.924999999999</v>
-      </c>
-      <c r="O24" s="17">
-        <v>4277.78</v>
       </c>
     </row>
     <row r="25" spans="2:15" hidden="1">
@@ -2061,47 +2061,47 @@
         <v>2023</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="8">
+        <f t="shared" si="14"/>
+        <v>158913</v>
+      </c>
+      <c r="E25" s="9">
+        <v>119949</v>
+      </c>
+      <c r="F25" s="9">
+        <v>38964</v>
+      </c>
+      <c r="G25" s="8">
+        <f t="shared" si="8"/>
+        <v>2027</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1838</v>
+      </c>
+      <c r="I25" s="9">
+        <v>189</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="9"/>
+        <v>27656</v>
+      </c>
+      <c r="K25" s="9">
+        <v>18844</v>
+      </c>
+      <c r="L25" s="9">
+        <v>8812</v>
+      </c>
+      <c r="M25" s="10">
         <f t="shared" si="10"/>
-        <v>146668</v>
-      </c>
-      <c r="E25" s="9">
-        <v>114905</v>
-      </c>
-      <c r="F25" s="9">
-        <v>31763</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" si="4"/>
-        <v>1731</v>
-      </c>
-      <c r="H25" s="9">
-        <v>1549</v>
-      </c>
-      <c r="I25" s="9">
-        <v>182</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="5"/>
-        <v>26793</v>
-      </c>
-      <c r="K25" s="9">
-        <v>18467</v>
-      </c>
-      <c r="L25" s="9">
-        <v>8326</v>
-      </c>
-      <c r="M25" s="10">
-        <f t="shared" si="6"/>
-        <v>13986.931</v>
+        <v>15490.629000000001</v>
       </c>
       <c r="N25" s="9">
-        <v>10236.332</v>
+        <v>10633.794</v>
       </c>
       <c r="O25" s="11">
-        <v>3750.5990000000002</v>
+        <v>4856.835</v>
       </c>
     </row>
     <row r="26" spans="2:15" hidden="1">
@@ -2109,47 +2109,47 @@
         <v>2023</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D26" s="14">
+        <f t="shared" si="14"/>
+        <v>155697</v>
+      </c>
+      <c r="E26" s="15">
+        <v>120652</v>
+      </c>
+      <c r="F26" s="15">
+        <v>35045</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="8"/>
+        <v>2106</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1897</v>
+      </c>
+      <c r="I26" s="15">
+        <v>209</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="9"/>
+        <v>27597</v>
+      </c>
+      <c r="K26" s="15">
+        <v>18942</v>
+      </c>
+      <c r="L26" s="15">
+        <v>8655</v>
+      </c>
+      <c r="M26" s="16">
         <f t="shared" si="10"/>
-        <v>162973</v>
-      </c>
-      <c r="E26" s="15">
-        <v>125545</v>
-      </c>
-      <c r="F26" s="15">
-        <v>37428</v>
-      </c>
-      <c r="G26" s="14">
-        <f t="shared" si="4"/>
-        <v>2108</v>
-      </c>
-      <c r="H26" s="15">
-        <v>1923</v>
-      </c>
-      <c r="I26" s="15">
-        <v>185</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="5"/>
-        <v>29095</v>
-      </c>
-      <c r="K26" s="15">
-        <v>19522</v>
-      </c>
-      <c r="L26" s="15">
-        <v>9573</v>
-      </c>
-      <c r="M26" s="16">
-        <f t="shared" si="6"/>
-        <v>16766.697</v>
+        <v>15213.704999999998</v>
       </c>
       <c r="N26" s="15">
-        <v>12077.877</v>
+        <v>10935.924999999999</v>
       </c>
       <c r="O26" s="17">
-        <v>4688.82</v>
+        <v>4277.78</v>
       </c>
     </row>
     <row r="27" spans="2:15" hidden="1">
@@ -2157,47 +2157,47 @@
         <v>2023</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D27" s="8">
+        <f t="shared" si="14"/>
+        <v>146668</v>
+      </c>
+      <c r="E27" s="9">
+        <v>114905</v>
+      </c>
+      <c r="F27" s="9">
+        <v>31763</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="8"/>
+        <v>1731</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1549</v>
+      </c>
+      <c r="I27" s="9">
+        <v>182</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="9"/>
+        <v>26793</v>
+      </c>
+      <c r="K27" s="9">
+        <v>18467</v>
+      </c>
+      <c r="L27" s="9">
+        <v>8326</v>
+      </c>
+      <c r="M27" s="10">
         <f t="shared" si="10"/>
-        <v>164170</v>
-      </c>
-      <c r="E27" s="9">
-        <v>124900</v>
-      </c>
-      <c r="F27" s="9">
-        <v>39270</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="4"/>
-        <v>2029</v>
-      </c>
-      <c r="H27" s="9">
-        <v>1857</v>
-      </c>
-      <c r="I27" s="9">
-        <v>172</v>
-      </c>
-      <c r="J27" s="8">
-        <f t="shared" si="5"/>
-        <v>29231</v>
-      </c>
-      <c r="K27" s="9">
-        <v>19311</v>
-      </c>
-      <c r="L27" s="9">
-        <v>9920</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="6"/>
-        <v>17331.974000000002</v>
+        <v>13986.931</v>
       </c>
       <c r="N27" s="9">
-        <v>12036.081</v>
+        <v>10236.332</v>
       </c>
       <c r="O27" s="11">
-        <v>5295.893</v>
+        <v>3750.5990000000002</v>
       </c>
     </row>
     <row r="28" spans="2:15" hidden="1">
@@ -2205,47 +2205,47 @@
         <v>2023</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="14">
+        <f t="shared" si="14"/>
+        <v>162973</v>
+      </c>
+      <c r="E28" s="15">
+        <v>125545</v>
+      </c>
+      <c r="F28" s="15">
+        <v>37428</v>
+      </c>
+      <c r="G28" s="14">
+        <f t="shared" si="8"/>
+        <v>2108</v>
+      </c>
+      <c r="H28" s="15">
+        <v>1923</v>
+      </c>
+      <c r="I28" s="15">
+        <v>185</v>
+      </c>
+      <c r="J28" s="14">
+        <f t="shared" si="9"/>
+        <v>29095</v>
+      </c>
+      <c r="K28" s="15">
+        <v>19522</v>
+      </c>
+      <c r="L28" s="15">
+        <v>9573</v>
+      </c>
+      <c r="M28" s="16">
         <f t="shared" si="10"/>
-        <v>158074</v>
-      </c>
-      <c r="E28" s="15">
-        <v>120413</v>
-      </c>
-      <c r="F28" s="15">
-        <v>37661</v>
-      </c>
-      <c r="G28" s="14">
-        <f t="shared" si="4"/>
-        <v>1839</v>
-      </c>
-      <c r="H28" s="15">
-        <v>1681</v>
-      </c>
-      <c r="I28" s="15">
-        <v>158</v>
-      </c>
-      <c r="J28" s="14">
-        <f t="shared" si="5"/>
-        <v>28215</v>
-      </c>
-      <c r="K28" s="15">
-        <v>18972</v>
-      </c>
-      <c r="L28" s="15">
-        <v>9243</v>
-      </c>
-      <c r="M28" s="16">
-        <f t="shared" si="6"/>
-        <v>15257.142</v>
+        <v>16766.697</v>
       </c>
       <c r="N28" s="15">
-        <v>10569.871999999999</v>
+        <v>12077.877</v>
       </c>
       <c r="O28" s="17">
-        <v>4687.2700000000004</v>
+        <v>4688.82</v>
       </c>
     </row>
     <row r="29" spans="2:15" hidden="1">
@@ -2253,47 +2253,47 @@
         <v>2023</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="8">
+        <f t="shared" si="14"/>
+        <v>164170</v>
+      </c>
+      <c r="E29" s="9">
+        <v>124900</v>
+      </c>
+      <c r="F29" s="9">
+        <v>39270</v>
+      </c>
+      <c r="G29" s="8">
+        <f t="shared" si="8"/>
+        <v>2029</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1857</v>
+      </c>
+      <c r="I29" s="9">
+        <v>172</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="9"/>
+        <v>29231</v>
+      </c>
+      <c r="K29" s="9">
+        <v>19311</v>
+      </c>
+      <c r="L29" s="9">
+        <v>9920</v>
+      </c>
+      <c r="M29" s="10">
         <f t="shared" si="10"/>
-        <v>162182</v>
-      </c>
-      <c r="E29" s="9">
-        <v>124206</v>
-      </c>
-      <c r="F29" s="9">
-        <v>37976</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" si="4"/>
-        <v>1851</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1681</v>
-      </c>
-      <c r="I29" s="9">
-        <v>170</v>
-      </c>
-      <c r="J29" s="8">
-        <f t="shared" si="5"/>
-        <v>28633</v>
-      </c>
-      <c r="K29" s="9">
-        <v>19183</v>
-      </c>
-      <c r="L29" s="9">
-        <v>9450</v>
-      </c>
-      <c r="M29" s="10">
-        <f t="shared" si="6"/>
-        <v>15115.095000000001</v>
+        <v>17331.974000000002</v>
       </c>
       <c r="N29" s="9">
-        <v>10649.591</v>
+        <v>12036.081</v>
       </c>
       <c r="O29" s="11">
-        <v>4465.5039999999999</v>
+        <v>5295.893</v>
       </c>
     </row>
     <row r="30" spans="2:15" hidden="1">
@@ -2301,47 +2301,47 @@
         <v>2023</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D30" s="14">
+        <f t="shared" si="14"/>
+        <v>158074</v>
+      </c>
+      <c r="E30" s="15">
+        <v>120413</v>
+      </c>
+      <c r="F30" s="15">
+        <v>37661</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" si="8"/>
+        <v>1839</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1681</v>
+      </c>
+      <c r="I30" s="15">
+        <v>158</v>
+      </c>
+      <c r="J30" s="14">
+        <f t="shared" si="9"/>
+        <v>28215</v>
+      </c>
+      <c r="K30" s="15">
+        <v>18972</v>
+      </c>
+      <c r="L30" s="15">
+        <v>9243</v>
+      </c>
+      <c r="M30" s="16">
         <f t="shared" si="10"/>
-        <v>159882</v>
-      </c>
-      <c r="E30" s="15">
-        <v>120199</v>
-      </c>
-      <c r="F30" s="15">
-        <v>39683</v>
-      </c>
-      <c r="G30" s="14">
-        <f t="shared" si="4"/>
-        <v>1710</v>
-      </c>
-      <c r="H30" s="15">
-        <v>1605</v>
-      </c>
-      <c r="I30" s="15">
-        <v>105</v>
-      </c>
-      <c r="J30" s="14">
-        <f t="shared" si="5"/>
-        <v>28347</v>
-      </c>
-      <c r="K30" s="15">
-        <v>19276</v>
-      </c>
-      <c r="L30" s="15">
-        <v>9071</v>
-      </c>
-      <c r="M30" s="16">
-        <f t="shared" si="6"/>
-        <v>15697.496999999999</v>
+        <v>15257.142</v>
       </c>
       <c r="N30" s="15">
-        <v>10803.382</v>
+        <v>10569.871999999999</v>
       </c>
       <c r="O30" s="17">
-        <v>4894.1149999999998</v>
+        <v>4687.2700000000004</v>
       </c>
     </row>
     <row r="31" spans="2:15" hidden="1">
@@ -2349,47 +2349,47 @@
         <v>2023</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" s="8">
+        <f t="shared" si="14"/>
+        <v>162182</v>
+      </c>
+      <c r="E31" s="9">
+        <v>124206</v>
+      </c>
+      <c r="F31" s="9">
+        <v>37976</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" si="8"/>
+        <v>1851</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1681</v>
+      </c>
+      <c r="I31" s="9">
+        <v>170</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="9"/>
+        <v>28633</v>
+      </c>
+      <c r="K31" s="9">
+        <v>19183</v>
+      </c>
+      <c r="L31" s="9">
+        <v>9450</v>
+      </c>
+      <c r="M31" s="10">
         <f t="shared" si="10"/>
-        <v>170638</v>
-      </c>
-      <c r="E31" s="9">
-        <v>126849</v>
-      </c>
-      <c r="F31" s="9">
-        <v>43789</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" si="4"/>
-        <v>1840</v>
-      </c>
-      <c r="H31" s="9">
-        <v>1730</v>
-      </c>
-      <c r="I31" s="9">
-        <v>110</v>
-      </c>
-      <c r="J31" s="8">
-        <f t="shared" si="5"/>
-        <v>29361</v>
-      </c>
-      <c r="K31" s="9">
-        <v>19711</v>
-      </c>
-      <c r="L31" s="9">
-        <v>9650</v>
-      </c>
-      <c r="M31" s="10">
-        <f t="shared" si="6"/>
-        <v>15935.796</v>
+        <v>15115.095000000001</v>
       </c>
       <c r="N31" s="9">
-        <v>10528.172</v>
+        <v>10649.591</v>
       </c>
       <c r="O31" s="11">
-        <v>5407.6239999999998</v>
+        <v>4465.5039999999999</v>
       </c>
     </row>
     <row r="32" spans="2:15" hidden="1">
@@ -2397,239 +2397,239 @@
         <v>2023</v>
       </c>
       <c r="C32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="14"/>
+        <v>159882</v>
+      </c>
+      <c r="E32" s="15">
+        <v>120199</v>
+      </c>
+      <c r="F32" s="15">
+        <v>39683</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="8"/>
+        <v>1710</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1605</v>
+      </c>
+      <c r="I32" s="15">
+        <v>105</v>
+      </c>
+      <c r="J32" s="14">
+        <f t="shared" si="9"/>
+        <v>28347</v>
+      </c>
+      <c r="K32" s="15">
+        <v>19276</v>
+      </c>
+      <c r="L32" s="15">
+        <v>9071</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" si="10"/>
+        <v>15697.496999999999</v>
+      </c>
+      <c r="N32" s="15">
+        <v>10803.382</v>
+      </c>
+      <c r="O32" s="17">
+        <v>4894.1149999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="6">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="14"/>
+        <v>170638</v>
+      </c>
+      <c r="E33" s="9">
+        <v>126849</v>
+      </c>
+      <c r="F33" s="9">
+        <v>43789</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="8"/>
+        <v>1840</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1730</v>
+      </c>
+      <c r="I33" s="9">
+        <v>110</v>
+      </c>
+      <c r="J33" s="8">
+        <f t="shared" si="9"/>
+        <v>29361</v>
+      </c>
+      <c r="K33" s="9">
+        <v>19711</v>
+      </c>
+      <c r="L33" s="9">
+        <v>9650</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="10"/>
+        <v>15935.796</v>
+      </c>
+      <c r="N33" s="9">
+        <v>10528.172</v>
+      </c>
+      <c r="O33" s="11">
+        <v>5407.6239999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D34" s="14">
+        <f t="shared" si="14"/>
+        <v>151336</v>
+      </c>
+      <c r="E34" s="15">
+        <v>112299</v>
+      </c>
+      <c r="F34" s="15">
+        <v>39037</v>
+      </c>
+      <c r="G34" s="14">
+        <f t="shared" si="8"/>
+        <v>1650</v>
+      </c>
+      <c r="H34" s="15">
+        <v>1537</v>
+      </c>
+      <c r="I34" s="15">
+        <v>113</v>
+      </c>
+      <c r="J34" s="14">
+        <f t="shared" si="9"/>
+        <v>26435</v>
+      </c>
+      <c r="K34" s="15">
+        <v>17619</v>
+      </c>
+      <c r="L34" s="15">
+        <v>8816</v>
+      </c>
+      <c r="M34" s="16">
         <f t="shared" si="10"/>
-        <v>151336</v>
-      </c>
-      <c r="E32" s="15">
-        <v>112299</v>
-      </c>
-      <c r="F32" s="15">
-        <v>39037</v>
-      </c>
-      <c r="G32" s="14">
-        <f t="shared" si="4"/>
-        <v>1650</v>
-      </c>
-      <c r="H32" s="15">
-        <v>1537</v>
-      </c>
-      <c r="I32" s="15">
-        <v>113</v>
-      </c>
-      <c r="J32" s="14">
-        <f t="shared" si="5"/>
-        <v>26435</v>
-      </c>
-      <c r="K32" s="15">
-        <v>17619</v>
-      </c>
-      <c r="L32" s="15">
-        <v>8816</v>
-      </c>
-      <c r="M32" s="16">
-        <f t="shared" si="6"/>
         <v>13705.822</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N34" s="15">
         <v>8982.0499999999993</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O34" s="17">
         <v>4723.7719999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="18">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="18">
         <v>2023</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D35" s="20">
+        <f t="shared" si="14"/>
+        <v>165200</v>
+      </c>
+      <c r="E35" s="21">
+        <v>121747</v>
+      </c>
+      <c r="F35" s="21">
+        <v>43453</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" si="8"/>
+        <v>1856</v>
+      </c>
+      <c r="H35" s="21">
+        <v>1722</v>
+      </c>
+      <c r="I35" s="21">
+        <v>134</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" si="9"/>
+        <v>30227</v>
+      </c>
+      <c r="K35" s="21">
+        <v>20162</v>
+      </c>
+      <c r="L35" s="21">
+        <v>10065</v>
+      </c>
+      <c r="M35" s="22">
         <f t="shared" si="10"/>
-        <v>165200</v>
-      </c>
-      <c r="E33" s="21">
-        <v>121747</v>
-      </c>
-      <c r="F33" s="21">
-        <v>43453</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" si="4"/>
-        <v>1856</v>
-      </c>
-      <c r="H33" s="21">
-        <v>1722</v>
-      </c>
-      <c r="I33" s="21">
-        <v>134</v>
-      </c>
-      <c r="J33" s="20">
-        <f t="shared" si="5"/>
-        <v>30227</v>
-      </c>
-      <c r="K33" s="21">
-        <v>20162</v>
-      </c>
-      <c r="L33" s="21">
-        <v>10065</v>
-      </c>
-      <c r="M33" s="22">
-        <f t="shared" si="6"/>
         <v>15379.226000000001</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N35" s="21">
         <v>10060.075000000001</v>
       </c>
-      <c r="O33" s="23">
+      <c r="O35" s="23">
         <v>5319.1509999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="24">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="24">
         <v>2022</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C36" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D36" s="26">
+        <f t="shared" si="14"/>
+        <v>167972</v>
+      </c>
+      <c r="E36" s="27">
+        <v>123936</v>
+      </c>
+      <c r="F36" s="27">
+        <v>44036</v>
+      </c>
+      <c r="G36" s="26">
+        <f t="shared" si="8"/>
+        <v>1840</v>
+      </c>
+      <c r="H36" s="27">
+        <v>1713</v>
+      </c>
+      <c r="I36" s="27">
+        <v>127</v>
+      </c>
+      <c r="J36" s="26">
+        <f t="shared" si="9"/>
+        <v>31046</v>
+      </c>
+      <c r="K36" s="27">
+        <v>20696</v>
+      </c>
+      <c r="L36" s="27">
+        <v>10350</v>
+      </c>
+      <c r="M36" s="28">
         <f t="shared" si="10"/>
-        <v>167972</v>
-      </c>
-      <c r="E34" s="27">
-        <v>123936</v>
-      </c>
-      <c r="F34" s="27">
-        <v>44036</v>
-      </c>
-      <c r="G34" s="26">
-        <f t="shared" si="4"/>
-        <v>1840</v>
-      </c>
-      <c r="H34" s="27">
-        <v>1713</v>
-      </c>
-      <c r="I34" s="27">
-        <v>127</v>
-      </c>
-      <c r="J34" s="26">
-        <f t="shared" si="5"/>
-        <v>31046</v>
-      </c>
-      <c r="K34" s="27">
-        <v>20696</v>
-      </c>
-      <c r="L34" s="27">
-        <v>10350</v>
-      </c>
-      <c r="M34" s="28">
-        <f t="shared" si="6"/>
         <v>16259.23</v>
       </c>
-      <c r="N34" s="27">
+      <c r="N36" s="27">
         <v>11068.346</v>
       </c>
-      <c r="O34" s="29">
+      <c r="O36" s="29">
         <v>5190.884</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="6">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="8">
-        <f t="shared" si="10"/>
-        <v>162759</v>
-      </c>
-      <c r="E35" s="9">
-        <v>123505</v>
-      </c>
-      <c r="F35" s="9">
-        <v>39254</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" si="4"/>
-        <v>1784</v>
-      </c>
-      <c r="H35" s="9">
-        <v>1698</v>
-      </c>
-      <c r="I35" s="9">
-        <v>86</v>
-      </c>
-      <c r="J35" s="8">
-        <f t="shared" si="5"/>
-        <v>30430</v>
-      </c>
-      <c r="K35" s="9">
-        <v>20625</v>
-      </c>
-      <c r="L35" s="9">
-        <v>9805</v>
-      </c>
-      <c r="M35" s="10">
-        <f t="shared" si="6"/>
-        <v>15141.996999999999</v>
-      </c>
-      <c r="N35" s="9">
-        <v>10513.98</v>
-      </c>
-      <c r="O35" s="11">
-        <v>4628.0169999999998</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="12">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="14">
-        <f t="shared" si="10"/>
-        <v>159864</v>
-      </c>
-      <c r="E36" s="15">
-        <v>124747</v>
-      </c>
-      <c r="F36" s="15">
-        <v>35117</v>
-      </c>
-      <c r="G36" s="14">
-        <f t="shared" si="4"/>
-        <v>1866</v>
-      </c>
-      <c r="H36" s="15">
-        <v>1780</v>
-      </c>
-      <c r="I36" s="15">
-        <v>86</v>
-      </c>
-      <c r="J36" s="14">
-        <f t="shared" si="5"/>
-        <v>31242</v>
-      </c>
-      <c r="K36" s="15">
-        <v>21556</v>
-      </c>
-      <c r="L36" s="15">
-        <v>9686</v>
-      </c>
-      <c r="M36" s="16">
-        <f t="shared" si="6"/>
-        <v>14556.514999999999</v>
-      </c>
-      <c r="N36" s="15">
-        <v>10450.403</v>
-      </c>
-      <c r="O36" s="17">
-        <v>4106.1120000000001</v>
       </c>
     </row>
     <row r="37" spans="2:15" hidden="1">
@@ -2637,47 +2637,47 @@
         <v>2022</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="8">
+        <f t="shared" si="14"/>
+        <v>162759</v>
+      </c>
+      <c r="E37" s="9">
+        <v>123505</v>
+      </c>
+      <c r="F37" s="9">
+        <v>39254</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="8"/>
+        <v>1784</v>
+      </c>
+      <c r="H37" s="9">
+        <v>1698</v>
+      </c>
+      <c r="I37" s="9">
+        <v>86</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" si="9"/>
+        <v>30430</v>
+      </c>
+      <c r="K37" s="9">
+        <v>20625</v>
+      </c>
+      <c r="L37" s="9">
+        <v>9805</v>
+      </c>
+      <c r="M37" s="10">
         <f t="shared" si="10"/>
-        <v>147719</v>
-      </c>
-      <c r="E37" s="9">
-        <v>115614</v>
-      </c>
-      <c r="F37" s="9">
-        <v>32104.999999999996</v>
-      </c>
-      <c r="G37" s="8">
-        <f t="shared" si="4"/>
-        <v>1327</v>
-      </c>
-      <c r="H37" s="9">
-        <v>1296</v>
-      </c>
-      <c r="I37" s="9">
-        <v>31</v>
-      </c>
-      <c r="J37" s="8">
-        <f t="shared" si="5"/>
-        <v>29935</v>
-      </c>
-      <c r="K37" s="9">
-        <v>20715</v>
-      </c>
-      <c r="L37" s="9">
-        <v>9220</v>
-      </c>
-      <c r="M37" s="10">
-        <f t="shared" si="6"/>
-        <v>13130.359999999999</v>
+        <v>15141.996999999999</v>
       </c>
       <c r="N37" s="9">
-        <v>9467.3269999999993</v>
+        <v>10513.98</v>
       </c>
       <c r="O37" s="11">
-        <v>3663.0329999999999</v>
+        <v>4628.0169999999998</v>
       </c>
     </row>
     <row r="38" spans="2:15" hidden="1">
@@ -2685,47 +2685,47 @@
         <v>2022</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D38" s="14">
+        <f t="shared" si="14"/>
+        <v>159864</v>
+      </c>
+      <c r="E38" s="15">
+        <v>124747</v>
+      </c>
+      <c r="F38" s="15">
+        <v>35117</v>
+      </c>
+      <c r="G38" s="14">
+        <f t="shared" si="8"/>
+        <v>1866</v>
+      </c>
+      <c r="H38" s="15">
+        <v>1780</v>
+      </c>
+      <c r="I38" s="15">
+        <v>86</v>
+      </c>
+      <c r="J38" s="14">
+        <f t="shared" si="9"/>
+        <v>31242</v>
+      </c>
+      <c r="K38" s="15">
+        <v>21556</v>
+      </c>
+      <c r="L38" s="15">
+        <v>9686</v>
+      </c>
+      <c r="M38" s="16">
         <f t="shared" si="10"/>
-        <v>160707</v>
-      </c>
-      <c r="E38" s="15">
-        <v>123479</v>
-      </c>
-      <c r="F38" s="15">
-        <v>37228</v>
-      </c>
-      <c r="G38" s="14">
-        <f t="shared" si="4"/>
-        <v>620</v>
-      </c>
-      <c r="H38" s="15">
-        <v>597</v>
-      </c>
-      <c r="I38" s="15">
-        <v>23</v>
-      </c>
-      <c r="J38" s="14">
-        <f t="shared" si="5"/>
-        <v>32809</v>
-      </c>
-      <c r="K38" s="15">
-        <v>22639</v>
-      </c>
-      <c r="L38" s="15">
-        <v>10170</v>
-      </c>
-      <c r="M38" s="16">
-        <f t="shared" si="6"/>
-        <v>15003.125</v>
+        <v>14556.514999999999</v>
       </c>
       <c r="N38" s="15">
-        <v>10508.375</v>
+        <v>10450.403</v>
       </c>
       <c r="O38" s="17">
-        <v>4494.75</v>
+        <v>4106.1120000000001</v>
       </c>
     </row>
     <row r="39" spans="2:15" hidden="1">
@@ -2733,47 +2733,47 @@
         <v>2022</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D39" s="8">
+        <f t="shared" si="14"/>
+        <v>147719</v>
+      </c>
+      <c r="E39" s="9">
+        <v>115614</v>
+      </c>
+      <c r="F39" s="9">
+        <v>32104.999999999996</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="8"/>
+        <v>1327</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1296</v>
+      </c>
+      <c r="I39" s="9">
+        <v>31</v>
+      </c>
+      <c r="J39" s="8">
+        <f t="shared" si="9"/>
+        <v>29935</v>
+      </c>
+      <c r="K39" s="9">
+        <v>20715</v>
+      </c>
+      <c r="L39" s="9">
+        <v>9220</v>
+      </c>
+      <c r="M39" s="10">
         <f t="shared" si="10"/>
-        <v>161313</v>
-      </c>
-      <c r="E39" s="9">
-        <v>122637</v>
-      </c>
-      <c r="F39" s="9">
-        <v>38676</v>
-      </c>
-      <c r="G39" s="8">
-        <f t="shared" si="4"/>
-        <v>338</v>
-      </c>
-      <c r="H39" s="9">
-        <v>334</v>
-      </c>
-      <c r="I39" s="9">
-        <v>4</v>
-      </c>
-      <c r="J39" s="8">
-        <f t="shared" si="5"/>
-        <v>32288</v>
-      </c>
-      <c r="K39" s="9">
-        <v>22146</v>
-      </c>
-      <c r="L39" s="9">
-        <v>10142</v>
-      </c>
-      <c r="M39" s="10">
-        <f t="shared" si="6"/>
-        <v>15713.334999999999</v>
+        <v>13130.359999999999</v>
       </c>
       <c r="N39" s="9">
-        <v>10715.734</v>
+        <v>9467.3269999999993</v>
       </c>
       <c r="O39" s="11">
-        <v>4997.6009999999997</v>
+        <v>3663.0329999999999</v>
       </c>
     </row>
     <row r="40" spans="2:15" hidden="1">
@@ -2781,47 +2781,47 @@
         <v>2022</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" s="14">
+        <f t="shared" si="14"/>
+        <v>160707</v>
+      </c>
+      <c r="E40" s="15">
+        <v>123479</v>
+      </c>
+      <c r="F40" s="15">
+        <v>37228</v>
+      </c>
+      <c r="G40" s="14">
+        <f t="shared" si="8"/>
+        <v>620</v>
+      </c>
+      <c r="H40" s="15">
+        <v>597</v>
+      </c>
+      <c r="I40" s="15">
+        <v>23</v>
+      </c>
+      <c r="J40" s="14">
+        <f t="shared" si="9"/>
+        <v>32809</v>
+      </c>
+      <c r="K40" s="15">
+        <v>22639</v>
+      </c>
+      <c r="L40" s="15">
+        <v>10170</v>
+      </c>
+      <c r="M40" s="16">
         <f t="shared" si="10"/>
-        <v>153335</v>
-      </c>
-      <c r="E40" s="15">
-        <v>116098</v>
-      </c>
-      <c r="F40" s="15">
-        <v>37237</v>
-      </c>
-      <c r="G40" s="14">
-        <f t="shared" si="4"/>
-        <v>356</v>
-      </c>
-      <c r="H40" s="15">
-        <v>351</v>
-      </c>
-      <c r="I40" s="15">
-        <v>5</v>
-      </c>
-      <c r="J40" s="14">
-        <f t="shared" si="5"/>
-        <v>30905</v>
-      </c>
-      <c r="K40" s="15">
-        <v>21014</v>
-      </c>
-      <c r="L40" s="15">
-        <v>9891</v>
-      </c>
-      <c r="M40" s="16">
-        <f t="shared" si="6"/>
-        <v>13344.656999999999</v>
+        <v>15003.125</v>
       </c>
       <c r="N40" s="15">
-        <v>9004.4539999999997</v>
+        <v>10508.375</v>
       </c>
       <c r="O40" s="17">
-        <v>4340.2030000000004</v>
+        <v>4494.75</v>
       </c>
     </row>
     <row r="41" spans="2:15" hidden="1">
@@ -2829,47 +2829,47 @@
         <v>2022</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="8">
+        <f t="shared" si="14"/>
+        <v>161313</v>
+      </c>
+      <c r="E41" s="9">
+        <v>122637</v>
+      </c>
+      <c r="F41" s="9">
+        <v>38676</v>
+      </c>
+      <c r="G41" s="8">
+        <f t="shared" si="8"/>
+        <v>338</v>
+      </c>
+      <c r="H41" s="9">
+        <v>334</v>
+      </c>
+      <c r="I41" s="9">
+        <v>4</v>
+      </c>
+      <c r="J41" s="8">
+        <f t="shared" si="9"/>
+        <v>32288</v>
+      </c>
+      <c r="K41" s="9">
+        <v>22146</v>
+      </c>
+      <c r="L41" s="9">
+        <v>10142</v>
+      </c>
+      <c r="M41" s="10">
         <f t="shared" si="10"/>
-        <v>158252</v>
-      </c>
-      <c r="E41" s="9">
-        <v>120591</v>
-      </c>
-      <c r="F41" s="9">
-        <v>37661</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="4"/>
-        <v>371</v>
-      </c>
-      <c r="H41" s="9">
-        <v>365</v>
-      </c>
-      <c r="I41" s="9">
-        <v>6</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="5"/>
-        <v>31398</v>
-      </c>
-      <c r="K41" s="9">
-        <v>21509</v>
-      </c>
-      <c r="L41" s="9">
-        <v>9889</v>
-      </c>
-      <c r="M41" s="10">
-        <f t="shared" si="6"/>
-        <v>13548.44</v>
+        <v>15713.334999999999</v>
       </c>
       <c r="N41" s="9">
-        <v>9417.0650000000005</v>
+        <v>10715.734</v>
       </c>
       <c r="O41" s="11">
-        <v>4131.375</v>
+        <v>4997.6009999999997</v>
       </c>
     </row>
     <row r="42" spans="2:15" hidden="1">
@@ -2877,47 +2877,47 @@
         <v>2022</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="14">
+        <f t="shared" si="14"/>
+        <v>153335</v>
+      </c>
+      <c r="E42" s="15">
+        <v>116098</v>
+      </c>
+      <c r="F42" s="15">
+        <v>37237</v>
+      </c>
+      <c r="G42" s="14">
+        <f t="shared" si="8"/>
+        <v>356</v>
+      </c>
+      <c r="H42" s="15">
+        <v>351</v>
+      </c>
+      <c r="I42" s="15">
+        <v>5</v>
+      </c>
+      <c r="J42" s="14">
+        <f t="shared" si="9"/>
+        <v>30905</v>
+      </c>
+      <c r="K42" s="15">
+        <v>21014</v>
+      </c>
+      <c r="L42" s="15">
+        <v>9891</v>
+      </c>
+      <c r="M42" s="16">
         <f t="shared" si="10"/>
-        <v>157784</v>
-      </c>
-      <c r="E42" s="15">
-        <v>117815</v>
-      </c>
-      <c r="F42" s="15">
-        <v>39969</v>
-      </c>
-      <c r="G42" s="14">
-        <f t="shared" si="4"/>
-        <v>356</v>
-      </c>
-      <c r="H42" s="15">
-        <v>352</v>
-      </c>
-      <c r="I42" s="15">
-        <v>4</v>
-      </c>
-      <c r="J42" s="14">
-        <f t="shared" si="5"/>
-        <v>30844</v>
-      </c>
-      <c r="K42" s="15">
-        <v>21295</v>
-      </c>
-      <c r="L42" s="15">
-        <v>9549</v>
-      </c>
-      <c r="M42" s="16">
-        <f t="shared" si="6"/>
-        <v>14079.685000000001</v>
+        <v>13344.656999999999</v>
       </c>
       <c r="N42" s="15">
-        <v>9562.2420000000002</v>
+        <v>9004.4539999999997</v>
       </c>
       <c r="O42" s="17">
-        <v>4517.4430000000002</v>
+        <v>4340.2030000000004</v>
       </c>
     </row>
     <row r="43" spans="2:15" hidden="1">
@@ -2925,47 +2925,47 @@
         <v>2022</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D43" s="8">
+        <f t="shared" si="14"/>
+        <v>158252</v>
+      </c>
+      <c r="E43" s="9">
+        <v>120591</v>
+      </c>
+      <c r="F43" s="9">
+        <v>37661</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="8"/>
+        <v>371</v>
+      </c>
+      <c r="H43" s="9">
+        <v>365</v>
+      </c>
+      <c r="I43" s="9">
+        <v>6</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="9"/>
+        <v>31398</v>
+      </c>
+      <c r="K43" s="9">
+        <v>21509</v>
+      </c>
+      <c r="L43" s="9">
+        <v>9889</v>
+      </c>
+      <c r="M43" s="10">
         <f t="shared" si="10"/>
-        <v>161848</v>
-      </c>
-      <c r="E43" s="9">
-        <v>119127</v>
-      </c>
-      <c r="F43" s="9">
-        <v>42721</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-      <c r="H43" s="9">
-        <v>135</v>
-      </c>
-      <c r="I43" s="9">
-        <v>3</v>
-      </c>
-      <c r="J43" s="8">
-        <f t="shared" si="5"/>
-        <v>29318</v>
-      </c>
-      <c r="K43" s="9">
-        <v>20239</v>
-      </c>
-      <c r="L43" s="9">
-        <v>9079</v>
-      </c>
-      <c r="M43" s="10">
-        <f t="shared" si="6"/>
-        <v>13866.879000000001</v>
+        <v>13548.44</v>
       </c>
       <c r="N43" s="9">
-        <v>9057.7270000000008</v>
+        <v>9417.0650000000005</v>
       </c>
       <c r="O43" s="11">
-        <v>4809.152</v>
+        <v>4131.375</v>
       </c>
     </row>
     <row r="44" spans="2:15" hidden="1">
@@ -2973,239 +2973,239 @@
         <v>2022</v>
       </c>
       <c r="C44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="14">
+        <f t="shared" si="14"/>
+        <v>157784</v>
+      </c>
+      <c r="E44" s="15">
+        <v>117815</v>
+      </c>
+      <c r="F44" s="15">
+        <v>39969</v>
+      </c>
+      <c r="G44" s="14">
+        <f t="shared" si="8"/>
+        <v>356</v>
+      </c>
+      <c r="H44" s="15">
+        <v>352</v>
+      </c>
+      <c r="I44" s="15">
+        <v>4</v>
+      </c>
+      <c r="J44" s="14">
+        <f t="shared" si="9"/>
+        <v>30844</v>
+      </c>
+      <c r="K44" s="15">
+        <v>21295</v>
+      </c>
+      <c r="L44" s="15">
+        <v>9549</v>
+      </c>
+      <c r="M44" s="16">
+        <f t="shared" si="10"/>
+        <v>14079.685000000001</v>
+      </c>
+      <c r="N44" s="15">
+        <v>9562.2420000000002</v>
+      </c>
+      <c r="O44" s="17">
+        <v>4517.4430000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="6">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="8">
+        <f t="shared" si="14"/>
+        <v>161848</v>
+      </c>
+      <c r="E45" s="9">
+        <v>119127</v>
+      </c>
+      <c r="F45" s="9">
+        <v>42721</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="8"/>
+        <v>138</v>
+      </c>
+      <c r="H45" s="9">
+        <v>135</v>
+      </c>
+      <c r="I45" s="9">
+        <v>3</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="9"/>
+        <v>29318</v>
+      </c>
+      <c r="K45" s="9">
+        <v>20239</v>
+      </c>
+      <c r="L45" s="9">
+        <v>9079</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="10"/>
+        <v>13866.879000000001</v>
+      </c>
+      <c r="N45" s="9">
+        <v>9057.7270000000008</v>
+      </c>
+      <c r="O45" s="11">
+        <v>4809.152</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="12">
+        <v>2022</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D46" s="14">
+        <f t="shared" si="14"/>
+        <v>138416</v>
+      </c>
+      <c r="E46" s="15">
+        <v>101843</v>
+      </c>
+      <c r="F46" s="15">
+        <v>36573</v>
+      </c>
+      <c r="G46" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="15">
+        <v>0</v>
+      </c>
+      <c r="I46" s="15">
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <f t="shared" si="9"/>
+        <v>24917</v>
+      </c>
+      <c r="K46" s="15">
+        <v>17054</v>
+      </c>
+      <c r="L46" s="15">
+        <v>7863</v>
+      </c>
+      <c r="M46" s="16">
         <f t="shared" si="10"/>
-        <v>138416</v>
-      </c>
-      <c r="E44" s="15">
-        <v>101843</v>
-      </c>
-      <c r="F44" s="15">
-        <v>36573</v>
-      </c>
-      <c r="G44" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="15">
-        <v>0</v>
-      </c>
-      <c r="I44" s="15">
-        <v>0</v>
-      </c>
-      <c r="J44" s="14">
-        <f t="shared" si="5"/>
-        <v>24917</v>
-      </c>
-      <c r="K44" s="15">
-        <v>17054</v>
-      </c>
-      <c r="L44" s="15">
-        <v>7863</v>
-      </c>
-      <c r="M44" s="16">
-        <f t="shared" si="6"/>
         <v>10915.597</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N46" s="15">
         <v>7204.1139999999996</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O46" s="17">
         <v>3711.4830000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="18">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="18">
         <v>2022</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="20">
+      <c r="D47" s="20">
+        <f t="shared" si="14"/>
+        <v>147774</v>
+      </c>
+      <c r="E47" s="21">
+        <v>106370</v>
+      </c>
+      <c r="F47" s="21">
+        <v>41404</v>
+      </c>
+      <c r="G47" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="21">
+        <v>0</v>
+      </c>
+      <c r="I47" s="21">
+        <v>0</v>
+      </c>
+      <c r="J47" s="20">
+        <f t="shared" ref="J47:J78" si="15">SUM(K47:L47)</f>
+        <v>28778</v>
+      </c>
+      <c r="K47" s="21">
+        <v>19706</v>
+      </c>
+      <c r="L47" s="21">
+        <v>9072</v>
+      </c>
+      <c r="M47" s="22">
         <f t="shared" si="10"/>
-        <v>147774</v>
-      </c>
-      <c r="E45" s="21">
-        <v>106370</v>
-      </c>
-      <c r="F45" s="21">
-        <v>41404</v>
-      </c>
-      <c r="G45" s="20">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="21">
-        <v>0</v>
-      </c>
-      <c r="I45" s="21">
-        <v>0</v>
-      </c>
-      <c r="J45" s="20">
-        <f t="shared" ref="J45:J76" si="11">SUM(K45:L45)</f>
-        <v>28778</v>
-      </c>
-      <c r="K45" s="21">
-        <v>19706</v>
-      </c>
-      <c r="L45" s="21">
-        <v>9072</v>
-      </c>
-      <c r="M45" s="22">
-        <f t="shared" si="6"/>
         <v>11653.262000000001</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N47" s="21">
         <v>7668.268</v>
       </c>
-      <c r="O45" s="23">
+      <c r="O47" s="23">
         <v>3984.9940000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="24">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="24">
         <v>2021</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C48" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D48" s="26">
+        <f t="shared" si="14"/>
+        <v>161476</v>
+      </c>
+      <c r="E48" s="27">
+        <v>118642</v>
+      </c>
+      <c r="F48" s="27">
+        <v>42834</v>
+      </c>
+      <c r="G48" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="27">
+        <v>0</v>
+      </c>
+      <c r="I48" s="27">
+        <v>0</v>
+      </c>
+      <c r="J48" s="26">
+        <f t="shared" si="15"/>
+        <v>31395</v>
+      </c>
+      <c r="K48" s="27">
+        <v>21885</v>
+      </c>
+      <c r="L48" s="27">
+        <v>9510</v>
+      </c>
+      <c r="M48" s="28">
         <f t="shared" si="10"/>
-        <v>161476</v>
-      </c>
-      <c r="E46" s="27">
-        <v>118642</v>
-      </c>
-      <c r="F46" s="27">
-        <v>42834</v>
-      </c>
-      <c r="G46" s="26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="27">
-        <v>0</v>
-      </c>
-      <c r="I46" s="27">
-        <v>0</v>
-      </c>
-      <c r="J46" s="26">
-        <f t="shared" si="11"/>
-        <v>31395</v>
-      </c>
-      <c r="K46" s="27">
-        <v>21885</v>
-      </c>
-      <c r="L46" s="27">
-        <v>9510</v>
-      </c>
-      <c r="M46" s="28">
-        <f t="shared" si="6"/>
         <v>13971.465</v>
       </c>
-      <c r="N46" s="27">
+      <c r="N48" s="27">
         <v>9508.3459999999995</v>
       </c>
-      <c r="O46" s="29">
+      <c r="O48" s="29">
         <v>4463.1189999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="6">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="8">
-        <f t="shared" si="10"/>
-        <v>153263</v>
-      </c>
-      <c r="E47" s="9">
-        <v>115481</v>
-      </c>
-      <c r="F47" s="9">
-        <v>37782</v>
-      </c>
-      <c r="G47" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0</v>
-      </c>
-      <c r="I47" s="9">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <f t="shared" si="11"/>
-        <v>28646</v>
-      </c>
-      <c r="K47" s="9">
-        <v>20157</v>
-      </c>
-      <c r="L47" s="9">
-        <v>8489</v>
-      </c>
-      <c r="M47" s="10">
-        <f t="shared" si="6"/>
-        <v>12687.374</v>
-      </c>
-      <c r="N47" s="9">
-        <v>8761.0709999999999</v>
-      </c>
-      <c r="O47" s="11">
-        <v>3926.3029999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="14">
-        <f t="shared" si="10"/>
-        <v>147053</v>
-      </c>
-      <c r="E48" s="15">
-        <v>112669</v>
-      </c>
-      <c r="F48" s="15">
-        <v>34384</v>
-      </c>
-      <c r="G48" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="15">
-        <v>0</v>
-      </c>
-      <c r="I48" s="15">
-        <v>0</v>
-      </c>
-      <c r="J48" s="14">
-        <f t="shared" si="11"/>
-        <v>28151</v>
-      </c>
-      <c r="K48" s="15">
-        <v>19712</v>
-      </c>
-      <c r="L48" s="15">
-        <v>8439</v>
-      </c>
-      <c r="M48" s="16">
-        <f t="shared" si="6"/>
-        <v>11848.638999999999</v>
-      </c>
-      <c r="N48" s="15">
-        <v>8373.0280000000002</v>
-      </c>
-      <c r="O48" s="17">
-        <v>3475.6109999999999</v>
       </c>
     </row>
     <row r="49" spans="2:15" hidden="1">
@@ -3213,20 +3213,20 @@
         <v>2021</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" ref="D49:D80" si="12">SUM(E49:F49)</f>
-        <v>132825</v>
+        <f t="shared" si="14"/>
+        <v>153263</v>
       </c>
       <c r="E49" s="9">
-        <v>101771</v>
+        <v>115481</v>
       </c>
       <c r="F49" s="9">
-        <v>31054</v>
+        <v>37782</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" ref="G49:G80" si="13">SUM(H49:I49)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H49" s="9">
@@ -3236,24 +3236,24 @@
         <v>0</v>
       </c>
       <c r="J49" s="8">
-        <f t="shared" si="11"/>
-        <v>25472</v>
+        <f t="shared" si="15"/>
+        <v>28646</v>
       </c>
       <c r="K49" s="9">
-        <v>17521</v>
+        <v>20157</v>
       </c>
       <c r="L49" s="9">
-        <v>7951</v>
+        <v>8489</v>
       </c>
       <c r="M49" s="10">
-        <f t="shared" ref="M49:M80" si="14">SUM(N49:O49)</f>
-        <v>10185.656000000001</v>
+        <f t="shared" si="10"/>
+        <v>12687.374</v>
       </c>
       <c r="N49" s="9">
-        <v>7282.1530000000002</v>
+        <v>8761.0709999999999</v>
       </c>
       <c r="O49" s="11">
-        <v>2903.5030000000002</v>
+        <v>3926.3029999999999</v>
       </c>
     </row>
     <row r="50" spans="2:15" hidden="1">
@@ -3261,20 +3261,20 @@
         <v>2021</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D50" s="14">
-        <f t="shared" si="12"/>
-        <v>144695</v>
+        <f t="shared" si="14"/>
+        <v>147053</v>
       </c>
       <c r="E50" s="15">
-        <v>110044</v>
+        <v>112669</v>
       </c>
       <c r="F50" s="15">
-        <v>34651</v>
+        <v>34384</v>
       </c>
       <c r="G50" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H50" s="15">
@@ -3284,24 +3284,24 @@
         <v>0</v>
       </c>
       <c r="J50" s="14">
-        <f t="shared" si="11"/>
-        <v>28906</v>
+        <f t="shared" si="15"/>
+        <v>28151</v>
       </c>
       <c r="K50" s="15">
-        <v>20368</v>
+        <v>19712</v>
       </c>
       <c r="L50" s="15">
-        <v>8538</v>
+        <v>8439</v>
       </c>
       <c r="M50" s="16">
-        <f t="shared" si="14"/>
-        <v>11683.937</v>
+        <f t="shared" si="10"/>
+        <v>11848.638999999999</v>
       </c>
       <c r="N50" s="15">
-        <v>8069.2780000000002</v>
+        <v>8373.0280000000002</v>
       </c>
       <c r="O50" s="17">
-        <v>3614.6590000000001</v>
+        <v>3475.6109999999999</v>
       </c>
     </row>
     <row r="51" spans="2:15" hidden="1">
@@ -3309,20 +3309,20 @@
         <v>2021</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="12"/>
-        <v>146353</v>
+        <f t="shared" ref="D51:D82" si="16">SUM(E51:F51)</f>
+        <v>132825</v>
       </c>
       <c r="E51" s="9">
-        <v>110707</v>
+        <v>101771</v>
       </c>
       <c r="F51" s="9">
-        <v>35646</v>
+        <v>31054</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G51:G82" si="17">SUM(H51:I51)</f>
         <v>0</v>
       </c>
       <c r="H51" s="9">
@@ -3332,24 +3332,24 @@
         <v>0</v>
       </c>
       <c r="J51" s="8">
-        <f t="shared" si="11"/>
-        <v>28727</v>
+        <f t="shared" si="15"/>
+        <v>25472</v>
       </c>
       <c r="K51" s="9">
-        <v>20266</v>
+        <v>17521</v>
       </c>
       <c r="L51" s="9">
-        <v>8461</v>
+        <v>7951</v>
       </c>
       <c r="M51" s="10">
-        <f t="shared" si="14"/>
-        <v>12973.878000000001</v>
+        <f t="shared" ref="M51:M82" si="18">SUM(N51:O51)</f>
+        <v>10185.656000000001</v>
       </c>
       <c r="N51" s="9">
-        <v>8846.4060000000009</v>
+        <v>7282.1530000000002</v>
       </c>
       <c r="O51" s="11">
-        <v>4127.4719999999998</v>
+        <v>2903.5030000000002</v>
       </c>
     </row>
     <row r="52" spans="2:15" hidden="1">
@@ -3357,20 +3357,20 @@
         <v>2021</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="14">
-        <f t="shared" si="12"/>
-        <v>134517</v>
+        <f t="shared" si="16"/>
+        <v>144695</v>
       </c>
       <c r="E52" s="15">
-        <v>101368</v>
+        <v>110044</v>
       </c>
       <c r="F52" s="15">
-        <v>33149</v>
+        <v>34651</v>
       </c>
       <c r="G52" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H52" s="15">
@@ -3380,24 +3380,24 @@
         <v>0</v>
       </c>
       <c r="J52" s="14">
-        <f t="shared" si="11"/>
-        <v>25545</v>
+        <f t="shared" si="15"/>
+        <v>28906</v>
       </c>
       <c r="K52" s="15">
-        <v>17937</v>
+        <v>20368</v>
       </c>
       <c r="L52" s="15">
-        <v>7608</v>
+        <v>8538</v>
       </c>
       <c r="M52" s="16">
-        <f t="shared" si="14"/>
-        <v>11386.256000000001</v>
+        <f t="shared" si="18"/>
+        <v>11683.937</v>
       </c>
       <c r="N52" s="15">
-        <v>7719.55</v>
+        <v>8069.2780000000002</v>
       </c>
       <c r="O52" s="17">
-        <v>3666.7060000000001</v>
+        <v>3614.6590000000001</v>
       </c>
     </row>
     <row r="53" spans="2:15" hidden="1">
@@ -3405,20 +3405,20 @@
         <v>2021</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="12"/>
-        <v>138743</v>
+        <f t="shared" si="16"/>
+        <v>146353</v>
       </c>
       <c r="E53" s="9">
-        <v>106623</v>
+        <v>110707</v>
       </c>
       <c r="F53" s="9">
-        <v>32119.999999999996</v>
+        <v>35646</v>
       </c>
       <c r="G53" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H53" s="9">
@@ -3428,24 +3428,24 @@
         <v>0</v>
       </c>
       <c r="J53" s="8">
-        <f t="shared" si="11"/>
-        <v>25018</v>
+        <f t="shared" si="15"/>
+        <v>28727</v>
       </c>
       <c r="K53" s="9">
-        <v>17597</v>
+        <v>20266</v>
       </c>
       <c r="L53" s="9">
-        <v>7421</v>
+        <v>8461</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" si="14"/>
-        <v>10974.823</v>
+        <f t="shared" si="18"/>
+        <v>12973.878000000001</v>
       </c>
       <c r="N53" s="9">
-        <v>7697.7309999999998</v>
+        <v>8846.4060000000009</v>
       </c>
       <c r="O53" s="11">
-        <v>3277.0920000000001</v>
+        <v>4127.4719999999998</v>
       </c>
     </row>
     <row r="54" spans="2:15" hidden="1">
@@ -3453,20 +3453,20 @@
         <v>2021</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" s="14">
-        <f t="shared" si="12"/>
-        <v>133584</v>
+        <f t="shared" si="16"/>
+        <v>134517</v>
       </c>
       <c r="E54" s="15">
-        <v>103668</v>
+        <v>101368</v>
       </c>
       <c r="F54" s="15">
-        <v>29916</v>
+        <v>33149</v>
       </c>
       <c r="G54" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H54" s="15">
@@ -3476,24 +3476,24 @@
         <v>0</v>
       </c>
       <c r="J54" s="14">
-        <f t="shared" si="11"/>
-        <v>23420</v>
+        <f t="shared" si="15"/>
+        <v>25545</v>
       </c>
       <c r="K54" s="15">
-        <v>17095</v>
+        <v>17937</v>
       </c>
       <c r="L54" s="15">
-        <v>6325</v>
+        <v>7608</v>
       </c>
       <c r="M54" s="16">
-        <f t="shared" si="14"/>
-        <v>9657.1949999999997</v>
+        <f t="shared" si="18"/>
+        <v>11386.256000000001</v>
       </c>
       <c r="N54" s="15">
-        <v>7019.1059999999998</v>
+        <v>7719.55</v>
       </c>
       <c r="O54" s="17">
-        <v>2638.0889999999999</v>
+        <v>3666.7060000000001</v>
       </c>
     </row>
     <row r="55" spans="2:15" hidden="1">
@@ -3501,20 +3501,20 @@
         <v>2021</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="12"/>
-        <v>130340</v>
+        <f t="shared" si="16"/>
+        <v>138743</v>
       </c>
       <c r="E55" s="9">
-        <v>99689</v>
+        <v>106623</v>
       </c>
       <c r="F55" s="9">
-        <v>30651</v>
+        <v>32119.999999999996</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H55" s="9">
@@ -3524,24 +3524,24 @@
         <v>0</v>
       </c>
       <c r="J55" s="8">
-        <f t="shared" si="11"/>
-        <v>20932</v>
+        <f t="shared" si="15"/>
+        <v>25018</v>
       </c>
       <c r="K55" s="9">
-        <v>15296</v>
+        <v>17597</v>
       </c>
       <c r="L55" s="9">
-        <v>5636</v>
+        <v>7421</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" si="14"/>
-        <v>8677.3739999999998</v>
+        <f t="shared" si="18"/>
+        <v>10974.823</v>
       </c>
       <c r="N55" s="9">
-        <v>6424.5829999999996</v>
+        <v>7697.7309999999998</v>
       </c>
       <c r="O55" s="11">
-        <v>2252.7910000000002</v>
+        <v>3277.0920000000001</v>
       </c>
     </row>
     <row r="56" spans="2:15" hidden="1">
@@ -3549,239 +3549,239 @@
         <v>2021</v>
       </c>
       <c r="C56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="14">
+        <f t="shared" si="16"/>
+        <v>133584</v>
+      </c>
+      <c r="E56" s="15">
+        <v>103668</v>
+      </c>
+      <c r="F56" s="15">
+        <v>29916</v>
+      </c>
+      <c r="G56" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" si="15"/>
+        <v>23420</v>
+      </c>
+      <c r="K56" s="15">
+        <v>17095</v>
+      </c>
+      <c r="L56" s="15">
+        <v>6325</v>
+      </c>
+      <c r="M56" s="16">
+        <f t="shared" si="18"/>
+        <v>9657.1949999999997</v>
+      </c>
+      <c r="N56" s="15">
+        <v>7019.1059999999998</v>
+      </c>
+      <c r="O56" s="17">
+        <v>2638.0889999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="8">
+        <f t="shared" si="16"/>
+        <v>130340</v>
+      </c>
+      <c r="E57" s="9">
+        <v>99689</v>
+      </c>
+      <c r="F57" s="9">
+        <v>30651</v>
+      </c>
+      <c r="G57" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8">
+        <f t="shared" si="15"/>
+        <v>20932</v>
+      </c>
+      <c r="K57" s="9">
+        <v>15296</v>
+      </c>
+      <c r="L57" s="9">
+        <v>5636</v>
+      </c>
+      <c r="M57" s="10">
+        <f t="shared" si="18"/>
+        <v>8677.3739999999998</v>
+      </c>
+      <c r="N57" s="9">
+        <v>6424.5829999999996</v>
+      </c>
+      <c r="O57" s="11">
+        <v>2252.7910000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="12">
+        <v>2021</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="14">
-        <f t="shared" si="12"/>
+      <c r="D58" s="14">
+        <f t="shared" si="16"/>
         <v>105818</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E58" s="15">
         <v>80508</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F58" s="15">
         <v>25310</v>
       </c>
-      <c r="G56" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="15">
-        <v>0</v>
-      </c>
-      <c r="I56" s="15">
-        <v>0</v>
-      </c>
-      <c r="J56" s="14">
-        <f t="shared" si="11"/>
+      <c r="G58" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="15">
+        <v>0</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
+        <f t="shared" si="15"/>
         <v>17155</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K58" s="15">
         <v>12105</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L58" s="15">
         <v>5050</v>
       </c>
-      <c r="M56" s="16">
-        <f t="shared" si="14"/>
+      <c r="M58" s="16">
+        <f t="shared" si="18"/>
         <v>5881.9269999999997</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N58" s="15">
         <v>4501.4070000000002</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O58" s="17">
         <v>1380.52</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="18">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="18">
         <v>2021</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="20">
-        <f t="shared" si="12"/>
+      <c r="D59" s="20">
+        <f t="shared" si="16"/>
         <v>124147</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E59" s="21">
         <v>93381</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F59" s="21">
         <v>30766</v>
       </c>
-      <c r="G57" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="21">
-        <v>0</v>
-      </c>
-      <c r="I57" s="21">
-        <v>0</v>
-      </c>
-      <c r="J57" s="20">
-        <f t="shared" si="11"/>
+      <c r="G59" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="21">
+        <v>0</v>
+      </c>
+      <c r="I59" s="21">
+        <v>0</v>
+      </c>
+      <c r="J59" s="20">
+        <f t="shared" si="15"/>
         <v>22442</v>
       </c>
-      <c r="K57" s="21">
+      <c r="K59" s="21">
         <v>15855</v>
       </c>
-      <c r="L57" s="21">
+      <c r="L59" s="21">
         <v>6587</v>
       </c>
-      <c r="M57" s="22">
-        <f t="shared" si="14"/>
+      <c r="M59" s="22">
+        <f t="shared" si="18"/>
         <v>7530.1779999999999</v>
       </c>
-      <c r="N57" s="21">
+      <c r="N59" s="21">
         <v>5474.7460000000001</v>
       </c>
-      <c r="O57" s="23">
+      <c r="O59" s="23">
         <v>2055.4319999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="24">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="24">
         <v>2020</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C60" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="26">
-        <f t="shared" si="12"/>
+      <c r="D60" s="26">
+        <f t="shared" si="16"/>
         <v>129572</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E60" s="27">
         <v>99674</v>
       </c>
-      <c r="F58" s="27">
+      <c r="F60" s="27">
         <v>29898</v>
       </c>
-      <c r="G58" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="27">
-        <v>0</v>
-      </c>
-      <c r="I58" s="27">
-        <v>0</v>
-      </c>
-      <c r="J58" s="26">
-        <f t="shared" si="11"/>
+      <c r="G60" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="27">
+        <v>0</v>
+      </c>
+      <c r="I60" s="27">
+        <v>0</v>
+      </c>
+      <c r="J60" s="26">
+        <f t="shared" si="15"/>
         <v>22377</v>
       </c>
-      <c r="K58" s="27">
+      <c r="K60" s="27">
         <v>15901</v>
       </c>
-      <c r="L58" s="27">
+      <c r="L60" s="27">
         <v>6476</v>
       </c>
-      <c r="M58" s="28">
-        <f t="shared" si="14"/>
+      <c r="M60" s="28">
+        <f t="shared" si="18"/>
         <v>8643.1899999999987</v>
       </c>
-      <c r="N58" s="27">
+      <c r="N60" s="27">
         <v>6389.2129999999997</v>
       </c>
-      <c r="O58" s="29">
+      <c r="O60" s="29">
         <v>2253.9769999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="6">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="8">
-        <f t="shared" si="12"/>
-        <v>120789</v>
-      </c>
-      <c r="E59" s="9">
-        <v>97016</v>
-      </c>
-      <c r="F59" s="9">
-        <v>23773</v>
-      </c>
-      <c r="G59" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="9">
-        <v>0</v>
-      </c>
-      <c r="I59" s="9">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
-        <f t="shared" si="11"/>
-        <v>20029</v>
-      </c>
-      <c r="K59" s="9">
-        <v>15112</v>
-      </c>
-      <c r="L59" s="9">
-        <v>4917</v>
-      </c>
-      <c r="M59" s="10">
-        <f t="shared" si="14"/>
-        <v>7700.1950000000006</v>
-      </c>
-      <c r="N59" s="9">
-        <v>5937.9480000000003</v>
-      </c>
-      <c r="O59" s="11">
-        <v>1762.2470000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="12">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="14">
-        <f t="shared" si="12"/>
-        <v>111965</v>
-      </c>
-      <c r="E60" s="15">
-        <v>92159</v>
-      </c>
-      <c r="F60" s="15">
-        <v>19806</v>
-      </c>
-      <c r="G60" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="15">
-        <v>0</v>
-      </c>
-      <c r="I60" s="15">
-        <v>0</v>
-      </c>
-      <c r="J60" s="14">
-        <f t="shared" si="11"/>
-        <v>18783</v>
-      </c>
-      <c r="K60" s="15">
-        <v>14512</v>
-      </c>
-      <c r="L60" s="15">
-        <v>4271</v>
-      </c>
-      <c r="M60" s="16">
-        <f t="shared" si="14"/>
-        <v>6958.1730000000007</v>
-      </c>
-      <c r="N60" s="15">
-        <v>5522.3990000000003</v>
-      </c>
-      <c r="O60" s="17">
-        <v>1435.7739999999999</v>
       </c>
     </row>
     <row r="61" spans="2:15" hidden="1">
@@ -3789,20 +3789,20 @@
         <v>2020</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D61" s="8">
-        <f t="shared" si="12"/>
-        <v>98248</v>
+        <f t="shared" si="16"/>
+        <v>120789</v>
       </c>
       <c r="E61" s="9">
-        <v>82749</v>
+        <v>97016</v>
       </c>
       <c r="F61" s="9">
-        <v>15499</v>
+        <v>23773</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H61" s="9">
@@ -3812,24 +3812,24 @@
         <v>0</v>
       </c>
       <c r="J61" s="8">
-        <f t="shared" si="11"/>
-        <v>15967</v>
+        <f t="shared" si="15"/>
+        <v>20029</v>
       </c>
       <c r="K61" s="9">
-        <v>12434</v>
+        <v>15112</v>
       </c>
       <c r="L61" s="9">
-        <v>3533</v>
+        <v>4917</v>
       </c>
       <c r="M61" s="10">
-        <f t="shared" si="14"/>
-        <v>5747.9449999999997</v>
+        <f t="shared" si="18"/>
+        <v>7700.1950000000006</v>
       </c>
       <c r="N61" s="9">
-        <v>4716.3429999999998</v>
+        <v>5937.9480000000003</v>
       </c>
       <c r="O61" s="11">
-        <v>1031.6020000000001</v>
+        <v>1762.2470000000001</v>
       </c>
     </row>
     <row r="62" spans="2:15" hidden="1">
@@ -3837,20 +3837,20 @@
         <v>2020</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D62" s="14">
-        <f t="shared" si="12"/>
-        <v>94778</v>
+        <f t="shared" si="16"/>
+        <v>111965</v>
       </c>
       <c r="E62" s="15">
-        <v>79993</v>
+        <v>92159</v>
       </c>
       <c r="F62" s="15">
-        <v>14785</v>
+        <v>19806</v>
       </c>
       <c r="G62" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H62" s="15">
@@ -3860,24 +3860,24 @@
         <v>0</v>
       </c>
       <c r="J62" s="14">
-        <f t="shared" si="11"/>
-        <v>15399</v>
+        <f t="shared" si="15"/>
+        <v>18783</v>
       </c>
       <c r="K62" s="15">
-        <v>11911</v>
+        <v>14512</v>
       </c>
       <c r="L62" s="15">
-        <v>3488</v>
+        <v>4271</v>
       </c>
       <c r="M62" s="16">
-        <f t="shared" si="14"/>
-        <v>5296.7969999999996</v>
+        <f t="shared" si="18"/>
+        <v>6958.1730000000007</v>
       </c>
       <c r="N62" s="15">
-        <v>4313.7479999999996</v>
+        <v>5522.3990000000003</v>
       </c>
       <c r="O62" s="17">
-        <v>983.04899999999998</v>
+        <v>1435.7739999999999</v>
       </c>
     </row>
     <row r="63" spans="2:15" hidden="1">
@@ -3885,20 +3885,20 @@
         <v>2020</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D63" s="8">
-        <f t="shared" si="12"/>
-        <v>85508</v>
+        <f t="shared" si="16"/>
+        <v>98248</v>
       </c>
       <c r="E63" s="9">
-        <v>72657</v>
+        <v>82749</v>
       </c>
       <c r="F63" s="9">
-        <v>12851</v>
+        <v>15499</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H63" s="9">
@@ -3908,24 +3908,24 @@
         <v>0</v>
       </c>
       <c r="J63" s="8">
-        <f t="shared" si="11"/>
-        <v>12165</v>
+        <f t="shared" si="15"/>
+        <v>15967</v>
       </c>
       <c r="K63" s="9">
-        <v>9419</v>
+        <v>12434</v>
       </c>
       <c r="L63" s="9">
-        <v>2746</v>
+        <v>3533</v>
       </c>
       <c r="M63" s="10">
-        <f t="shared" si="14"/>
-        <v>4185.5320000000002</v>
+        <f t="shared" si="18"/>
+        <v>5747.9449999999997</v>
       </c>
       <c r="N63" s="9">
-        <v>3405.0259999999998</v>
+        <v>4716.3429999999998</v>
       </c>
       <c r="O63" s="11">
-        <v>780.50599999999997</v>
+        <v>1031.6020000000001</v>
       </c>
     </row>
     <row r="64" spans="2:15" hidden="1">
@@ -3933,20 +3933,20 @@
         <v>2020</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D64" s="14">
-        <f t="shared" si="12"/>
-        <v>58869</v>
+        <f t="shared" si="16"/>
+        <v>94778</v>
       </c>
       <c r="E64" s="15">
-        <v>50107</v>
+        <v>79993</v>
       </c>
       <c r="F64" s="15">
-        <v>8762</v>
+        <v>14785</v>
       </c>
       <c r="G64" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H64" s="15">
@@ -3956,24 +3956,24 @@
         <v>0</v>
       </c>
       <c r="J64" s="14">
-        <f t="shared" si="11"/>
-        <v>7578</v>
+        <f t="shared" si="15"/>
+        <v>15399</v>
       </c>
       <c r="K64" s="15">
-        <v>5489</v>
+        <v>11911</v>
       </c>
       <c r="L64" s="15">
-        <v>2089</v>
+        <v>3488</v>
       </c>
       <c r="M64" s="16">
-        <f t="shared" si="14"/>
-        <v>2139.893</v>
+        <f t="shared" si="18"/>
+        <v>5296.7969999999996</v>
       </c>
       <c r="N64" s="15">
-        <v>1815.4059999999999</v>
+        <v>4313.7479999999996</v>
       </c>
       <c r="O64" s="17">
-        <v>324.48700000000002</v>
+        <v>983.04899999999998</v>
       </c>
     </row>
     <row r="65" spans="2:15" hidden="1">
@@ -3981,20 +3981,20 @@
         <v>2020</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D65" s="8">
-        <f t="shared" si="12"/>
-        <v>40887</v>
+        <f t="shared" si="16"/>
+        <v>85508</v>
       </c>
       <c r="E65" s="9">
-        <v>35082</v>
+        <v>72657</v>
       </c>
       <c r="F65" s="9">
-        <v>5805</v>
+        <v>12851</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H65" s="9">
@@ -4004,24 +4004,24 @@
         <v>0</v>
       </c>
       <c r="J65" s="8">
-        <f t="shared" si="11"/>
-        <v>4836</v>
+        <f t="shared" si="15"/>
+        <v>12165</v>
       </c>
       <c r="K65" s="9">
-        <v>3187</v>
+        <v>9419</v>
       </c>
       <c r="L65" s="9">
-        <v>1649</v>
+        <v>2746</v>
       </c>
       <c r="M65" s="10">
-        <f t="shared" si="14"/>
-        <v>912.27</v>
+        <f t="shared" si="18"/>
+        <v>4185.5320000000002</v>
       </c>
       <c r="N65" s="9">
-        <v>794.02</v>
+        <v>3405.0259999999998</v>
       </c>
       <c r="O65" s="11">
-        <v>118.25</v>
+        <v>780.50599999999997</v>
       </c>
     </row>
     <row r="66" spans="2:15" hidden="1">
@@ -4029,20 +4029,20 @@
         <v>2020</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D66" s="14">
-        <f t="shared" si="12"/>
-        <v>39436</v>
+        <f t="shared" si="16"/>
+        <v>58869</v>
       </c>
       <c r="E66" s="15">
-        <v>33432</v>
+        <v>50107</v>
       </c>
       <c r="F66" s="15">
-        <v>6004</v>
+        <v>8762</v>
       </c>
       <c r="G66" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H66" s="15">
@@ -4052,24 +4052,24 @@
         <v>0</v>
       </c>
       <c r="J66" s="14">
-        <f t="shared" si="11"/>
-        <v>5483</v>
+        <f t="shared" si="15"/>
+        <v>7578</v>
       </c>
       <c r="K66" s="15">
-        <v>3788</v>
+        <v>5489</v>
       </c>
       <c r="L66" s="15">
-        <v>1695</v>
+        <v>2089</v>
       </c>
       <c r="M66" s="16">
-        <f t="shared" si="14"/>
-        <v>958.75099999999998</v>
+        <f t="shared" si="18"/>
+        <v>2139.893</v>
       </c>
       <c r="N66" s="15">
-        <v>841.01400000000001</v>
+        <v>1815.4059999999999</v>
       </c>
       <c r="O66" s="17">
-        <v>117.73699999999999</v>
+        <v>324.48700000000002</v>
       </c>
     </row>
     <row r="67" spans="2:15" hidden="1">
@@ -4077,20 +4077,20 @@
         <v>2020</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" si="12"/>
-        <v>138604</v>
+        <f t="shared" si="16"/>
+        <v>40887</v>
       </c>
       <c r="E67" s="9">
-        <v>105733</v>
+        <v>35082</v>
       </c>
       <c r="F67" s="9">
-        <v>32871</v>
+        <v>5805</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H67" s="9">
@@ -4100,24 +4100,24 @@
         <v>0</v>
       </c>
       <c r="J67" s="8">
-        <f t="shared" si="11"/>
-        <v>27685</v>
+        <f t="shared" si="15"/>
+        <v>4836</v>
       </c>
       <c r="K67" s="9">
-        <v>19400</v>
+        <v>3187</v>
       </c>
       <c r="L67" s="9">
-        <v>8285</v>
+        <v>1649</v>
       </c>
       <c r="M67" s="10">
-        <f t="shared" si="14"/>
-        <v>9011.8619999999992</v>
+        <f t="shared" si="18"/>
+        <v>912.27</v>
       </c>
       <c r="N67" s="9">
-        <v>6133.3159999999998</v>
+        <v>794.02</v>
       </c>
       <c r="O67" s="11">
-        <v>2878.5459999999998</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="68" spans="2:15" hidden="1">
@@ -4125,239 +4125,239 @@
         <v>2020</v>
       </c>
       <c r="C68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="14">
+        <f t="shared" si="16"/>
+        <v>39436</v>
+      </c>
+      <c r="E68" s="15">
+        <v>33432</v>
+      </c>
+      <c r="F68" s="15">
+        <v>6004</v>
+      </c>
+      <c r="G68" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="15">
+        <v>0</v>
+      </c>
+      <c r="I68" s="15">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
+        <f t="shared" si="15"/>
+        <v>5483</v>
+      </c>
+      <c r="K68" s="15">
+        <v>3788</v>
+      </c>
+      <c r="L68" s="15">
+        <v>1695</v>
+      </c>
+      <c r="M68" s="16">
+        <f t="shared" si="18"/>
+        <v>958.75099999999998</v>
+      </c>
+      <c r="N68" s="15">
+        <v>841.01400000000001</v>
+      </c>
+      <c r="O68" s="17">
+        <v>117.73699999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="8">
+        <f t="shared" si="16"/>
+        <v>138604</v>
+      </c>
+      <c r="E69" s="9">
+        <v>105733</v>
+      </c>
+      <c r="F69" s="9">
+        <v>32871</v>
+      </c>
+      <c r="G69" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="8">
+        <f t="shared" si="15"/>
+        <v>27685</v>
+      </c>
+      <c r="K69" s="9">
+        <v>19400</v>
+      </c>
+      <c r="L69" s="9">
+        <v>8285</v>
+      </c>
+      <c r="M69" s="10">
+        <f t="shared" si="18"/>
+        <v>9011.8619999999992</v>
+      </c>
+      <c r="N69" s="9">
+        <v>6133.3159999999998</v>
+      </c>
+      <c r="O69" s="11">
+        <v>2878.5459999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="12">
+        <v>2020</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="14">
-        <f t="shared" si="12"/>
+      <c r="D70" s="14">
+        <f t="shared" si="16"/>
         <v>154600</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E70" s="15">
         <v>116643</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F70" s="15">
         <v>37957</v>
       </c>
-      <c r="G68" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="15">
-        <v>0</v>
-      </c>
-      <c r="I68" s="15">
-        <v>0</v>
-      </c>
-      <c r="J68" s="14">
-        <f t="shared" si="11"/>
+      <c r="G70" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="15">
+        <v>0</v>
+      </c>
+      <c r="I70" s="15">
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
+        <f t="shared" si="15"/>
         <v>33096</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K70" s="15">
         <v>22924</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L70" s="15">
         <v>10172</v>
       </c>
-      <c r="M68" s="16">
-        <f t="shared" si="14"/>
+      <c r="M70" s="16">
+        <f t="shared" si="18"/>
         <v>12555.147000000001</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N70" s="15">
         <v>8141.3959999999997</v>
       </c>
-      <c r="O68" s="17">
+      <c r="O70" s="17">
         <v>4413.7510000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="18">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="18">
         <v>2020</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C71" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="20">
-        <f t="shared" si="12"/>
+      <c r="D71" s="20">
+        <f t="shared" si="16"/>
         <v>167619</v>
       </c>
-      <c r="E69" s="21">
+      <c r="E71" s="21">
         <v>126846</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F71" s="21">
         <v>40773</v>
       </c>
-      <c r="G69" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="21">
-        <v>0</v>
-      </c>
-      <c r="I69" s="21">
-        <v>0</v>
-      </c>
-      <c r="J69" s="20">
-        <f t="shared" si="11"/>
+      <c r="G71" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="21">
+        <v>0</v>
+      </c>
+      <c r="I71" s="21">
+        <v>0</v>
+      </c>
+      <c r="J71" s="20">
+        <f t="shared" si="15"/>
         <v>37171</v>
       </c>
-      <c r="K69" s="21">
+      <c r="K71" s="21">
         <v>25779</v>
       </c>
-      <c r="L69" s="21">
+      <c r="L71" s="21">
         <v>11392</v>
       </c>
-      <c r="M69" s="22">
-        <f t="shared" si="14"/>
+      <c r="M71" s="22">
+        <f t="shared" si="18"/>
         <v>13625.84</v>
       </c>
-      <c r="N69" s="21">
+      <c r="N71" s="21">
         <v>8800.0789999999997</v>
       </c>
-      <c r="O69" s="23">
+      <c r="O71" s="23">
         <v>4825.7610000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="24">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="24">
         <v>2019</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C72" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="26">
-        <f t="shared" si="12"/>
+      <c r="D72" s="26">
+        <f t="shared" si="16"/>
         <v>167593</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E72" s="27">
         <v>126051</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F72" s="27">
         <v>41542</v>
       </c>
-      <c r="G70" s="26">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="27">
-        <v>0</v>
-      </c>
-      <c r="I70" s="27">
-        <v>0</v>
-      </c>
-      <c r="J70" s="26">
-        <f t="shared" si="11"/>
+      <c r="G72" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="27">
+        <v>0</v>
+      </c>
+      <c r="I72" s="27">
+        <v>0</v>
+      </c>
+      <c r="J72" s="26">
+        <f t="shared" si="15"/>
         <v>37969</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K72" s="27">
         <v>25919</v>
       </c>
-      <c r="L70" s="27">
+      <c r="L72" s="27">
         <v>12050</v>
       </c>
-      <c r="M70" s="28">
-        <f t="shared" si="14"/>
+      <c r="M72" s="28">
+        <f t="shared" si="18"/>
         <v>14311.285</v>
       </c>
-      <c r="N70" s="27">
+      <c r="N72" s="27">
         <v>9491.1820000000007</v>
       </c>
-      <c r="O70" s="29">
+      <c r="O72" s="29">
         <v>4820.1030000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="6">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="8">
-        <f t="shared" si="12"/>
-        <v>161899</v>
-      </c>
-      <c r="E71" s="9">
-        <v>125646</v>
-      </c>
-      <c r="F71" s="9">
-        <v>36253</v>
-      </c>
-      <c r="G71" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="9">
-        <v>0</v>
-      </c>
-      <c r="I71" s="9">
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
-        <f t="shared" si="11"/>
-        <v>36078</v>
-      </c>
-      <c r="K71" s="9">
-        <v>25201</v>
-      </c>
-      <c r="L71" s="9">
-        <v>10877</v>
-      </c>
-      <c r="M71" s="10">
-        <f t="shared" si="14"/>
-        <v>13215.171</v>
-      </c>
-      <c r="N71" s="9">
-        <v>9104.4480000000003</v>
-      </c>
-      <c r="O71" s="11">
-        <v>4110.723</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="12">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="14">
-        <f t="shared" si="12"/>
-        <v>159019</v>
-      </c>
-      <c r="E72" s="15">
-        <v>126531</v>
-      </c>
-      <c r="F72" s="15">
-        <v>32488</v>
-      </c>
-      <c r="G72" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="15">
-        <v>0</v>
-      </c>
-      <c r="I72" s="15">
-        <v>0</v>
-      </c>
-      <c r="J72" s="14">
-        <f t="shared" si="11"/>
-        <v>36741</v>
-      </c>
-      <c r="K72" s="15">
-        <v>25823</v>
-      </c>
-      <c r="L72" s="15">
-        <v>10918</v>
-      </c>
-      <c r="M72" s="16">
-        <f t="shared" si="14"/>
-        <v>12724.360999999999</v>
-      </c>
-      <c r="N72" s="15">
-        <v>9175.6839999999993</v>
-      </c>
-      <c r="O72" s="17">
-        <v>3548.6770000000001</v>
       </c>
     </row>
     <row r="73" spans="2:15" hidden="1">
@@ -4365,20 +4365,20 @@
         <v>2019</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" si="12"/>
-        <v>148583</v>
+        <f t="shared" si="16"/>
+        <v>161899</v>
       </c>
       <c r="E73" s="9">
-        <v>118880</v>
+        <v>125646</v>
       </c>
       <c r="F73" s="9">
-        <v>29703</v>
+        <v>36253</v>
       </c>
       <c r="G73" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H73" s="9">
@@ -4388,24 +4388,24 @@
         <v>0</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" si="11"/>
-        <v>34491</v>
+        <f t="shared" si="15"/>
+        <v>36078</v>
       </c>
       <c r="K73" s="9">
-        <v>23749</v>
+        <v>25201</v>
       </c>
       <c r="L73" s="9">
-        <v>10742</v>
+        <v>10877</v>
       </c>
       <c r="M73" s="10">
-        <f t="shared" si="14"/>
-        <v>11512.314</v>
+        <f t="shared" si="18"/>
+        <v>13215.171</v>
       </c>
       <c r="N73" s="9">
-        <v>8319.4240000000009</v>
+        <v>9104.4480000000003</v>
       </c>
       <c r="O73" s="11">
-        <v>3192.89</v>
+        <v>4110.723</v>
       </c>
     </row>
     <row r="74" spans="2:15" hidden="1">
@@ -4413,20 +4413,20 @@
         <v>2019</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D74" s="14">
-        <f t="shared" si="12"/>
-        <v>165304</v>
+        <f t="shared" si="16"/>
+        <v>159019</v>
       </c>
       <c r="E74" s="15">
-        <v>129776.00000000001</v>
+        <v>126531</v>
       </c>
       <c r="F74" s="15">
-        <v>35528</v>
+        <v>32488</v>
       </c>
       <c r="G74" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H74" s="15">
@@ -4436,24 +4436,24 @@
         <v>0</v>
       </c>
       <c r="J74" s="14">
-        <f t="shared" si="11"/>
-        <v>37882</v>
+        <f t="shared" si="15"/>
+        <v>36741</v>
       </c>
       <c r="K74" s="15">
-        <v>25900</v>
+        <v>25823</v>
       </c>
       <c r="L74" s="15">
-        <v>11982</v>
+        <v>10918</v>
       </c>
       <c r="M74" s="16">
-        <f t="shared" si="14"/>
-        <v>13678.462</v>
+        <f t="shared" si="18"/>
+        <v>12724.360999999999</v>
       </c>
       <c r="N74" s="15">
-        <v>9506.8289999999997</v>
+        <v>9175.6839999999993</v>
       </c>
       <c r="O74" s="17">
-        <v>4171.6329999999998</v>
+        <v>3548.6770000000001</v>
       </c>
     </row>
     <row r="75" spans="2:15" hidden="1">
@@ -4461,20 +4461,20 @@
         <v>2019</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="12"/>
-        <v>168640</v>
+        <f t="shared" si="16"/>
+        <v>148583</v>
       </c>
       <c r="E75" s="9">
-        <v>131068.99999999999</v>
+        <v>118880</v>
       </c>
       <c r="F75" s="9">
-        <v>37571</v>
+        <v>29703</v>
       </c>
       <c r="G75" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H75" s="9">
@@ -4484,24 +4484,24 @@
         <v>0</v>
       </c>
       <c r="J75" s="8">
-        <f t="shared" si="11"/>
-        <v>38116</v>
+        <f t="shared" si="15"/>
+        <v>34491</v>
       </c>
       <c r="K75" s="9">
-        <v>25943</v>
+        <v>23749</v>
       </c>
       <c r="L75" s="9">
-        <v>12173</v>
+        <v>10742</v>
       </c>
       <c r="M75" s="10">
-        <f t="shared" si="14"/>
-        <v>14682.169</v>
+        <f t="shared" si="18"/>
+        <v>11512.314</v>
       </c>
       <c r="N75" s="9">
-        <v>9992.81</v>
+        <v>8319.4240000000009</v>
       </c>
       <c r="O75" s="11">
-        <v>4689.3590000000004</v>
+        <v>3192.89</v>
       </c>
     </row>
     <row r="76" spans="2:15" hidden="1">
@@ -4509,20 +4509,20 @@
         <v>2019</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D76" s="14">
-        <f t="shared" si="12"/>
-        <v>159253</v>
+        <f t="shared" si="16"/>
+        <v>165304</v>
       </c>
       <c r="E76" s="15">
-        <v>123607</v>
+        <v>129776.00000000001</v>
       </c>
       <c r="F76" s="15">
-        <v>35646</v>
+        <v>35528</v>
       </c>
       <c r="G76" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H76" s="15">
@@ -4532,24 +4532,24 @@
         <v>0</v>
       </c>
       <c r="J76" s="14">
-        <f t="shared" si="11"/>
-        <v>35734</v>
+        <f t="shared" si="15"/>
+        <v>37882</v>
       </c>
       <c r="K76" s="15">
-        <v>24362</v>
+        <v>25900</v>
       </c>
       <c r="L76" s="15">
-        <v>11372</v>
+        <v>11982</v>
       </c>
       <c r="M76" s="16">
-        <f t="shared" si="14"/>
-        <v>13352.69</v>
+        <f t="shared" si="18"/>
+        <v>13678.462</v>
       </c>
       <c r="N76" s="15">
-        <v>9079.7170000000006</v>
+        <v>9506.8289999999997</v>
       </c>
       <c r="O76" s="17">
-        <v>4272.973</v>
+        <v>4171.6329999999998</v>
       </c>
     </row>
     <row r="77" spans="2:15" hidden="1">
@@ -4557,20 +4557,20 @@
         <v>2019</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="12"/>
-        <v>166260</v>
+        <f t="shared" si="16"/>
+        <v>168640</v>
       </c>
       <c r="E77" s="9">
-        <v>130592.99999999999</v>
+        <v>131068.99999999999</v>
       </c>
       <c r="F77" s="9">
-        <v>35667</v>
+        <v>37571</v>
       </c>
       <c r="G77" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H77" s="9">
@@ -4580,24 +4580,24 @@
         <v>0</v>
       </c>
       <c r="J77" s="8">
-        <f t="shared" ref="J77:J93" si="15">SUM(K77:L77)</f>
-        <v>36624</v>
+        <f t="shared" si="15"/>
+        <v>38116</v>
       </c>
       <c r="K77" s="9">
-        <v>25219</v>
+        <v>25943</v>
       </c>
       <c r="L77" s="9">
-        <v>11405</v>
+        <v>12173</v>
       </c>
       <c r="M77" s="10">
-        <f t="shared" si="14"/>
-        <v>13434.785</v>
+        <f t="shared" si="18"/>
+        <v>14682.169</v>
       </c>
       <c r="N77" s="9">
-        <v>9373.2109999999993</v>
+        <v>9992.81</v>
       </c>
       <c r="O77" s="11">
-        <v>4061.5740000000001</v>
+        <v>4689.3590000000004</v>
       </c>
     </row>
     <row r="78" spans="2:15" hidden="1">
@@ -4605,20 +4605,20 @@
         <v>2019</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D78" s="14">
-        <f t="shared" si="12"/>
-        <v>168338</v>
+        <f t="shared" si="16"/>
+        <v>159253</v>
       </c>
       <c r="E78" s="15">
-        <v>129008.99999999999</v>
+        <v>123607</v>
       </c>
       <c r="F78" s="15">
-        <v>39329</v>
+        <v>35646</v>
       </c>
       <c r="G78" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H78" s="15">
@@ -4629,23 +4629,23 @@
       </c>
       <c r="J78" s="14">
         <f t="shared" si="15"/>
-        <v>35519</v>
+        <v>35734</v>
       </c>
       <c r="K78" s="15">
-        <v>24350</v>
+        <v>24362</v>
       </c>
       <c r="L78" s="15">
-        <v>11169</v>
+        <v>11372</v>
       </c>
       <c r="M78" s="16">
-        <f t="shared" si="14"/>
-        <v>13245.237000000001</v>
+        <f t="shared" si="18"/>
+        <v>13352.69</v>
       </c>
       <c r="N78" s="15">
-        <v>8877.2070000000003</v>
+        <v>9079.7170000000006</v>
       </c>
       <c r="O78" s="17">
-        <v>4368.03</v>
+        <v>4272.973</v>
       </c>
     </row>
     <row r="79" spans="2:15" hidden="1">
@@ -4653,20 +4653,20 @@
         <v>2019</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D79" s="8">
-        <f t="shared" si="12"/>
-        <v>171618</v>
+        <f t="shared" si="16"/>
+        <v>166260</v>
       </c>
       <c r="E79" s="9">
-        <v>128662</v>
+        <v>130592.99999999999</v>
       </c>
       <c r="F79" s="9">
-        <v>42956</v>
+        <v>35667</v>
       </c>
       <c r="G79" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H79" s="9">
@@ -4676,24 +4676,24 @@
         <v>0</v>
       </c>
       <c r="J79" s="8">
-        <f t="shared" si="15"/>
-        <v>35392</v>
+        <f t="shared" ref="J79:J95" si="19">SUM(K79:L79)</f>
+        <v>36624</v>
       </c>
       <c r="K79" s="9">
-        <v>24040</v>
+        <v>25219</v>
       </c>
       <c r="L79" s="9">
-        <v>11352</v>
+        <v>11405</v>
       </c>
       <c r="M79" s="10">
-        <f t="shared" si="14"/>
-        <v>13468.561000000002</v>
+        <f t="shared" si="18"/>
+        <v>13434.785</v>
       </c>
       <c r="N79" s="9">
-        <v>8550.9040000000005</v>
+        <v>9373.2109999999993</v>
       </c>
       <c r="O79" s="11">
-        <v>4917.6570000000002</v>
+        <v>4061.5740000000001</v>
       </c>
     </row>
     <row r="80" spans="2:15" hidden="1">
@@ -4701,113 +4701,113 @@
         <v>2019</v>
       </c>
       <c r="C80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="14">
+        <f t="shared" si="16"/>
+        <v>168338</v>
+      </c>
+      <c r="E80" s="15">
+        <v>129008.99999999999</v>
+      </c>
+      <c r="F80" s="15">
+        <v>39329</v>
+      </c>
+      <c r="G80" s="14">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="15">
+        <v>0</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
+        <f t="shared" si="19"/>
+        <v>35519</v>
+      </c>
+      <c r="K80" s="15">
+        <v>24350</v>
+      </c>
+      <c r="L80" s="15">
+        <v>11169</v>
+      </c>
+      <c r="M80" s="16">
+        <f t="shared" si="18"/>
+        <v>13245.237000000001</v>
+      </c>
+      <c r="N80" s="15">
+        <v>8877.2070000000003</v>
+      </c>
+      <c r="O80" s="17">
+        <v>4368.03</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="8">
+        <f t="shared" si="16"/>
+        <v>171618</v>
+      </c>
+      <c r="E81" s="9">
+        <v>128662</v>
+      </c>
+      <c r="F81" s="9">
+        <v>42956</v>
+      </c>
+      <c r="G81" s="8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="8">
+        <f t="shared" si="19"/>
+        <v>35392</v>
+      </c>
+      <c r="K81" s="9">
+        <v>24040</v>
+      </c>
+      <c r="L81" s="9">
+        <v>11352</v>
+      </c>
+      <c r="M81" s="10">
+        <f t="shared" si="18"/>
+        <v>13468.561000000002</v>
+      </c>
+      <c r="N81" s="9">
+        <v>8550.9040000000005</v>
+      </c>
+      <c r="O81" s="11">
+        <v>4917.6570000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="12">
+        <v>2019</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="D80" s="14">
-        <f t="shared" si="12"/>
-        <v>151989</v>
-      </c>
-      <c r="E80" s="15">
-        <v>114632</v>
-      </c>
-      <c r="F80" s="15">
-        <v>37357</v>
-      </c>
-      <c r="G80" s="14">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="15">
-        <v>0</v>
-      </c>
-      <c r="I80" s="15">
-        <v>0</v>
-      </c>
-      <c r="J80" s="14">
-        <f t="shared" si="15"/>
-        <v>31890</v>
-      </c>
-      <c r="K80" s="15">
-        <v>21784</v>
-      </c>
-      <c r="L80" s="15">
-        <v>10106</v>
-      </c>
-      <c r="M80" s="16">
-        <f t="shared" si="14"/>
-        <v>11254.142</v>
-      </c>
-      <c r="N80" s="15">
-        <v>7147.8</v>
-      </c>
-      <c r="O80" s="17">
-        <v>4106.3419999999996</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="18">
-        <v>2019</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="20">
-        <f t="shared" ref="D81:D93" si="16">SUM(E81:F81)</f>
-        <v>165954</v>
-      </c>
-      <c r="E81" s="21">
-        <v>124266</v>
-      </c>
-      <c r="F81" s="21">
-        <v>41688</v>
-      </c>
-      <c r="G81" s="20">
-        <f t="shared" ref="G81:G93" si="17">SUM(H81:I81)</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="21">
-        <v>0</v>
-      </c>
-      <c r="I81" s="21">
-        <v>0</v>
-      </c>
-      <c r="J81" s="20">
-        <f t="shared" si="15"/>
-        <v>35932</v>
-      </c>
-      <c r="K81" s="21">
-        <v>24195</v>
-      </c>
-      <c r="L81" s="21">
-        <v>11737</v>
-      </c>
-      <c r="M81" s="22">
-        <f t="shared" ref="M81:M93" si="18">SUM(N81:O81)</f>
-        <v>12584.922</v>
-      </c>
-      <c r="N81" s="21">
-        <v>7965.4170000000004</v>
-      </c>
-      <c r="O81" s="23">
-        <v>4619.5050000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D82" s="14">
         <f t="shared" si="16"/>
-        <v>167896</v>
+        <v>151989</v>
       </c>
       <c r="E82" s="15">
-        <v>126468</v>
+        <v>114632</v>
       </c>
       <c r="F82" s="15">
-        <v>41428</v>
+        <v>37357</v>
       </c>
       <c r="G82" s="14">
         <f t="shared" si="17"/>
@@ -4820,72 +4820,72 @@
         <v>0</v>
       </c>
       <c r="J82" s="14">
-        <f t="shared" si="15"/>
-        <v>36796</v>
+        <f t="shared" si="19"/>
+        <v>31890</v>
       </c>
       <c r="K82" s="15">
-        <v>24610</v>
+        <v>21784</v>
       </c>
       <c r="L82" s="15">
-        <v>12186</v>
+        <v>10106</v>
       </c>
       <c r="M82" s="16">
         <f t="shared" si="18"/>
-        <v>13446.27</v>
+        <v>11254.142</v>
       </c>
       <c r="N82" s="15">
-        <v>8820.4920000000002</v>
-      </c>
-      <c r="O82" s="15">
-        <v>4625.7780000000002</v>
+        <v>7147.8</v>
+      </c>
+      <c r="O82" s="17">
+        <v>4106.3419999999996</v>
       </c>
     </row>
     <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="8">
-        <f t="shared" si="16"/>
-        <v>165335</v>
-      </c>
-      <c r="E83" s="9">
-        <v>128314</v>
-      </c>
-      <c r="F83" s="9">
-        <v>37021</v>
-      </c>
-      <c r="G83" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="9">
-        <v>0</v>
-      </c>
-      <c r="I83" s="9">
-        <v>0</v>
-      </c>
-      <c r="J83" s="8">
-        <f t="shared" si="15"/>
-        <v>35251</v>
-      </c>
-      <c r="K83" s="9">
-        <v>23927</v>
-      </c>
-      <c r="L83" s="9">
-        <v>11324</v>
-      </c>
-      <c r="M83" s="10">
-        <f t="shared" si="18"/>
-        <v>12543.215</v>
-      </c>
-      <c r="N83" s="9">
-        <v>8542.7430000000004</v>
-      </c>
-      <c r="O83" s="9">
-        <v>4000.4720000000002</v>
+      <c r="B83" s="18">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="20">
+        <f t="shared" ref="D83:D95" si="20">SUM(E83:F83)</f>
+        <v>165954</v>
+      </c>
+      <c r="E83" s="21">
+        <v>124266</v>
+      </c>
+      <c r="F83" s="21">
+        <v>41688</v>
+      </c>
+      <c r="G83" s="20">
+        <f t="shared" ref="G83:G95" si="21">SUM(H83:I83)</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="21">
+        <v>0</v>
+      </c>
+      <c r="I83" s="21">
+        <v>0</v>
+      </c>
+      <c r="J83" s="20">
+        <f t="shared" si="19"/>
+        <v>35932</v>
+      </c>
+      <c r="K83" s="21">
+        <v>24195</v>
+      </c>
+      <c r="L83" s="21">
+        <v>11737</v>
+      </c>
+      <c r="M83" s="22">
+        <f t="shared" ref="M83:M95" si="22">SUM(N83:O83)</f>
+        <v>12584.922</v>
+      </c>
+      <c r="N83" s="21">
+        <v>7965.4170000000004</v>
+      </c>
+      <c r="O83" s="23">
+        <v>4619.5050000000001</v>
       </c>
     </row>
     <row r="84" spans="2:15" hidden="1">
@@ -4893,20 +4893,20 @@
         <v>2018</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D84" s="14">
-        <f t="shared" si="16"/>
-        <v>162784</v>
+        <f t="shared" si="20"/>
+        <v>167896</v>
       </c>
       <c r="E84" s="15">
-        <v>129050.00000000001</v>
+        <v>126468</v>
       </c>
       <c r="F84" s="15">
-        <v>33734</v>
+        <v>41428</v>
       </c>
       <c r="G84" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H84" s="15">
@@ -4916,24 +4916,24 @@
         <v>0</v>
       </c>
       <c r="J84" s="14">
-        <f t="shared" si="15"/>
-        <v>35903</v>
+        <f t="shared" si="19"/>
+        <v>36796</v>
       </c>
       <c r="K84" s="15">
-        <v>24186</v>
+        <v>24610</v>
       </c>
       <c r="L84" s="15">
-        <v>11717</v>
+        <v>12186</v>
       </c>
       <c r="M84" s="16">
-        <f t="shared" si="18"/>
-        <v>11940.449000000001</v>
+        <f t="shared" si="22"/>
+        <v>13446.27</v>
       </c>
       <c r="N84" s="15">
-        <v>8460.0640000000003</v>
+        <v>8820.4920000000002</v>
       </c>
       <c r="O84" s="15">
-        <v>3480.3850000000002</v>
+        <v>4625.7780000000002</v>
       </c>
     </row>
     <row r="85" spans="2:15" hidden="1">
@@ -4941,20 +4941,20 @@
         <v>2018</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D85" s="8">
-        <f t="shared" si="16"/>
-        <v>151218</v>
+        <f t="shared" si="20"/>
+        <v>165335</v>
       </c>
       <c r="E85" s="9">
-        <v>120455</v>
+        <v>128314</v>
       </c>
       <c r="F85" s="9">
-        <v>30763</v>
+        <v>37021</v>
       </c>
       <c r="G85" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H85" s="9">
@@ -4964,24 +4964,24 @@
         <v>0</v>
       </c>
       <c r="J85" s="8">
-        <f t="shared" si="15"/>
-        <v>34246</v>
+        <f t="shared" si="19"/>
+        <v>35251</v>
       </c>
       <c r="K85" s="9">
-        <v>23006</v>
+        <v>23927</v>
       </c>
       <c r="L85" s="9">
-        <v>11240</v>
+        <v>11324</v>
       </c>
       <c r="M85" s="10">
-        <f t="shared" si="18"/>
-        <v>10888.41</v>
+        <f t="shared" si="22"/>
+        <v>12543.215</v>
       </c>
       <c r="N85" s="9">
-        <v>7775.683</v>
+        <v>8542.7430000000004</v>
       </c>
       <c r="O85" s="9">
-        <v>3112.7269999999999</v>
+        <v>4000.4720000000002</v>
       </c>
     </row>
     <row r="86" spans="2:15" hidden="1">
@@ -4989,20 +4989,20 @@
         <v>2018</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D86" s="14">
-        <f t="shared" si="16"/>
-        <v>167317</v>
+        <f t="shared" si="20"/>
+        <v>162784</v>
       </c>
       <c r="E86" s="15">
-        <v>131130</v>
+        <v>129050.00000000001</v>
       </c>
       <c r="F86" s="15">
-        <v>36187</v>
+        <v>33734</v>
       </c>
       <c r="G86" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H86" s="15">
@@ -5012,24 +5012,24 @@
         <v>0</v>
       </c>
       <c r="J86" s="14">
-        <f t="shared" si="15"/>
-        <v>37070</v>
+        <f t="shared" si="19"/>
+        <v>35903</v>
       </c>
       <c r="K86" s="15">
-        <v>24746</v>
+        <v>24186</v>
       </c>
       <c r="L86" s="15">
-        <v>12324</v>
+        <v>11717</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" si="18"/>
-        <v>12946.407999999999</v>
+        <f t="shared" si="22"/>
+        <v>11940.449000000001</v>
       </c>
       <c r="N86" s="15">
-        <v>8844.4689999999991</v>
+        <v>8460.0640000000003</v>
       </c>
       <c r="O86" s="15">
-        <v>4101.9390000000003</v>
+        <v>3480.3850000000002</v>
       </c>
     </row>
     <row r="87" spans="2:15" hidden="1">
@@ -5037,20 +5037,20 @@
         <v>2018</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D87" s="8">
-        <f t="shared" si="16"/>
-        <v>166752</v>
+        <f t="shared" si="20"/>
+        <v>151218</v>
       </c>
       <c r="E87" s="9">
-        <v>128561</v>
+        <v>120455</v>
       </c>
       <c r="F87" s="9">
-        <v>38191</v>
+        <v>30763</v>
       </c>
       <c r="G87" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H87" s="9">
@@ -5060,24 +5060,24 @@
         <v>0</v>
       </c>
       <c r="J87" s="8">
-        <f t="shared" si="15"/>
-        <v>37073</v>
+        <f t="shared" si="19"/>
+        <v>34246</v>
       </c>
       <c r="K87" s="9">
-        <v>24692</v>
+        <v>23006</v>
       </c>
       <c r="L87" s="9">
-        <v>12381</v>
+        <v>11240</v>
       </c>
       <c r="M87" s="10">
-        <f t="shared" si="18"/>
-        <v>14091.387999999999</v>
+        <f t="shared" si="22"/>
+        <v>10888.41</v>
       </c>
       <c r="N87" s="9">
-        <v>9430.1080000000002</v>
+        <v>7775.683</v>
       </c>
       <c r="O87" s="9">
-        <v>4661.28</v>
+        <v>3112.7269999999999</v>
       </c>
     </row>
     <row r="88" spans="2:15" hidden="1">
@@ -5085,20 +5085,20 @@
         <v>2018</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" s="14">
-        <f t="shared" si="16"/>
-        <v>158678</v>
+        <f t="shared" si="20"/>
+        <v>167317</v>
       </c>
       <c r="E88" s="15">
-        <v>121941</v>
+        <v>131130</v>
       </c>
       <c r="F88" s="15">
-        <v>36737</v>
+        <v>36187</v>
       </c>
       <c r="G88" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H88" s="15">
@@ -5108,24 +5108,24 @@
         <v>0</v>
       </c>
       <c r="J88" s="14">
-        <f t="shared" si="15"/>
-        <v>34876</v>
+        <f t="shared" si="19"/>
+        <v>37070</v>
       </c>
       <c r="K88" s="15">
-        <v>23300</v>
+        <v>24746</v>
       </c>
       <c r="L88" s="15">
-        <v>11576</v>
+        <v>12324</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="18"/>
-        <v>12298.282999999999</v>
+        <f t="shared" si="22"/>
+        <v>12946.407999999999</v>
       </c>
       <c r="N88" s="15">
-        <v>8174.7749999999996</v>
+        <v>8844.4689999999991</v>
       </c>
       <c r="O88" s="15">
-        <v>4123.5079999999998</v>
+        <v>4101.9390000000003</v>
       </c>
     </row>
     <row r="89" spans="2:15" hidden="1">
@@ -5133,20 +5133,20 @@
         <v>2018</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89" s="8">
-        <f t="shared" si="16"/>
-        <v>168027</v>
+        <f t="shared" si="20"/>
+        <v>166752</v>
       </c>
       <c r="E89" s="9">
-        <v>131482</v>
+        <v>128561</v>
       </c>
       <c r="F89" s="9">
-        <v>36545</v>
+        <v>38191</v>
       </c>
       <c r="G89" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H89" s="9">
@@ -5156,24 +5156,24 @@
         <v>0</v>
       </c>
       <c r="J89" s="8">
-        <f t="shared" si="15"/>
-        <v>35688</v>
+        <f t="shared" si="19"/>
+        <v>37073</v>
       </c>
       <c r="K89" s="9">
-        <v>24015</v>
+        <v>24692</v>
       </c>
       <c r="L89" s="9">
-        <v>11673</v>
+        <v>12381</v>
       </c>
       <c r="M89" s="10">
-        <f t="shared" si="18"/>
-        <v>12153.535</v>
+        <f t="shared" si="22"/>
+        <v>14091.387999999999</v>
       </c>
       <c r="N89" s="9">
-        <v>8289.7060000000001</v>
+        <v>9430.1080000000002</v>
       </c>
       <c r="O89" s="9">
-        <v>3863.8290000000002</v>
+        <v>4661.28</v>
       </c>
     </row>
     <row r="90" spans="2:15" hidden="1">
@@ -5181,20 +5181,20 @@
         <v>2018</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D90" s="14">
-        <f t="shared" si="16"/>
-        <v>167317</v>
+        <f t="shared" si="20"/>
+        <v>158678</v>
       </c>
       <c r="E90" s="15">
-        <v>128001</v>
+        <v>121941</v>
       </c>
       <c r="F90" s="15">
-        <v>39316</v>
+        <v>36737</v>
       </c>
       <c r="G90" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H90" s="15">
@@ -5204,24 +5204,24 @@
         <v>0</v>
       </c>
       <c r="J90" s="14">
-        <f t="shared" si="15"/>
-        <v>34719</v>
+        <f t="shared" si="19"/>
+        <v>34876</v>
       </c>
       <c r="K90" s="15">
-        <v>23289</v>
+        <v>23300</v>
       </c>
       <c r="L90" s="15">
-        <v>11430</v>
+        <v>11576</v>
       </c>
       <c r="M90" s="16">
-        <f t="shared" si="18"/>
-        <v>12397.615</v>
+        <f t="shared" si="22"/>
+        <v>12298.282999999999</v>
       </c>
       <c r="N90" s="15">
-        <v>8179.683</v>
+        <v>8174.7749999999996</v>
       </c>
       <c r="O90" s="15">
-        <v>4217.9319999999998</v>
+        <v>4123.5079999999998</v>
       </c>
     </row>
     <row r="91" spans="2:15" hidden="1">
@@ -5229,20 +5229,20 @@
         <v>2018</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D91" s="8">
-        <f t="shared" si="16"/>
-        <v>175525</v>
+        <f t="shared" si="20"/>
+        <v>168027</v>
       </c>
       <c r="E91" s="9">
-        <v>131590</v>
+        <v>131482</v>
       </c>
       <c r="F91" s="9">
-        <v>43935</v>
+        <v>36545</v>
       </c>
       <c r="G91" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H91" s="9">
@@ -5252,24 +5252,24 @@
         <v>0</v>
       </c>
       <c r="J91" s="8">
-        <f t="shared" si="15"/>
-        <v>35499</v>
+        <f t="shared" si="19"/>
+        <v>35688</v>
       </c>
       <c r="K91" s="9">
-        <v>23540</v>
+        <v>24015</v>
       </c>
       <c r="L91" s="9">
-        <v>11959</v>
+        <v>11673</v>
       </c>
       <c r="M91" s="10">
-        <f t="shared" si="18"/>
-        <v>12920.743</v>
+        <f t="shared" si="22"/>
+        <v>12153.535</v>
       </c>
       <c r="N91" s="9">
-        <v>8102.1610000000001</v>
+        <v>8289.7060000000001</v>
       </c>
       <c r="O91" s="9">
-        <v>4818.5820000000003</v>
+        <v>3863.8290000000002</v>
       </c>
     </row>
     <row r="92" spans="2:15" hidden="1">
@@ -5277,20 +5277,20 @@
         <v>2018</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D92" s="14">
-        <f t="shared" si="16"/>
-        <v>153732</v>
+        <f t="shared" si="20"/>
+        <v>167317</v>
       </c>
       <c r="E92" s="15">
-        <v>115727</v>
+        <v>128001</v>
       </c>
       <c r="F92" s="15">
-        <v>38005</v>
+        <v>39316</v>
       </c>
       <c r="G92" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H92" s="15">
@@ -5300,24 +5300,24 @@
         <v>0</v>
       </c>
       <c r="J92" s="14">
-        <f t="shared" si="15"/>
-        <v>31178</v>
+        <f t="shared" si="19"/>
+        <v>34719</v>
       </c>
       <c r="K92" s="15">
-        <v>20697</v>
+        <v>23289</v>
       </c>
       <c r="L92" s="15">
-        <v>10481</v>
+        <v>11430</v>
       </c>
       <c r="M92" s="16">
-        <f t="shared" si="18"/>
-        <v>10846.098</v>
+        <f t="shared" si="22"/>
+        <v>12397.615</v>
       </c>
       <c r="N92" s="15">
-        <v>6820.4250000000002</v>
+        <v>8179.683</v>
       </c>
       <c r="O92" s="15">
-        <v>4025.6729999999998</v>
+        <v>4217.9319999999998</v>
       </c>
     </row>
     <row r="93" spans="2:15" hidden="1">
@@ -5325,87 +5325,183 @@
         <v>2018</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="8">
+        <f t="shared" si="20"/>
+        <v>175525</v>
+      </c>
+      <c r="E93" s="9">
+        <v>131590</v>
+      </c>
+      <c r="F93" s="9">
+        <v>43935</v>
+      </c>
+      <c r="G93" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="9">
+        <v>0</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0</v>
+      </c>
+      <c r="J93" s="8">
+        <f t="shared" si="19"/>
+        <v>35499</v>
+      </c>
+      <c r="K93" s="9">
+        <v>23540</v>
+      </c>
+      <c r="L93" s="9">
+        <v>11959</v>
+      </c>
+      <c r="M93" s="10">
+        <f t="shared" si="22"/>
+        <v>12920.743</v>
+      </c>
+      <c r="N93" s="9">
+        <v>8102.1610000000001</v>
+      </c>
+      <c r="O93" s="9">
+        <v>4818.5820000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="2:15" hidden="1">
+      <c r="B94" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="14">
+        <f t="shared" si="20"/>
+        <v>153732</v>
+      </c>
+      <c r="E94" s="15">
+        <v>115727</v>
+      </c>
+      <c r="F94" s="15">
+        <v>38005</v>
+      </c>
+      <c r="G94" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="15">
+        <v>0</v>
+      </c>
+      <c r="I94" s="15">
+        <v>0</v>
+      </c>
+      <c r="J94" s="14">
+        <f t="shared" si="19"/>
+        <v>31178</v>
+      </c>
+      <c r="K94" s="15">
+        <v>20697</v>
+      </c>
+      <c r="L94" s="15">
+        <v>10481</v>
+      </c>
+      <c r="M94" s="16">
+        <f t="shared" si="22"/>
+        <v>10846.098</v>
+      </c>
+      <c r="N94" s="15">
+        <v>6820.4250000000002</v>
+      </c>
+      <c r="O94" s="15">
+        <v>4025.6729999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="2:15" hidden="1">
+      <c r="B95" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D93" s="8">
-        <f t="shared" si="16"/>
+      <c r="D95" s="8">
+        <f t="shared" si="20"/>
         <v>165319</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E95" s="9">
         <v>123033</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F95" s="9">
         <v>42286</v>
       </c>
-      <c r="G93" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="9">
-        <v>0</v>
-      </c>
-      <c r="I93" s="9">
-        <v>0</v>
-      </c>
-      <c r="J93" s="8">
-        <f t="shared" si="15"/>
+      <c r="G95" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="9">
+        <v>0</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8">
+        <f t="shared" si="19"/>
         <v>35175</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K95" s="9">
         <v>23003</v>
       </c>
-      <c r="L93" s="9">
+      <c r="L95" s="9">
         <v>12172</v>
       </c>
-      <c r="M93" s="10">
-        <f t="shared" si="18"/>
+      <c r="M95" s="10">
+        <f t="shared" si="22"/>
         <v>12140.277</v>
       </c>
-      <c r="N93" s="9">
+      <c r="N95" s="9">
         <v>7540.7510000000002</v>
       </c>
-      <c r="O93" s="9">
+      <c r="O95" s="9">
         <v>4599.5259999999998</v>
       </c>
-    </row>
-    <row r="94" spans="2:15">
-      <c r="B94" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N94" s="15"/>
-    </row>
-    <row r="95" spans="2:15">
-      <c r="B95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N95" s="15"/>
-      <c r="O95" s="30"/>
     </row>
     <row r="96" spans="2:15">
       <c r="B96" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N96" s="15"/>
+    </row>
+    <row r="97" spans="2:15">
+      <c r="B97" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N97" s="15"/>
+      <c r="O97" s="30"/>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N96" s="15"/>
-    </row>
-    <row r="97" spans="2:14">
-      <c r="B97" s="3" t="s">
+      <c r="N98" s="15"/>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N97" s="15"/>
-    </row>
-    <row r="98" spans="2:14">
-      <c r="B98" s="35" t="s">
+      <c r="N99" s="15"/>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="N98" s="15"/>
-    </row>
-    <row r="99" spans="2:14">
-      <c r="B99" s="3" t="s">
+      <c r="N100" s="15"/>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="2:14">
-      <c r="B100" s="3" t="s">
+    <row r="102" spans="2:15">
+      <c r="B102" s="3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Operaciones_pasajeros_A.xlsx
+++ b/Operaciones_pasajeros_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC6815B-5F21-4AE7-8E35-E73D19B74DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2823ABE8-0F9E-4F12-A8C2-F57CB2308DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_28" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
   <si>
     <t>Internacional</t>
   </si>
@@ -149,7 +149,7 @@
     <t xml:space="preserve"> El concepto de "Operaciones del AIFA", a partir del mes de enero de 2025 hubo una reclasificación en las operaciones de carga del AIFA.</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -446,18 +448,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
@@ -469,6 +459,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,7 +697,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -778,8 +780,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O95" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O95" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O96" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1038,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O102"/>
+  <dimension ref="B2:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1079,4429 +1081,4477 @@
     <row r="4" spans="2:15">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="36" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="36" t="s">
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="36" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="38"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="32" t="s">
+      <c r="F5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="38" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="13">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8">
+        <f>SUM(E6:F6)</f>
+        <v>161231</v>
+      </c>
+      <c r="E6" s="9">
+        <v>117771</v>
+      </c>
+      <c r="F6" s="9">
+        <v>43460</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(H6:I6)</f>
+        <v>5685</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4350</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1335</v>
+      </c>
+      <c r="J6" s="8">
+        <f>SUM(K6:L6)</f>
+        <v>25743</v>
+      </c>
+      <c r="K6" s="9">
+        <v>15530</v>
+      </c>
+      <c r="L6" s="9">
+        <v>10213</v>
+      </c>
+      <c r="M6" s="10">
+        <f>SUM(N6:O6)</f>
+        <v>17207.216</v>
+      </c>
+      <c r="N6" s="9">
+        <v>11719.297</v>
+      </c>
+      <c r="O6" s="11">
+        <v>5487.9189999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14">
-        <f>SUM(E6:F6)</f>
-        <v>149261</v>
-      </c>
-      <c r="E6" s="15">
-        <v>109395</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D7" s="14">
+        <f>SUM(E7:F7)</f>
+        <v>149253</v>
+      </c>
+      <c r="E7" s="15">
+        <v>109387</v>
+      </c>
+      <c r="F7" s="15">
         <v>39866</v>
       </c>
-      <c r="G6" s="14">
-        <f>SUM(H6:I6)</f>
+      <c r="G7" s="14">
+        <f>SUM(H7:I7)</f>
         <v>5352</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H7" s="15">
         <v>4064</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I7" s="15">
         <v>1288</v>
       </c>
-      <c r="J6" s="14">
-        <f>SUM(K6:L6)</f>
+      <c r="J7" s="14">
+        <f>SUM(K7:L7)</f>
         <v>24639</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K7" s="15">
         <v>15464</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L7" s="15">
         <v>9175</v>
       </c>
-      <c r="M6" s="16">
-        <f>SUM(N6:O6)</f>
-        <v>15347.235000000001</v>
-      </c>
-      <c r="N6" s="15">
-        <v>10458.013000000001</v>
-      </c>
-      <c r="O6" s="15">
+      <c r="M7" s="16">
+        <f>SUM(N7:O7)</f>
+        <v>15347.199000000001</v>
+      </c>
+      <c r="N7" s="15">
+        <v>10457.977000000001</v>
+      </c>
+      <c r="O7" s="15">
         <v>4889.2219999999998</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="6">
+    <row r="8" spans="2:15">
+      <c r="B8" s="6">
         <v>2025</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="8">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="8">
+        <f>SUM(E8:F8)</f>
         <v>158854</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>118274</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F8" s="9">
         <v>40580</v>
       </c>
-      <c r="G7" s="8">
-        <f>SUM(H7:I7)</f>
+      <c r="G8" s="8">
+        <f>SUM(H8:I8)</f>
         <v>5675</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H8" s="9">
         <v>4378</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I8" s="9">
         <v>1297</v>
       </c>
-      <c r="J7" s="8">
-        <f>SUM(K7:L7)</f>
+      <c r="J8" s="8">
+        <f>SUM(K8:L8)</f>
         <v>25288</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K8" s="9">
         <v>16099</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L8" s="9">
         <v>9189</v>
       </c>
-      <c r="M7" s="10">
-        <f>SUM(N7:O7)</f>
+      <c r="M8" s="10">
+        <f>SUM(N8:O8)</f>
         <v>15562.080999999998</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N8" s="9">
         <v>10871.63</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O8" s="11">
         <v>4690.451</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="13">
+    <row r="9" spans="2:15">
+      <c r="B9" s="13">
         <v>2025</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="14">
-        <f t="shared" ref="D8:D13" si="0">SUM(E8:F8)</f>
+      <c r="D9" s="14">
+        <f t="shared" ref="D9:D14" si="0">SUM(E9:F9)</f>
         <v>163693</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="15">
         <v>117744</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="15">
         <v>45949</v>
       </c>
-      <c r="G8" s="14">
-        <f t="shared" ref="G8:G13" si="1">SUM(H8:I8)</f>
+      <c r="G9" s="14">
+        <f t="shared" ref="G9:G14" si="1">SUM(H9:I9)</f>
         <v>5726</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H9" s="15">
         <v>4515</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I9" s="15">
         <v>1211</v>
       </c>
-      <c r="J8" s="14">
-        <f t="shared" ref="J8:J13" si="2">SUM(K8:L8)</f>
+      <c r="J9" s="14">
+        <f t="shared" ref="J9:J14" si="2">SUM(K9:L9)</f>
         <v>24458</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K9" s="15">
         <v>15312</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L9" s="15">
         <v>9146</v>
       </c>
-      <c r="M8" s="16">
-        <f t="shared" ref="M8:M13" si="3">SUM(N8:O8)</f>
+      <c r="M9" s="16">
+        <f t="shared" ref="M9:M14" si="3">SUM(N9:O9)</f>
         <v>16382.235000000001</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N9" s="15">
         <v>11055.959000000001</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O9" s="15">
         <v>5326.2759999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="6">
+    <row r="10" spans="2:15">
+      <c r="B10" s="6">
         <v>2025</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>168971</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>117821</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F10" s="9">
         <v>51150</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>5614</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H10" s="9">
         <v>4387</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I10" s="9">
         <v>1227</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J10" s="8">
         <f t="shared" si="2"/>
         <v>25250</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="9">
         <v>15847</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L10" s="9">
         <v>9403</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M10" s="10">
         <f t="shared" si="3"/>
         <v>16721.387000000002</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N10" s="9">
         <v>10657.406000000001</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O10" s="11">
         <v>6063.9809999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="13">
+    <row r="11" spans="2:15">
+      <c r="B11" s="13">
         <v>2025</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>148741</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="15">
         <v>105136</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F11" s="15">
         <v>43605</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>5061</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H11" s="15">
         <v>3981</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I11" s="15">
         <v>1080</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J11" s="14">
         <f t="shared" si="2"/>
         <v>22852</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K11" s="15">
         <v>14515</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L11" s="15">
         <v>8337</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M11" s="16">
         <f t="shared" si="3"/>
         <v>14261.053</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N11" s="15">
         <v>9133.57</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O11" s="15">
         <v>5127.4830000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="18">
+    <row r="12" spans="2:15">
+      <c r="B12" s="18">
         <v>2025</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>163357</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E12" s="21">
         <v>114244</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F12" s="21">
         <v>49113</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G12" s="20">
         <f t="shared" si="1"/>
         <v>5619</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H12" s="21">
         <v>4438</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I12" s="21">
         <v>1181</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J12" s="20">
         <f t="shared" si="2"/>
         <v>25418</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K12" s="21">
         <v>15960</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L12" s="21">
         <v>9458</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M12" s="22">
         <f t="shared" si="3"/>
         <v>16253.322</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N12" s="21">
         <v>10323.901</v>
       </c>
-      <c r="O11" s="23">
+      <c r="O12" s="23">
         <v>5929.4210000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="12">
+    <row r="13" spans="2:15">
+      <c r="B13" s="12">
         <v>2024</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D13" s="14">
         <f t="shared" si="0"/>
         <v>167031</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>116920</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F13" s="15">
         <v>50111</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
         <v>6198</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H13" s="15">
         <v>4882</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I13" s="15">
         <v>1316</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J13" s="14">
         <f t="shared" si="2"/>
         <v>25085</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K13" s="15">
         <v>15393</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L13" s="15">
         <v>9692</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M13" s="16">
         <f t="shared" si="3"/>
         <v>17224.003000000001</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N13" s="15">
         <v>11183.15</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O13" s="17">
         <v>6040.8530000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="6">
+    <row r="14" spans="2:15">
+      <c r="B14" s="6">
         <v>2024</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>163956</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>119294</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>44662</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
         <v>6142</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H14" s="9">
         <v>4751</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I14" s="9">
         <v>1391</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J14" s="8">
         <f t="shared" si="2"/>
         <v>24195</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K14" s="9">
         <v>15199</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L14" s="9">
         <v>8996</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M14" s="10">
         <f t="shared" si="3"/>
         <v>15816.669000000002</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N14" s="9">
         <v>10696.485000000001</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O14" s="11">
         <v>5120.1840000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="12">
+    <row r="15" spans="2:15">
+      <c r="B15" s="12">
         <v>2024</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="14">
-        <f t="shared" ref="D14" si="4">SUM(E14:F14)</f>
+      <c r="D15" s="14">
+        <f t="shared" ref="D15" si="4">SUM(E15:F15)</f>
         <v>154230</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <v>116413</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F15" s="15">
         <v>37817</v>
       </c>
-      <c r="G14" s="14">
-        <f t="shared" ref="G14" si="5">SUM(H14:I14)</f>
+      <c r="G15" s="14">
+        <f t="shared" ref="G15" si="5">SUM(H15:I15)</f>
         <v>6250</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H15" s="15">
         <v>4792</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I15" s="15">
         <v>1458</v>
       </c>
-      <c r="J14" s="14">
-        <f t="shared" ref="J14" si="6">SUM(K14:L14)</f>
+      <c r="J15" s="14">
+        <f t="shared" ref="J15" si="6">SUM(K15:L15)</f>
         <v>24943</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K15" s="15">
         <v>16106.000000000002</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L15" s="15">
         <v>8837</v>
       </c>
-      <c r="M14" s="16">
-        <f t="shared" ref="M14" si="7">SUM(N14:O14)</f>
+      <c r="M15" s="16">
+        <f t="shared" ref="M15" si="7">SUM(N15:O15)</f>
         <v>14932.208999999999</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N15" s="15">
         <v>10562.91</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O15" s="17">
         <v>4369.299</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="6">
+    <row r="16" spans="2:15">
+      <c r="B16" s="6">
         <v>2024</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8">
-        <f>SUM(E15:F15)</f>
+      <c r="D16" s="8">
+        <f>SUM(E16:F16)</f>
         <v>141210</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>108351</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>32859</v>
       </c>
-      <c r="G15" s="8">
-        <f>SUM(H15:I15)</f>
+      <c r="G16" s="8">
+        <f>SUM(H16:I16)</f>
         <v>5876</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H16" s="9">
         <v>4518</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I16" s="9">
         <v>1358</v>
       </c>
-      <c r="J15" s="8">
-        <f>SUM(K15:L15)</f>
+      <c r="J16" s="8">
+        <f>SUM(K16:L16)</f>
         <v>24172</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K16" s="9">
         <v>15661</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L16" s="9">
         <v>8511</v>
       </c>
-      <c r="M15" s="10">
-        <f>SUM(N15:O15)</f>
+      <c r="M16" s="10">
+        <f>SUM(N16:O16)</f>
         <v>13837.021999999999</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N16" s="9">
         <v>10036.638999999999</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O16" s="11">
         <v>3800.3829999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="12">
+    <row r="17" spans="2:15">
+      <c r="B17" s="12">
         <v>2024</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="14">
-        <f>SUM(E16:F16)</f>
+      <c r="D17" s="14">
+        <f>SUM(E17:F17)</f>
         <v>157045</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="15">
         <v>118762</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F17" s="15">
         <v>38283</v>
       </c>
-      <c r="G16" s="14">
-        <f t="shared" ref="G16:G50" si="8">SUM(H16:I16)</f>
+      <c r="G17" s="14">
+        <f t="shared" ref="G17:G51" si="8">SUM(H17:I17)</f>
         <v>6079</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H17" s="15">
         <v>4643</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I17" s="15">
         <v>1436</v>
       </c>
-      <c r="J16" s="14">
-        <f t="shared" ref="J16:J46" si="9">SUM(K16:L16)</f>
+      <c r="J17" s="14">
+        <f t="shared" ref="J17:J47" si="9">SUM(K17:L17)</f>
         <v>26410</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K17" s="15">
         <v>17075</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L17" s="15">
         <v>9335</v>
       </c>
-      <c r="M16" s="16">
-        <f t="shared" ref="M16:M50" si="10">SUM(N16:O16)</f>
+      <c r="M17" s="16">
+        <f t="shared" ref="M17:M51" si="10">SUM(N17:O17)</f>
         <v>16048.866999999998</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N17" s="15">
         <v>11325.605</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O17" s="17">
         <v>4723.2619999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="6">
+    <row r="18" spans="2:15">
+      <c r="B18" s="6">
         <v>2024</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8">
-        <f t="shared" ref="D17:D18" si="11">SUM(E17:F17)</f>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18:D19" si="11">SUM(E18:F18)</f>
         <v>157419</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>117177</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>40242</v>
       </c>
-      <c r="G17" s="8">
-        <f t="shared" ref="G17:G19" si="12">SUM(H17:I17)</f>
+      <c r="G18" s="8">
+        <f t="shared" ref="G18:G20" si="12">SUM(H18:I18)</f>
         <v>6016</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H18" s="9">
         <v>4625</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I18" s="9">
         <v>1391</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J18" s="8">
         <f t="shared" si="9"/>
         <v>26445</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K18" s="9">
         <v>16888</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L18" s="9">
         <v>9557</v>
       </c>
-      <c r="M17" s="10">
-        <f t="shared" ref="M17:M19" si="13">SUM(N17:O17)</f>
+      <c r="M18" s="10">
+        <f t="shared" ref="M18:M20" si="13">SUM(N18:O18)</f>
         <v>16878.663</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N18" s="9">
         <v>11522.672</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O18" s="11">
         <v>5355.991</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="12">
+    <row r="19" spans="2:15">
+      <c r="B19" s="12">
         <v>2024</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D19" s="14">
         <f t="shared" si="11"/>
         <v>148346</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <v>109282</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="15">
         <v>39064</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="14">
         <f t="shared" si="12"/>
         <v>5818</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H19" s="15">
         <v>4413</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I19" s="15">
         <v>1405</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <f t="shared" si="9"/>
         <v>25325</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K19" s="15">
         <v>16635</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L19" s="15">
         <v>8690</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M19" s="16">
         <f t="shared" si="13"/>
         <v>15314.61</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N19" s="15">
         <v>10370.779</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O19" s="17">
         <v>4943.8310000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="6">
+    <row r="20" spans="2:15">
+      <c r="B20" s="6">
         <v>2024</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="8">
-        <f>SUM(E19:F19)</f>
+      <c r="D20" s="8">
+        <f>SUM(E20:F20)</f>
         <v>159550</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>119704</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>39846</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <f t="shared" si="12"/>
         <v>5832</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H20" s="9">
         <v>4318</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I20" s="9">
         <v>1514</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J20" s="8">
         <f t="shared" si="9"/>
         <v>26164</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K20" s="9">
         <v>17387</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L20" s="9">
         <v>8777</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M20" s="10">
         <f t="shared" si="13"/>
         <v>15380.428</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N20" s="9">
         <v>10623.656000000001</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O20" s="11">
         <v>4756.7719999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="12">
+    <row r="21" spans="2:15">
+      <c r="B21" s="12">
         <v>2024</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="14">
-        <f t="shared" ref="D20:D50" si="14">SUM(E20:F20)</f>
+      <c r="D21" s="14">
+        <f t="shared" ref="D21:D51" si="14">SUM(E21:F21)</f>
         <v>158975</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>115595</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="15">
         <v>43380</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="14">
         <f t="shared" si="8"/>
         <v>5691</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H21" s="15">
         <v>4266</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I21" s="15">
         <v>1425</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <f t="shared" si="9"/>
         <v>25292</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K21" s="15">
         <v>16701</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L21" s="15">
         <v>8591</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M21" s="16">
         <f t="shared" si="10"/>
         <v>15232.386999999999</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N21" s="15">
         <v>10112.061</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O21" s="17">
         <v>5120.326</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="6">
+    <row r="22" spans="2:15">
+      <c r="B22" s="6">
         <v>2024</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D22" s="8">
         <f t="shared" si="14"/>
         <v>160745</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E22" s="9">
         <v>111522</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F22" s="9">
         <v>49223</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <f t="shared" si="8"/>
         <v>4951</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H22" s="9">
         <v>3643</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I22" s="9">
         <v>1308</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J22" s="8">
         <f t="shared" si="9"/>
         <v>25196</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K22" s="9">
         <v>15924</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L22" s="9">
         <v>9272</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M22" s="10">
         <f t="shared" si="10"/>
         <v>15971.481</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N22" s="9">
         <v>9845.5509999999995</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O22" s="11">
         <v>6125.93</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="12">
+    <row r="23" spans="2:15">
+      <c r="B23" s="12">
         <v>2024</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <f t="shared" si="14"/>
         <v>148853</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>104440</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F23" s="15">
         <v>44413</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="14">
         <f t="shared" si="8"/>
         <v>4469</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H23" s="15">
         <v>3222</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I23" s="15">
         <v>1247</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="14">
         <f t="shared" si="9"/>
         <v>23784</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K23" s="15">
         <v>15355</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L23" s="15">
         <v>8429</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M23" s="16">
         <f t="shared" si="10"/>
         <v>14272.33</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N23" s="15">
         <v>8893.5959999999995</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O23" s="17">
         <v>5378.7340000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="18">
+    <row r="24" spans="2:15">
+      <c r="B24" s="18">
         <v>2024</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D24" s="20">
         <f t="shared" si="14"/>
         <v>156666</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E24" s="21">
         <v>108922</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F24" s="21">
         <v>47744</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G24" s="20">
         <f t="shared" si="8"/>
         <v>4402</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H24" s="21">
         <v>3190</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I24" s="21">
         <v>1212</v>
       </c>
-      <c r="J23" s="20">
+      <c r="J24" s="20">
         <f t="shared" si="9"/>
         <v>25531</v>
       </c>
-      <c r="K23" s="21">
-        <v>16217</v>
-      </c>
-      <c r="L23" s="21">
+      <c r="K24" s="21">
+        <v>16216.999999999998</v>
+      </c>
+      <c r="L24" s="21">
         <v>9314</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M24" s="22">
         <f t="shared" si="10"/>
         <v>15551.477000000001</v>
       </c>
-      <c r="N23" s="21">
+      <c r="N24" s="21">
         <v>9753.6540000000005</v>
       </c>
-      <c r="O23" s="23">
+      <c r="O24" s="23">
         <v>5797.8230000000003</v>
       </c>
     </row>
-    <row r="24" spans="2:15" hidden="1">
-      <c r="B24" s="24">
+    <row r="25" spans="2:15" hidden="1">
+      <c r="B25" s="24">
         <v>2023</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C25" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D25" s="26">
         <f t="shared" si="14"/>
         <v>163911</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E25" s="27">
         <v>118221</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F25" s="27">
         <v>45690</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G25" s="26">
         <f t="shared" si="8"/>
         <v>2455</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H25" s="27">
         <v>2237</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I25" s="27">
         <v>218</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J25" s="26">
         <f t="shared" si="9"/>
         <v>28577</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K25" s="27">
         <v>18492</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L25" s="27">
         <v>10085</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M25" s="28">
         <f t="shared" si="10"/>
         <v>16722.900000000001</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N25" s="27">
         <v>10949.384</v>
       </c>
-      <c r="O24" s="29">
+      <c r="O25" s="29">
         <v>5773.5159999999996</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1">
-      <c r="B25" s="6">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="6">
         <v>2023</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D26" s="8">
         <f t="shared" si="14"/>
         <v>158913</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>119949</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F26" s="9">
         <v>38964</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <f t="shared" si="8"/>
         <v>2027</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H26" s="9">
         <v>1838</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I26" s="9">
         <v>189</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J26" s="8">
         <f t="shared" si="9"/>
         <v>27656</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K26" s="9">
         <v>18844</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L26" s="9">
         <v>8812</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M26" s="10">
         <f t="shared" si="10"/>
         <v>15490.629000000001</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N26" s="9">
         <v>10633.794</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O26" s="11">
         <v>4856.835</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1">
-      <c r="B26" s="12">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="12">
         <v>2023</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D27" s="14">
         <f t="shared" si="14"/>
         <v>155697</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="15">
         <v>120652</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F27" s="15">
         <v>35045</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="14">
         <f t="shared" si="8"/>
         <v>2106</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H27" s="15">
         <v>1897</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I27" s="15">
         <v>209</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J27" s="14">
         <f t="shared" si="9"/>
         <v>27597</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K27" s="15">
         <v>18942</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L27" s="15">
         <v>8655</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M27" s="16">
         <f t="shared" si="10"/>
         <v>15213.704999999998</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N27" s="15">
         <v>10935.924999999999</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O27" s="17">
         <v>4277.78</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1">
-      <c r="B27" s="6">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="6">
         <v>2023</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <f t="shared" si="14"/>
         <v>146668</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E28" s="9">
         <v>114905</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>31763</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <f t="shared" si="8"/>
         <v>1731</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H28" s="9">
         <v>1549</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I28" s="9">
         <v>182</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J28" s="8">
         <f t="shared" si="9"/>
         <v>26793</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K28" s="9">
         <v>18467</v>
       </c>
-      <c r="L27" s="9">
+      <c r="L28" s="9">
         <v>8326</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M28" s="10">
         <f t="shared" si="10"/>
         <v>13986.931</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N28" s="9">
         <v>10236.332</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O28" s="11">
         <v>3750.5990000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1">
-      <c r="B28" s="12">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="12">
         <v>2023</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D29" s="14">
         <f t="shared" si="14"/>
         <v>162973</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="15">
         <v>125545</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F29" s="15">
         <v>37428</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G29" s="14">
         <f t="shared" si="8"/>
         <v>2108</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H29" s="15">
         <v>1923</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I29" s="15">
         <v>185</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J29" s="14">
         <f t="shared" si="9"/>
         <v>29095</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K29" s="15">
         <v>19522</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L29" s="15">
         <v>9573</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M29" s="16">
         <f t="shared" si="10"/>
         <v>16766.697</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N29" s="15">
         <v>12077.877</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O29" s="17">
         <v>4688.82</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1">
-      <c r="B29" s="6">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="6">
         <v>2023</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D30" s="8">
         <f t="shared" si="14"/>
         <v>164170</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E30" s="9">
         <v>124900</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>39270</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <f t="shared" si="8"/>
         <v>2029</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H30" s="9">
         <v>1857</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I30" s="9">
         <v>172</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J30" s="8">
         <f t="shared" si="9"/>
         <v>29231</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K30" s="9">
         <v>19311</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L30" s="9">
         <v>9920</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M30" s="10">
         <f t="shared" si="10"/>
         <v>17331.974000000002</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N30" s="9">
         <v>12036.081</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O30" s="11">
         <v>5295.893</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1">
-      <c r="B30" s="12">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="12">
         <v>2023</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D31" s="14">
         <f t="shared" si="14"/>
         <v>158074</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <v>120413</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <v>37661</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G31" s="14">
         <f t="shared" si="8"/>
         <v>1839</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H31" s="15">
         <v>1681</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I31" s="15">
         <v>158</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J31" s="14">
         <f t="shared" si="9"/>
         <v>28215</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K31" s="15">
         <v>18972</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L31" s="15">
         <v>9243</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M31" s="16">
         <f t="shared" si="10"/>
         <v>15257.142</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N31" s="15">
         <v>10569.871999999999</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O31" s="17">
         <v>4687.2700000000004</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1">
-      <c r="B31" s="6">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="6">
         <v>2023</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D32" s="8">
         <f t="shared" si="14"/>
         <v>162182</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E32" s="9">
         <v>124206</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>37976</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <f t="shared" si="8"/>
         <v>1851</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H32" s="9">
         <v>1681</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I32" s="9">
         <v>170</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J32" s="8">
         <f t="shared" si="9"/>
         <v>28633</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K32" s="9">
         <v>19183</v>
       </c>
-      <c r="L31" s="9">
+      <c r="L32" s="9">
         <v>9450</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M32" s="10">
         <f t="shared" si="10"/>
         <v>15115.095000000001</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N32" s="9">
         <v>10649.591</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O32" s="11">
         <v>4465.5039999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1">
-      <c r="B32" s="12">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="12">
         <v>2023</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <f t="shared" si="14"/>
         <v>159882</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="15">
         <v>120199</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="15">
         <v>39683</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <f t="shared" si="8"/>
         <v>1710</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H33" s="15">
         <v>1605</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I33" s="15">
         <v>105</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J33" s="14">
         <f t="shared" si="9"/>
         <v>28347</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K33" s="15">
         <v>19276</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L33" s="15">
         <v>9071</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M33" s="16">
         <f t="shared" si="10"/>
         <v>15697.496999999999</v>
       </c>
-      <c r="N32" s="15">
+      <c r="N33" s="15">
         <v>10803.382</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O33" s="17">
         <v>4894.1149999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="6">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="6">
         <v>2023</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D34" s="8">
         <f t="shared" si="14"/>
         <v>170638</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E34" s="9">
         <v>126849</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F34" s="9">
         <v>43789</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <f t="shared" si="8"/>
         <v>1840</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H34" s="9">
         <v>1730</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I34" s="9">
         <v>110</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J34" s="8">
         <f t="shared" si="9"/>
         <v>29361</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K34" s="9">
         <v>19711</v>
       </c>
-      <c r="L33" s="9">
+      <c r="L34" s="9">
         <v>9650</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M34" s="10">
         <f t="shared" si="10"/>
         <v>15935.796</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N34" s="9">
         <v>10528.172</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O34" s="11">
         <v>5407.6239999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="12">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="12">
         <v>2023</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D35" s="14">
         <f t="shared" si="14"/>
         <v>151336</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="15">
         <v>112299</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="15">
         <v>39037</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="14">
         <f t="shared" si="8"/>
         <v>1650</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H35" s="15">
         <v>1537</v>
       </c>
-      <c r="I34" s="15">
+      <c r="I35" s="15">
         <v>113</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J35" s="14">
         <f t="shared" si="9"/>
         <v>26435</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K35" s="15">
         <v>17619</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L35" s="15">
         <v>8816</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M35" s="16">
         <f t="shared" si="10"/>
         <v>13705.822</v>
       </c>
-      <c r="N34" s="15">
+      <c r="N35" s="15">
         <v>8982.0499999999993</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O35" s="17">
         <v>4723.7719999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="18">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="18">
         <v>2023</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C36" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D36" s="20">
         <f t="shared" si="14"/>
         <v>165200</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E36" s="21">
         <v>121747</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F36" s="21">
         <v>43453</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G36" s="20">
         <f t="shared" si="8"/>
         <v>1856</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H36" s="21">
         <v>1722</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I36" s="21">
         <v>134</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J36" s="20">
         <f t="shared" si="9"/>
         <v>30227</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K36" s="21">
         <v>20162</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L36" s="21">
         <v>10065</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M36" s="22">
         <f t="shared" si="10"/>
         <v>15379.226000000001</v>
       </c>
-      <c r="N35" s="21">
+      <c r="N36" s="21">
         <v>10060.075000000001</v>
       </c>
-      <c r="O35" s="23">
+      <c r="O36" s="23">
         <v>5319.1509999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="24">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="24">
         <v>2022</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C37" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D37" s="26">
         <f t="shared" si="14"/>
         <v>167972</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E37" s="27">
         <v>123936</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F37" s="27">
         <v>44036</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G37" s="26">
         <f t="shared" si="8"/>
         <v>1840</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H37" s="27">
         <v>1713</v>
       </c>
-      <c r="I36" s="27">
+      <c r="I37" s="27">
         <v>127</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J37" s="26">
         <f t="shared" si="9"/>
         <v>31046</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K37" s="27">
         <v>20696</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L37" s="27">
         <v>10350</v>
       </c>
-      <c r="M36" s="28">
+      <c r="M37" s="28">
         <f t="shared" si="10"/>
         <v>16259.23</v>
       </c>
-      <c r="N36" s="27">
+      <c r="N37" s="27">
         <v>11068.346</v>
       </c>
-      <c r="O36" s="29">
+      <c r="O37" s="29">
         <v>5190.884</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1">
-      <c r="B37" s="6">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="6">
         <v>2022</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D38" s="8">
         <f t="shared" si="14"/>
         <v>162759</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E38" s="9">
         <v>123505</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F38" s="9">
         <v>39254</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <f t="shared" si="8"/>
         <v>1784</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H38" s="9">
         <v>1698</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I38" s="9">
         <v>86</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J38" s="8">
         <f t="shared" si="9"/>
         <v>30430</v>
       </c>
-      <c r="K37" s="9">
+      <c r="K38" s="9">
         <v>20625</v>
       </c>
-      <c r="L37" s="9">
+      <c r="L38" s="9">
         <v>9805</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M38" s="10">
         <f t="shared" si="10"/>
         <v>15141.996999999999</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N38" s="9">
         <v>10513.98</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O38" s="11">
         <v>4628.0169999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1">
-      <c r="B38" s="12">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="12">
         <v>2022</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D39" s="14">
         <f t="shared" si="14"/>
         <v>159864</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="15">
         <v>124747</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="15">
         <v>35117</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <f t="shared" si="8"/>
         <v>1866</v>
       </c>
-      <c r="H38" s="15">
+      <c r="H39" s="15">
         <v>1780</v>
       </c>
-      <c r="I38" s="15">
+      <c r="I39" s="15">
         <v>86</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J39" s="14">
         <f t="shared" si="9"/>
         <v>31242</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K39" s="15">
         <v>21556</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L39" s="15">
         <v>9686</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M39" s="16">
         <f t="shared" si="10"/>
         <v>14556.514999999999</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N39" s="15">
         <v>10450.403</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O39" s="17">
         <v>4106.1120000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1">
-      <c r="B39" s="6">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="6">
         <v>2022</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <f t="shared" si="14"/>
         <v>147719</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E40" s="9">
         <v>115614</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F40" s="9">
         <v>32104.999999999996</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <f t="shared" si="8"/>
         <v>1327</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H40" s="9">
         <v>1296</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I40" s="9">
         <v>31</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="8">
         <f t="shared" si="9"/>
         <v>29935</v>
       </c>
-      <c r="K39" s="9">
+      <c r="K40" s="9">
         <v>20715</v>
       </c>
-      <c r="L39" s="9">
+      <c r="L40" s="9">
         <v>9220</v>
       </c>
-      <c r="M39" s="10">
+      <c r="M40" s="10">
         <f t="shared" si="10"/>
         <v>13130.359999999999</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N40" s="9">
         <v>9467.3269999999993</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O40" s="11">
         <v>3663.0329999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1">
-      <c r="B40" s="12">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="12">
         <v>2022</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D41" s="14">
         <f t="shared" si="14"/>
         <v>160707</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="15">
         <v>123479</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F41" s="15">
         <v>37228</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G41" s="14">
         <f t="shared" si="8"/>
         <v>620</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H41" s="15">
         <v>597</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I41" s="15">
         <v>23</v>
       </c>
-      <c r="J40" s="14">
+      <c r="J41" s="14">
         <f t="shared" si="9"/>
         <v>32809</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K41" s="15">
         <v>22639</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L41" s="15">
         <v>10170</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M41" s="16">
         <f t="shared" si="10"/>
         <v>15003.125</v>
       </c>
-      <c r="N40" s="15">
+      <c r="N41" s="15">
         <v>10508.375</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O41" s="17">
         <v>4494.75</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1">
-      <c r="B41" s="6">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="6">
         <v>2022</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D42" s="8">
         <f t="shared" si="14"/>
         <v>161313</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E42" s="9">
         <v>122637</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>38676</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <f t="shared" si="8"/>
         <v>338</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H42" s="9">
         <v>334</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I42" s="9">
         <v>4</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J42" s="8">
         <f t="shared" si="9"/>
         <v>32288</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K42" s="9">
         <v>22146</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L42" s="9">
         <v>10142</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M42" s="10">
         <f t="shared" si="10"/>
         <v>15713.334999999999</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N42" s="9">
         <v>10715.734</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O42" s="11">
         <v>4997.6009999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1">
-      <c r="B42" s="12">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="12">
         <v>2022</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D43" s="14">
         <f t="shared" si="14"/>
         <v>153335</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="15">
         <v>116098</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="15">
         <v>37237</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <f t="shared" si="8"/>
         <v>356</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H43" s="15">
         <v>351</v>
       </c>
-      <c r="I42" s="15">
+      <c r="I43" s="15">
         <v>5</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J43" s="14">
         <f t="shared" si="9"/>
         <v>30905</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K43" s="15">
         <v>21014</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L43" s="15">
         <v>9891</v>
       </c>
-      <c r="M42" s="16">
+      <c r="M43" s="16">
         <f t="shared" si="10"/>
         <v>13344.656999999999</v>
       </c>
-      <c r="N42" s="15">
+      <c r="N43" s="15">
         <v>9004.4539999999997</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O43" s="17">
         <v>4340.2030000000004</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1">
-      <c r="B43" s="6">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="6">
         <v>2022</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D44" s="8">
         <f t="shared" si="14"/>
         <v>158252</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E44" s="9">
         <v>120591</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>37661</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G44" s="8">
         <f t="shared" si="8"/>
         <v>371</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H44" s="9">
         <v>365</v>
       </c>
-      <c r="I43" s="9">
+      <c r="I44" s="9">
         <v>6</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J44" s="8">
         <f t="shared" si="9"/>
         <v>31398</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K44" s="9">
         <v>21509</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L44" s="9">
         <v>9889</v>
       </c>
-      <c r="M43" s="10">
+      <c r="M44" s="10">
         <f t="shared" si="10"/>
         <v>13548.44</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N44" s="9">
         <v>9417.0650000000005</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O44" s="11">
         <v>4131.375</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1">
-      <c r="B44" s="12">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="12">
         <v>2022</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <f t="shared" si="14"/>
         <v>157784</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="15">
         <v>117815</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="15">
         <v>39969</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <f t="shared" si="8"/>
         <v>356</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H45" s="15">
         <v>352</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I45" s="15">
         <v>4</v>
       </c>
-      <c r="J44" s="14">
+      <c r="J45" s="14">
         <f t="shared" si="9"/>
         <v>30844</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K45" s="15">
         <v>21295</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L45" s="15">
         <v>9549</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M45" s="16">
         <f t="shared" si="10"/>
         <v>14079.685000000001</v>
       </c>
-      <c r="N44" s="15">
+      <c r="N45" s="15">
         <v>9562.2420000000002</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O45" s="17">
         <v>4517.4430000000002</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="6">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="6">
         <v>2022</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D46" s="8">
         <f t="shared" si="14"/>
         <v>161848</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E46" s="9">
         <v>119127</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>42721</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H46" s="9">
         <v>135</v>
       </c>
-      <c r="I45" s="9">
+      <c r="I46" s="9">
         <v>3</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J46" s="8">
         <f t="shared" si="9"/>
         <v>29318</v>
       </c>
-      <c r="K45" s="9">
+      <c r="K46" s="9">
         <v>20239</v>
       </c>
-      <c r="L45" s="9">
+      <c r="L46" s="9">
         <v>9079</v>
       </c>
-      <c r="M45" s="10">
+      <c r="M46" s="10">
         <f t="shared" si="10"/>
         <v>13866.879000000001</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N46" s="9">
         <v>9057.7270000000008</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O46" s="11">
         <v>4809.152</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="12">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="12">
         <v>2022</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C47" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D47" s="14">
         <f t="shared" si="14"/>
         <v>138416</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="15">
         <v>101843</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="15">
         <v>36573</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H46" s="15">
-        <v>0</v>
-      </c>
-      <c r="I46" s="15">
-        <v>0</v>
-      </c>
-      <c r="J46" s="14">
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
         <f t="shared" si="9"/>
         <v>24917</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K47" s="15">
         <v>17054</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L47" s="15">
         <v>7863</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M47" s="16">
         <f t="shared" si="10"/>
         <v>10915.597</v>
       </c>
-      <c r="N46" s="15">
+      <c r="N47" s="15">
         <v>7204.1139999999996</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O47" s="17">
         <v>3711.4830000000002</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="18">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="18">
         <v>2022</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D48" s="20">
         <f t="shared" si="14"/>
         <v>147774</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E48" s="21">
         <v>106370</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F48" s="21">
         <v>41404</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G48" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H47" s="21">
-        <v>0</v>
-      </c>
-      <c r="I47" s="21">
-        <v>0</v>
-      </c>
-      <c r="J47" s="20">
-        <f t="shared" ref="J47:J78" si="15">SUM(K47:L47)</f>
+      <c r="H48" s="21">
+        <v>0</v>
+      </c>
+      <c r="I48" s="21">
+        <v>0</v>
+      </c>
+      <c r="J48" s="20">
+        <f t="shared" ref="J48:J79" si="15">SUM(K48:L48)</f>
         <v>28778</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K48" s="21">
         <v>19706</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L48" s="21">
         <v>9072</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M48" s="22">
         <f t="shared" si="10"/>
         <v>11653.262000000001</v>
       </c>
-      <c r="N47" s="21">
+      <c r="N48" s="21">
         <v>7668.268</v>
       </c>
-      <c r="O47" s="23">
+      <c r="O48" s="23">
         <v>3984.9940000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="24">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="24">
         <v>2021</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C49" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D49" s="26">
         <f t="shared" si="14"/>
         <v>161476</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E49" s="27">
         <v>118642</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F49" s="27">
         <v>42834</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G49" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H48" s="27">
-        <v>0</v>
-      </c>
-      <c r="I48" s="27">
-        <v>0</v>
-      </c>
-      <c r="J48" s="26">
+      <c r="H49" s="27">
+        <v>0</v>
+      </c>
+      <c r="I49" s="27">
+        <v>0</v>
+      </c>
+      <c r="J49" s="26">
         <f t="shared" si="15"/>
         <v>31395</v>
       </c>
-      <c r="K48" s="27">
+      <c r="K49" s="27">
         <v>21885</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L49" s="27">
         <v>9510</v>
       </c>
-      <c r="M48" s="28">
+      <c r="M49" s="28">
         <f t="shared" si="10"/>
         <v>13971.465</v>
       </c>
-      <c r="N48" s="27">
+      <c r="N49" s="27">
         <v>9508.3459999999995</v>
       </c>
-      <c r="O48" s="29">
+      <c r="O49" s="29">
         <v>4463.1189999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1">
-      <c r="B49" s="6">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="6">
         <v>2021</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <f t="shared" si="14"/>
         <v>153263</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E50" s="9">
         <v>115481</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F50" s="9">
         <v>37782</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H49" s="9">
-        <v>0</v>
-      </c>
-      <c r="I49" s="9">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="H50" s="9">
+        <v>0</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8">
         <f t="shared" si="15"/>
         <v>28646</v>
       </c>
-      <c r="K49" s="9">
+      <c r="K50" s="9">
         <v>20157</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L50" s="9">
         <v>8489</v>
       </c>
-      <c r="M49" s="10">
+      <c r="M50" s="10">
         <f t="shared" si="10"/>
         <v>12687.374</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N50" s="9">
         <v>8761.0709999999999</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O50" s="11">
         <v>3926.3029999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1">
-      <c r="B50" s="12">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="12">
         <v>2021</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C51" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D51" s="14">
         <f t="shared" si="14"/>
         <v>147053</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="15">
         <v>112669</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="15">
         <v>34384</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H50" s="15">
-        <v>0</v>
-      </c>
-      <c r="I50" s="15">
-        <v>0</v>
-      </c>
-      <c r="J50" s="14">
+      <c r="H51" s="15">
+        <v>0</v>
+      </c>
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
         <f t="shared" si="15"/>
         <v>28151</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K51" s="15">
         <v>19712</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L51" s="15">
         <v>8439</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M51" s="16">
         <f t="shared" si="10"/>
         <v>11848.638999999999</v>
       </c>
-      <c r="N50" s="15">
+      <c r="N51" s="15">
         <v>8373.0280000000002</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O51" s="17">
         <v>3475.6109999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1">
-      <c r="B51" s="6">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="6">
         <v>2021</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="8">
-        <f t="shared" ref="D51:D82" si="16">SUM(E51:F51)</f>
+      <c r="D52" s="8">
+        <f t="shared" ref="D52:D83" si="16">SUM(E52:F52)</f>
         <v>132825</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E52" s="9">
         <v>101771</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F52" s="9">
         <v>31054</v>
       </c>
-      <c r="G51" s="8">
-        <f t="shared" ref="G51:G82" si="17">SUM(H51:I51)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
+      <c r="G52" s="8">
+        <f t="shared" ref="G52:G83" si="17">SUM(H52:I52)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8">
         <f t="shared" si="15"/>
         <v>25472</v>
       </c>
-      <c r="K51" s="9">
+      <c r="K52" s="9">
         <v>17521</v>
       </c>
-      <c r="L51" s="9">
+      <c r="L52" s="9">
         <v>7951</v>
       </c>
-      <c r="M51" s="10">
-        <f t="shared" ref="M51:M82" si="18">SUM(N51:O51)</f>
+      <c r="M52" s="10">
+        <f t="shared" ref="M52:M83" si="18">SUM(N52:O52)</f>
         <v>10185.656000000001</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N52" s="9">
         <v>7282.1530000000002</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O52" s="11">
         <v>2903.5030000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1">
-      <c r="B52" s="12">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="12">
         <v>2021</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C53" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="14">
         <f t="shared" si="16"/>
         <v>144695</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="15">
         <v>110044</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="15">
         <v>34651</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G53" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H52" s="15">
-        <v>0</v>
-      </c>
-      <c r="I52" s="15">
-        <v>0</v>
-      </c>
-      <c r="J52" s="14">
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
         <f t="shared" si="15"/>
         <v>28906</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K53" s="15">
         <v>20368</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L53" s="15">
         <v>8538</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M53" s="16">
         <f t="shared" si="18"/>
         <v>11683.937</v>
       </c>
-      <c r="N52" s="15">
+      <c r="N53" s="15">
         <v>8069.2780000000002</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O53" s="17">
         <v>3614.6590000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1">
-      <c r="B53" s="6">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="6">
         <v>2021</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D54" s="8">
         <f t="shared" si="16"/>
         <v>146353</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E54" s="9">
         <v>110707</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F54" s="9">
         <v>35646</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
+      <c r="H54" s="9">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8">
         <f t="shared" si="15"/>
         <v>28727</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K54" s="9">
         <v>20266</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L54" s="9">
         <v>8461</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M54" s="10">
         <f t="shared" si="18"/>
         <v>12973.878000000001</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N54" s="9">
         <v>8846.4060000000009</v>
       </c>
-      <c r="O53" s="11">
+      <c r="O54" s="11">
         <v>4127.4719999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1">
-      <c r="B54" s="12">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="12">
         <v>2021</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="14">
         <f t="shared" si="16"/>
         <v>134517</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="15">
         <v>101368</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="15">
         <v>33149</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H54" s="15">
-        <v>0</v>
-      </c>
-      <c r="I54" s="15">
-        <v>0</v>
-      </c>
-      <c r="J54" s="14">
+      <c r="H55" s="15">
+        <v>0</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="14">
         <f t="shared" si="15"/>
         <v>25545</v>
       </c>
-      <c r="K54" s="15">
+      <c r="K55" s="15">
         <v>17937</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L55" s="15">
         <v>7608</v>
       </c>
-      <c r="M54" s="16">
+      <c r="M55" s="16">
         <f t="shared" si="18"/>
         <v>11386.256000000001</v>
       </c>
-      <c r="N54" s="15">
+      <c r="N55" s="15">
         <v>7719.55</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O55" s="17">
         <v>3666.7060000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1">
-      <c r="B55" s="6">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="6">
         <v>2021</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D56" s="8">
         <f t="shared" si="16"/>
         <v>138743</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E56" s="9">
         <v>106623</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F56" s="9">
         <v>32119.999999999996</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G56" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H55" s="9">
-        <v>0</v>
-      </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
-      <c r="J55" s="8">
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8">
         <f t="shared" si="15"/>
         <v>25018</v>
       </c>
-      <c r="K55" s="9">
+      <c r="K56" s="9">
         <v>17597</v>
       </c>
-      <c r="L55" s="9">
+      <c r="L56" s="9">
         <v>7421</v>
       </c>
-      <c r="M55" s="10">
+      <c r="M56" s="10">
         <f t="shared" si="18"/>
         <v>10974.823</v>
       </c>
-      <c r="N55" s="9">
+      <c r="N56" s="9">
         <v>7697.7309999999998</v>
       </c>
-      <c r="O55" s="11">
+      <c r="O56" s="11">
         <v>3277.0920000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1">
-      <c r="B56" s="12">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="12">
         <v>2021</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="14">
         <f t="shared" si="16"/>
         <v>133584</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="15">
         <v>103668</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="15">
         <v>29916</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H56" s="15">
-        <v>0</v>
-      </c>
-      <c r="I56" s="15">
-        <v>0</v>
-      </c>
-      <c r="J56" s="14">
+      <c r="H57" s="15">
+        <v>0</v>
+      </c>
+      <c r="I57" s="15">
+        <v>0</v>
+      </c>
+      <c r="J57" s="14">
         <f t="shared" si="15"/>
         <v>23420</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K57" s="15">
         <v>17095</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L57" s="15">
         <v>6325</v>
       </c>
-      <c r="M56" s="16">
+      <c r="M57" s="16">
         <f t="shared" si="18"/>
         <v>9657.1949999999997</v>
       </c>
-      <c r="N56" s="15">
+      <c r="N57" s="15">
         <v>7019.1059999999998</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O57" s="17">
         <v>2638.0889999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="6">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="6">
         <v>2021</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D58" s="8">
         <f t="shared" si="16"/>
         <v>130340</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E58" s="9">
         <v>99689</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F58" s="9">
         <v>30651</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H57" s="9">
-        <v>0</v>
-      </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
+      <c r="H58" s="9">
+        <v>0</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8">
         <f t="shared" si="15"/>
         <v>20932</v>
       </c>
-      <c r="K57" s="9">
+      <c r="K58" s="9">
         <v>15296</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L58" s="9">
         <v>5636</v>
       </c>
-      <c r="M57" s="10">
+      <c r="M58" s="10">
         <f t="shared" si="18"/>
         <v>8677.3739999999998</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N58" s="9">
         <v>6424.5829999999996</v>
       </c>
-      <c r="O57" s="11">
+      <c r="O58" s="11">
         <v>2252.7910000000002</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="12">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="12">
         <v>2021</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="14">
         <f t="shared" si="16"/>
         <v>105818</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="15">
         <v>80508</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="15">
         <v>25310</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H58" s="15">
-        <v>0</v>
-      </c>
-      <c r="I58" s="15">
-        <v>0</v>
-      </c>
-      <c r="J58" s="14">
+      <c r="H59" s="15">
+        <v>0</v>
+      </c>
+      <c r="I59" s="15">
+        <v>0</v>
+      </c>
+      <c r="J59" s="14">
         <f t="shared" si="15"/>
         <v>17155</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K59" s="15">
         <v>12105</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L59" s="15">
         <v>5050</v>
       </c>
-      <c r="M58" s="16">
+      <c r="M59" s="16">
         <f t="shared" si="18"/>
         <v>5881.9269999999997</v>
       </c>
-      <c r="N58" s="15">
+      <c r="N59" s="15">
         <v>4501.4070000000002</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O59" s="17">
         <v>1380.52</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="18">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="18">
         <v>2021</v>
       </c>
-      <c r="C59" s="19" t="s">
+      <c r="C60" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D60" s="20">
         <f t="shared" si="16"/>
         <v>124147</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E60" s="21">
         <v>93381</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F60" s="21">
         <v>30766</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G60" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H59" s="21">
-        <v>0</v>
-      </c>
-      <c r="I59" s="21">
-        <v>0</v>
-      </c>
-      <c r="J59" s="20">
+      <c r="H60" s="21">
+        <v>0</v>
+      </c>
+      <c r="I60" s="21">
+        <v>0</v>
+      </c>
+      <c r="J60" s="20">
         <f t="shared" si="15"/>
         <v>22442</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K60" s="21">
         <v>15855</v>
       </c>
-      <c r="L59" s="21">
+      <c r="L60" s="21">
         <v>6587</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M60" s="22">
         <f t="shared" si="18"/>
         <v>7530.1779999999999</v>
       </c>
-      <c r="N59" s="21">
+      <c r="N60" s="21">
         <v>5474.7460000000001</v>
       </c>
-      <c r="O59" s="23">
+      <c r="O60" s="23">
         <v>2055.4319999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="24">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="24">
         <v>2020</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D61" s="26">
         <f t="shared" si="16"/>
         <v>129572</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E61" s="27">
         <v>99674</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F61" s="27">
         <v>29898</v>
       </c>
-      <c r="G60" s="26">
+      <c r="G61" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H60" s="27">
-        <v>0</v>
-      </c>
-      <c r="I60" s="27">
-        <v>0</v>
-      </c>
-      <c r="J60" s="26">
+      <c r="H61" s="27">
+        <v>0</v>
+      </c>
+      <c r="I61" s="27">
+        <v>0</v>
+      </c>
+      <c r="J61" s="26">
         <f t="shared" si="15"/>
         <v>22377</v>
       </c>
-      <c r="K60" s="27">
+      <c r="K61" s="27">
         <v>15901</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L61" s="27">
         <v>6476</v>
       </c>
-      <c r="M60" s="28">
+      <c r="M61" s="28">
         <f t="shared" si="18"/>
         <v>8643.1899999999987</v>
       </c>
-      <c r="N60" s="27">
+      <c r="N61" s="27">
         <v>6389.2129999999997</v>
       </c>
-      <c r="O60" s="29">
+      <c r="O61" s="29">
         <v>2253.9769999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1">
-      <c r="B61" s="6">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="6">
         <v>2020</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D62" s="8">
         <f t="shared" si="16"/>
         <v>120789</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E62" s="9">
         <v>97016</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F62" s="9">
         <v>23773</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H61" s="9">
-        <v>0</v>
-      </c>
-      <c r="I61" s="9">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
+      <c r="H62" s="9">
+        <v>0</v>
+      </c>
+      <c r="I62" s="9">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8">
         <f t="shared" si="15"/>
         <v>20029</v>
       </c>
-      <c r="K61" s="9">
+      <c r="K62" s="9">
         <v>15112</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L62" s="9">
         <v>4917</v>
       </c>
-      <c r="M61" s="10">
+      <c r="M62" s="10">
         <f t="shared" si="18"/>
         <v>7700.1950000000006</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N62" s="9">
         <v>5937.9480000000003</v>
       </c>
-      <c r="O61" s="11">
+      <c r="O62" s="11">
         <v>1762.2470000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1">
-      <c r="B62" s="12">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="12">
         <v>2020</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D63" s="14">
         <f t="shared" si="16"/>
         <v>111965</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="15">
         <v>92159</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="15">
         <v>19806</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H62" s="15">
-        <v>0</v>
-      </c>
-      <c r="I62" s="15">
-        <v>0</v>
-      </c>
-      <c r="J62" s="14">
+      <c r="H63" s="15">
+        <v>0</v>
+      </c>
+      <c r="I63" s="15">
+        <v>0</v>
+      </c>
+      <c r="J63" s="14">
         <f t="shared" si="15"/>
         <v>18783</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K63" s="15">
         <v>14512</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L63" s="15">
         <v>4271</v>
       </c>
-      <c r="M62" s="16">
+      <c r="M63" s="16">
         <f t="shared" si="18"/>
         <v>6958.1730000000007</v>
       </c>
-      <c r="N62" s="15">
+      <c r="N63" s="15">
         <v>5522.3990000000003</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O63" s="17">
         <v>1435.7739999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1">
-      <c r="B63" s="6">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="6">
         <v>2020</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D64" s="8">
         <f t="shared" si="16"/>
         <v>98248</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E64" s="9">
         <v>82749</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F64" s="9">
         <v>15499</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H63" s="9">
-        <v>0</v>
-      </c>
-      <c r="I63" s="9">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8">
         <f t="shared" si="15"/>
         <v>15967</v>
       </c>
-      <c r="K63" s="9">
+      <c r="K64" s="9">
         <v>12434</v>
       </c>
-      <c r="L63" s="9">
+      <c r="L64" s="9">
         <v>3533</v>
       </c>
-      <c r="M63" s="10">
+      <c r="M64" s="10">
         <f t="shared" si="18"/>
         <v>5747.9449999999997</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N64" s="9">
         <v>4716.3429999999998</v>
       </c>
-      <c r="O63" s="11">
+      <c r="O64" s="11">
         <v>1031.6020000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1">
-      <c r="B64" s="12">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="12">
         <v>2020</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D65" s="14">
         <f t="shared" si="16"/>
         <v>94778</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="15">
         <v>79993</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F65" s="15">
         <v>14785</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G65" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H64" s="15">
-        <v>0</v>
-      </c>
-      <c r="I64" s="15">
-        <v>0</v>
-      </c>
-      <c r="J64" s="14">
+      <c r="H65" s="15">
+        <v>0</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0</v>
+      </c>
+      <c r="J65" s="14">
         <f t="shared" si="15"/>
         <v>15399</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K65" s="15">
         <v>11911</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L65" s="15">
         <v>3488</v>
       </c>
-      <c r="M64" s="16">
+      <c r="M65" s="16">
         <f t="shared" si="18"/>
         <v>5296.7969999999996</v>
       </c>
-      <c r="N64" s="15">
+      <c r="N65" s="15">
         <v>4313.7479999999996</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O65" s="17">
         <v>983.04899999999998</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1">
-      <c r="B65" s="6">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="6">
         <v>2020</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D66" s="8">
         <f t="shared" si="16"/>
         <v>85508</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E66" s="9">
         <v>72657</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F66" s="9">
         <v>12851</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H65" s="9">
-        <v>0</v>
-      </c>
-      <c r="I65" s="9">
-        <v>0</v>
-      </c>
-      <c r="J65" s="8">
+      <c r="H66" s="9">
+        <v>0</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8">
         <f t="shared" si="15"/>
         <v>12165</v>
       </c>
-      <c r="K65" s="9">
+      <c r="K66" s="9">
         <v>9419</v>
       </c>
-      <c r="L65" s="9">
+      <c r="L66" s="9">
         <v>2746</v>
       </c>
-      <c r="M65" s="10">
+      <c r="M66" s="10">
         <f t="shared" si="18"/>
         <v>4185.5320000000002</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N66" s="9">
         <v>3405.0259999999998</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O66" s="11">
         <v>780.50599999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1">
-      <c r="B66" s="12">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="12">
         <v>2020</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D67" s="14">
         <f t="shared" si="16"/>
         <v>58869</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="15">
         <v>50107</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="15">
         <v>8762</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H66" s="15">
-        <v>0</v>
-      </c>
-      <c r="I66" s="15">
-        <v>0</v>
-      </c>
-      <c r="J66" s="14">
+      <c r="H67" s="15">
+        <v>0</v>
+      </c>
+      <c r="I67" s="15">
+        <v>0</v>
+      </c>
+      <c r="J67" s="14">
         <f t="shared" si="15"/>
         <v>7578</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K67" s="15">
         <v>5489</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L67" s="15">
         <v>2089</v>
       </c>
-      <c r="M66" s="16">
+      <c r="M67" s="16">
         <f t="shared" si="18"/>
         <v>2139.893</v>
       </c>
-      <c r="N66" s="15">
+      <c r="N67" s="15">
         <v>1815.4059999999999</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O67" s="17">
         <v>324.48700000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1">
-      <c r="B67" s="6">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="6">
         <v>2020</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D68" s="8">
         <f t="shared" si="16"/>
         <v>40887</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E68" s="9">
         <v>35082</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F68" s="9">
         <v>5805</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G68" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H67" s="9">
-        <v>0</v>
-      </c>
-      <c r="I67" s="9">
-        <v>0</v>
-      </c>
-      <c r="J67" s="8">
+      <c r="H68" s="9">
+        <v>0</v>
+      </c>
+      <c r="I68" s="9">
+        <v>0</v>
+      </c>
+      <c r="J68" s="8">
         <f t="shared" si="15"/>
         <v>4836</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K68" s="9">
         <v>3187</v>
       </c>
-      <c r="L67" s="9">
+      <c r="L68" s="9">
         <v>1649</v>
       </c>
-      <c r="M67" s="10">
+      <c r="M68" s="10">
         <f t="shared" si="18"/>
         <v>912.27</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N68" s="9">
         <v>794.02</v>
       </c>
-      <c r="O67" s="11">
+      <c r="O68" s="11">
         <v>118.25</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1">
-      <c r="B68" s="12">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="12">
         <v>2020</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D69" s="14">
         <f t="shared" si="16"/>
         <v>39436</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="15">
         <v>33432</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="15">
         <v>6004</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H68" s="15">
-        <v>0</v>
-      </c>
-      <c r="I68" s="15">
-        <v>0</v>
-      </c>
-      <c r="J68" s="14">
+      <c r="H69" s="15">
+        <v>0</v>
+      </c>
+      <c r="I69" s="15">
+        <v>0</v>
+      </c>
+      <c r="J69" s="14">
         <f t="shared" si="15"/>
         <v>5483</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K69" s="15">
         <v>3788</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L69" s="15">
         <v>1695</v>
       </c>
-      <c r="M68" s="16">
+      <c r="M69" s="16">
         <f t="shared" si="18"/>
         <v>958.75099999999998</v>
       </c>
-      <c r="N68" s="15">
+      <c r="N69" s="15">
         <v>841.01400000000001</v>
       </c>
-      <c r="O68" s="17">
+      <c r="O69" s="17">
         <v>117.73699999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="6">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="6">
         <v>2020</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D70" s="8">
         <f t="shared" si="16"/>
         <v>138604</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <v>105733</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <v>32871</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H69" s="9">
-        <v>0</v>
-      </c>
-      <c r="I69" s="9">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
+      <c r="I70" s="9">
+        <v>0</v>
+      </c>
+      <c r="J70" s="8">
         <f t="shared" si="15"/>
         <v>27685</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K70" s="9">
         <v>19400</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L70" s="9">
         <v>8285</v>
       </c>
-      <c r="M69" s="10">
+      <c r="M70" s="10">
         <f t="shared" si="18"/>
         <v>9011.8619999999992</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N70" s="9">
         <v>6133.3159999999998</v>
       </c>
-      <c r="O69" s="11">
+      <c r="O70" s="11">
         <v>2878.5459999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="12">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="12">
         <v>2020</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <f t="shared" si="16"/>
         <v>154600</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="15">
         <v>116643</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="15">
         <v>37957</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H70" s="15">
-        <v>0</v>
-      </c>
-      <c r="I70" s="15">
-        <v>0</v>
-      </c>
-      <c r="J70" s="14">
+      <c r="H71" s="15">
+        <v>0</v>
+      </c>
+      <c r="I71" s="15">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14">
         <f t="shared" si="15"/>
         <v>33096</v>
       </c>
-      <c r="K70" s="15">
+      <c r="K71" s="15">
         <v>22924</v>
       </c>
-      <c r="L70" s="15">
+      <c r="L71" s="15">
         <v>10172</v>
       </c>
-      <c r="M70" s="16">
+      <c r="M71" s="16">
         <f t="shared" si="18"/>
         <v>12555.147000000001</v>
       </c>
-      <c r="N70" s="15">
+      <c r="N71" s="15">
         <v>8141.3959999999997</v>
       </c>
-      <c r="O70" s="17">
+      <c r="O71" s="17">
         <v>4413.7510000000002</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="18">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="18">
         <v>2020</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C72" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D72" s="20">
         <f t="shared" si="16"/>
         <v>167619</v>
       </c>
-      <c r="E71" s="21">
+      <c r="E72" s="21">
         <v>126846</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F72" s="21">
         <v>40773</v>
       </c>
-      <c r="G71" s="20">
+      <c r="G72" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H71" s="21">
-        <v>0</v>
-      </c>
-      <c r="I71" s="21">
-        <v>0</v>
-      </c>
-      <c r="J71" s="20">
+      <c r="H72" s="21">
+        <v>0</v>
+      </c>
+      <c r="I72" s="21">
+        <v>0</v>
+      </c>
+      <c r="J72" s="20">
         <f t="shared" si="15"/>
         <v>37171</v>
       </c>
-      <c r="K71" s="21">
+      <c r="K72" s="21">
         <v>25779</v>
       </c>
-      <c r="L71" s="21">
+      <c r="L72" s="21">
         <v>11392</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M72" s="22">
         <f t="shared" si="18"/>
         <v>13625.84</v>
       </c>
-      <c r="N71" s="21">
+      <c r="N72" s="21">
         <v>8800.0789999999997</v>
       </c>
-      <c r="O71" s="23">
+      <c r="O72" s="23">
         <v>4825.7610000000004</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="24">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="24">
         <v>2019</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C73" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D73" s="26">
         <f t="shared" si="16"/>
         <v>167593</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E73" s="27">
         <v>126051</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F73" s="27">
         <v>41542</v>
       </c>
-      <c r="G72" s="26">
+      <c r="G73" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H72" s="27">
-        <v>0</v>
-      </c>
-      <c r="I72" s="27">
-        <v>0</v>
-      </c>
-      <c r="J72" s="26">
+      <c r="H73" s="27">
+        <v>0</v>
+      </c>
+      <c r="I73" s="27">
+        <v>0</v>
+      </c>
+      <c r="J73" s="26">
         <f t="shared" si="15"/>
         <v>37969</v>
       </c>
-      <c r="K72" s="27">
+      <c r="K73" s="27">
         <v>25919</v>
       </c>
-      <c r="L72" s="27">
+      <c r="L73" s="27">
         <v>12050</v>
       </c>
-      <c r="M72" s="28">
+      <c r="M73" s="28">
         <f t="shared" si="18"/>
         <v>14311.285</v>
       </c>
-      <c r="N72" s="27">
+      <c r="N73" s="27">
         <v>9491.1820000000007</v>
       </c>
-      <c r="O72" s="29">
+      <c r="O73" s="29">
         <v>4820.1030000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1">
-      <c r="B73" s="6">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="6">
         <v>2019</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D74" s="8">
         <f t="shared" si="16"/>
         <v>161899</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E74" s="9">
         <v>125646</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F74" s="9">
         <v>36253</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H73" s="9">
-        <v>0</v>
-      </c>
-      <c r="I73" s="9">
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
+      <c r="H74" s="9">
+        <v>0</v>
+      </c>
+      <c r="I74" s="9">
+        <v>0</v>
+      </c>
+      <c r="J74" s="8">
         <f t="shared" si="15"/>
         <v>36078</v>
       </c>
-      <c r="K73" s="9">
+      <c r="K74" s="9">
         <v>25201</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L74" s="9">
         <v>10877</v>
       </c>
-      <c r="M73" s="10">
+      <c r="M74" s="10">
         <f t="shared" si="18"/>
         <v>13215.171</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N74" s="9">
         <v>9104.4480000000003</v>
       </c>
-      <c r="O73" s="11">
+      <c r="O74" s="11">
         <v>4110.723</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1">
-      <c r="B74" s="12">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="12">
         <v>2019</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D75" s="14">
         <f t="shared" si="16"/>
         <v>159019</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="15">
         <v>126531</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="15">
         <v>32488</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H74" s="15">
-        <v>0</v>
-      </c>
-      <c r="I74" s="15">
-        <v>0</v>
-      </c>
-      <c r="J74" s="14">
+      <c r="H75" s="15">
+        <v>0</v>
+      </c>
+      <c r="I75" s="15">
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
         <f t="shared" si="15"/>
         <v>36741</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K75" s="15">
         <v>25823</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L75" s="15">
         <v>10918</v>
       </c>
-      <c r="M74" s="16">
+      <c r="M75" s="16">
         <f t="shared" si="18"/>
         <v>12724.360999999999</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N75" s="15">
         <v>9175.6839999999993</v>
       </c>
-      <c r="O74" s="17">
+      <c r="O75" s="17">
         <v>3548.6770000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1">
-      <c r="B75" s="6">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="6">
         <v>2019</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D76" s="8">
         <f t="shared" si="16"/>
         <v>148583</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E76" s="9">
         <v>118880</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F76" s="9">
         <v>29703</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H75" s="9">
-        <v>0</v>
-      </c>
-      <c r="I75" s="9">
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
         <f t="shared" si="15"/>
         <v>34491</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K76" s="9">
         <v>23749</v>
       </c>
-      <c r="L75" s="9">
+      <c r="L76" s="9">
         <v>10742</v>
       </c>
-      <c r="M75" s="10">
+      <c r="M76" s="10">
         <f t="shared" si="18"/>
         <v>11512.314</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N76" s="9">
         <v>8319.4240000000009</v>
       </c>
-      <c r="O75" s="11">
+      <c r="O76" s="11">
         <v>3192.89</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1">
-      <c r="B76" s="12">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="12">
         <v>2019</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D77" s="14">
         <f t="shared" si="16"/>
         <v>165304</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="15">
         <v>129776.00000000001</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F77" s="15">
         <v>35528</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G77" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H76" s="15">
-        <v>0</v>
-      </c>
-      <c r="I76" s="15">
-        <v>0</v>
-      </c>
-      <c r="J76" s="14">
+      <c r="H77" s="15">
+        <v>0</v>
+      </c>
+      <c r="I77" s="15">
+        <v>0</v>
+      </c>
+      <c r="J77" s="14">
         <f t="shared" si="15"/>
         <v>37882</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K77" s="15">
         <v>25900</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L77" s="15">
         <v>11982</v>
       </c>
-      <c r="M76" s="16">
+      <c r="M77" s="16">
         <f t="shared" si="18"/>
         <v>13678.462</v>
       </c>
-      <c r="N76" s="15">
+      <c r="N77" s="15">
         <v>9506.8289999999997</v>
       </c>
-      <c r="O76" s="17">
+      <c r="O77" s="17">
         <v>4171.6329999999998</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1">
-      <c r="B77" s="6">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="6">
         <v>2019</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D78" s="8">
         <f t="shared" si="16"/>
         <v>168640</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E78" s="9">
         <v>131068.99999999999</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F78" s="9">
         <v>37571</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H77" s="9">
-        <v>0</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
+      <c r="H78" s="9">
+        <v>0</v>
+      </c>
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="8">
         <f t="shared" si="15"/>
         <v>38116</v>
       </c>
-      <c r="K77" s="9">
+      <c r="K78" s="9">
         <v>25943</v>
       </c>
-      <c r="L77" s="9">
+      <c r="L78" s="9">
         <v>12173</v>
       </c>
-      <c r="M77" s="10">
+      <c r="M78" s="10">
         <f t="shared" si="18"/>
         <v>14682.169</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N78" s="9">
         <v>9992.81</v>
       </c>
-      <c r="O77" s="11">
+      <c r="O78" s="11">
         <v>4689.3590000000004</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1">
-      <c r="B78" s="12">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="12">
         <v>2019</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C79" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D79" s="14">
         <f t="shared" si="16"/>
         <v>159253</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="15">
         <v>123607</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="15">
         <v>35646</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H78" s="15">
-        <v>0</v>
-      </c>
-      <c r="I78" s="15">
-        <v>0</v>
-      </c>
-      <c r="J78" s="14">
+      <c r="H79" s="15">
+        <v>0</v>
+      </c>
+      <c r="I79" s="15">
+        <v>0</v>
+      </c>
+      <c r="J79" s="14">
         <f t="shared" si="15"/>
         <v>35734</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K79" s="15">
         <v>24362</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L79" s="15">
         <v>11372</v>
       </c>
-      <c r="M78" s="16">
+      <c r="M79" s="16">
         <f t="shared" si="18"/>
         <v>13352.69</v>
       </c>
-      <c r="N78" s="15">
+      <c r="N79" s="15">
         <v>9079.7170000000006</v>
       </c>
-      <c r="O78" s="17">
+      <c r="O79" s="17">
         <v>4272.973</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1">
-      <c r="B79" s="6">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="6">
         <v>2019</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D80" s="8">
         <f t="shared" si="16"/>
         <v>166260</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E80" s="9">
         <v>130592.99999999999</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F80" s="9">
         <v>35667</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H79" s="9">
-        <v>0</v>
-      </c>
-      <c r="I79" s="9">
-        <v>0</v>
-      </c>
-      <c r="J79" s="8">
-        <f t="shared" ref="J79:J95" si="19">SUM(K79:L79)</f>
+      <c r="H80" s="9">
+        <v>0</v>
+      </c>
+      <c r="I80" s="9">
+        <v>0</v>
+      </c>
+      <c r="J80" s="8">
+        <f t="shared" ref="J80:J96" si="19">SUM(K80:L80)</f>
         <v>36624</v>
       </c>
-      <c r="K79" s="9">
+      <c r="K80" s="9">
         <v>25219</v>
       </c>
-      <c r="L79" s="9">
+      <c r="L80" s="9">
         <v>11405</v>
       </c>
-      <c r="M79" s="10">
+      <c r="M80" s="10">
         <f t="shared" si="18"/>
         <v>13434.785</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N80" s="9">
         <v>9373.2109999999993</v>
       </c>
-      <c r="O79" s="11">
+      <c r="O80" s="11">
         <v>4061.5740000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1">
-      <c r="B80" s="12">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="12">
         <v>2019</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C81" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D81" s="14">
         <f t="shared" si="16"/>
         <v>168338</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="15">
         <v>129008.99999999999</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <v>39329</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H80" s="15">
-        <v>0</v>
-      </c>
-      <c r="I80" s="15">
-        <v>0</v>
-      </c>
-      <c r="J80" s="14">
+      <c r="H81" s="15">
+        <v>0</v>
+      </c>
+      <c r="I81" s="15">
+        <v>0</v>
+      </c>
+      <c r="J81" s="14">
         <f t="shared" si="19"/>
         <v>35519</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K81" s="15">
         <v>24350</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L81" s="15">
         <v>11169</v>
       </c>
-      <c r="M80" s="16">
+      <c r="M81" s="16">
         <f t="shared" si="18"/>
         <v>13245.237000000001</v>
       </c>
-      <c r="N80" s="15">
+      <c r="N81" s="15">
         <v>8877.2070000000003</v>
       </c>
-      <c r="O80" s="17">
+      <c r="O81" s="17">
         <v>4368.03</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="6">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="6">
         <v>2019</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D82" s="8">
         <f t="shared" si="16"/>
         <v>171618</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E82" s="9">
         <v>128662</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F82" s="9">
         <v>42956</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H81" s="9">
-        <v>0</v>
-      </c>
-      <c r="I81" s="9">
-        <v>0</v>
-      </c>
-      <c r="J81" s="8">
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9">
+        <v>0</v>
+      </c>
+      <c r="J82" s="8">
         <f t="shared" si="19"/>
         <v>35392</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K82" s="9">
         <v>24040</v>
       </c>
-      <c r="L81" s="9">
+      <c r="L82" s="9">
         <v>11352</v>
       </c>
-      <c r="M81" s="10">
+      <c r="M82" s="10">
         <f t="shared" si="18"/>
         <v>13468.561000000002</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N82" s="9">
         <v>8550.9040000000005</v>
       </c>
-      <c r="O81" s="11">
+      <c r="O82" s="11">
         <v>4917.6570000000002</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="12">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="12">
         <v>2019</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C83" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D83" s="14">
         <f t="shared" si="16"/>
         <v>151989</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="15">
         <v>114632</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="15">
         <v>37357</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H82" s="15">
-        <v>0</v>
-      </c>
-      <c r="I82" s="15">
-        <v>0</v>
-      </c>
-      <c r="J82" s="14">
+      <c r="H83" s="15">
+        <v>0</v>
+      </c>
+      <c r="I83" s="15">
+        <v>0</v>
+      </c>
+      <c r="J83" s="14">
         <f t="shared" si="19"/>
         <v>31890</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K83" s="15">
         <v>21784</v>
       </c>
-      <c r="L82" s="15">
+      <c r="L83" s="15">
         <v>10106</v>
       </c>
-      <c r="M82" s="16">
+      <c r="M83" s="16">
         <f t="shared" si="18"/>
         <v>11254.142</v>
       </c>
-      <c r="N82" s="15">
+      <c r="N83" s="15">
         <v>7147.8</v>
       </c>
-      <c r="O82" s="17">
+      <c r="O83" s="17">
         <v>4106.3419999999996</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="18">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="18">
         <v>2019</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="20">
-        <f t="shared" ref="D83:D95" si="20">SUM(E83:F83)</f>
+      <c r="D84" s="20">
+        <f t="shared" ref="D84:D96" si="20">SUM(E84:F84)</f>
         <v>165954</v>
       </c>
-      <c r="E83" s="21">
+      <c r="E84" s="21">
         <v>124266</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F84" s="21">
         <v>41688</v>
       </c>
-      <c r="G83" s="20">
-        <f t="shared" ref="G83:G95" si="21">SUM(H83:I83)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="21">
-        <v>0</v>
-      </c>
-      <c r="I83" s="21">
-        <v>0</v>
-      </c>
-      <c r="J83" s="20">
+      <c r="G84" s="20">
+        <f t="shared" ref="G84:G96" si="21">SUM(H84:I84)</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="21">
+        <v>0</v>
+      </c>
+      <c r="I84" s="21">
+        <v>0</v>
+      </c>
+      <c r="J84" s="20">
         <f t="shared" si="19"/>
         <v>35932</v>
       </c>
-      <c r="K83" s="21">
+      <c r="K84" s="21">
         <v>24195</v>
       </c>
-      <c r="L83" s="21">
+      <c r="L84" s="21">
         <v>11737</v>
       </c>
-      <c r="M83" s="22">
-        <f t="shared" ref="M83:M95" si="22">SUM(N83:O83)</f>
+      <c r="M84" s="22">
+        <f t="shared" ref="M84:M96" si="22">SUM(N84:O84)</f>
         <v>12584.922</v>
       </c>
-      <c r="N83" s="21">
+      <c r="N84" s="21">
         <v>7965.4170000000004</v>
       </c>
-      <c r="O83" s="23">
+      <c r="O84" s="23">
         <v>4619.5050000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="13">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D85" s="14">
         <f t="shared" si="20"/>
         <v>167896</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="15">
         <v>126468</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="15">
         <v>41428</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H84" s="15">
-        <v>0</v>
-      </c>
-      <c r="I84" s="15">
-        <v>0</v>
-      </c>
-      <c r="J84" s="14">
+      <c r="H85" s="15">
+        <v>0</v>
+      </c>
+      <c r="I85" s="15">
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
         <f t="shared" si="19"/>
         <v>36796</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K85" s="15">
         <v>24610</v>
       </c>
-      <c r="L84" s="15">
+      <c r="L85" s="15">
         <v>12186</v>
       </c>
-      <c r="M84" s="16">
+      <c r="M85" s="16">
         <f t="shared" si="22"/>
         <v>13446.27</v>
       </c>
-      <c r="N84" s="15">
+      <c r="N85" s="15">
         <v>8820.4920000000002</v>
       </c>
-      <c r="O84" s="15">
+      <c r="O85" s="15">
         <v>4625.7780000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="7">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="7">
         <v>2018</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D86" s="8">
         <f t="shared" si="20"/>
         <v>165335</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E86" s="9">
         <v>128314</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F86" s="9">
         <v>37021</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H85" s="9">
-        <v>0</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0</v>
-      </c>
-      <c r="J85" s="8">
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
+        <v>0</v>
+      </c>
+      <c r="J86" s="8">
         <f t="shared" si="19"/>
         <v>35251</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K86" s="9">
         <v>23927</v>
       </c>
-      <c r="L85" s="9">
+      <c r="L86" s="9">
         <v>11324</v>
       </c>
-      <c r="M85" s="10">
+      <c r="M86" s="10">
         <f t="shared" si="22"/>
         <v>12543.215</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N86" s="9">
         <v>8542.7430000000004</v>
       </c>
-      <c r="O85" s="9">
+      <c r="O86" s="9">
         <v>4000.4720000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="13">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D87" s="14">
         <f t="shared" si="20"/>
         <v>162784</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="15">
         <v>129050.00000000001</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="15">
         <v>33734</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H86" s="15">
-        <v>0</v>
-      </c>
-      <c r="I86" s="15">
-        <v>0</v>
-      </c>
-      <c r="J86" s="14">
+      <c r="H87" s="15">
+        <v>0</v>
+      </c>
+      <c r="I87" s="15">
+        <v>0</v>
+      </c>
+      <c r="J87" s="14">
         <f t="shared" si="19"/>
         <v>35903</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K87" s="15">
         <v>24186</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L87" s="15">
         <v>11717</v>
       </c>
-      <c r="M86" s="16">
+      <c r="M87" s="16">
         <f t="shared" si="22"/>
         <v>11940.449000000001</v>
       </c>
-      <c r="N86" s="15">
+      <c r="N87" s="15">
         <v>8460.0640000000003</v>
       </c>
-      <c r="O86" s="15">
+      <c r="O87" s="15">
         <v>3480.3850000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="7">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="7">
         <v>2018</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D88" s="8">
         <f t="shared" si="20"/>
         <v>151218</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E88" s="9">
         <v>120455</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F88" s="9">
         <v>30763</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H87" s="9">
-        <v>0</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0</v>
-      </c>
-      <c r="J87" s="8">
+      <c r="H88" s="9">
+        <v>0</v>
+      </c>
+      <c r="I88" s="9">
+        <v>0</v>
+      </c>
+      <c r="J88" s="8">
         <f t="shared" si="19"/>
         <v>34246</v>
       </c>
-      <c r="K87" s="9">
+      <c r="K88" s="9">
         <v>23006</v>
       </c>
-      <c r="L87" s="9">
+      <c r="L88" s="9">
         <v>11240</v>
       </c>
-      <c r="M87" s="10">
+      <c r="M88" s="10">
         <f t="shared" si="22"/>
         <v>10888.41</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N88" s="9">
         <v>7775.683</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O88" s="9">
         <v>3112.7269999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="13">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D89" s="14">
         <f t="shared" si="20"/>
         <v>167317</v>
       </c>
-      <c r="E88" s="15">
+      <c r="E89" s="15">
         <v>131130</v>
       </c>
-      <c r="F88" s="15">
+      <c r="F89" s="15">
         <v>36187</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H88" s="15">
-        <v>0</v>
-      </c>
-      <c r="I88" s="15">
-        <v>0</v>
-      </c>
-      <c r="J88" s="14">
+      <c r="H89" s="15">
+        <v>0</v>
+      </c>
+      <c r="I89" s="15">
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
         <f t="shared" si="19"/>
         <v>37070</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K89" s="15">
         <v>24746</v>
       </c>
-      <c r="L88" s="15">
+      <c r="L89" s="15">
         <v>12324</v>
       </c>
-      <c r="M88" s="16">
+      <c r="M89" s="16">
         <f t="shared" si="22"/>
         <v>12946.407999999999</v>
       </c>
-      <c r="N88" s="15">
+      <c r="N89" s="15">
         <v>8844.4689999999991</v>
       </c>
-      <c r="O88" s="15">
+      <c r="O89" s="15">
         <v>4101.9390000000003</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="7">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="7">
         <v>2018</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D90" s="8">
         <f t="shared" si="20"/>
         <v>166752</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E90" s="9">
         <v>128561</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F90" s="9">
         <v>38191</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G90" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H89" s="9">
-        <v>0</v>
-      </c>
-      <c r="I89" s="9">
-        <v>0</v>
-      </c>
-      <c r="J89" s="8">
+      <c r="H90" s="9">
+        <v>0</v>
+      </c>
+      <c r="I90" s="9">
+        <v>0</v>
+      </c>
+      <c r="J90" s="8">
         <f t="shared" si="19"/>
         <v>37073</v>
       </c>
-      <c r="K89" s="9">
+      <c r="K90" s="9">
         <v>24692</v>
       </c>
-      <c r="L89" s="9">
+      <c r="L90" s="9">
         <v>12381</v>
       </c>
-      <c r="M89" s="10">
+      <c r="M90" s="10">
         <f t="shared" si="22"/>
         <v>14091.387999999999</v>
       </c>
-      <c r="N89" s="9">
+      <c r="N90" s="9">
         <v>9430.1080000000002</v>
       </c>
-      <c r="O89" s="9">
+      <c r="O90" s="9">
         <v>4661.28</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="13">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="13">
         <v>2018</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C91" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D91" s="14">
         <f t="shared" si="20"/>
         <v>158678</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E91" s="15">
         <v>121941</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F91" s="15">
         <v>36737</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G91" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H90" s="15">
-        <v>0</v>
-      </c>
-      <c r="I90" s="15">
-        <v>0</v>
-      </c>
-      <c r="J90" s="14">
+      <c r="H91" s="15">
+        <v>0</v>
+      </c>
+      <c r="I91" s="15">
+        <v>0</v>
+      </c>
+      <c r="J91" s="14">
         <f t="shared" si="19"/>
         <v>34876</v>
       </c>
-      <c r="K90" s="15">
+      <c r="K91" s="15">
         <v>23300</v>
       </c>
-      <c r="L90" s="15">
+      <c r="L91" s="15">
         <v>11576</v>
       </c>
-      <c r="M90" s="16">
+      <c r="M91" s="16">
         <f t="shared" si="22"/>
         <v>12298.282999999999</v>
       </c>
-      <c r="N90" s="15">
+      <c r="N91" s="15">
         <v>8174.7749999999996</v>
       </c>
-      <c r="O90" s="15">
+      <c r="O91" s="15">
         <v>4123.5079999999998</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="7">
+    <row r="92" spans="2:15" hidden="1">
+      <c r="B92" s="7">
         <v>2018</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D92" s="8">
         <f t="shared" si="20"/>
         <v>168027</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E92" s="9">
         <v>131482</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F92" s="9">
         <v>36545</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G92" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H91" s="9">
-        <v>0</v>
-      </c>
-      <c r="I91" s="9">
-        <v>0</v>
-      </c>
-      <c r="J91" s="8">
+      <c r="H92" s="9">
+        <v>0</v>
+      </c>
+      <c r="I92" s="9">
+        <v>0</v>
+      </c>
+      <c r="J92" s="8">
         <f t="shared" si="19"/>
         <v>35688</v>
       </c>
-      <c r="K91" s="9">
+      <c r="K92" s="9">
         <v>24015</v>
       </c>
-      <c r="L91" s="9">
+      <c r="L92" s="9">
         <v>11673</v>
       </c>
-      <c r="M91" s="10">
+      <c r="M92" s="10">
         <f t="shared" si="22"/>
         <v>12153.535</v>
       </c>
-      <c r="N91" s="9">
+      <c r="N92" s="9">
         <v>8289.7060000000001</v>
       </c>
-      <c r="O91" s="9">
+      <c r="O92" s="9">
         <v>3863.8290000000002</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1">
-      <c r="B92" s="13">
+    <row r="93" spans="2:15" hidden="1">
+      <c r="B93" s="13">
         <v>2018</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C93" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D93" s="14">
         <f t="shared" si="20"/>
         <v>167317</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E93" s="15">
         <v>128001</v>
       </c>
-      <c r="F92" s="15">
+      <c r="F93" s="15">
         <v>39316</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G93" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H92" s="15">
-        <v>0</v>
-      </c>
-      <c r="I92" s="15">
-        <v>0</v>
-      </c>
-      <c r="J92" s="14">
+      <c r="H93" s="15">
+        <v>0</v>
+      </c>
+      <c r="I93" s="15">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
         <f t="shared" si="19"/>
         <v>34719</v>
       </c>
-      <c r="K92" s="15">
+      <c r="K93" s="15">
         <v>23289</v>
       </c>
-      <c r="L92" s="15">
+      <c r="L93" s="15">
         <v>11430</v>
       </c>
-      <c r="M92" s="16">
+      <c r="M93" s="16">
         <f t="shared" si="22"/>
         <v>12397.615</v>
       </c>
-      <c r="N92" s="15">
+      <c r="N93" s="15">
         <v>8179.683</v>
       </c>
-      <c r="O92" s="15">
+      <c r="O93" s="15">
         <v>4217.9319999999998</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1">
-      <c r="B93" s="7">
+    <row r="94" spans="2:15" hidden="1">
+      <c r="B94" s="7">
         <v>2018</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D94" s="8">
         <f t="shared" si="20"/>
         <v>175525</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E94" s="9">
         <v>131590</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F94" s="9">
         <v>43935</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G94" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H93" s="9">
-        <v>0</v>
-      </c>
-      <c r="I93" s="9">
-        <v>0</v>
-      </c>
-      <c r="J93" s="8">
+      <c r="H94" s="9">
+        <v>0</v>
+      </c>
+      <c r="I94" s="9">
+        <v>0</v>
+      </c>
+      <c r="J94" s="8">
         <f t="shared" si="19"/>
         <v>35499</v>
       </c>
-      <c r="K93" s="9">
+      <c r="K94" s="9">
         <v>23540</v>
       </c>
-      <c r="L93" s="9">
+      <c r="L94" s="9">
         <v>11959</v>
       </c>
-      <c r="M93" s="10">
+      <c r="M94" s="10">
         <f t="shared" si="22"/>
         <v>12920.743</v>
       </c>
-      <c r="N93" s="9">
+      <c r="N94" s="9">
         <v>8102.1610000000001</v>
       </c>
-      <c r="O93" s="9">
+      <c r="O94" s="9">
         <v>4818.5820000000003</v>
       </c>
     </row>
-    <row r="94" spans="2:15" hidden="1">
-      <c r="B94" s="13">
+    <row r="95" spans="2:15" hidden="1">
+      <c r="B95" s="13">
         <v>2018</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D95" s="14">
         <f t="shared" si="20"/>
         <v>153732</v>
       </c>
-      <c r="E94" s="15">
+      <c r="E95" s="15">
         <v>115727</v>
       </c>
-      <c r="F94" s="15">
+      <c r="F95" s="15">
         <v>38005</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G95" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H94" s="15">
-        <v>0</v>
-      </c>
-      <c r="I94" s="15">
-        <v>0</v>
-      </c>
-      <c r="J94" s="14">
+      <c r="H95" s="15">
+        <v>0</v>
+      </c>
+      <c r="I95" s="15">
+        <v>0</v>
+      </c>
+      <c r="J95" s="14">
         <f t="shared" si="19"/>
         <v>31178</v>
       </c>
-      <c r="K94" s="15">
+      <c r="K95" s="15">
         <v>20697</v>
       </c>
-      <c r="L94" s="15">
+      <c r="L95" s="15">
         <v>10481</v>
       </c>
-      <c r="M94" s="16">
+      <c r="M95" s="16">
         <f t="shared" si="22"/>
         <v>10846.098</v>
       </c>
-      <c r="N94" s="15">
+      <c r="N95" s="15">
         <v>6820.4250000000002</v>
       </c>
-      <c r="O94" s="15">
+      <c r="O95" s="15">
         <v>4025.6729999999998</v>
       </c>
     </row>
-    <row r="95" spans="2:15" hidden="1">
-      <c r="B95" s="7">
+    <row r="96" spans="2:15" hidden="1">
+      <c r="B96" s="7">
         <v>2018</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C96" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D96" s="8">
         <f t="shared" si="20"/>
         <v>165319</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E96" s="9">
         <v>123033</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F96" s="9">
         <v>42286</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G96" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H95" s="9">
-        <v>0</v>
-      </c>
-      <c r="I95" s="9">
-        <v>0</v>
-      </c>
-      <c r="J95" s="8">
+      <c r="H96" s="9">
+        <v>0</v>
+      </c>
+      <c r="I96" s="9">
+        <v>0</v>
+      </c>
+      <c r="J96" s="8">
         <f t="shared" si="19"/>
         <v>35175</v>
       </c>
-      <c r="K95" s="9">
+      <c r="K96" s="9">
         <v>23003</v>
       </c>
-      <c r="L95" s="9">
+      <c r="L96" s="9">
         <v>12172</v>
       </c>
-      <c r="M95" s="10">
+      <c r="M96" s="10">
         <f t="shared" si="22"/>
         <v>12140.277</v>
       </c>
-      <c r="N95" s="9">
+      <c r="N96" s="9">
         <v>7540.7510000000002</v>
       </c>
-      <c r="O95" s="9">
+      <c r="O96" s="9">
         <v>4599.5259999999998</v>
       </c>
-    </row>
-    <row r="96" spans="2:15">
-      <c r="B96" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N96" s="15"/>
     </row>
     <row r="97" spans="2:15">
       <c r="B97" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N97" s="15"/>
-      <c r="O97" s="30"/>
     </row>
     <row r="98" spans="2:15">
       <c r="B98" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N98" s="15"/>
+      <c r="O98" s="30"/>
     </row>
     <row r="99" spans="2:15">
       <c r="B99" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N99" s="15"/>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N99" s="15"/>
-    </row>
-    <row r="100" spans="2:15">
-      <c r="B100" s="35" t="s">
+      <c r="N100" s="15"/>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N100" s="15"/>
-    </row>
-    <row r="101" spans="2:15">
-      <c r="B101" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="N101" s="15"/>
     </row>
     <row r="102" spans="2:15">
       <c r="B102" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15">
+      <c r="B103" s="3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Operaciones_pasajeros_A.xlsx
+++ b/Operaciones_pasajeros_A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2823ABE8-0F9E-4F12-A8C2-F57CB2308DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827EAEED-C602-41CB-B0E5-17E23F9DA639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_28" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="38">
   <si>
     <t>Internacional</t>
   </si>
@@ -149,7 +149,7 @@
     <t xml:space="preserve"> El concepto de "Operaciones del AIFA", a partir del mes de enero de 2025 hubo una reclasificación en las operaciones de carga del AIFA.</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -451,15 +451,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -471,6 +462,15 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -780,8 +780,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O96" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="B5:O96" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:O97" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowBorderDxfId="14" tableBorderDxfId="15">
+  <autoFilter ref="B5:O97" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -1040,9 +1040,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O103"/>
+  <dimension ref="B2:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1081,4477 +1081,4525 @@
     <row r="4" spans="2:15">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="32" t="s">
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="32" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="32" t="s">
+      <c r="K4" s="37"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="33"/>
-      <c r="O4" s="34"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="36" t="s">
+      <c r="F5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="35" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="6">
+      <c r="B6" s="13">
         <v>2025</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14">
+        <f>SUM(E6:F6)</f>
+        <v>156486</v>
+      </c>
+      <c r="E6" s="15">
+        <v>117056</v>
+      </c>
+      <c r="F6" s="15">
+        <v>39430</v>
+      </c>
+      <c r="G6" s="14">
+        <f>SUM(H6:I6)</f>
+        <v>5864</v>
+      </c>
+      <c r="H6" s="15">
+        <v>4421</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1443</v>
+      </c>
+      <c r="J6" s="14">
+        <f>SUM(K6:L6)</f>
+        <v>25068</v>
+      </c>
+      <c r="K6" s="15">
+        <v>15487</v>
+      </c>
+      <c r="L6" s="15">
+        <v>9581</v>
+      </c>
+      <c r="M6" s="16">
+        <f>SUM(N6:O6)</f>
+        <v>16337.044000000002</v>
+      </c>
+      <c r="N6" s="15">
+        <v>11546.066000000001</v>
+      </c>
+      <c r="O6" s="15">
+        <v>4790.9780000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8">
-        <f>SUM(E6:F6)</f>
-        <v>161231</v>
-      </c>
-      <c r="E6" s="9">
-        <v>117771</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D7" s="8">
+        <f>SUM(E7:F7)</f>
+        <v>161221</v>
+      </c>
+      <c r="E7" s="9">
+        <v>117761</v>
+      </c>
+      <c r="F7" s="9">
         <v>43460</v>
       </c>
-      <c r="G6" s="8">
-        <f>SUM(H6:I6)</f>
+      <c r="G7" s="8">
+        <f>SUM(H7:I7)</f>
         <v>5685</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H7" s="9">
         <v>4350</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I7" s="9">
         <v>1335</v>
       </c>
-      <c r="J6" s="8">
-        <f>SUM(K6:L6)</f>
+      <c r="J7" s="8">
+        <f>SUM(K7:L7)</f>
         <v>25743</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K7" s="9">
         <v>15530</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L7" s="9">
         <v>10213</v>
       </c>
-      <c r="M6" s="10">
-        <f>SUM(N6:O6)</f>
-        <v>17207.216</v>
-      </c>
-      <c r="N6" s="9">
-        <v>11719.297</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="M7" s="10">
+        <f>SUM(N7:O7)</f>
+        <v>17207.190999999999</v>
+      </c>
+      <c r="N7" s="9">
+        <v>11719.272000000001</v>
+      </c>
+      <c r="O7" s="11">
         <v>5487.9189999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="13">
+    <row r="8" spans="2:15">
+      <c r="B8" s="13">
         <v>2025</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="14">
-        <f>SUM(E7:F7)</f>
+      <c r="D8" s="14">
+        <f>SUM(E8:F8)</f>
         <v>149253</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <v>109387</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="15">
         <v>39866</v>
       </c>
-      <c r="G7" s="14">
-        <f>SUM(H7:I7)</f>
+      <c r="G8" s="14">
+        <f>SUM(H8:I8)</f>
         <v>5352</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H8" s="15">
         <v>4064</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I8" s="15">
         <v>1288</v>
       </c>
-      <c r="J7" s="14">
-        <f>SUM(K7:L7)</f>
+      <c r="J8" s="14">
+        <f>SUM(K8:L8)</f>
         <v>24639</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K8" s="15">
         <v>15464</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L8" s="15">
         <v>9175</v>
       </c>
-      <c r="M7" s="16">
-        <f>SUM(N7:O7)</f>
+      <c r="M8" s="16">
+        <f>SUM(N8:O8)</f>
         <v>15347.199000000001</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N8" s="15">
         <v>10457.977000000001</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O8" s="15">
         <v>4889.2219999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="6">
+    <row r="9" spans="2:15">
+      <c r="B9" s="6">
         <v>2025</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8">
-        <f>SUM(E8:F8)</f>
+      <c r="D9" s="8">
+        <f>SUM(E9:F9)</f>
         <v>158854</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>118274</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>40580</v>
       </c>
-      <c r="G8" s="8">
-        <f>SUM(H8:I8)</f>
+      <c r="G9" s="8">
+        <f>SUM(H9:I9)</f>
         <v>5675</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H9" s="9">
         <v>4378</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I9" s="9">
         <v>1297</v>
       </c>
-      <c r="J8" s="8">
-        <f>SUM(K8:L8)</f>
+      <c r="J9" s="8">
+        <f>SUM(K9:L9)</f>
         <v>25288</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K9" s="9">
         <v>16099</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L9" s="9">
         <v>9189</v>
       </c>
-      <c r="M8" s="10">
-        <f>SUM(N8:O8)</f>
+      <c r="M9" s="10">
+        <f>SUM(N9:O9)</f>
         <v>15562.080999999998</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N9" s="9">
         <v>10871.63</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O9" s="11">
         <v>4690.451</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="13">
+    <row r="10" spans="2:15">
+      <c r="B10" s="13">
         <v>2025</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="14">
-        <f t="shared" ref="D9:D14" si="0">SUM(E9:F9)</f>
+      <c r="D10" s="14">
+        <f t="shared" ref="D10:D15" si="0">SUM(E10:F10)</f>
         <v>163693</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>117744</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="15">
         <v>45949</v>
       </c>
-      <c r="G9" s="14">
-        <f t="shared" ref="G9:G14" si="1">SUM(H9:I9)</f>
+      <c r="G10" s="14">
+        <f t="shared" ref="G10:G15" si="1">SUM(H10:I10)</f>
         <v>5726</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H10" s="15">
         <v>4515</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="15">
         <v>1211</v>
       </c>
-      <c r="J9" s="14">
-        <f t="shared" ref="J9:J14" si="2">SUM(K9:L9)</f>
+      <c r="J10" s="14">
+        <f t="shared" ref="J10:J15" si="2">SUM(K10:L10)</f>
         <v>24458</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K10" s="15">
         <v>15312</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L10" s="15">
         <v>9146</v>
       </c>
-      <c r="M9" s="16">
-        <f t="shared" ref="M9:M14" si="3">SUM(N9:O9)</f>
+      <c r="M10" s="16">
+        <f t="shared" ref="M10:M15" si="3">SUM(N10:O10)</f>
         <v>16382.235000000001</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N10" s="15">
         <v>11055.959000000001</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O10" s="15">
         <v>5326.2759999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="6">
+    <row r="11" spans="2:15">
+      <c r="B11" s="6">
         <v>2025</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>168971</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>117821</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>51150</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
         <v>5614</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H11" s="9">
         <v>4387</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I11" s="9">
         <v>1227</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J11" s="8">
         <f t="shared" si="2"/>
         <v>25250</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K11" s="9">
         <v>15847</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L11" s="9">
         <v>9403</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M11" s="10">
         <f t="shared" si="3"/>
         <v>16721.387000000002</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N11" s="9">
         <v>10657.406000000001</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O11" s="11">
         <v>6063.9809999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="13">
+    <row r="12" spans="2:15">
+      <c r="B12" s="13">
         <v>2025</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D12" s="14">
         <f t="shared" si="0"/>
         <v>148741</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>105136</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="15">
         <v>43605</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
         <v>5061</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H12" s="15">
         <v>3981</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I12" s="15">
         <v>1080</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J12" s="14">
         <f t="shared" si="2"/>
         <v>22852</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K12" s="15">
         <v>14515</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L12" s="15">
         <v>8337</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M12" s="16">
         <f t="shared" si="3"/>
         <v>14261.053</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N12" s="15">
         <v>9133.57</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O12" s="15">
         <v>5127.4830000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="18">
+    <row r="13" spans="2:15">
+      <c r="B13" s="18">
         <v>2025</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>163357</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E13" s="21">
         <v>114244</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F13" s="21">
         <v>49113</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G13" s="20">
         <f t="shared" si="1"/>
         <v>5619</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H13" s="21">
         <v>4438</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I13" s="21">
         <v>1181</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J13" s="20">
         <f t="shared" si="2"/>
         <v>25418</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K13" s="21">
         <v>15960</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L13" s="21">
         <v>9458</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M13" s="22">
         <f t="shared" si="3"/>
         <v>16253.322</v>
       </c>
-      <c r="N12" s="21">
+      <c r="N13" s="21">
         <v>10323.901</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O13" s="23">
         <v>5929.4210000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="12">
+    <row r="14" spans="2:15">
+      <c r="B14" s="12">
         <v>2024</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <f t="shared" si="0"/>
         <v>167031</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <v>116920</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="15">
         <v>50111</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="14">
         <f t="shared" si="1"/>
         <v>6198</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H14" s="15">
         <v>4882</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I14" s="15">
         <v>1316</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J14" s="14">
         <f t="shared" si="2"/>
         <v>25085</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K14" s="15">
         <v>15393</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L14" s="15">
         <v>9692</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M14" s="16">
         <f t="shared" si="3"/>
         <v>17224.003000000001</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N14" s="15">
         <v>11183.15</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O14" s="17">
         <v>6040.8530000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="6">
+    <row r="15" spans="2:15">
+      <c r="B15" s="6">
         <v>2024</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>163956</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>119294</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>44662</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <f t="shared" si="1"/>
         <v>6142</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H15" s="9">
         <v>4751</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I15" s="9">
         <v>1391</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J15" s="8">
         <f t="shared" si="2"/>
         <v>24195</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K15" s="9">
         <v>15199</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L15" s="9">
         <v>8996</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M15" s="10">
         <f t="shared" si="3"/>
         <v>15816.669000000002</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N15" s="9">
         <v>10696.485000000001</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O15" s="11">
         <v>5120.1840000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="12">
+    <row r="16" spans="2:15">
+      <c r="B16" s="12">
         <v>2024</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="14">
-        <f t="shared" ref="D15" si="4">SUM(E15:F15)</f>
+      <c r="D16" s="14">
+        <f t="shared" ref="D16" si="4">SUM(E16:F16)</f>
         <v>154230</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="15">
         <v>116413</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16" s="15">
         <v>37817</v>
       </c>
-      <c r="G15" s="14">
-        <f t="shared" ref="G15" si="5">SUM(H15:I15)</f>
+      <c r="G16" s="14">
+        <f t="shared" ref="G16" si="5">SUM(H16:I16)</f>
         <v>6250</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H16" s="15">
         <v>4792</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I16" s="15">
         <v>1458</v>
       </c>
-      <c r="J15" s="14">
-        <f t="shared" ref="J15" si="6">SUM(K15:L15)</f>
+      <c r="J16" s="14">
+        <f t="shared" ref="J16" si="6">SUM(K16:L16)</f>
         <v>24943</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K16" s="15">
         <v>16106.000000000002</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L16" s="15">
         <v>8837</v>
       </c>
-      <c r="M15" s="16">
-        <f t="shared" ref="M15" si="7">SUM(N15:O15)</f>
+      <c r="M16" s="16">
+        <f t="shared" ref="M16" si="7">SUM(N16:O16)</f>
         <v>14932.208999999999</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N16" s="15">
         <v>10562.91</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O16" s="17">
         <v>4369.299</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="6">
+    <row r="17" spans="2:15">
+      <c r="B17" s="6">
         <v>2024</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8">
-        <f>SUM(E16:F16)</f>
+      <c r="D17" s="8">
+        <f>SUM(E17:F17)</f>
         <v>141210</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>108351</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>32859</v>
       </c>
-      <c r="G16" s="8">
-        <f>SUM(H16:I16)</f>
+      <c r="G17" s="8">
+        <f>SUM(H17:I17)</f>
         <v>5876</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H17" s="9">
         <v>4518</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I17" s="9">
         <v>1358</v>
       </c>
-      <c r="J16" s="8">
-        <f>SUM(K16:L16)</f>
+      <c r="J17" s="8">
+        <f>SUM(K17:L17)</f>
         <v>24172</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K17" s="9">
         <v>15661</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L17" s="9">
         <v>8511</v>
       </c>
-      <c r="M16" s="10">
-        <f>SUM(N16:O16)</f>
+      <c r="M17" s="10">
+        <f>SUM(N17:O17)</f>
         <v>13837.021999999999</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N17" s="9">
         <v>10036.638999999999</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O17" s="11">
         <v>3800.3829999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="12">
+    <row r="18" spans="2:15">
+      <c r="B18" s="12">
         <v>2024</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="14">
-        <f>SUM(E17:F17)</f>
+      <c r="D18" s="14">
+        <f>SUM(E18:F18)</f>
         <v>157045</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E18" s="15">
         <v>118762</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F18" s="15">
         <v>38283</v>
       </c>
-      <c r="G17" s="14">
-        <f t="shared" ref="G17:G51" si="8">SUM(H17:I17)</f>
+      <c r="G18" s="14">
+        <f t="shared" ref="G18:G52" si="8">SUM(H18:I18)</f>
         <v>6079</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H18" s="15">
         <v>4643</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I18" s="15">
         <v>1436</v>
       </c>
-      <c r="J17" s="14">
-        <f t="shared" ref="J17:J47" si="9">SUM(K17:L17)</f>
+      <c r="J18" s="14">
+        <f t="shared" ref="J18:J48" si="9">SUM(K18:L18)</f>
         <v>26410</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K18" s="15">
         <v>17075</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L18" s="15">
         <v>9335</v>
       </c>
-      <c r="M17" s="16">
-        <f t="shared" ref="M17:M51" si="10">SUM(N17:O17)</f>
+      <c r="M18" s="16">
+        <f t="shared" ref="M18:M52" si="10">SUM(N18:O18)</f>
         <v>16048.866999999998</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N18" s="15">
         <v>11325.605</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O18" s="17">
         <v>4723.2619999999997</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="6">
+    <row r="19" spans="2:15">
+      <c r="B19" s="6">
         <v>2024</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" ref="D18:D19" si="11">SUM(E18:F18)</f>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19:D20" si="11">SUM(E19:F19)</f>
         <v>157419</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E19" s="9">
         <v>117177</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F19" s="9">
         <v>40242</v>
       </c>
-      <c r="G18" s="8">
-        <f t="shared" ref="G18:G20" si="12">SUM(H18:I18)</f>
+      <c r="G19" s="8">
+        <f t="shared" ref="G19:G21" si="12">SUM(H19:I19)</f>
         <v>6016</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H19" s="9">
         <v>4625</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I19" s="9">
         <v>1391</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J19" s="8">
         <f t="shared" si="9"/>
         <v>26445</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K19" s="9">
         <v>16888</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L19" s="9">
         <v>9557</v>
       </c>
-      <c r="M18" s="10">
-        <f t="shared" ref="M18:M20" si="13">SUM(N18:O18)</f>
+      <c r="M19" s="10">
+        <f t="shared" ref="M19:M21" si="13">SUM(N19:O19)</f>
         <v>16878.663</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N19" s="9">
         <v>11522.672</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O19" s="11">
         <v>5355.991</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="12">
+    <row r="20" spans="2:15">
+      <c r="B20" s="12">
         <v>2024</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <f t="shared" si="11"/>
         <v>148346</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>109282</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="15">
         <v>39064</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="14">
         <f t="shared" si="12"/>
         <v>5818</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H20" s="15">
         <v>4413</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I20" s="15">
         <v>1405</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J20" s="14">
         <f t="shared" si="9"/>
         <v>25325</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K20" s="15">
         <v>16635</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L20" s="15">
         <v>8690</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M20" s="16">
         <f t="shared" si="13"/>
         <v>15314.61</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N20" s="15">
         <v>10370.779</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O20" s="17">
         <v>4943.8310000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="6">
+    <row r="21" spans="2:15">
+      <c r="B21" s="6">
         <v>2024</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="8">
-        <f>SUM(E20:F20)</f>
+      <c r="D21" s="8">
+        <f>SUM(E21:F21)</f>
         <v>159550</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E21" s="9">
         <v>119704</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>39846</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <f t="shared" si="12"/>
         <v>5832</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H21" s="9">
         <v>4318</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I21" s="9">
         <v>1514</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J21" s="8">
         <f t="shared" si="9"/>
         <v>26164</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K21" s="9">
         <v>17387</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L21" s="9">
         <v>8777</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M21" s="10">
         <f t="shared" si="13"/>
         <v>15380.428</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N21" s="9">
         <v>10623.656000000001</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O21" s="11">
         <v>4756.7719999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="12">
+    <row r="22" spans="2:15">
+      <c r="B22" s="12">
         <v>2024</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="14">
-        <f t="shared" ref="D21:D51" si="14">SUM(E21:F21)</f>
+      <c r="D22" s="14">
+        <f t="shared" ref="D22:D52" si="14">SUM(E22:F22)</f>
         <v>158975</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>115595</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="15">
         <v>43380</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="14">
         <f t="shared" si="8"/>
         <v>5691</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H22" s="15">
         <v>4266</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I22" s="15">
         <v>1425</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J22" s="14">
         <f t="shared" si="9"/>
         <v>25292</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K22" s="15">
         <v>16701</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L22" s="15">
         <v>8591</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M22" s="16">
         <f t="shared" si="10"/>
         <v>15232.386999999999</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N22" s="15">
         <v>10112.061</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O22" s="17">
         <v>5120.326</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="6">
+    <row r="23" spans="2:15">
+      <c r="B23" s="6">
         <v>2024</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <f t="shared" si="14"/>
         <v>160745</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E23" s="9">
         <v>111522</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F23" s="9">
         <v>49223</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <f t="shared" si="8"/>
         <v>4951</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H23" s="9">
         <v>3643</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I23" s="9">
         <v>1308</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J23" s="8">
         <f t="shared" si="9"/>
         <v>25196</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K23" s="9">
         <v>15924</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L23" s="9">
         <v>9272</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M23" s="10">
         <f t="shared" si="10"/>
         <v>15971.481</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N23" s="9">
         <v>9845.5509999999995</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O23" s="11">
         <v>6125.93</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="12">
+    <row r="24" spans="2:15">
+      <c r="B24" s="12">
         <v>2024</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <f t="shared" si="14"/>
         <v>148853</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>104440</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="15">
         <v>44413</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="14">
         <f t="shared" si="8"/>
         <v>4469</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="15">
         <v>3222</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I24" s="15">
         <v>1247</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J24" s="14">
         <f t="shared" si="9"/>
         <v>23784</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K24" s="15">
         <v>15355</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L24" s="15">
         <v>8429</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M24" s="16">
         <f t="shared" si="10"/>
         <v>14272.33</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N24" s="15">
         <v>8893.5959999999995</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O24" s="17">
         <v>5378.7340000000004</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="18">
+    <row r="25" spans="2:15">
+      <c r="B25" s="18">
         <v>2024</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D25" s="20">
         <f t="shared" si="14"/>
         <v>156666</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E25" s="21">
         <v>108922</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F25" s="21">
         <v>47744</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G25" s="20">
         <f t="shared" si="8"/>
         <v>4402</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H25" s="21">
         <v>3190</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I25" s="21">
         <v>1212</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J25" s="20">
         <f t="shared" si="9"/>
         <v>25531</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K25" s="21">
         <v>16216.999999999998</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L25" s="21">
         <v>9314</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M25" s="22">
         <f t="shared" si="10"/>
         <v>15551.477000000001</v>
       </c>
-      <c r="N24" s="21">
+      <c r="N25" s="21">
         <v>9753.6540000000005</v>
       </c>
-      <c r="O24" s="23">
+      <c r="O25" s="23">
         <v>5797.8230000000003</v>
       </c>
     </row>
-    <row r="25" spans="2:15" hidden="1">
-      <c r="B25" s="24">
+    <row r="26" spans="2:15" hidden="1">
+      <c r="B26" s="24">
         <v>2023</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D26" s="26">
         <f t="shared" si="14"/>
         <v>163911</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E26" s="27">
         <v>118221</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F26" s="27">
         <v>45690</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G26" s="26">
         <f t="shared" si="8"/>
         <v>2455</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H26" s="27">
         <v>2237</v>
       </c>
-      <c r="I25" s="27">
+      <c r="I26" s="27">
         <v>218</v>
       </c>
-      <c r="J25" s="26">
+      <c r="J26" s="26">
         <f t="shared" si="9"/>
         <v>28577</v>
       </c>
-      <c r="K25" s="27">
+      <c r="K26" s="27">
         <v>18492</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L26" s="27">
         <v>10085</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M26" s="28">
         <f t="shared" si="10"/>
         <v>16722.900000000001</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N26" s="27">
         <v>10949.384</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O26" s="29">
         <v>5773.5159999999996</v>
       </c>
     </row>
-    <row r="26" spans="2:15" hidden="1">
-      <c r="B26" s="6">
+    <row r="27" spans="2:15" hidden="1">
+      <c r="B27" s="6">
         <v>2023</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D27" s="8">
         <f t="shared" si="14"/>
         <v>158913</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E27" s="9">
         <v>119949</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>38964</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <f t="shared" si="8"/>
         <v>2027</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H27" s="9">
         <v>1838</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I27" s="9">
         <v>189</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J27" s="8">
         <f t="shared" si="9"/>
         <v>27656</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K27" s="9">
         <v>18844</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L27" s="9">
         <v>8812</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M27" s="10">
         <f t="shared" si="10"/>
         <v>15490.629000000001</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N27" s="9">
         <v>10633.794</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O27" s="11">
         <v>4856.835</v>
       </c>
     </row>
-    <row r="27" spans="2:15" hidden="1">
-      <c r="B27" s="12">
+    <row r="28" spans="2:15" hidden="1">
+      <c r="B28" s="12">
         <v>2023</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <f t="shared" si="14"/>
         <v>155697</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>120652</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="15">
         <v>35045</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="14">
         <f t="shared" si="8"/>
         <v>2106</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <v>1897</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I28" s="15">
         <v>209</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J28" s="14">
         <f t="shared" si="9"/>
         <v>27597</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K28" s="15">
         <v>18942</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L28" s="15">
         <v>8655</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M28" s="16">
         <f t="shared" si="10"/>
         <v>15213.704999999998</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N28" s="15">
         <v>10935.924999999999</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O28" s="17">
         <v>4277.78</v>
       </c>
     </row>
-    <row r="28" spans="2:15" hidden="1">
-      <c r="B28" s="6">
+    <row r="29" spans="2:15" hidden="1">
+      <c r="B29" s="6">
         <v>2023</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D29" s="8">
         <f t="shared" si="14"/>
         <v>146668</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>114905</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>31763</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <f t="shared" si="8"/>
         <v>1731</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H29" s="9">
         <v>1549</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I29" s="9">
         <v>182</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J29" s="8">
         <f t="shared" si="9"/>
         <v>26793</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K29" s="9">
         <v>18467</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L29" s="9">
         <v>8326</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M29" s="10">
         <f t="shared" si="10"/>
         <v>13986.931</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N29" s="9">
         <v>10236.332</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O29" s="11">
         <v>3750.5990000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:15" hidden="1">
-      <c r="B29" s="12">
+    <row r="30" spans="2:15" hidden="1">
+      <c r="B30" s="12">
         <v>2023</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <f t="shared" si="14"/>
         <v>162973</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E30" s="15">
         <v>125545</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="15">
         <v>37428</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="14">
         <f t="shared" si="8"/>
         <v>2108</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H30" s="15">
         <v>1923</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I30" s="15">
         <v>185</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J30" s="14">
         <f t="shared" si="9"/>
         <v>29095</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K30" s="15">
         <v>19522</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L30" s="15">
         <v>9573</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M30" s="16">
         <f t="shared" si="10"/>
         <v>16766.697</v>
       </c>
-      <c r="N29" s="15">
+      <c r="N30" s="15">
         <v>12077.877</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O30" s="17">
         <v>4688.82</v>
       </c>
     </row>
-    <row r="30" spans="2:15" hidden="1">
-      <c r="B30" s="6">
+    <row r="31" spans="2:15" hidden="1">
+      <c r="B31" s="6">
         <v>2023</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D31" s="8">
         <f t="shared" si="14"/>
         <v>164170</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E31" s="9">
         <v>124900</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>39270</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <f t="shared" si="8"/>
         <v>2029</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H31" s="9">
         <v>1857</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I31" s="9">
         <v>172</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J31" s="8">
         <f t="shared" si="9"/>
         <v>29231</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K31" s="9">
         <v>19311</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L31" s="9">
         <v>9920</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M31" s="10">
         <f t="shared" si="10"/>
         <v>17331.974000000002</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N31" s="9">
         <v>12036.081</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O31" s="11">
         <v>5295.893</v>
       </c>
     </row>
-    <row r="31" spans="2:15" hidden="1">
-      <c r="B31" s="12">
+    <row r="32" spans="2:15" hidden="1">
+      <c r="B32" s="12">
         <v>2023</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <f t="shared" si="14"/>
         <v>158074</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>120413</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>37661</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="14">
         <f t="shared" si="8"/>
         <v>1839</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H32" s="15">
         <v>1681</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I32" s="15">
         <v>158</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J32" s="14">
         <f t="shared" si="9"/>
         <v>28215</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K32" s="15">
         <v>18972</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L32" s="15">
         <v>9243</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M32" s="16">
         <f t="shared" si="10"/>
         <v>15257.142</v>
       </c>
-      <c r="N31" s="15">
+      <c r="N32" s="15">
         <v>10569.871999999999</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O32" s="17">
         <v>4687.2700000000004</v>
       </c>
     </row>
-    <row r="32" spans="2:15" hidden="1">
-      <c r="B32" s="6">
+    <row r="33" spans="2:15" hidden="1">
+      <c r="B33" s="6">
         <v>2023</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D33" s="8">
         <f t="shared" si="14"/>
         <v>162182</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E33" s="9">
         <v>124206</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>37976</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="8">
         <f t="shared" si="8"/>
         <v>1851</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H33" s="9">
         <v>1681</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I33" s="9">
         <v>170</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J33" s="8">
         <f t="shared" si="9"/>
         <v>28633</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K33" s="9">
         <v>19183</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L33" s="9">
         <v>9450</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M33" s="10">
         <f t="shared" si="10"/>
         <v>15115.095000000001</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N33" s="9">
         <v>10649.591</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O33" s="11">
         <v>4465.5039999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:15" hidden="1">
-      <c r="B33" s="12">
+    <row r="34" spans="2:15" hidden="1">
+      <c r="B34" s="12">
         <v>2023</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <f t="shared" si="14"/>
         <v>159882</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>120199</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="15">
         <v>39683</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="14">
         <f t="shared" si="8"/>
         <v>1710</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H34" s="15">
         <v>1605</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I34" s="15">
         <v>105</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J34" s="14">
         <f t="shared" si="9"/>
         <v>28347</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K34" s="15">
         <v>19276</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L34" s="15">
         <v>9071</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M34" s="16">
         <f t="shared" si="10"/>
         <v>15697.496999999999</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N34" s="15">
         <v>10803.382</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O34" s="17">
         <v>4894.1149999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:15" hidden="1">
-      <c r="B34" s="6">
+    <row r="35" spans="2:15" hidden="1">
+      <c r="B35" s="6">
         <v>2023</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D35" s="8">
         <f t="shared" si="14"/>
         <v>170638</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E35" s="9">
         <v>126849</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>43789</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <f t="shared" si="8"/>
         <v>1840</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H35" s="9">
         <v>1730</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I35" s="9">
         <v>110</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J35" s="8">
         <f t="shared" si="9"/>
         <v>29361</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K35" s="9">
         <v>19711</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L35" s="9">
         <v>9650</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M35" s="10">
         <f t="shared" si="10"/>
         <v>15935.796</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N35" s="9">
         <v>10528.172</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O35" s="11">
         <v>5407.6239999999998</v>
       </c>
     </row>
-    <row r="35" spans="2:15" hidden="1">
-      <c r="B35" s="12">
+    <row r="36" spans="2:15" hidden="1">
+      <c r="B36" s="12">
         <v>2023</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <f t="shared" si="14"/>
         <v>151336</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>112299</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>39037</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <f t="shared" si="8"/>
         <v>1650</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H36" s="15">
         <v>1537</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I36" s="15">
         <v>113</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J36" s="14">
         <f t="shared" si="9"/>
         <v>26435</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K36" s="15">
         <v>17619</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L36" s="15">
         <v>8816</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M36" s="16">
         <f t="shared" si="10"/>
         <v>13705.822</v>
       </c>
-      <c r="N35" s="15">
+      <c r="N36" s="15">
         <v>8982.0499999999993</v>
       </c>
-      <c r="O35" s="17">
+      <c r="O36" s="17">
         <v>4723.7719999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:15" hidden="1">
-      <c r="B36" s="18">
+    <row r="37" spans="2:15" hidden="1">
+      <c r="B37" s="18">
         <v>2023</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D37" s="20">
         <f t="shared" si="14"/>
         <v>165200</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E37" s="21">
         <v>121747</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F37" s="21">
         <v>43453</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G37" s="20">
         <f t="shared" si="8"/>
         <v>1856</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H37" s="21">
         <v>1722</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I37" s="21">
         <v>134</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J37" s="20">
         <f t="shared" si="9"/>
         <v>30227</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K37" s="21">
         <v>20162</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L37" s="21">
         <v>10065</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M37" s="22">
         <f t="shared" si="10"/>
         <v>15379.226000000001</v>
       </c>
-      <c r="N36" s="21">
+      <c r="N37" s="21">
         <v>10060.075000000001</v>
       </c>
-      <c r="O36" s="23">
+      <c r="O37" s="23">
         <v>5319.1509999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:15" hidden="1">
-      <c r="B37" s="24">
+    <row r="38" spans="2:15" hidden="1">
+      <c r="B38" s="24">
         <v>2022</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C38" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D38" s="26">
         <f t="shared" si="14"/>
         <v>167972</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E38" s="27">
         <v>123936</v>
       </c>
-      <c r="F37" s="27">
+      <c r="F38" s="27">
         <v>44036</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G38" s="26">
         <f t="shared" si="8"/>
         <v>1840</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H38" s="27">
         <v>1713</v>
       </c>
-      <c r="I37" s="27">
+      <c r="I38" s="27">
         <v>127</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J38" s="26">
         <f t="shared" si="9"/>
         <v>31046</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K38" s="27">
         <v>20696</v>
       </c>
-      <c r="L37" s="27">
+      <c r="L38" s="27">
         <v>10350</v>
       </c>
-      <c r="M37" s="28">
+      <c r="M38" s="28">
         <f t="shared" si="10"/>
         <v>16259.23</v>
       </c>
-      <c r="N37" s="27">
+      <c r="N38" s="27">
         <v>11068.346</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O38" s="29">
         <v>5190.884</v>
       </c>
     </row>
-    <row r="38" spans="2:15" hidden="1">
-      <c r="B38" s="6">
+    <row r="39" spans="2:15" hidden="1">
+      <c r="B39" s="6">
         <v>2022</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D39" s="8">
         <f t="shared" si="14"/>
         <v>162759</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E39" s="9">
         <v>123505</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F39" s="9">
         <v>39254</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <f t="shared" si="8"/>
         <v>1784</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H39" s="9">
         <v>1698</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I39" s="9">
         <v>86</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J39" s="8">
         <f t="shared" si="9"/>
         <v>30430</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K39" s="9">
         <v>20625</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L39" s="9">
         <v>9805</v>
       </c>
-      <c r="M38" s="10">
+      <c r="M39" s="10">
         <f t="shared" si="10"/>
         <v>15141.996999999999</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N39" s="9">
         <v>10513.98</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O39" s="11">
         <v>4628.0169999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:15" hidden="1">
-      <c r="B39" s="12">
+    <row r="40" spans="2:15" hidden="1">
+      <c r="B40" s="12">
         <v>2022</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <f t="shared" si="14"/>
         <v>159864</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>124747</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>35117</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <f t="shared" si="8"/>
         <v>1866</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H40" s="15">
         <v>1780</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I40" s="15">
         <v>86</v>
       </c>
-      <c r="J39" s="14">
+      <c r="J40" s="14">
         <f t="shared" si="9"/>
         <v>31242</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K40" s="15">
         <v>21556</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L40" s="15">
         <v>9686</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M40" s="16">
         <f t="shared" si="10"/>
         <v>14556.514999999999</v>
       </c>
-      <c r="N39" s="15">
+      <c r="N40" s="15">
         <v>10450.403</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O40" s="17">
         <v>4106.1120000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:15" hidden="1">
-      <c r="B40" s="6">
+    <row r="41" spans="2:15" hidden="1">
+      <c r="B41" s="6">
         <v>2022</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <f t="shared" si="14"/>
         <v>147719</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>115614</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>32104.999999999996</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <f t="shared" si="8"/>
         <v>1327</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H41" s="9">
         <v>1296</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I41" s="9">
         <v>31</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J41" s="8">
         <f t="shared" si="9"/>
         <v>29935</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K41" s="9">
         <v>20715</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L41" s="9">
         <v>9220</v>
       </c>
-      <c r="M40" s="10">
+      <c r="M41" s="10">
         <f t="shared" si="10"/>
         <v>13130.359999999999</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N41" s="9">
         <v>9467.3269999999993</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O41" s="11">
         <v>3663.0329999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:15" hidden="1">
-      <c r="B41" s="12">
+    <row r="42" spans="2:15" hidden="1">
+      <c r="B42" s="12">
         <v>2022</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <f t="shared" si="14"/>
         <v>160707</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E42" s="15">
         <v>123479</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F42" s="15">
         <v>37228</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="14">
         <f t="shared" si="8"/>
         <v>620</v>
       </c>
-      <c r="H41" s="15">
+      <c r="H42" s="15">
         <v>597</v>
       </c>
-      <c r="I41" s="15">
+      <c r="I42" s="15">
         <v>23</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J42" s="14">
         <f t="shared" si="9"/>
         <v>32809</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K42" s="15">
         <v>22639</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L42" s="15">
         <v>10170</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M42" s="16">
         <f t="shared" si="10"/>
         <v>15003.125</v>
       </c>
-      <c r="N41" s="15">
+      <c r="N42" s="15">
         <v>10508.375</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O42" s="17">
         <v>4494.75</v>
       </c>
     </row>
-    <row r="42" spans="2:15" hidden="1">
-      <c r="B42" s="6">
+    <row r="43" spans="2:15" hidden="1">
+      <c r="B43" s="6">
         <v>2022</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D43" s="8">
         <f t="shared" si="14"/>
         <v>161313</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E43" s="9">
         <v>122637</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>38676</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G43" s="8">
         <f t="shared" si="8"/>
         <v>338</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H43" s="9">
         <v>334</v>
       </c>
-      <c r="I42" s="9">
+      <c r="I43" s="9">
         <v>4</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J43" s="8">
         <f t="shared" si="9"/>
         <v>32288</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K43" s="9">
         <v>22146</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L43" s="9">
         <v>10142</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M43" s="10">
         <f t="shared" si="10"/>
         <v>15713.334999999999</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N43" s="9">
         <v>10715.734</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O43" s="11">
         <v>4997.6009999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:15" hidden="1">
-      <c r="B43" s="12">
+    <row r="44" spans="2:15" hidden="1">
+      <c r="B44" s="12">
         <v>2022</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <f t="shared" si="14"/>
         <v>153335</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>116098</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>37237</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="14">
         <f t="shared" si="8"/>
         <v>356</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H44" s="15">
         <v>351</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I44" s="15">
         <v>5</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J44" s="14">
         <f t="shared" si="9"/>
         <v>30905</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K44" s="15">
         <v>21014</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L44" s="15">
         <v>9891</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M44" s="16">
         <f t="shared" si="10"/>
         <v>13344.656999999999</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N44" s="15">
         <v>9004.4539999999997</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O44" s="17">
         <v>4340.2030000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:15" hidden="1">
-      <c r="B44" s="6">
+    <row r="45" spans="2:15" hidden="1">
+      <c r="B45" s="6">
         <v>2022</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <f t="shared" si="14"/>
         <v>158252</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E45" s="9">
         <v>120591</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>37661</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G45" s="8">
         <f t="shared" si="8"/>
         <v>371</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H45" s="9">
         <v>365</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I45" s="9">
         <v>6</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J45" s="8">
         <f t="shared" si="9"/>
         <v>31398</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K45" s="9">
         <v>21509</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L45" s="9">
         <v>9889</v>
       </c>
-      <c r="M44" s="10">
+      <c r="M45" s="10">
         <f t="shared" si="10"/>
         <v>13548.44</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N45" s="9">
         <v>9417.0650000000005</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O45" s="11">
         <v>4131.375</v>
       </c>
     </row>
-    <row r="45" spans="2:15" hidden="1">
-      <c r="B45" s="12">
+    <row r="46" spans="2:15" hidden="1">
+      <c r="B46" s="12">
         <v>2022</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <f t="shared" si="14"/>
         <v>157784</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>117815</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>39969</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <f t="shared" si="8"/>
         <v>356</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H46" s="15">
         <v>352</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I46" s="15">
         <v>4</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J46" s="14">
         <f t="shared" si="9"/>
         <v>30844</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K46" s="15">
         <v>21295</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L46" s="15">
         <v>9549</v>
       </c>
-      <c r="M45" s="16">
+      <c r="M46" s="16">
         <f t="shared" si="10"/>
         <v>14079.685000000001</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N46" s="15">
         <v>9562.2420000000002</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O46" s="17">
         <v>4517.4430000000002</v>
       </c>
     </row>
-    <row r="46" spans="2:15" hidden="1">
-      <c r="B46" s="6">
+    <row r="47" spans="2:15" hidden="1">
+      <c r="B47" s="6">
         <v>2022</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D47" s="8">
         <f t="shared" si="14"/>
         <v>161848</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E47" s="9">
         <v>119127</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>42721</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G47" s="8">
         <f t="shared" si="8"/>
         <v>138</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H47" s="9">
         <v>135</v>
       </c>
-      <c r="I46" s="9">
+      <c r="I47" s="9">
         <v>3</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J47" s="8">
         <f t="shared" si="9"/>
         <v>29318</v>
       </c>
-      <c r="K46" s="9">
+      <c r="K47" s="9">
         <v>20239</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L47" s="9">
         <v>9079</v>
       </c>
-      <c r="M46" s="10">
+      <c r="M47" s="10">
         <f t="shared" si="10"/>
         <v>13866.879000000001</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N47" s="9">
         <v>9057.7270000000008</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O47" s="11">
         <v>4809.152</v>
       </c>
     </row>
-    <row r="47" spans="2:15" hidden="1">
-      <c r="B47" s="12">
+    <row r="48" spans="2:15" hidden="1">
+      <c r="B48" s="12">
         <v>2022</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <f t="shared" si="14"/>
         <v>138416</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>101843</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>36573</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="14">
+      <c r="H48" s="15">
+        <v>0</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
         <f t="shared" si="9"/>
         <v>24917</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K48" s="15">
         <v>17054</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L48" s="15">
         <v>7863</v>
       </c>
-      <c r="M47" s="16">
+      <c r="M48" s="16">
         <f t="shared" si="10"/>
         <v>10915.597</v>
       </c>
-      <c r="N47" s="15">
+      <c r="N48" s="15">
         <v>7204.1139999999996</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O48" s="17">
         <v>3711.4830000000002</v>
       </c>
     </row>
-    <row r="48" spans="2:15" hidden="1">
-      <c r="B48" s="18">
+    <row r="49" spans="2:15" hidden="1">
+      <c r="B49" s="18">
         <v>2022</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D49" s="20">
         <f t="shared" si="14"/>
         <v>147774</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E49" s="21">
         <v>106370</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F49" s="21">
         <v>41404</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G49" s="20">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H48" s="21">
-        <v>0</v>
-      </c>
-      <c r="I48" s="21">
-        <v>0</v>
-      </c>
-      <c r="J48" s="20">
-        <f t="shared" ref="J48:J79" si="15">SUM(K48:L48)</f>
+      <c r="H49" s="21">
+        <v>0</v>
+      </c>
+      <c r="I49" s="21">
+        <v>0</v>
+      </c>
+      <c r="J49" s="20">
+        <f t="shared" ref="J49:J80" si="15">SUM(K49:L49)</f>
         <v>28778</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K49" s="21">
         <v>19706</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L49" s="21">
         <v>9072</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M49" s="22">
         <f t="shared" si="10"/>
         <v>11653.262000000001</v>
       </c>
-      <c r="N48" s="21">
+      <c r="N49" s="21">
         <v>7668.268</v>
       </c>
-      <c r="O48" s="23">
+      <c r="O49" s="23">
         <v>3984.9940000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:15" hidden="1">
-      <c r="B49" s="24">
+    <row r="50" spans="2:15" hidden="1">
+      <c r="B50" s="24">
         <v>2021</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C50" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="26">
+      <c r="D50" s="26">
         <f t="shared" si="14"/>
         <v>161476</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E50" s="27">
         <v>118642</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F50" s="27">
         <v>42834</v>
       </c>
-      <c r="G49" s="26">
+      <c r="G50" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H49" s="27">
-        <v>0</v>
-      </c>
-      <c r="I49" s="27">
-        <v>0</v>
-      </c>
-      <c r="J49" s="26">
+      <c r="H50" s="27">
+        <v>0</v>
+      </c>
+      <c r="I50" s="27">
+        <v>0</v>
+      </c>
+      <c r="J50" s="26">
         <f t="shared" si="15"/>
         <v>31395</v>
       </c>
-      <c r="K49" s="27">
+      <c r="K50" s="27">
         <v>21885</v>
       </c>
-      <c r="L49" s="27">
+      <c r="L50" s="27">
         <v>9510</v>
       </c>
-      <c r="M49" s="28">
+      <c r="M50" s="28">
         <f t="shared" si="10"/>
         <v>13971.465</v>
       </c>
-      <c r="N49" s="27">
+      <c r="N50" s="27">
         <v>9508.3459999999995</v>
       </c>
-      <c r="O49" s="29">
+      <c r="O50" s="29">
         <v>4463.1189999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:15" hidden="1">
-      <c r="B50" s="6">
+    <row r="51" spans="2:15" hidden="1">
+      <c r="B51" s="6">
         <v>2021</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D51" s="8">
         <f t="shared" si="14"/>
         <v>153263</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E51" s="9">
         <v>115481</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F51" s="9">
         <v>37782</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H50" s="9">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8">
         <f t="shared" si="15"/>
         <v>28646</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K51" s="9">
         <v>20157</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L51" s="9">
         <v>8489</v>
       </c>
-      <c r="M50" s="10">
+      <c r="M51" s="10">
         <f t="shared" si="10"/>
         <v>12687.374</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N51" s="9">
         <v>8761.0709999999999</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O51" s="11">
         <v>3926.3029999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:15" hidden="1">
-      <c r="B51" s="12">
+    <row r="52" spans="2:15" hidden="1">
+      <c r="B52" s="12">
         <v>2021</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <f t="shared" si="14"/>
         <v>147053</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>112669</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <v>34384</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H51" s="15">
-        <v>0</v>
-      </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="14">
+      <c r="H52" s="15">
+        <v>0</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
         <f t="shared" si="15"/>
         <v>28151</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K52" s="15">
         <v>19712</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L52" s="15">
         <v>8439</v>
       </c>
-      <c r="M51" s="16">
+      <c r="M52" s="16">
         <f t="shared" si="10"/>
         <v>11848.638999999999</v>
       </c>
-      <c r="N51" s="15">
+      <c r="N52" s="15">
         <v>8373.0280000000002</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O52" s="17">
         <v>3475.6109999999999</v>
       </c>
     </row>
-    <row r="52" spans="2:15" hidden="1">
-      <c r="B52" s="6">
+    <row r="53" spans="2:15" hidden="1">
+      <c r="B53" s="6">
         <v>2021</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="8">
-        <f t="shared" ref="D52:D83" si="16">SUM(E52:F52)</f>
+      <c r="D53" s="8">
+        <f t="shared" ref="D53:D84" si="16">SUM(E53:F53)</f>
         <v>132825</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E53" s="9">
         <v>101771</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F53" s="9">
         <v>31054</v>
       </c>
-      <c r="G52" s="8">
-        <f t="shared" ref="G52:G83" si="17">SUM(H52:I52)</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0</v>
-      </c>
-      <c r="I52" s="9">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
+      <c r="G53" s="8">
+        <f t="shared" ref="G53:G84" si="17">SUM(H53:I53)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8">
         <f t="shared" si="15"/>
         <v>25472</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K53" s="9">
         <v>17521</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L53" s="9">
         <v>7951</v>
       </c>
-      <c r="M52" s="10">
-        <f t="shared" ref="M52:M83" si="18">SUM(N52:O52)</f>
+      <c r="M53" s="10">
+        <f t="shared" ref="M53:M84" si="18">SUM(N53:O53)</f>
         <v>10185.656000000001</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N53" s="9">
         <v>7282.1530000000002</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O53" s="11">
         <v>2903.5030000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:15" hidden="1">
-      <c r="B53" s="12">
+    <row r="54" spans="2:15" hidden="1">
+      <c r="B54" s="12">
         <v>2021</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <f t="shared" si="16"/>
         <v>144695</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E54" s="15">
         <v>110044</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F54" s="15">
         <v>34651</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H53" s="15">
-        <v>0</v>
-      </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="14">
+      <c r="H54" s="15">
+        <v>0</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
         <f t="shared" si="15"/>
         <v>28906</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K54" s="15">
         <v>20368</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L54" s="15">
         <v>8538</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M54" s="16">
         <f t="shared" si="18"/>
         <v>11683.937</v>
       </c>
-      <c r="N53" s="15">
+      <c r="N54" s="15">
         <v>8069.2780000000002</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O54" s="17">
         <v>3614.6590000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:15" hidden="1">
-      <c r="B54" s="6">
+    <row r="55" spans="2:15" hidden="1">
+      <c r="B55" s="6">
         <v>2021</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D55" s="8">
         <f t="shared" si="16"/>
         <v>146353</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E55" s="9">
         <v>110707</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F55" s="9">
         <v>35646</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G55" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H54" s="9">
-        <v>0</v>
-      </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
         <f t="shared" si="15"/>
         <v>28727</v>
       </c>
-      <c r="K54" s="9">
+      <c r="K55" s="9">
         <v>20266</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L55" s="9">
         <v>8461</v>
       </c>
-      <c r="M54" s="10">
+      <c r="M55" s="10">
         <f t="shared" si="18"/>
         <v>12973.878000000001</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N55" s="9">
         <v>8846.4060000000009</v>
       </c>
-      <c r="O54" s="11">
+      <c r="O55" s="11">
         <v>4127.4719999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:15" hidden="1">
-      <c r="B55" s="12">
+    <row r="56" spans="2:15" hidden="1">
+      <c r="B56" s="12">
         <v>2021</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <f t="shared" si="16"/>
         <v>134517</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>101368</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>33149</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H55" s="15">
-        <v>0</v>
-      </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="14">
+      <c r="H56" s="15">
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
         <f t="shared" si="15"/>
         <v>25545</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K56" s="15">
         <v>17937</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L56" s="15">
         <v>7608</v>
       </c>
-      <c r="M55" s="16">
+      <c r="M56" s="16">
         <f t="shared" si="18"/>
         <v>11386.256000000001</v>
       </c>
-      <c r="N55" s="15">
+      <c r="N56" s="15">
         <v>7719.55</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O56" s="17">
         <v>3666.7060000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:15" hidden="1">
-      <c r="B56" s="6">
+    <row r="57" spans="2:15" hidden="1">
+      <c r="B57" s="6">
         <v>2021</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D57" s="8">
         <f t="shared" si="16"/>
         <v>138743</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E57" s="9">
         <v>106623</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F57" s="9">
         <v>32119.999999999996</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G57" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H56" s="9">
-        <v>0</v>
-      </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-      <c r="J56" s="8">
+      <c r="H57" s="9">
+        <v>0</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8">
         <f t="shared" si="15"/>
         <v>25018</v>
       </c>
-      <c r="K56" s="9">
+      <c r="K57" s="9">
         <v>17597</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L57" s="9">
         <v>7421</v>
       </c>
-      <c r="M56" s="10">
+      <c r="M57" s="10">
         <f t="shared" si="18"/>
         <v>10974.823</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N57" s="9">
         <v>7697.7309999999998</v>
       </c>
-      <c r="O56" s="11">
+      <c r="O57" s="11">
         <v>3277.0920000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:15" hidden="1">
-      <c r="B57" s="12">
+    <row r="58" spans="2:15" hidden="1">
+      <c r="B58" s="12">
         <v>2021</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <f t="shared" si="16"/>
         <v>133584</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>103668</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="15">
         <v>29916</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H57" s="15">
-        <v>0</v>
-      </c>
-      <c r="I57" s="15">
-        <v>0</v>
-      </c>
-      <c r="J57" s="14">
+      <c r="H58" s="15">
+        <v>0</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0</v>
+      </c>
+      <c r="J58" s="14">
         <f t="shared" si="15"/>
         <v>23420</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K58" s="15">
         <v>17095</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L58" s="15">
         <v>6325</v>
       </c>
-      <c r="M57" s="16">
+      <c r="M58" s="16">
         <f t="shared" si="18"/>
         <v>9657.1949999999997</v>
       </c>
-      <c r="N57" s="15">
+      <c r="N58" s="15">
         <v>7019.1059999999998</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O58" s="17">
         <v>2638.0889999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:15" hidden="1">
-      <c r="B58" s="6">
+    <row r="59" spans="2:15" hidden="1">
+      <c r="B59" s="6">
         <v>2021</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D59" s="8">
         <f t="shared" si="16"/>
         <v>130340</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E59" s="9">
         <v>99689</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>30651</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H58" s="9">
-        <v>0</v>
-      </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8">
+      <c r="H59" s="9">
+        <v>0</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8">
         <f t="shared" si="15"/>
         <v>20932</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K59" s="9">
         <v>15296</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L59" s="9">
         <v>5636</v>
       </c>
-      <c r="M58" s="10">
+      <c r="M59" s="10">
         <f t="shared" si="18"/>
         <v>8677.3739999999998</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N59" s="9">
         <v>6424.5829999999996</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O59" s="11">
         <v>2252.7910000000002</v>
       </c>
     </row>
-    <row r="59" spans="2:15" hidden="1">
-      <c r="B59" s="12">
+    <row r="60" spans="2:15" hidden="1">
+      <c r="B60" s="12">
         <v>2021</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <f t="shared" si="16"/>
         <v>105818</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>80508</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>25310</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H59" s="15">
-        <v>0</v>
-      </c>
-      <c r="I59" s="15">
-        <v>0</v>
-      </c>
-      <c r="J59" s="14">
+      <c r="H60" s="15">
+        <v>0</v>
+      </c>
+      <c r="I60" s="15">
+        <v>0</v>
+      </c>
+      <c r="J60" s="14">
         <f t="shared" si="15"/>
         <v>17155</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K60" s="15">
         <v>12105</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L60" s="15">
         <v>5050</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M60" s="16">
         <f t="shared" si="18"/>
         <v>5881.9269999999997</v>
       </c>
-      <c r="N59" s="15">
+      <c r="N60" s="15">
         <v>4501.4070000000002</v>
       </c>
-      <c r="O59" s="17">
+      <c r="O60" s="17">
         <v>1380.52</v>
       </c>
     </row>
-    <row r="60" spans="2:15" hidden="1">
-      <c r="B60" s="18">
+    <row r="61" spans="2:15" hidden="1">
+      <c r="B61" s="18">
         <v>2021</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D61" s="20">
         <f t="shared" si="16"/>
         <v>124147</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E61" s="21">
         <v>93381</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F61" s="21">
         <v>30766</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G61" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H60" s="21">
-        <v>0</v>
-      </c>
-      <c r="I60" s="21">
-        <v>0</v>
-      </c>
-      <c r="J60" s="20">
+      <c r="H61" s="21">
+        <v>0</v>
+      </c>
+      <c r="I61" s="21">
+        <v>0</v>
+      </c>
+      <c r="J61" s="20">
         <f t="shared" si="15"/>
         <v>22442</v>
       </c>
-      <c r="K60" s="21">
+      <c r="K61" s="21">
         <v>15855</v>
       </c>
-      <c r="L60" s="21">
+      <c r="L61" s="21">
         <v>6587</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M61" s="22">
         <f t="shared" si="18"/>
         <v>7530.1779999999999</v>
       </c>
-      <c r="N60" s="21">
+      <c r="N61" s="21">
         <v>5474.7460000000001</v>
       </c>
-      <c r="O60" s="23">
+      <c r="O61" s="23">
         <v>2055.4319999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:15" hidden="1">
-      <c r="B61" s="24">
+    <row r="62" spans="2:15" hidden="1">
+      <c r="B62" s="24">
         <v>2020</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C62" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="26">
+      <c r="D62" s="26">
         <f t="shared" si="16"/>
         <v>129572</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E62" s="27">
         <v>99674</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F62" s="27">
         <v>29898</v>
       </c>
-      <c r="G61" s="26">
+      <c r="G62" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H61" s="27">
-        <v>0</v>
-      </c>
-      <c r="I61" s="27">
-        <v>0</v>
-      </c>
-      <c r="J61" s="26">
+      <c r="H62" s="27">
+        <v>0</v>
+      </c>
+      <c r="I62" s="27">
+        <v>0</v>
+      </c>
+      <c r="J62" s="26">
         <f t="shared" si="15"/>
         <v>22377</v>
       </c>
-      <c r="K61" s="27">
+      <c r="K62" s="27">
         <v>15901</v>
       </c>
-      <c r="L61" s="27">
+      <c r="L62" s="27">
         <v>6476</v>
       </c>
-      <c r="M61" s="28">
+      <c r="M62" s="28">
         <f t="shared" si="18"/>
         <v>8643.1899999999987</v>
       </c>
-      <c r="N61" s="27">
+      <c r="N62" s="27">
         <v>6389.2129999999997</v>
       </c>
-      <c r="O61" s="29">
+      <c r="O62" s="29">
         <v>2253.9769999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:15" hidden="1">
-      <c r="B62" s="6">
+    <row r="63" spans="2:15" hidden="1">
+      <c r="B63" s="6">
         <v>2020</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D63" s="8">
         <f t="shared" si="16"/>
         <v>120789</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E63" s="9">
         <v>97016</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F63" s="9">
         <v>23773</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H62" s="9">
-        <v>0</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0</v>
-      </c>
-      <c r="J62" s="8">
+      <c r="H63" s="9">
+        <v>0</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8">
         <f t="shared" si="15"/>
         <v>20029</v>
       </c>
-      <c r="K62" s="9">
+      <c r="K63" s="9">
         <v>15112</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L63" s="9">
         <v>4917</v>
       </c>
-      <c r="M62" s="10">
+      <c r="M63" s="10">
         <f t="shared" si="18"/>
         <v>7700.1950000000006</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N63" s="9">
         <v>5937.9480000000003</v>
       </c>
-      <c r="O62" s="11">
+      <c r="O63" s="11">
         <v>1762.2470000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:15" hidden="1">
-      <c r="B63" s="12">
+    <row r="64" spans="2:15" hidden="1">
+      <c r="B64" s="12">
         <v>2020</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <f t="shared" si="16"/>
         <v>111965</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>92159</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>19806</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H63" s="15">
-        <v>0</v>
-      </c>
-      <c r="I63" s="15">
-        <v>0</v>
-      </c>
-      <c r="J63" s="14">
+      <c r="H64" s="15">
+        <v>0</v>
+      </c>
+      <c r="I64" s="15">
+        <v>0</v>
+      </c>
+      <c r="J64" s="14">
         <f t="shared" si="15"/>
         <v>18783</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K64" s="15">
         <v>14512</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L64" s="15">
         <v>4271</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M64" s="16">
         <f t="shared" si="18"/>
         <v>6958.1730000000007</v>
       </c>
-      <c r="N63" s="15">
+      <c r="N64" s="15">
         <v>5522.3990000000003</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O64" s="17">
         <v>1435.7739999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:15" hidden="1">
-      <c r="B64" s="6">
+    <row r="65" spans="2:15" hidden="1">
+      <c r="B65" s="6">
         <v>2020</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D65" s="8">
         <f t="shared" si="16"/>
         <v>98248</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E65" s="9">
         <v>82749</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F65" s="9">
         <v>15499</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H64" s="9">
-        <v>0</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
+      <c r="H65" s="9">
+        <v>0</v>
+      </c>
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8">
         <f t="shared" si="15"/>
         <v>15967</v>
       </c>
-      <c r="K64" s="9">
+      <c r="K65" s="9">
         <v>12434</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L65" s="9">
         <v>3533</v>
       </c>
-      <c r="M64" s="10">
+      <c r="M65" s="10">
         <f t="shared" si="18"/>
         <v>5747.9449999999997</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N65" s="9">
         <v>4716.3429999999998</v>
       </c>
-      <c r="O64" s="11">
+      <c r="O65" s="11">
         <v>1031.6020000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:15" hidden="1">
-      <c r="B65" s="12">
+    <row r="66" spans="2:15" hidden="1">
+      <c r="B66" s="12">
         <v>2020</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <f t="shared" si="16"/>
         <v>94778</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E66" s="15">
         <v>79993</v>
       </c>
-      <c r="F65" s="15">
+      <c r="F66" s="15">
         <v>14785</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H65" s="15">
-        <v>0</v>
-      </c>
-      <c r="I65" s="15">
-        <v>0</v>
-      </c>
-      <c r="J65" s="14">
+      <c r="H66" s="15">
+        <v>0</v>
+      </c>
+      <c r="I66" s="15">
+        <v>0</v>
+      </c>
+      <c r="J66" s="14">
         <f t="shared" si="15"/>
         <v>15399</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K66" s="15">
         <v>11911</v>
       </c>
-      <c r="L65" s="15">
+      <c r="L66" s="15">
         <v>3488</v>
       </c>
-      <c r="M65" s="16">
+      <c r="M66" s="16">
         <f t="shared" si="18"/>
         <v>5296.7969999999996</v>
       </c>
-      <c r="N65" s="15">
+      <c r="N66" s="15">
         <v>4313.7479999999996</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O66" s="17">
         <v>983.04899999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:15" hidden="1">
-      <c r="B66" s="6">
+    <row r="67" spans="2:15" hidden="1">
+      <c r="B67" s="6">
         <v>2020</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D67" s="8">
         <f t="shared" si="16"/>
         <v>85508</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E67" s="9">
         <v>72657</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F67" s="9">
         <v>12851</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G67" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H66" s="9">
-        <v>0</v>
-      </c>
-      <c r="I66" s="9">
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0</v>
+      </c>
+      <c r="J67" s="8">
         <f t="shared" si="15"/>
         <v>12165</v>
       </c>
-      <c r="K66" s="9">
+      <c r="K67" s="9">
         <v>9419</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L67" s="9">
         <v>2746</v>
       </c>
-      <c r="M66" s="10">
+      <c r="M67" s="10">
         <f t="shared" si="18"/>
         <v>4185.5320000000002</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N67" s="9">
         <v>3405.0259999999998</v>
       </c>
-      <c r="O66" s="11">
+      <c r="O67" s="11">
         <v>780.50599999999997</v>
       </c>
     </row>
-    <row r="67" spans="2:15" hidden="1">
-      <c r="B67" s="12">
+    <row r="68" spans="2:15" hidden="1">
+      <c r="B68" s="12">
         <v>2020</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <f t="shared" si="16"/>
         <v>58869</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>50107</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>8762</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G68" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H67" s="15">
-        <v>0</v>
-      </c>
-      <c r="I67" s="15">
-        <v>0</v>
-      </c>
-      <c r="J67" s="14">
+      <c r="H68" s="15">
+        <v>0</v>
+      </c>
+      <c r="I68" s="15">
+        <v>0</v>
+      </c>
+      <c r="J68" s="14">
         <f t="shared" si="15"/>
         <v>7578</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K68" s="15">
         <v>5489</v>
       </c>
-      <c r="L67" s="15">
+      <c r="L68" s="15">
         <v>2089</v>
       </c>
-      <c r="M67" s="16">
+      <c r="M68" s="16">
         <f t="shared" si="18"/>
         <v>2139.893</v>
       </c>
-      <c r="N67" s="15">
+      <c r="N68" s="15">
         <v>1815.4059999999999</v>
       </c>
-      <c r="O67" s="17">
+      <c r="O68" s="17">
         <v>324.48700000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:15" hidden="1">
-      <c r="B68" s="6">
+    <row r="69" spans="2:15" hidden="1">
+      <c r="B69" s="6">
         <v>2020</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D69" s="8">
         <f t="shared" si="16"/>
         <v>40887</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <v>35082</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <v>5805</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G69" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H68" s="9">
-        <v>0</v>
-      </c>
-      <c r="I68" s="9">
-        <v>0</v>
-      </c>
-      <c r="J68" s="8">
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="8">
         <f t="shared" si="15"/>
         <v>4836</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K69" s="9">
         <v>3187</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L69" s="9">
         <v>1649</v>
       </c>
-      <c r="M68" s="10">
+      <c r="M69" s="10">
         <f t="shared" si="18"/>
         <v>912.27</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N69" s="9">
         <v>794.02</v>
       </c>
-      <c r="O68" s="11">
+      <c r="O69" s="11">
         <v>118.25</v>
       </c>
     </row>
-    <row r="69" spans="2:15" hidden="1">
-      <c r="B69" s="12">
+    <row r="70" spans="2:15" hidden="1">
+      <c r="B70" s="12">
         <v>2020</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <f t="shared" si="16"/>
         <v>39436</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="15">
         <v>33432</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="15">
         <v>6004</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H69" s="15">
-        <v>0</v>
-      </c>
-      <c r="I69" s="15">
-        <v>0</v>
-      </c>
-      <c r="J69" s="14">
+      <c r="H70" s="15">
+        <v>0</v>
+      </c>
+      <c r="I70" s="15">
+        <v>0</v>
+      </c>
+      <c r="J70" s="14">
         <f t="shared" si="15"/>
         <v>5483</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K70" s="15">
         <v>3788</v>
       </c>
-      <c r="L69" s="15">
+      <c r="L70" s="15">
         <v>1695</v>
       </c>
-      <c r="M69" s="16">
+      <c r="M70" s="16">
         <f t="shared" si="18"/>
         <v>958.75099999999998</v>
       </c>
-      <c r="N69" s="15">
+      <c r="N70" s="15">
         <v>841.01400000000001</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O70" s="17">
         <v>117.73699999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:15" hidden="1">
-      <c r="B70" s="6">
+    <row r="71" spans="2:15" hidden="1">
+      <c r="B71" s="6">
         <v>2020</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D71" s="8">
         <f t="shared" si="16"/>
         <v>138604</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E71" s="9">
         <v>105733</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F71" s="9">
         <v>32871</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G71" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H70" s="9">
-        <v>0</v>
-      </c>
-      <c r="I70" s="9">
-        <v>0</v>
-      </c>
-      <c r="J70" s="8">
+      <c r="H71" s="9">
+        <v>0</v>
+      </c>
+      <c r="I71" s="9">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8">
         <f t="shared" si="15"/>
         <v>27685</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K71" s="9">
         <v>19400</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L71" s="9">
         <v>8285</v>
       </c>
-      <c r="M70" s="10">
+      <c r="M71" s="10">
         <f t="shared" si="18"/>
         <v>9011.8619999999992</v>
       </c>
-      <c r="N70" s="9">
+      <c r="N71" s="9">
         <v>6133.3159999999998</v>
       </c>
-      <c r="O70" s="11">
+      <c r="O71" s="11">
         <v>2878.5459999999998</v>
       </c>
     </row>
-    <row r="71" spans="2:15" hidden="1">
-      <c r="B71" s="12">
+    <row r="72" spans="2:15" hidden="1">
+      <c r="B72" s="12">
         <v>2020</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <f t="shared" si="16"/>
         <v>154600</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>116643</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>37957</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H71" s="15">
-        <v>0</v>
-      </c>
-      <c r="I71" s="15">
-        <v>0</v>
-      </c>
-      <c r="J71" s="14">
+      <c r="H72" s="15">
+        <v>0</v>
+      </c>
+      <c r="I72" s="15">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
         <f t="shared" si="15"/>
         <v>33096</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K72" s="15">
         <v>22924</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L72" s="15">
         <v>10172</v>
       </c>
-      <c r="M71" s="16">
+      <c r="M72" s="16">
         <f t="shared" si="18"/>
         <v>12555.147000000001</v>
       </c>
-      <c r="N71" s="15">
+      <c r="N72" s="15">
         <v>8141.3959999999997</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O72" s="17">
         <v>4413.7510000000002</v>
       </c>
     </row>
-    <row r="72" spans="2:15" hidden="1">
-      <c r="B72" s="18">
+    <row r="73" spans="2:15" hidden="1">
+      <c r="B73" s="18">
         <v>2020</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D73" s="20">
         <f t="shared" si="16"/>
         <v>167619</v>
       </c>
-      <c r="E72" s="21">
+      <c r="E73" s="21">
         <v>126846</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F73" s="21">
         <v>40773</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G73" s="20">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H72" s="21">
-        <v>0</v>
-      </c>
-      <c r="I72" s="21">
-        <v>0</v>
-      </c>
-      <c r="J72" s="20">
+      <c r="H73" s="21">
+        <v>0</v>
+      </c>
+      <c r="I73" s="21">
+        <v>0</v>
+      </c>
+      <c r="J73" s="20">
         <f t="shared" si="15"/>
         <v>37171</v>
       </c>
-      <c r="K72" s="21">
+      <c r="K73" s="21">
         <v>25779</v>
       </c>
-      <c r="L72" s="21">
+      <c r="L73" s="21">
         <v>11392</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M73" s="22">
         <f t="shared" si="18"/>
         <v>13625.84</v>
       </c>
-      <c r="N72" s="21">
+      <c r="N73" s="21">
         <v>8800.0789999999997</v>
       </c>
-      <c r="O72" s="23">
+      <c r="O73" s="23">
         <v>4825.7610000000004</v>
       </c>
     </row>
-    <row r="73" spans="2:15" hidden="1">
-      <c r="B73" s="24">
+    <row r="74" spans="2:15" hidden="1">
+      <c r="B74" s="24">
         <v>2019</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C74" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D74" s="26">
         <f t="shared" si="16"/>
         <v>167593</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E74" s="27">
         <v>126051</v>
       </c>
-      <c r="F73" s="27">
+      <c r="F74" s="27">
         <v>41542</v>
       </c>
-      <c r="G73" s="26">
+      <c r="G74" s="26">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H73" s="27">
-        <v>0</v>
-      </c>
-      <c r="I73" s="27">
-        <v>0</v>
-      </c>
-      <c r="J73" s="26">
+      <c r="H74" s="27">
+        <v>0</v>
+      </c>
+      <c r="I74" s="27">
+        <v>0</v>
+      </c>
+      <c r="J74" s="26">
         <f t="shared" si="15"/>
         <v>37969</v>
       </c>
-      <c r="K73" s="27">
+      <c r="K74" s="27">
         <v>25919</v>
       </c>
-      <c r="L73" s="27">
+      <c r="L74" s="27">
         <v>12050</v>
       </c>
-      <c r="M73" s="28">
+      <c r="M74" s="28">
         <f t="shared" si="18"/>
         <v>14311.285</v>
       </c>
-      <c r="N73" s="27">
+      <c r="N74" s="27">
         <v>9491.1820000000007</v>
       </c>
-      <c r="O73" s="29">
+      <c r="O74" s="29">
         <v>4820.1030000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:15" hidden="1">
-      <c r="B74" s="6">
+    <row r="75" spans="2:15" hidden="1">
+      <c r="B75" s="6">
         <v>2019</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D75" s="8">
         <f t="shared" si="16"/>
         <v>161899</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E75" s="9">
         <v>125646</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F75" s="9">
         <v>36253</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G75" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H74" s="9">
-        <v>0</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0</v>
-      </c>
-      <c r="J74" s="8">
+      <c r="H75" s="9">
+        <v>0</v>
+      </c>
+      <c r="I75" s="9">
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
         <f t="shared" si="15"/>
         <v>36078</v>
       </c>
-      <c r="K74" s="9">
+      <c r="K75" s="9">
         <v>25201</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L75" s="9">
         <v>10877</v>
       </c>
-      <c r="M74" s="10">
+      <c r="M75" s="10">
         <f t="shared" si="18"/>
         <v>13215.171</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N75" s="9">
         <v>9104.4480000000003</v>
       </c>
-      <c r="O74" s="11">
+      <c r="O75" s="11">
         <v>4110.723</v>
       </c>
     </row>
-    <row r="75" spans="2:15" hidden="1">
-      <c r="B75" s="12">
+    <row r="76" spans="2:15" hidden="1">
+      <c r="B76" s="12">
         <v>2019</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <f t="shared" si="16"/>
         <v>159019</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>126531</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>32488</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H75" s="15">
-        <v>0</v>
-      </c>
-      <c r="I75" s="15">
-        <v>0</v>
-      </c>
-      <c r="J75" s="14">
+      <c r="H76" s="15">
+        <v>0</v>
+      </c>
+      <c r="I76" s="15">
+        <v>0</v>
+      </c>
+      <c r="J76" s="14">
         <f t="shared" si="15"/>
         <v>36741</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K76" s="15">
         <v>25823</v>
       </c>
-      <c r="L75" s="15">
+      <c r="L76" s="15">
         <v>10918</v>
       </c>
-      <c r="M75" s="16">
+      <c r="M76" s="16">
         <f t="shared" si="18"/>
         <v>12724.360999999999</v>
       </c>
-      <c r="N75" s="15">
+      <c r="N76" s="15">
         <v>9175.6839999999993</v>
       </c>
-      <c r="O75" s="17">
+      <c r="O76" s="17">
         <v>3548.6770000000001</v>
       </c>
     </row>
-    <row r="76" spans="2:15" hidden="1">
-      <c r="B76" s="6">
+    <row r="77" spans="2:15" hidden="1">
+      <c r="B77" s="6">
         <v>2019</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D77" s="8">
         <f t="shared" si="16"/>
         <v>148583</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E77" s="9">
         <v>118880</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F77" s="9">
         <v>29703</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H76" s="9">
-        <v>0</v>
-      </c>
-      <c r="I76" s="9">
-        <v>0</v>
-      </c>
-      <c r="J76" s="8">
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
+        <v>0</v>
+      </c>
+      <c r="J77" s="8">
         <f t="shared" si="15"/>
         <v>34491</v>
       </c>
-      <c r="K76" s="9">
+      <c r="K77" s="9">
         <v>23749</v>
       </c>
-      <c r="L76" s="9">
+      <c r="L77" s="9">
         <v>10742</v>
       </c>
-      <c r="M76" s="10">
+      <c r="M77" s="10">
         <f t="shared" si="18"/>
         <v>11512.314</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N77" s="9">
         <v>8319.4240000000009</v>
       </c>
-      <c r="O76" s="11">
+      <c r="O77" s="11">
         <v>3192.89</v>
       </c>
     </row>
-    <row r="77" spans="2:15" hidden="1">
-      <c r="B77" s="12">
+    <row r="78" spans="2:15" hidden="1">
+      <c r="B78" s="12">
         <v>2019</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <f t="shared" si="16"/>
         <v>165304</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E78" s="15">
         <v>129776.00000000001</v>
       </c>
-      <c r="F77" s="15">
+      <c r="F78" s="15">
         <v>35528</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H77" s="15">
-        <v>0</v>
-      </c>
-      <c r="I77" s="15">
-        <v>0</v>
-      </c>
-      <c r="J77" s="14">
+      <c r="H78" s="15">
+        <v>0</v>
+      </c>
+      <c r="I78" s="15">
+        <v>0</v>
+      </c>
+      <c r="J78" s="14">
         <f t="shared" si="15"/>
         <v>37882</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K78" s="15">
         <v>25900</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L78" s="15">
         <v>11982</v>
       </c>
-      <c r="M77" s="16">
+      <c r="M78" s="16">
         <f t="shared" si="18"/>
         <v>13678.462</v>
       </c>
-      <c r="N77" s="15">
+      <c r="N78" s="15">
         <v>9506.8289999999997</v>
       </c>
-      <c r="O77" s="17">
+      <c r="O78" s="17">
         <v>4171.6329999999998</v>
       </c>
     </row>
-    <row r="78" spans="2:15" hidden="1">
-      <c r="B78" s="6">
+    <row r="79" spans="2:15" hidden="1">
+      <c r="B79" s="6">
         <v>2019</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C79" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D79" s="8">
         <f t="shared" si="16"/>
         <v>168640</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E79" s="9">
         <v>131068.99999999999</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F79" s="9">
         <v>37571</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G79" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H78" s="9">
-        <v>0</v>
-      </c>
-      <c r="I78" s="9">
-        <v>0</v>
-      </c>
-      <c r="J78" s="8">
+      <c r="H79" s="9">
+        <v>0</v>
+      </c>
+      <c r="I79" s="9">
+        <v>0</v>
+      </c>
+      <c r="J79" s="8">
         <f t="shared" si="15"/>
         <v>38116</v>
       </c>
-      <c r="K78" s="9">
+      <c r="K79" s="9">
         <v>25943</v>
       </c>
-      <c r="L78" s="9">
+      <c r="L79" s="9">
         <v>12173</v>
       </c>
-      <c r="M78" s="10">
+      <c r="M79" s="10">
         <f t="shared" si="18"/>
         <v>14682.169</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N79" s="9">
         <v>9992.81</v>
       </c>
-      <c r="O78" s="11">
+      <c r="O79" s="11">
         <v>4689.3590000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:15" hidden="1">
-      <c r="B79" s="12">
+    <row r="80" spans="2:15" hidden="1">
+      <c r="B80" s="12">
         <v>2019</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C80" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <f t="shared" si="16"/>
         <v>159253</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>123607</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>35646</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H79" s="15">
-        <v>0</v>
-      </c>
-      <c r="I79" s="15">
-        <v>0</v>
-      </c>
-      <c r="J79" s="14">
+      <c r="H80" s="15">
+        <v>0</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
         <f t="shared" si="15"/>
         <v>35734</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K80" s="15">
         <v>24362</v>
       </c>
-      <c r="L79" s="15">
+      <c r="L80" s="15">
         <v>11372</v>
       </c>
-      <c r="M79" s="16">
+      <c r="M80" s="16">
         <f t="shared" si="18"/>
         <v>13352.69</v>
       </c>
-      <c r="N79" s="15">
+      <c r="N80" s="15">
         <v>9079.7170000000006</v>
       </c>
-      <c r="O79" s="17">
+      <c r="O80" s="17">
         <v>4272.973</v>
       </c>
     </row>
-    <row r="80" spans="2:15" hidden="1">
-      <c r="B80" s="6">
+    <row r="81" spans="2:15" hidden="1">
+      <c r="B81" s="6">
         <v>2019</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D81" s="8">
         <f t="shared" si="16"/>
         <v>166260</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E81" s="9">
         <v>130592.99999999999</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F81" s="9">
         <v>35667</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G81" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H80" s="9">
-        <v>0</v>
-      </c>
-      <c r="I80" s="9">
-        <v>0</v>
-      </c>
-      <c r="J80" s="8">
-        <f t="shared" ref="J80:J96" si="19">SUM(K80:L80)</f>
+      <c r="H81" s="9">
+        <v>0</v>
+      </c>
+      <c r="I81" s="9">
+        <v>0</v>
+      </c>
+      <c r="J81" s="8">
+        <f t="shared" ref="J81:J97" si="19">SUM(K81:L81)</f>
         <v>36624</v>
       </c>
-      <c r="K80" s="9">
+      <c r="K81" s="9">
         <v>25219</v>
       </c>
-      <c r="L80" s="9">
+      <c r="L81" s="9">
         <v>11405</v>
       </c>
-      <c r="M80" s="10">
+      <c r="M81" s="10">
         <f t="shared" si="18"/>
         <v>13434.785</v>
       </c>
-      <c r="N80" s="9">
+      <c r="N81" s="9">
         <v>9373.2109999999993</v>
       </c>
-      <c r="O80" s="11">
+      <c r="O81" s="11">
         <v>4061.5740000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:15" hidden="1">
-      <c r="B81" s="12">
+    <row r="82" spans="2:15" hidden="1">
+      <c r="B82" s="12">
         <v>2019</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C82" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <f t="shared" si="16"/>
         <v>168338</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>129008.99999999999</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>39329</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H81" s="15">
-        <v>0</v>
-      </c>
-      <c r="I81" s="15">
-        <v>0</v>
-      </c>
-      <c r="J81" s="14">
+      <c r="H82" s="15">
+        <v>0</v>
+      </c>
+      <c r="I82" s="15">
+        <v>0</v>
+      </c>
+      <c r="J82" s="14">
         <f t="shared" si="19"/>
         <v>35519</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K82" s="15">
         <v>24350</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L82" s="15">
         <v>11169</v>
       </c>
-      <c r="M81" s="16">
+      <c r="M82" s="16">
         <f t="shared" si="18"/>
         <v>13245.237000000001</v>
       </c>
-      <c r="N81" s="15">
+      <c r="N82" s="15">
         <v>8877.2070000000003</v>
       </c>
-      <c r="O81" s="17">
+      <c r="O82" s="17">
         <v>4368.03</v>
       </c>
     </row>
-    <row r="82" spans="2:15" hidden="1">
-      <c r="B82" s="6">
+    <row r="83" spans="2:15" hidden="1">
+      <c r="B83" s="6">
         <v>2019</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D83" s="8">
         <f t="shared" si="16"/>
         <v>171618</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E83" s="9">
         <v>128662</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F83" s="9">
         <v>42956</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H82" s="9">
-        <v>0</v>
-      </c>
-      <c r="I82" s="9">
-        <v>0</v>
-      </c>
-      <c r="J82" s="8">
+      <c r="H83" s="9">
+        <v>0</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0</v>
+      </c>
+      <c r="J83" s="8">
         <f t="shared" si="19"/>
         <v>35392</v>
       </c>
-      <c r="K82" s="9">
+      <c r="K83" s="9">
         <v>24040</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L83" s="9">
         <v>11352</v>
       </c>
-      <c r="M82" s="10">
+      <c r="M83" s="10">
         <f t="shared" si="18"/>
         <v>13468.561000000002</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N83" s="9">
         <v>8550.9040000000005</v>
       </c>
-      <c r="O82" s="11">
+      <c r="O83" s="11">
         <v>4917.6570000000002</v>
       </c>
     </row>
-    <row r="83" spans="2:15" hidden="1">
-      <c r="B83" s="12">
+    <row r="84" spans="2:15" hidden="1">
+      <c r="B84" s="12">
         <v>2019</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C84" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <f t="shared" si="16"/>
         <v>151989</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>114632</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>37357</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H83" s="15">
-        <v>0</v>
-      </c>
-      <c r="I83" s="15">
-        <v>0</v>
-      </c>
-      <c r="J83" s="14">
+      <c r="H84" s="15">
+        <v>0</v>
+      </c>
+      <c r="I84" s="15">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
         <f t="shared" si="19"/>
         <v>31890</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K84" s="15">
         <v>21784</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L84" s="15">
         <v>10106</v>
       </c>
-      <c r="M83" s="16">
+      <c r="M84" s="16">
         <f t="shared" si="18"/>
         <v>11254.142</v>
       </c>
-      <c r="N83" s="15">
+      <c r="N84" s="15">
         <v>7147.8</v>
       </c>
-      <c r="O83" s="17">
+      <c r="O84" s="17">
         <v>4106.3419999999996</v>
       </c>
     </row>
-    <row r="84" spans="2:15" hidden="1">
-      <c r="B84" s="18">
+    <row r="85" spans="2:15" hidden="1">
+      <c r="B85" s="18">
         <v>2019</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="20">
-        <f t="shared" ref="D84:D96" si="20">SUM(E84:F84)</f>
+      <c r="D85" s="20">
+        <f t="shared" ref="D85:D97" si="20">SUM(E85:F85)</f>
         <v>165954</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E85" s="21">
         <v>124266</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F85" s="21">
         <v>41688</v>
       </c>
-      <c r="G84" s="20">
-        <f t="shared" ref="G84:G96" si="21">SUM(H84:I84)</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="21">
-        <v>0</v>
-      </c>
-      <c r="I84" s="21">
-        <v>0</v>
-      </c>
-      <c r="J84" s="20">
+      <c r="G85" s="20">
+        <f t="shared" ref="G85:G97" si="21">SUM(H85:I85)</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="21">
+        <v>0</v>
+      </c>
+      <c r="I85" s="21">
+        <v>0</v>
+      </c>
+      <c r="J85" s="20">
         <f t="shared" si="19"/>
         <v>35932</v>
       </c>
-      <c r="K84" s="21">
+      <c r="K85" s="21">
         <v>24195</v>
       </c>
-      <c r="L84" s="21">
+      <c r="L85" s="21">
         <v>11737</v>
       </c>
-      <c r="M84" s="22">
-        <f t="shared" ref="M84:M96" si="22">SUM(N84:O84)</f>
+      <c r="M85" s="22">
+        <f t="shared" ref="M85:M97" si="22">SUM(N85:O85)</f>
         <v>12584.922</v>
       </c>
-      <c r="N84" s="21">
+      <c r="N85" s="21">
         <v>7965.4170000000004</v>
       </c>
-      <c r="O84" s="23">
+      <c r="O85" s="23">
         <v>4619.5050000000001</v>
       </c>
     </row>
-    <row r="85" spans="2:15" hidden="1">
-      <c r="B85" s="13">
+    <row r="86" spans="2:15" hidden="1">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C86" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <f t="shared" si="20"/>
         <v>167896</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>126468</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>41428</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H85" s="15">
-        <v>0</v>
-      </c>
-      <c r="I85" s="15">
-        <v>0</v>
-      </c>
-      <c r="J85" s="14">
+      <c r="H86" s="15">
+        <v>0</v>
+      </c>
+      <c r="I86" s="15">
+        <v>0</v>
+      </c>
+      <c r="J86" s="14">
         <f t="shared" si="19"/>
         <v>36796</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K86" s="15">
         <v>24610</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L86" s="15">
         <v>12186</v>
       </c>
-      <c r="M85" s="16">
+      <c r="M86" s="16">
         <f t="shared" si="22"/>
         <v>13446.27</v>
       </c>
-      <c r="N85" s="15">
+      <c r="N86" s="15">
         <v>8820.4920000000002</v>
       </c>
-      <c r="O85" s="15">
+      <c r="O86" s="15">
         <v>4625.7780000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:15" hidden="1">
-      <c r="B86" s="7">
+    <row r="87" spans="2:15" hidden="1">
+      <c r="B87" s="7">
         <v>2018</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D87" s="8">
         <f t="shared" si="20"/>
         <v>165335</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E87" s="9">
         <v>128314</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F87" s="9">
         <v>37021</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H86" s="9">
-        <v>0</v>
-      </c>
-      <c r="I86" s="9">
-        <v>0</v>
-      </c>
-      <c r="J86" s="8">
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8">
         <f t="shared" si="19"/>
         <v>35251</v>
       </c>
-      <c r="K86" s="9">
+      <c r="K87" s="9">
         <v>23927</v>
       </c>
-      <c r="L86" s="9">
+      <c r="L87" s="9">
         <v>11324</v>
       </c>
-      <c r="M86" s="10">
+      <c r="M87" s="10">
         <f t="shared" si="22"/>
         <v>12543.215</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N87" s="9">
         <v>8542.7430000000004</v>
       </c>
-      <c r="O86" s="9">
+      <c r="O87" s="9">
         <v>4000.4720000000002</v>
       </c>
     </row>
-    <row r="87" spans="2:15" hidden="1">
-      <c r="B87" s="13">
+    <row r="88" spans="2:15" hidden="1">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D88" s="14">
         <f t="shared" si="20"/>
         <v>162784</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="15">
         <v>129050.00000000001</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="15">
         <v>33734</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H87" s="15">
-        <v>0</v>
-      </c>
-      <c r="I87" s="15">
-        <v>0</v>
-      </c>
-      <c r="J87" s="14">
+      <c r="H88" s="15">
+        <v>0</v>
+      </c>
+      <c r="I88" s="15">
+        <v>0</v>
+      </c>
+      <c r="J88" s="14">
         <f t="shared" si="19"/>
         <v>35903</v>
       </c>
-      <c r="K87" s="15">
+      <c r="K88" s="15">
         <v>24186</v>
       </c>
-      <c r="L87" s="15">
+      <c r="L88" s="15">
         <v>11717</v>
       </c>
-      <c r="M87" s="16">
+      <c r="M88" s="16">
         <f t="shared" si="22"/>
         <v>11940.449000000001</v>
       </c>
-      <c r="N87" s="15">
+      <c r="N88" s="15">
         <v>8460.0640000000003</v>
       </c>
-      <c r="O87" s="15">
+      <c r="O88" s="15">
         <v>3480.3850000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:15" hidden="1">
-      <c r="B88" s="7">
+    <row r="89" spans="2:15" hidden="1">
+      <c r="B89" s="7">
         <v>2018</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D89" s="8">
         <f t="shared" si="20"/>
         <v>151218</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E89" s="9">
         <v>120455</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F89" s="9">
         <v>30763</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G89" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H88" s="9">
-        <v>0</v>
-      </c>
-      <c r="I88" s="9">
-        <v>0</v>
-      </c>
-      <c r="J88" s="8">
+      <c r="H89" s="9">
+        <v>0</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0</v>
+      </c>
+      <c r="J89" s="8">
         <f t="shared" si="19"/>
         <v>34246</v>
       </c>
-      <c r="K88" s="9">
+      <c r="K89" s="9">
         <v>23006</v>
       </c>
-      <c r="L88" s="9">
+      <c r="L89" s="9">
         <v>11240</v>
       </c>
-      <c r="M88" s="10">
+      <c r="M89" s="10">
         <f t="shared" si="22"/>
         <v>10888.41</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N89" s="9">
         <v>7775.683</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O89" s="9">
         <v>3112.7269999999999</v>
       </c>
     </row>
-    <row r="89" spans="2:15" hidden="1">
-      <c r="B89" s="13">
+    <row r="90" spans="2:15" hidden="1">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D90" s="14">
         <f t="shared" si="20"/>
         <v>167317</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <v>131130</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <v>36187</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H89" s="15">
-        <v>0</v>
-      </c>
-      <c r="I89" s="15">
-        <v>0</v>
-      </c>
-      <c r="J89" s="14">
+      <c r="H90" s="15">
+        <v>0</v>
+      </c>
+      <c r="I90" s="15">
+        <v>0</v>
+      </c>
+      <c r="J90" s="14">
         <f t="shared" si="19"/>
         <v>37070</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K90" s="15">
         <v>24746</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L90" s="15">
         <v>12324</v>
       </c>
-      <c r="M89" s="16">
+      <c r="M90" s="16">
         <f t="shared" si="22"/>
         <v>12946.407999999999</v>
       </c>
-      <c r="N89" s="15">
+      <c r="N90" s="15">
         <v>8844.4689999999991</v>
       </c>
-      <c r="O89" s="15">
+      <c r="O90" s="15">
         <v>4101.9390000000003</v>
       </c>
     </row>
-    <row r="90" spans="2:15" hidden="1">
-      <c r="B90" s="7">
+    <row r="91" spans="2:15" hidden="1">
+      <c r="B91" s="7">
         <v>2018</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D91" s="8">
         <f t="shared" si="20"/>
         <v>166752</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E91" s="9">
         <v>128561</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F91" s="9">
         <v>38191</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G91" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H90" s="9">
-        <v>0</v>
-      </c>
-      <c r="I90" s="9">
-        <v>0</v>
-      </c>
-      <c r="J90" s="8">
+      <c r="H91" s="9">
+        <v>0</v>
+      </c>
+      <c r="I91" s="9">
+        <v>0</v>
+      </c>
+      <c r="J91" s="8">
         <f t="shared" si="19"/>
         <v>37073</v>
       </c>
-      <c r="K90" s="9">
+      <c r="K91" s="9">
         <v>24692</v>
       </c>
-      <c r="L90" s="9">
+      <c r="L91" s="9">
         <v>12381</v>
       </c>
-      <c r="M90" s="10">
+      <c r="M91" s="10">
         <f t="shared" si="22"/>
         <v>14091.387999999999</v>
       </c>
-      <c r="N90" s="9">
+      <c r="N91" s="9">
         <v>9430.1080000000002</v>
       </c>
-      <c r="O90" s="9">
+      <c r="O91" s="9">
         <v>4661.28</v>
       </c>
     </row>
-    <row r="91" spans="2:15" hidden="1">
-      <c r="B91" s="13">
+    <row r="92" spans="2:15" hidden="1">
+      <c r="B92" s="13">
         <v>2018</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D92" s="14">
         <f t="shared" si="20"/>
         <v>158678</v>
       </c>
-      <c r="E91" s="15">
+      <c r="E92" s="15">
         <v>121941</v>
       </c>
-      <c r="F91" s="15">
+      <c r="F92" s="15">
         <v>36737</v>
       </c>
-      <c r="G91" s="14">
+      <c r="G92" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H91" s="15">
-        <v>0</v>
-      </c>
-      <c r="I91" s="15">
-        <v>0</v>
-      </c>
-      <c r="J91" s="14">
+      <c r="H92" s="15">
+        <v>0</v>
+      </c>
+      <c r="I92" s="15">
+        <v>0</v>
+      </c>
+      <c r="J92" s="14">
         <f t="shared" si="19"/>
         <v>34876</v>
       </c>
-      <c r="K91" s="15">
+      <c r="K92" s="15">
         <v>23300</v>
       </c>
-      <c r="L91" s="15">
+      <c r="L92" s="15">
         <v>11576</v>
       </c>
-      <c r="M91" s="16">
+      <c r="M92" s="16">
         <f t="shared" si="22"/>
         <v>12298.282999999999</v>
       </c>
-      <c r="N91" s="15">
+      <c r="N92" s="15">
         <v>8174.7749999999996</v>
       </c>
-      <c r="O91" s="15">
+      <c r="O92" s="15">
         <v>4123.5079999999998</v>
       </c>
     </row>
-    <row r="92" spans="2:15" hidden="1">
-      <c r="B92" s="7">
+    <row r="93" spans="2:15" hidden="1">
+      <c r="B93" s="7">
         <v>2018</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D93" s="8">
         <f t="shared" si="20"/>
         <v>168027</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E93" s="9">
         <v>131482</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F93" s="9">
         <v>36545</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G93" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H92" s="9">
-        <v>0</v>
-      </c>
-      <c r="I92" s="9">
-        <v>0</v>
-      </c>
-      <c r="J92" s="8">
+      <c r="H93" s="9">
+        <v>0</v>
+      </c>
+      <c r="I93" s="9">
+        <v>0</v>
+      </c>
+      <c r="J93" s="8">
         <f t="shared" si="19"/>
         <v>35688</v>
       </c>
-      <c r="K92" s="9">
+      <c r="K93" s="9">
         <v>24015</v>
       </c>
-      <c r="L92" s="9">
+      <c r="L93" s="9">
         <v>11673</v>
       </c>
-      <c r="M92" s="10">
+      <c r="M93" s="10">
         <f t="shared" si="22"/>
         <v>12153.535</v>
       </c>
-      <c r="N92" s="9">
+      <c r="N93" s="9">
         <v>8289.7060000000001</v>
       </c>
-      <c r="O92" s="9">
+      <c r="O93" s="9">
         <v>3863.8290000000002</v>
       </c>
     </row>
-    <row r="93" spans="2:15" hidden="1">
-      <c r="B93" s="13">
+    <row r="94" spans="2:15" hidden="1">
+      <c r="B94" s="13">
         <v>2018</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C94" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D94" s="14">
         <f t="shared" si="20"/>
         <v>167317</v>
       </c>
-      <c r="E93" s="15">
+      <c r="E94" s="15">
         <v>128001</v>
       </c>
-      <c r="F93" s="15">
+      <c r="F94" s="15">
         <v>39316</v>
       </c>
-      <c r="G93" s="14">
+      <c r="G94" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H93" s="15">
-        <v>0</v>
-      </c>
-      <c r="I93" s="15">
-        <v>0</v>
-      </c>
-      <c r="J93" s="14">
+      <c r="H94" s="15">
+        <v>0</v>
+      </c>
+      <c r="I94" s="15">
+        <v>0</v>
+      </c>
+      <c r="J94" s="14">
         <f t="shared" si="19"/>
         <v>34719</v>
       </c>
-      <c r="K93" s="15">
+      <c r="K94" s="15">
         <v>23289</v>
       </c>
-      <c r="L93" s="15">
+      <c r="L94" s="15">
         <v>11430</v>
       </c>
-      <c r="M93" s="16">
+      <c r="M94" s="16">
         <f t="shared" si="22"/>
         <v>12397.615</v>
       </c>
-      <c r="N93" s="15">
+      <c r="N94" s="15">
         <v>8179.683</v>
       </c>
-      <c r="O93" s="15">
+      <c r="O94" s="15">
         <v>4217.9319999999998</v>
       </c>
     </row>
-    <row r="94" spans="2:15" hidden="1">
-      <c r="B94" s="7">
+    <row r="95" spans="2:15" hidden="1">
+      <c r="B95" s="7">
         <v>2018</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C95" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D95" s="8">
         <f t="shared" si="20"/>
         <v>175525</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E95" s="9">
         <v>131590</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F95" s="9">
         <v>43935</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G95" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H94" s="9">
-        <v>0</v>
-      </c>
-      <c r="I94" s="9">
-        <v>0</v>
-      </c>
-      <c r="J94" s="8">
+      <c r="H95" s="9">
+        <v>0</v>
+      </c>
+      <c r="I95" s="9">
+        <v>0</v>
+      </c>
+      <c r="J95" s="8">
         <f t="shared" si="19"/>
         <v>35499</v>
       </c>
-      <c r="K94" s="9">
+      <c r="K95" s="9">
         <v>23540</v>
       </c>
-      <c r="L94" s="9">
+      <c r="L95" s="9">
         <v>11959</v>
       </c>
-      <c r="M94" s="10">
+      <c r="M95" s="10">
         <f t="shared" si="22"/>
         <v>12920.743</v>
       </c>
-      <c r="N94" s="9">
+      <c r="N95" s="9">
         <v>8102.1610000000001</v>
       </c>
-      <c r="O94" s="9">
+      <c r="O95" s="9">
         <v>4818.5820000000003</v>
       </c>
     </row>
-    <row r="95" spans="2:15" hidden="1">
-      <c r="B95" s="13">
+    <row r="96" spans="2:15" hidden="1">
+      <c r="B96" s="13">
         <v>2018</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D96" s="14">
         <f t="shared" si="20"/>
         <v>153732</v>
       </c>
-      <c r="E95" s="15">
+      <c r="E96" s="15">
         <v>115727</v>
       </c>
-      <c r="F95" s="15">
+      <c r="F96" s="15">
         <v>38005</v>
       </c>
-      <c r="G95" s="14">
+      <c r="G96" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H95" s="15">
-        <v>0</v>
-      </c>
-      <c r="I95" s="15">
-        <v>0</v>
-      </c>
-      <c r="J95" s="14">
+      <c r="H96" s="15">
+        <v>0</v>
+      </c>
+      <c r="I96" s="15">
+        <v>0</v>
+      </c>
+      <c r="J96" s="14">
         <f t="shared" si="19"/>
         <v>31178</v>
       </c>
-      <c r="K95" s="15">
+      <c r="K96" s="15">
         <v>20697</v>
       </c>
-      <c r="L95" s="15">
+      <c r="L96" s="15">
         <v>10481</v>
       </c>
-      <c r="M95" s="16">
+      <c r="M96" s="16">
         <f t="shared" si="22"/>
         <v>10846.098</v>
       </c>
-      <c r="N95" s="15">
+      <c r="N96" s="15">
         <v>6820.4250000000002</v>
       </c>
-      <c r="O95" s="15">
+      <c r="O96" s="15">
         <v>4025.6729999999998</v>
       </c>
     </row>
-    <row r="96" spans="2:15" hidden="1">
-      <c r="B96" s="7">
+    <row r="97" spans="2:15" hidden="1">
+      <c r="B97" s="7">
         <v>2018</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C97" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D96" s="8">
+      <c r="D97" s="8">
         <f t="shared" si="20"/>
         <v>165319</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E97" s="9">
         <v>123033</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F97" s="9">
         <v>42286</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G97" s="8">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H96" s="9">
-        <v>0</v>
-      </c>
-      <c r="I96" s="9">
-        <v>0</v>
-      </c>
-      <c r="J96" s="8">
+      <c r="H97" s="9">
+        <v>0</v>
+      </c>
+      <c r="I97" s="9">
+        <v>0</v>
+      </c>
+      <c r="J97" s="8">
         <f t="shared" si="19"/>
         <v>35175</v>
       </c>
-      <c r="K96" s="9">
+      <c r="K97" s="9">
         <v>23003</v>
       </c>
-      <c r="L96" s="9">
+      <c r="L97" s="9">
         <v>12172</v>
       </c>
-      <c r="M96" s="10">
+      <c r="M97" s="10">
         <f t="shared" si="22"/>
         <v>12140.277</v>
       </c>
-      <c r="N96" s="9">
+      <c r="N97" s="9">
         <v>7540.7510000000002</v>
       </c>
-      <c r="O96" s="9">
+      <c r="O97" s="9">
         <v>4599.5259999999998</v>
       </c>
-    </row>
-    <row r="97" spans="2:15">
-      <c r="B97" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N97" s="15"/>
     </row>
     <row r="98" spans="2:15">
       <c r="B98" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N98" s="15"/>
-      <c r="O98" s="30"/>
     </row>
     <row r="99" spans="2:15">
       <c r="B99" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N99" s="15"/>
+      <c r="O99" s="30"/>
     </row>
     <row r="100" spans="2:15">
       <c r="B100" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N100" s="15"/>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N100" s="15"/>
-    </row>
-    <row r="101" spans="2:15">
-      <c r="B101" s="31" t="s">
+      <c r="N101" s="15"/>
+    </row>
+    <row r="102" spans="2:15">
+      <c r="B102" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="N101" s="15"/>
-    </row>
-    <row r="102" spans="2:15">
-      <c r="B102" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="N102" s="15"/>
     </row>
     <row r="103" spans="2:15">
       <c r="B103" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15">
+      <c r="B104" s="3" t="s">
         <v>33</v>
       </c>
     </row>
